--- a/data/processed/joined_data.xlsx
+++ b/data/processed/joined_data.xlsx
@@ -8403,396 +8403,389 @@
     <t>GSD IV PK def</t>
   </si>
   <si>
-    <t>Общий анализ крови (флуоресцентная проточная цитометрия + микроскопия мазка при наличии патологических сдвигов) общий  Тесты Тесты Гематологическое исследования крови Гематологическое исследования крови Общий анализ крови (флуоресцентная проточная цитометрия + микроскопия мазка при наличии патологических сдвигов) Общий анализ крови (флуоресцентная проточная цитометрия + микроскопия мазка при наличии патологических сдвигов) Общий анализ крови (флуоресцентная проточная цитометрия + микроскопия мазка при наличии патологических сдвигов) флуоресцентная проточная цитометрия + микроскопия мазка при наличии патологических сдвигов флуоресцентная проточная цитометрия + микроскопия мазка при наличии патологических сдвигов           Длия мелких животных используйте микровету. Доставить не позднее 72 часов после взятия кровь с ЭДТА собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  Пробирка с Сиреневой крышкой / Калий ЭДТА 808  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ретикулоциты кошек терапия  Тесты Тесты Гематологическое исследования крови Гематологическое исследования крови Ретикулоциты кошек Ретикулоциты кошек Ретикулоциты кошек       CAT CAT CAT CAT CAT CAT Длия мелких животных используйте микровету. Доставить не позднее 72 часов после взятия кровь с ЭДТА  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 808  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ретикулоциты собак терапия  Тесты Тесты Гематологическое исследования крови Гематологическое исследования крови Ретикулоциты собак Ретикулоциты собак Ретикулоциты собак       DOG DOG DOG DOG DOG DOG Длия мелких животных используйте микровету. Доставить не позднее 72 часов после взятия кровь с ЭДТА  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 808  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Определение группы крови (кошки), экспресс-тест терапия  Тесты Тесты Гематологическое исследования крови Гематологическое исследования крови Определение группы крови (кошки), экспресс-тест Определение группы крови (кошки), экспресс-тест Определение группы крови (кошки), экспресс-тест кошки кошки     CAT CAT CAT CAT CAT CAT Длия мелких животных используйте микровету. Доставить не позднее 72 часов после взятия кровь с ЭДТА  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 808  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Определение группы крови (собаки), экспресс-тест терапия  Тесты Тесты Гематологическое исследования крови Гематологическое исследования крови Определение группы крови (собаки), экспресс-тест Определение группы крови (собаки), экспресс-тест Определение группы крови (собаки), экспресс-тест собаки собаки     DOG DOG DOG DOG DOG DOG Длия мелких животных используйте микровету. Доставить не позднее 72 часов после взятия кровь с ЭДТА собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 808  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>АЧТВ  терапия ОРИТ отравления кардиология Тесты Тесты Исследование гемостаза Исследование гемостаза АЧТВ  АЧТВ  АЧТВ        PTT PTT PTT PTT PTT PTT  плазма крови (цитрат натрия) собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с белой крышкой 809  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Протромбиновое время терапия ОРИТ отравления кардиология Тесты Тесты Исследование гемостаза Исследование гемостаза Протромбиновое время Протромбиновое время Протромбиновое время       PT PT PT PT PT PT  плазма крови (цитрат натрия) собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с белой крышкой 809  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Фибриноген  терапия ОРИТ отравления кардиология Тесты Тесты Исследование гемостаза Исследование гемостаза Фибриноген  Фибриноген  Фибриноген        FIBR FIBR FIBR FIBR FIBR FIBR  плазма крови (цитрат натрия) собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с белой крышкой 809  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Антитромбин III  терапия ОРИТ отравления кардиология Тесты Тесты Исследование гемостаза Исследование гемостаза Антитромбин III  Антитромбин III  Антитромбин III               плазма крови (цитрат натрия) собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с белой крышкой 809  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>D-димер терапия ОРИТ отравления кардиология Тесты Тесты Исследование гемостаза Исследование гемостаза D-димер D-димер D-димер       DD DD DD DD DD DD  плазма крови (цитрат натрия) собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 809  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Тромбиновое время  терапия ОРИТ отравления кардиология Тесты Тесты Исследование гемостаза Исследование гемостаза Тромбиновое время  Тромбиновое время  Тромбиновое время        TT TT TT TT TT TT  плазма крови (цитрат натрия) собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с белой крышкой 809  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>АЛТ (аланинаминотрансфераза) для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование АЛТ (аланинаминотрансфераза) АЛТ (аланинаминотрансфераза) АЛТ (аланинаминотрансфераза) аланинаминотрансфераза аланинаминотрансфераза     ALT ALT ALT ALT ALT ALT  сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>АСТ (аспартатаминотрансфераза) для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование АСТ (аспартатаминотрансфераза) АСТ (аспартатаминотрансфераза) АСТ (аспартатаминотрансфераза) аспартатаминотрансфераза аспартатаминотрансфераза     AST AST AST AST AST AST  сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Альбумин для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование Альбумин Альбумин Альбумин       ALB ALB ALB ALB ALB ALB  сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Альфа - амилаза  для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование Альфа - амилаза  Альфа - амилаза  Альфа - амилаза        AMY AMY AMY AMY AMY AMY  сыворотка крови собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Билирубин общий для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование Билирубин общий Билирубин общий Билирубин общий              сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Билирубин прямой для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование Билирубин прямой Билирубин прямой Билирубин прямой              сыворотка крови собака кошка морские млекопитающие лошадь хорьки  собака кошка морские млекопитающие лошадь хорьки  собака кошка морские млекопитающие лошадь хорьки  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>ГГТ (гамма-глутамилтрансфераза) для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование ГГТ (гамма-глутамилтрансфераза) ГГТ (гамма-глутамилтрансфераза) ГГТ (гамма-глутамилтрансфераза) гамма-глутамилтрансфераза гамма-глутамилтрансфераза     GGT GGT GGT GGT GGT GGT  сыворотка крови собака кошка морские млекопитающие лошадь хорьки  собака кошка морские млекопитающие лошадь хорьки  собака кошка морские млекопитающие лошадь хорьки  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Глюкоза для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование Глюкоза Глюкоза Глюкоза       GLU GLU GLU GLU GLU GLU  сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Фруктозамин  эндокринология  Тесты Тесты Биохимическое исследование Биохимическое исследование Фруктозамин Фруктозамин Фруктозамин       FRU FRU FRU FRU FRU FRU  сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с красной крышкой, с ГЕЛЕМ 981  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>КФК общая (креатинфосфокиназа) для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование КФК общая (креатинфосфокиназа) КФК общая (креатинфосфокиназа) КФК общая (креатинфосфокиназа) креатинфосфокиназа креатинфосфокиназа     CK CK CK CK CK CK  сыворотка крови собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Липаза панкреатическая (кошки) терапия гастроэнтерология  Тесты Тесты Биохимическое исследование Биохимическое исследование Липаза панкреатическая (кошки) Липаза панкреатическая (кошки) Липаза панкреатическая (кошки) кошки кошки     FPL FPL FPL FPL FPL FPL  сыворотка крови  кошка   кошка   кошка  Пробирка с красной крышкой, с ГЕЛЕМ 908  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Липаза панкреатическая (собаки) терапия гастроэнтерология  Тесты Тесты Биохимическое исследование Биохимическое исследование Липаза панкреатическая (собаки) Липаза панкреатическая (собаки) Липаза панкреатическая (собаки) собаки собаки     CPL CPL CPL CPL CPL CPL  сыворотка крови собака  собака  собака  Пробирка с красной крышкой, с ГЕЛЕМ 908  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Креатинин общий нефрология  Тесты Тесты Биохимическое исследование Биохимическое исследование Креатинин Креатинин Креатинин       CRE CRE CRE CRE CRE CRE  сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>СДМА (Симметричный диметиларгинин) терапия нефрология  Тесты Тесты Биохимическое исследование Биохимическое исследование СДМА (Симметричный диметиларгинин) СДМА (Симметричный диметиларгинин) СДМА (Симметричный диметиларгинин) Симметричный диметиларгинин Симметричный диметиларгинин     SDMA SDMA SDMA SDMA SDMA SDMA  сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с красной крышкой, с ГЕЛЕМ 908  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Липаза общая для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование Липаза общая Липаза общая Липаза общая       LIP LIP LIP LIP LIP LIP  сыворотка крови собака кошка морские млекопитающие хорьки  собака кошка морские млекопитающие хорьки  собака кошка морские млекопитающие хорьки  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>ЛДГ (лактатдегидрогеназа) для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование ЛДГ (лактатдегидрогеназа) ЛДГ (лактатдегидрогеназа) ЛДГ (лактатдегидрогеназа) лактатдегидрогеназа лактатдегидрогеназа     LDH LDH LDH LDH LDH LDH  сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мочевина общий нефрология  Тесты Тесты Биохимическое исследование Биохимическое исследование Мочевина Мочевина Мочевина       UREA UREA UREA UREA UREA UREA  сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мочевая кислота терапия нефрология  Тесты Тесты Биохимическое исследование Биохимическое исследование Мочевая кислота Мочевая кислота Мочевая кислота       UA UA UA UA UA UA  сыворотка крови собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Белок общий для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование Белок общий Белок общий Белок общий       TP TP TP TP TP TP  сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Триглицериды общий гастроэнтерология эндокринология  Тесты Тесты Биохимическое исследование Биохимическое исследование Триглицериды Триглицериды Триглицериды       TG TG TG TG TG TG  сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Холестерин общий гастроэнтерология эндокринология  Тесты Тесты Биохимическое исследование Биохимическое исследование Холестерин Холестерин Холестерин       CHOL CHOL CHOL CHOL CHOL CHOL  сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Щелочная фосфатаза для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование Щелочная фосфатаза Щелочная фосфатаза Щелочная фосфатаза       ALP ALP ALP ALP ALP ALP  сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кальций общий для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование Кальций общий Кальций общий Кальций общий       CA CA CA CA CA CA  сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желчные кислоты (две пробы) терапия гастроэнтерология неврология  Тесты Тесты Биохимическое исследование Биохимическое исследование Желчные кислоты (две пробы) Желчные кислоты (две пробы) Желчные кислоты (две пробы) две пробы две пробы     AC AC AC AC AC AC Профиль из двух проб сыворотка крови собака кошка лошадь  собака кошка лошадь  собака кошка лошадь  Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с красной крышкой, с ГЕЛЕМ 800 *I* 842  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желчные кислоты (одна проба натощак) терапия  Тесты Тесты Биохимическое исследование Биохимическое исследование Желчные кислоты (одна проба натощак) Желчные кислоты (одна проба натощак) Желчные кислоты (одна проба натощак) одна проба натощак одна проба натощак     ACF ACF ACF ACF ACF ACF  сыворотка крови собака кошка лошадь  собака кошка лошадь  собака кошка лошадь  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желчные кислоты (одна проба после еды) терапия  Тесты Тесты Биохимическое исследование Биохимическое исследование Желчные кислоты (одна проба после еды) Желчные кислоты (одна проба после еды) Желчные кислоты (одна проба после еды) одна проба после еды одна проба после еды            сыворотка крови собака кошка лошадь  собака кошка лошадь  собака кошка лошадь  Пробирка с красной крышкой, с ГЕЛЕМ 842  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Электролиты (Калий,натрий,хлор)  общий ОРИТ  Тесты Тесты Биохимическое исследование Биохимическое исследование Электролиты (Калий,натрий,хлор)  Электролиты (Калий,натрий,хлор)  Электролиты (Калий,натрий,хлор)  Калий,натрий,хлор Калий,натрий,хлор     ISE ISE ISE ISE ISE ISE  сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Магний общий ОРИТ  Тесты Тесты Биохимическое исследование Биохимическое исследование Магний Магний Магний       MG MG MG MG MG MG  сыворотка крови собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Фосфор неорганический для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование Фосфор неорганический Фосфор неорганический Фосфор неорганический       PHOS PHOS PHOS PHOS PHOS PHOS  сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Железо терапия  Тесты Тесты Биохимическое исследование Биохимическое исследование Железо Железо Железо       FE FE FE FE FE FE  сыворотка крови собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Определение кетонов в крови тест-полоской терапия эндокринология  Тесты Тесты Биохимическое исследование Биохимическое исследование Определение кетонов в крови тест-полоской Определение кетонов в крови тест-полоской Определение кетонов в крови тест-полоской       KET KET KET KET KET KET  сыворотка крови собака кошка лошадь хорьки  собака кошка лошадь хорьки  собака кошка лошадь хорьки  Пробирка с красной крышкой, с ГЕЛЕМ 908  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кальций ионизированный для всех специальностей Тесты Тесты Биохимическое исследование Биохимическое исследование Кальций ионизированный Кальций ионизированный Кальций ионизированный             Рекомендуем производить взятие крови вакуумом. Пробирку не вскрывать, сыворотку не переливать. сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с красной крышкой, с ГЕЛЕМ 801  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Цинк терапия  Тесты Тесты Биохимическое исследование Биохимическое исследование Цинк Цинк Цинк       ZN ZN ZN ZN ZN ZN  кровь с ЭДТА собака кошка лошадь  собака кошка лошадь  собака кошка лошадь  Пробирка с Сиреневой крышкой / Калий ЭДТА 897  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Медь терапия  Тесты Тесты Биохимическое исследование Биохимическое исследование Медь Медь Медь       CU CU CU CU CU CU  кровь с ЭДТА собака кошка лошадь  собака кошка лошадь  собака кошка лошадь  Пробирка с Сиреневой крышкой / Калий ЭДТА 897  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Исследование желчного камня (ИК-спектрометрия)  гастроэнтерология  Тесты Тесты Исследование конкримента Исследование конкримента Исследование желчного камня (ИК-спектрометрия) Исследование желчного камня (ИК-спектрометрия) Исследование желчного камня (ИК-спектрометрия) ИК-спектрометрия ИК-спектрометрия     КФ КФ КФ КФ КФ КФ  камень собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся приматы  собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся приматы  собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся приматы  Стерильный контейнер с красной крышкой 838 специальных условий не требуется</t>
-  </si>
-  <si>
-    <t>Исследование уролитов (ИК-спектрометрия)  нефрология  Тесты Тесты Исследование конкримента Исследование конкримента Исследование уролитов (ИК-спектрометрия) Исследование уролитов (ИК-спектрометрия) Исследование уролитов (ИК-спектрометрия) ИК-спектрометрия ИК-спектрометрия     ИУ ИУ ИУ ИУ ИУ ИУ  камень собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся приматы  собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся приматы  собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся приматы  Стерильный контейнер с красной крышкой 838 специальных условий не требуется</t>
-  </si>
-  <si>
-    <t>Исследование на уровень кобаламина (цианокобаламина, витамина В12)  гастроэнтерология  Тесты Тесты Витамины Витамины Исследование на уровень кобаламина (цианокобаламина, витамина В12) Исследование на уровень кобаламина (цианокобаламина, витамина В12) Исследование на уровень кобаламина (цианокобаламина, витамина В12) цианокобаламина, витамина В12 цианокобаламина, витамина В12            сыворотка крови собака кошка морские млекопитающие  собака кошка морские млекопитающие  собака кошка морские млекопитающие  Пробирка с белой крышкой 803  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Витамин В9  гастроэнтерология  Тесты Тесты Витамины Витамины Витамин В9 Витамин В9 Витамин В9       FOL FOL FOL FOL FOL FOL  сыворотка крови собака кошка морские млекопитающие  собака кошка морские млекопитающие  собака кошка морские млекопитающие  Пробирка с белой крышкой 803  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Исследование на уровень 25-ОН витамина D  гастроэнтерология эндокринология  Тесты Тесты Витамины Витамины Исследование на уровень 25-ОН витамина D Исследование на уровень 25-ОН витамина D Исследование на уровень 25-ОН витамина D              сыворотка крови собака кошка морские млекопитающие  собака кошка морские млекопитающие  собака кошка морские млекопитающие  Пробирка с белой крышкой 803  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Общий анализ мочи (с микроскопией осадка) общий  Тесты Тесты Клиническое исследование мочи Клиническое исследование мочи Общий анализ мочи (с микроскопией осадка) Общий анализ мочи (с микроскопией осадка) Общий анализ мочи (с микроскопией осадка) с микроскопией осадка с микроскопией осадка            моча  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с желтой крышкой для мочи / Консервант 911  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Соотношение белок / креатинин в моче  нефрология  Тесты Тесты Биохимическое исследование мочи Биохимическое исследование мочи Соотношение белок / креатинин в моче Соотношение белок / креатинин в моче Соотношение белок / креатинин в моче             Мочу не замораживать, белки могут выпадать в осадок. Не использовать консервант. моча  собака кошка лошадь  собака кошка лошадь  собака кошка лошадь  Пробирка с белой крышкой 829  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Глюкоза/креатинин соотношение в моче  эндокринология  Тесты Тесты Биохимическое исследование мочи Биохимическое исследование мочи Глюкоза/креатинин соотношение в моче Глюкоза/креатинин соотношение в моче Глюкоза/креатинин соотношение в моче              Не использовать консервант. моча  собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 829  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Соотношение кортизол / креатинин в моче  эндокринология  Тесты Тесты Биохимическое исследование мочи Биохимическое исследование мочи Соотношение кортизол / креатинин в моче Соотношение кортизол / креатинин в моче Соотношение кортизол / креатинин в моче              моча  собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 829  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Соотношение норметанефрин/креатинин в моче  эндокринология  Тесты Тесты Биохимическое исследование мочи Биохимическое исследование мочи Соотношение норметанефрин/креатинин в моче Соотношение норметанефрин/креатинин в моче Соотношение норметанефрин/креатинин в моче              Не использовать консервант. разовая порция мочи собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой *I* 2 пробирки с белой крышкой  829 *I* 863  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Норметанефрин + метанефрин в суточной моче  эндокринология  Тесты Тесты Биохимическое исследование мочи Биохимическое исследование мочи Норметанефрин + метанефрин в суточной моче Норметанефрин + метанефрин в суточной моче Норметанефрин + метанефрин в суточной моче             Заранее запросить конверт с консервантом. Подготовить  сухуя чистуя ёмкость для сбора мочи(2-3 литра). суточная моча с консервантом собака кошка  собака кошка  собака кошка  2 пробирки с белой крышкой 863  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Фракционная экскреция калия и натрия с мочой  нефрология  Тесты Тесты Биохимическое исследование мочи Биохимическое исследование мочи Фракционная экскреция калия и натрия с мочой Фракционная экскреция калия и натрия с мочой Фракционная экскреция калия и натрия с мочой             Забор крови и мочи должен производиться одномоментно. моча  собака кошка лошадь  собака кошка лошадь  собака кошка лошадь  Пробирка с белой крышкой
-*I* Пробирка с красной крышкой, с ГЕЛЕМ
- 829 *I* 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Паразитологическое исследование фекалий (флотация) общий гастроэнтерология  Тесты Тесты Паразитологическое исследование фекалий Паразитологическое исследование фекалий Паразитологическое исследование фекалий (флотация) Паразитологическое исследование фекалий (флотация) Паразитологическое исследование фекалий (флотация) флотация флотация            фекалии собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  Контейнер для кала с ложечкой 812  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Исследование гельминта терапия  Тесты Тесты Исследование гельминта Исследование гельминта Исследование гельминта Исследование гельминта Исследование гельминта       ИГ ИГ ИГ ИГ ИГ ИГ  гельминт собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  Стерильный контейнер с красной крышкой / 70% спирт 913  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Определение скрытой крови в кале терапия гастроэнтерология  Тесты Тесты Клиничекое исследование фекалий Клиничекое исследование фекалий Определение скрытой крови в кале Определение скрытой крови в кале Определение скрытой крови в кале       СКР СКР СКР СКР СКР СКР  фекалии собака кошка лошадь  собака кошка лошадь  собака кошка лошадь  Контейнер для кала с ложечкой 812  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Контроль лечения дерматомикозов (посев)  дерматология  Тесты Тесты Дерматологическое исследование Дерматологическое исследование Контроль лечения дерматомикозов (посев) Контроль лечения дерматомикозов (посев) Контроль лечения дерматомикозов (посев) посев посев     ПДЕ ПДЕ ПДЕ ПДЕ ПДЕ ПДЕ  шерсть собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с белой крышкой 813  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Исследование на отодектоз терапия дерматология  Тесты Тесты Дерматологическое исследование Дерматологическое исследование Исследование на отодектоз Исследование на отодектоз Исследование на отодектоз       ОТО ОТО ОТО ОТО ОТО ОТО  В капле вазелинового масла содержимое НСП собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Предметное стекло / Контейнер для транспортировки 849  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цитологическое исследование НСП (наружного слухового прохода)  дерматология  Тесты Тесты Дерматологическое исследование Дерматологическое исследование Цитологическое исследование НСП (наружного слухового прохода) Цитологическое исследование НСП (наружного слухового прохода) Цитологическое исследование НСП (наружного слухового прохода) наружного слухового прохода наружного слухового прохода     ЛНСП ЛНСП ЛНСП ЛНСП ЛНСП ЛНСП  В лабораторию поступает 2 стекла с маркировкой L и R мазок-отпечаток из НСП собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Предметное стекло / Контейнер для транспортировки 817  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Исследование на эктопаразитов терапия дерматология  Тесты Тесты Дерматологическое исследование Дерматологическое исследование Исследование на эктопаразитов Исследование на эктопаразитов Исследование на эктопаразитов       ЭКТ ЭКТ ЭКТ ЭКТ ЭКТ ЭКТ  В капле вазелинового масла глубокий соскоб с кожи собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Предметное стекло / Контейнер для транспортировки 872  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цитологическое исследование мазка-отпечатка с кожи  дерматология  Тесты Тесты Дерматологическое исследование Дерматологическое исследование Цитологическое исследование мазка-отпечатка с кожи Цитологическое исследование мазка-отпечатка с кожи Цитологическое исследование мазка-отпечатка с кожи       КОЖ КОЖ КОЖ КОЖ КОЖ КОЖ  мазок-отпечаток с кожи собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Предметное стекло / Контейнер для транспортировки 817  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Исследование на дирофиляриоз, анаплазмоз, боррелиоз, эрлихиоз (SNAP 4D) терапия инфекции кардиология Тесты Тесты Сероголическое исследование Сероголическое исследование Исследование на дирофиляриоз, анаплазмоз, боррелиоз, эрлихиоз (SNAP 4D) Исследование на дирофиляриоз, анаплазмоз, боррелиоз, эрлихиоз (SNAP 4D) Исследование на дирофиляриоз, анаплазмоз, боррелиоз, эрлихиоз (SNAP 4D) SNAP 4D SNAP 4D     SN SN SN SN SN SN  сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с красной крышкой, с ГЕЛЕМ 908  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Исследование на дирофиляриоз (Dirofilaria immitis, определение АГ), собаки терапия кардиология Тесты Тесты Сероголическое исследование Сероголическое исследование Исследование на дирофиляриоз (Dirofilaria immitis, определение АГ), собаки Исследование на дирофиляриоз (Dirofilaria immitis, определение АГ), собаки Исследование на дирофиляриоз (Dirofilaria immitis, определение АГ), собаки Dirofilaria immitis, определение АГ Dirofilaria immitis, определение АГ     DIO DIO DIO DIO DIO DIO  сыворотка крови собака  собака  собака  Пробирка с красной крышкой, с ГЕЛЕМ 908  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Суммарные антитела класса IgG + IgM к Toxoplasma gondii (тИФА)  инфекции  Тесты Тесты Сероголическое исследование Сероголическое исследование Суммарные антитела класса IgG + IgM к Toxoplasma gondii (тИФА) Суммарные антитела класса IgG + IgM к Toxoplasma gondii (тИФА) Суммарные антитела класса IgG + IgM к Toxoplasma gondii (тИФА) тИФА тИФА     TOX TOX TOX TOX TOX TOX  сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с красной крышкой, с ГЕЛЕМ 847  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Антитела класса IgG к коронавирусной инфекции кошек (тИФА)  инфекции  Тесты Тесты Сероголическое исследование Сероголическое исследование Антитела класса IgG к коронавирусной инфекции кошек (тИФА) Антитела класса IgG к коронавирусной инфекции кошек (тИФА) Антитела класса IgG к коронавирусной инфекции кошек (тИФА) тИФА тИФА     CORV CORV CORV CORV CORV CORV  сыворотка крови  кошка   кошка   кошка  Пробирка с красной крышкой, с ГЕЛЕМ 847  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Антитела класса IgG к FIV (Feline immunodeficiency virus) (тИФА) терапия инфекции  Тесты Тесты Сероголическое исследование Сероголическое исследование Антитела класса IgG к FIV (Feline immunodeficiency virus) (тИФА) Антитела класса IgG к FIV (Feline immunodeficiency virus) (тИФА) Антитела класса IgG к FIV (Feline immunodeficiency virus) (тИФА) Feline immunodeficiency virus тИФА Feline immunodeficiency virus тИФА     FIV FIV FIV FIV FIV FIV  сыворотка крови  кошка   кошка   кошка  Пробирка с красной крышкой, с ГЕЛЕМ 847  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Определение антигена р27 FeLv (Feline leukemia virus) (тИФА) терапия инфекции  Тесты Тесты Сероголическое исследование Сероголическое исследование Определение антигена р27 FeLv (Feline leukemia virus) (тИФА) Определение антигена р27 FeLv (Feline leukemia virus) (тИФА) Определение антигена р27 FeLv (Feline leukemia virus) (тИФА) Feline leukemia virus тИФА Feline leukemia virus тИФА     FELV FELV FELV FELV FELV FELV  сыворотка крови  кошка   кошка   кошка  Пробирка с красной крышкой, с ГЕЛЕМ 847  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>ВакциЧек, определение антител класса IgG к аденовирусу тип I (вирусный гепатит собак (СAV I), парвовирусу (CPV), чуме плотоядных (CDV) терапия инфекции  Тесты Тесты Сероголическое исследование Сероголическое исследование ВакциЧек, определение антител класса IgG к аденовирусу тип I (вирусный гепатит собак (СAV I), парвовирусу (CPV), чуме плотоядных (CDV) ВакциЧек, определение антител класса IgG к аденовирусу тип I (вирусный гепатит собак (СAV I), парвовирусу (CPV), чуме плотоядных (CDV) ВакциЧек, определение антител класса IgG к аденовирусу тип I (вирусный гепатит собак (СAV I), парвовирусу (CPV), чуме плотоядных (CDV) СAV I CPV CDV СAV I CPV CDV     ЧЕК ЧЕК ЧЕК ЧЕК ЧЕК ЧЕК  сыворотка крови собака  собака  собака  Пробирка с красной крышкой, с ГЕЛЕМ 908  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>ВакциЧек, определение антител класса IgG к вирусу панлейкопении (FPV), калицивирусу (FCV), герпес вирусу (FHV) терапия инфекции  Тесты Тесты Сероголическое исследование Сероголическое исследование ВакциЧек, определение антител класса IgG к вирусу панлейкопении (FPV), калицивирусу (FCV), герпес вирусу (FHV) ВакциЧек, определение антител класса IgG к вирусу панлейкопении (FPV), калицивирусу (FCV), герпес вирусу (FHV) ВакциЧек, определение антител класса IgG к вирусу панлейкопении (FPV), калицивирусу (FCV), герпес вирусу (FHV) FPV FCV FHV FPV FCV FHV     ЧЕК ЧЕК ЧЕК ЧЕК ЧЕК ЧЕК  сыворотка крови  кошка   кошка   кошка  Пробирка с красной крышкой, с ГЕЛЕМ 908  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Определение титра антител к бешенству (сертификат) терапия  Тесты Тесты Сероголическое исследование Сероголическое исследование Определение титра антител к бешенству (сертификат) Определение титра антител к бешенству (сертификат) Определение титра антител к бешенству (сертификат) сертификат сертификат     RAB RAB RAB RAB RAB RAB  сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 857  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Определение титра антител к бешенству CITO (сертификат) терапия  Тесты Тесты Сероголическое исследование Сероголическое исследование Определение титра антител к бешенству CITO (сертификат) Определение титра антител к бешенству CITO (сертификат) Определение титра антител к бешенству CITO (сертификат) сертификат сертификат     RABCT RABCT RABCT RABCT RABCT RABCT  сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 857  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>С-реактивный белок (собаки) терапия  Тесты Тесты Специфические белки Специфические белки С-реактивный белок (собаки) С-реактивный белок (собаки) С-реактивный белок (собаки) собаки собаки     CRP CRP CRP CRP CRP CRP Только для собак сыворотка крови собака  собака  собака  Пробирка с красной крышкой, с ГЕЛЕМ 908  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>SAA (Сывороточный амилоид А (кошки)) терапия  Тесты Тесты Специфические белки Специфические белки SAA (Сывороточный амилоид А (кошки)) SAA (Сывороточный амилоид А (кошки)) SAA (Сывороточный амилоид А (кошки)) кошки кошки     SAA SAA SAA SAA SAA SAA Только для кошек сыворотка крови  кошка   кошка   кошка  Пробирка с красной крышкой, с ГЕЛЕМ 908  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Тропонин I  кардиология Тесты Тесты Специфические белки Специфические белки Тропонин I Тропонин I Тропонин I       TPI TPI TPI TPI TPI TPI Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка лошадь хорьки  собака кошка лошадь хорьки  собака кошка лошадь хорьки  Пробирка с белой крышкой 862  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Т4 общий (тироксин) терапия эндокринология  Тесты Тесты Гормональное исследование Гормональное исследование Т4 общий (тироксин) Т4 общий (тироксин) Т4 общий (тироксин) тироксин тироксин           Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка хорьки  собака кошка хорьки  собака кошка хорьки  Пробирка с белой крышкой 891  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>ТТГ собак (тиреотропный гормон)  эндокринология  Тесты Тесты Гормональное исследование Гормональное исследование ТТГ собак (тиреотропный гормон) ТТГ собак (тиреотропный гормон) ТТГ собак (тиреотропный гормон) тиреотропный гормон тиреотропный гормон     TSH TSH TSH TSH TSH TSH Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака  собака  собака  Пробирка с белой крышкой 891  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Эстрадиол  эндокринология репродуктология  Тесты Тесты Гормональное исследование Гормональное исследование Эстрадиол Эстрадиол Эстрадиол             Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка морские млекопитающие лошадь хорьки  собака кошка морские млекопитающие лошадь хорьки  собака кошка морские млекопитающие лошадь хорьки  Пробирка с белой крышкой 803  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Эстрадиол   Тесты Тесты Гормональное исследование Гормональное исследование Эстрадиол Эстрадиол Эстрадиол             Минимальный объем сыворотки – 0,5 мл. сыворотка крови       Пробирка с белой крышкой 871  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Прогестерон   эндокринология репродуктология  Тесты Тесты Гормональное исследование Гормональное исследование Прогестерон  Прогестерон  Прогестерон        PGN PGN PGN PGN PGN PGN Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с белой крышкой 803  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Тестостерон  эндокринология репродуктология  Тесты Тесты Гормональное исследование Гормональное исследование Тестостерон Тестостерон Тестостерон       TES TES TES TES TES TES Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с белой крышкой 803  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кортизол терапия эндокринология репродуктология  Тесты Тесты Гормональное исследование Гормональное исследование Кортизол Кортизол Кортизол       COR COR COR COR COR COR Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с белой крышкой 803  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Малая/Большая дексаметазоновая проба терапия эндокринология  Тесты Тесты Гормональное исследование Гормональное исследование Малая/Большая дексаметазоновая проба Малая/Большая дексаметазоновая проба Малая/Большая дексаметазоновая проба       ДМП ДМП ДМП ДМП ДМП ДМП В лабораторию поступают три пробы для определения кортизола сыворотка крови собака кошка лошадь  собака кошка лошадь  собака кошка лошадь  Пробирка с белой крышкой *I* Пробирка с белой крышкой *I* Пробирка с белой крышко 803 *I* 843 *I* 846  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>АКТГ (адренокортикотропный гормон)  эндокринология  Тесты Тесты Гормональное исследование Гормональное исследование АКТГ (адренокортикотропный гормон) АКТГ (адренокортикотропный гормон) АКТГ (адренокортикотропный гормон) адренокортикотропный гормон адренокортикотропный гормон     ACT ACT ACT ACT ACT ACT Перед взятие крови пробирку с сиреневой крышкой охладить. плазма крови (ЭДТА) собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 804  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Паратиреоидный гормон (ПТГ)  эндокринология  Тесты Тесты Гормональное исследование Гормональное исследование Паратиреоидный гормон (ПТГ) Паратиреоидный гормон (ПТГ) Паратиреоидный гормон (ПТГ) ПТГ ПТГ     PTH PTH PTH PTH PTH PTH Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 810  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Инсулин  эндокринология  Тесты Тесты Гормональное исследование Гормональное исследование Инсулин Инсулин Инсулин       INS INS INS INS INS INS Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с белой крышкой 811  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Соматомедин С (инсулиноподобный фактор роста-1, ИФР-1)  эндокринология  Тесты Тесты Гормональное исследование Гормональное исследование Соматомедин С (инсулиноподобный фактор роста-1, ИФР-1) Соматомедин С (инсулиноподобный фактор роста-1, ИФР-1) Соматомедин С (инсулиноподобный фактор роста-1, ИФР-1) инсулиноподобный фактор роста-1, ИФР-1 инсулиноподобный фактор роста-1, ИФР-1           Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 890  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Андростендион  эндокринология  Тесты Тесты Гормональное исследование Гормональное исследование Андростендион Андростендион Андростендион       AND AND AND AND AND AND Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка хорьки  собака кошка хорьки  собака кошка хорьки  Пробирка с белой крышкой 890  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Альдостерон  эндокринология  Тесты Тесты Гормональное исследование Гормональное исследование Альдостерон Альдостерон Альдостерон       ALD ALD ALD ALD ALD ALD Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка морские млекопитающие  собака кошка морские млекопитающие  собака кошка морские млекопитающие  Пробирка с белой крышкой 890  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Гастрин  гастроэнтерология эндокринология  Тесты Тесты Гормональное исследование Гормональное исследование Гастрин Гастрин Гастрин       GAS GAS GAS GAS GAS GAS Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 814  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Антимюллеров гормон  эндокринология репродуктология  Тесты Тесты Гормональное исследование Гормональное исследование Антимюллеров гормон Антимюллеров гормон Антимюллеров гормон       AM AM AM AM AM AM Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка хорьки  собака кошка хорьки  собака кошка хорьки  Пробирка с белой крышкой 862  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Рениновая активность (PRA)  эндокринология нефрология  Тесты Тесты Гормональное исследование Гормональное исследование Рениновая активность (PRA) Рениновая активность (PRA) Рениновая активность (PRA) PRA PRA     PRA PRA PRA PRA PRA PRA Перед взятие крови пробирку с сиреневой крышкой охладить. плазма крови (ЭДТА) собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 804  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>17-ОН прогестерон   эндокринология  Тесты Тесты Гормональное исследование Гормональное исследование 17-ОН прогестерон  17-ОН прогестерон  17-ОН прогестерон        OHP OHP OHP OHP OHP OHP Минимальный объем сыворотки – 0,5 мл. сыворотка крови  хорьки   хорьки   хорьки  Пробирка с белой крышкой 865  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Вагинальная цитология (определение фазы эстрального цикла)  репродуктология  Тесты Тесты Репродуктология Репродуктология Вагинальная цитология (определение фазы эстрального цикла) Вагинальная цитология (определение фазы эстрального цикла) Вагинальная цитология (определение фазы эстрального цикла) определение фазы эстрального цикла определение фазы эстрального цикла     ЦИТ ЦИТ ЦИТ ЦИТ ЦИТ ЦИТ Только для собак. Укажите день последней течки. вагинальная цитология собака  собака  собака  Предметное стекло / Контейнер для транспортировки 840  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогестерон, определение овуляции  репродуктология  Тесты Тесты Репродуктология Репродуктология Прогестерон, определение овуляции Прогестерон, определение овуляции Прогестерон, определение овуляции       OPGN OPGN OPGN OPGN OPGN OPGN Только для собак сыворотка крови собака  собака  собака  Пробирка с белой крышкой 856  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Фенобарбитал  неврология  Тесты Тесты Лекарственный мониторинг Лекарственный мониторинг Фенобарбитал Фенобарбитал Фенобарбитал       PHE PHE PHE PHE PHE PHE Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 889  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Фенитоин  неврология  Тесты Тесты Лекарственный мониторинг Лекарственный мониторинг Фенитоин Фенитоин Фенитоин       PHNY PHNY PHNY PHNY PHNY PHNY Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 807  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вальпроевая кислота  неврология  Тесты Тесты Лекарственный мониторинг Лекарственный мониторинг Вальпроевая кислота Вальпроевая кислота Вальпроевая кислота       VALP VALP VALP VALP VALP VALP Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 803  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Карбамазепин  неврология  Тесты Тесты Лекарственный мониторинг Лекарственный мониторинг Карбамазепин Карбамазепин Карбамазепин       CARB CARB CARB CARB CARB CARB Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 807  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дигоксин (сыворотка)  кардиология Тесты Тесты Лекарственный мониторинг Лекарственный мониторинг Дигоксин (сыворотка) Дигоксин (сыворотка) Дигоксин (сыворотка) сыворотка сыворотка     DIG DIG DIG DIG DIG DIG Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 814  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Дигоксин (моча)  кардиология Тесты Тесты Лекарственный мониторинг Лекарственный мониторинг Дигоксин (моча) Дигоксин (моча) Дигоксин (моча) моча моча     DIGPU DIGPU DIGPU DIGPU DIGPU DIGPU  Не использовать консервант. моча  собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 848  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Леветирацетам  неврология  Тесты Тесты Лекарственный мониторинг Лекарственный мониторинг Леветирацетам Леветирацетам Леветирацетам       LEV LEV LEV LEV LEV LEV Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 807  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Лекарственный мониторинг вещества не входящего в перечень препаратов терапия неврология  Тесты Тесты Лекарственный мониторинг Лекарственный мониторинг Лекарственный мониторинг вещества не входящего в перечень препаратов Лекарственный мониторинг вещества не входящего в перечень препаратов Лекарственный мониторинг вещества не входящего в перечень препаратов       LEV LEV LEV LEV LEV LEV Необходимо предварительное согласование и образец принимаемого препарата сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с белой крышкой 807  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Циклоспорин терапия гастроэнтерология онкология дерматология  Тесты Тесты Лекарственный мониторинг Лекарственный мониторинг Циклоспорин Циклоспорин Циклоспорин       CYC CYC CYC CYC CYC CYC  кровь с ЭДТА собака кошка  собака кошка  собака кошка  Пробирка с сиреневой крышкой / Калий ЭДТА 806  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Заключение о типе выпота (транссудаты и экссудаты (биохимия + цитологическое исследование осадка, клеточный состав, включая описание атипичных/опухолевых клеток)) терапия инфекции онкология кардиология Тесты Тесты Цитологическое исследование Цитологическое исследование Заключение о типе выпота (транссудаты и экссудаты (биохимия + цитологическое исследование осадка, клеточный состав, включая описание атипичных/опухолевых клеток)) Заключение о типе выпота (транссудаты и экссудаты (биохимия + цитологическое исследование осадка, клеточный состав, включая описание атипичных/опухолевых клеток)) Заключение о типе выпота (транссудаты и экссудаты (биохимия + цитологическое исследование осадка, клеточный состав, включая описание атипичных/опухолевых клеток)) биохимия + цитологическое исследование осадка, клеточный состав, включая описание атипичных/опухолевых клеток биохимия + цитологическое исследование осадка, клеточный состав, включая описание атипичных/опухолевых клеток            выпотная жидкость собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с сиреневой крышкой / Калий ЭДТА + Предметное стекло + Контейнер для транспортировки *I* Пробирка с красной крышкой, с ГЕЛЕМ
- 836 *I* 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цитологическое исследование (пунктаты, биоптаты, кроме костного мозга) терапия  Тесты Тесты Цитологическое исследование Цитологическое исследование Цитологическое исследование (пунктаты, биоптаты, кроме костного мозга) Цитологическое исследование (пунктаты, биоптаты, кроме костного мозга) Цитологическое исследование (пунктаты, биоптаты, кроме костного мозга) пунктаты, биоптаты, кроме костного мозга пунктаты, биоптаты, кроме костного мозга     ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ  мазки -отпечатки, пунктат собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  Предметное стекло / Контейнер для транспортировки 837  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цитологическое исследование бронхоальвеолярного лаважа терапия респирторная система инфекции  Тесты Тесты Цитологическое исследование Цитологическое исследование Цитологическое исследование бронхоальвеолярного лаважа Цитологическое исследование бронхоальвеолярного лаважа Цитологическое исследование бронхоальвеолярного лаважа       ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ  БАЛ  собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  Пробирка с сиреневой крышкой / Калий ЭДТА + Предметное стекло + Контейнер для транспортировки 831  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цитологическое исследование венозной крови (наличие патологических клеток + общий анализ крови) терапия инфекции онкология  Тесты Тесты Цитологическое исследование Цитологическое исследование Цитологическое исследование венозной крови (наличие патологических клеток + общий анализ крови) Цитологическое исследование венозной крови (наличие патологических клеток + общий анализ крови) Цитологическое исследование венозной крови (наличие патологических клеток + общий анализ крови) наличие патологических клеток + общий анализ крови наличие патологических клеток + общий анализ крови     КРВ КРВ КРВ КРВ КРВ КРВ  кровь с ЭДТА собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Пробирка с Сиреневой крышкой / Калий ЭДТА 808  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цитологическое исследование костного мозга (включает общий анализ крови (одновременно со взятием костного мозга взять пробу цельной крови)) терапия инфекции онкология  Тесты Тесты Цитологическое исследование Цитологическое исследование Цитологическое исследование костного мозга (включает общий анализ крови (одновременно со взятием костного мозга взять пробу цельной крови)) Цитологическое исследование костного мозга (включает общий анализ крови (одновременно со взятием костного мозга взять пробу цельной крови)) Цитологическое исследование костного мозга (включает общий анализ крови (одновременно со взятием костного мозга взять пробу цельной крови)) одновременно со взятием костного мозга взять пробу цельной крови одновременно со взятием костного мозга взять пробу цельной крови     ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ  КМ + кровь с ЭДТА собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Пробирка с сиреневой крышкой / Калий ЭДТА + Предметное стекло + Контейнер для транспортировки 837  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цитологическое исследование мочи терапия онкология нефрология  Тесты Тесты Цитологическое исследование Цитологическое исследование Цитологическое исследование мочи Цитологическое исследование мочи Цитологическое исследование мочи   урогенитальный соскоб урогенитальный соскоб урогенитальный соскоб урогенитальный соскоб УРО УРО УРО УРО УРО УРО  моча собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  Пробирка с белой крышкой 805  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цитологическое исследование синовиальной жидкости терапия инфекции  Тесты Тесты Цитологическое исследование Цитологическое исследование Цитологическое исследование синовиальной жидкости Цитологическое исследование синовиальной жидкости Цитологическое исследование синовиальной жидкости   синовиальная жидкость суставная жидкость синовий синовиальная жидкость суставная жидкость синовий синовиальная жидкость суставная жидкость синовий синовиальная жидкость суставная жидкость синовий СИН СИН СИН СИН СИН СИН  синовия собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Пробирка с Сиреневой крышкой / Калий ЭДТА 902  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гистологическое заключение патолога (приготовление препарата до 2 блоков, до 2 стекол + описательная часть)   онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Гистологическое заключение патолога (приготовление препарата до 2 блоков, до 2 стекол + описательная часть)  Гистологическое заключение патолога (приготовление препарата до 2 блоков, до 2 стекол + описательная часть)  Гистологическое заключение патолога (приготовление препарата до 2 блоков, до 2 стекол + описательная часть)  приготовление препарата до 2 блоков, до 2 стекол + описательная часть приготовление препарата до 2 блоков, до 2 стекол + описательная часть            кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Флакон для транспортировки гистологического материала HISTOPOT 824  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гистологическое заключение патолога (приготовление препарата до 6 блоков, до 6 стекол + описательная часть   онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Гистологическое заключение патолога (приготовление препарата до 6 блоков, до 6 стекол + описательная часть  Гистологическое заключение патолога (приготовление препарата до 6 блоков, до 6 стекол + описательная часть  Гистологическое заключение патолога (приготовление препарата до 6 блоков, до 6 стекол + описательная часть               кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Флакон для транспортировки гистологического материала HISTOPOT 824  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гистологическое исследование кожи (приготовление препарата до 6 блоков, до 6 стекол + описательная часть)  дерматология  Тесты Тесты Гистологическое исследование Гистологическое исследование Гистологическое исследование кожи (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) Гистологическое исследование кожи (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) Гистологическое исследование кожи (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) приготовление препарата до 6 блоков, до 6 стекол + описательная часть приготовление препарата до 6 блоков, до 6 стекол + описательная часть            кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Флакон для транспортировки гистологического материала HISTOPOT 824  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гистологическое исследование для экзотических животных (приготовление препарата до 6 блоков, до 6 стекол + описательная часть)  экзоты онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Гистологическое исследование для экзотических животных (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) Гистологическое исследование для экзотических животных (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) Гистологическое исследование для экзотических животных (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) приготовление препарата до 6 блоков, до 6 стекол + описательная часть приготовление препарата до 6 блоков, до 6 стекол + описательная часть            кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Флакон для транспортировки гистологического материала HISTOPOT 824  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гистологическое исследование головного и спинного мозга (приготовление препарата до 6 блоков, до 6 стекол + описательная часть)  онкология неврология  Тесты Тесты Гистологическое исследование Гистологическое исследование Гистологическое исследование головного и спинного мозга (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) Гистологическое исследование головного и спинного мозга (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) Гистологическое исследование головного и спинного мозга (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) приготовление препарата до 6 блоков, до 6 стекол + описательная часть приготовление препарата до 6 блоков, до 6 стекол + описательная часть            кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Флакон для транспортировки гистологического материала HISTOPOT 824  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гистологическое заключение патолога(Европа, США, Канада) (приготовление препарата до 2 блоков, до 2 стекол + сканирование стекол + описательная часть) терапия онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Гистологическое заключение патолога(Европа, США, Канада) (приготовление препарата до 2 блоков, до 2 стекол + сканирование стекол + описательная часть) Гистологическое заключение патолога(Европа, США, Канада) (приготовление препарата до 2 блоков, до 2 стекол + сканирование стекол + описательная часть) Гистологическое заключение патолога(Европа, США, Канада) (приготовление препарата до 2 блоков, до 2 стекол + сканирование стекол + описательная часть) Европа, США, Канада приготовление препарата до 2 блоков, до 2 стекол + сканирование стекол + описательная часть Европа, США, Канада приготовление препарата до 2 блоков, до 2 стекол + сканирование стекол + описательная часть            кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Флакон для транспортировки гистологического материала HISTOPOT 824  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гистологическое заключение патолога(Европа, США, Канада) (приготовление препарата(костные фрагменты) до 2 блоков, до 2 стекол + сканирование стекол + описательная часть) терапия онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Гистологическое заключение патолога(Европа, США, Канада) (приготовление препарата(костные фрагменты) до 2 блоков, до 2 стекол + сканирование стекол + описательная часть) Гистологическое заключение патолога(Европа, США, Канада) (приготовление препарата(костные фрагменты) до 2 блоков, до 2 стекол + сканирование стекол + описательная часть) Гистологическое заключение патолога(Европа, США, Канада) (приготовление препарата(костные фрагменты) до 2 блоков, до 2 стекол + сканирование стекол + описательная часть) Европа, США, Канада костные фрагменты Европа, США, Канада костные фрагменты            кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Флакон для транспортировки гистологического материала HISTOPOT 824  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гистологическое исследование некропсийного материала (приготовление препарата до 24 блоков, до 24 стекол + описательная часть) терапия онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Гистологическое исследование некропсийного материала (приготовление препарата до 24 блоков, до 24 стекол + описательная часть) Гистологическое исследование некропсийного материала (приготовление препарата до 24 блоков, до 24 стекол + описательная часть) Гистологическое исследование некропсийного материала (приготовление препарата до 24 блоков, до 24 стекол + описательная часть) приготовление препарата до 24 блоков, до 24 стекол + описательная часть приготовление препарата до 24 блоков, до 24 стекол + описательная часть            кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Флакон для транспортировки гистологического материала HISTOPOT 824  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гистологическое заключение патолога(Европа, США, Канада) (сканирование готового стекла + описательная часть) терапия онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Гистологическое заключение патолога(Европа, США, Канада) (сканирование готового стекла + описательная часть) Гистологическое заключение патолога(Европа, США, Канада) (сканирование готового стекла + описательная часть) Гистологическое заключение патолога(Европа, США, Канада) (сканирование готового стекла + описательная часть) Европа, США, Канада сканирование готового стекла + описательная часть Европа, США, Канада сканирование готового стекла + описательная часть            кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Предметное стекло / Контейнер для транспортировки 850  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Консультация патолога (Россия) по стеклам с заключением терапия онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Консультация патолога (Россия) по стеклам с заключением Консультация патолога (Россия) по стеклам с заключением Консультация патолога (Россия) по стеклам с заключением Россия Россия     ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ  кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Предметное стекло / Контейнер для транспортировки 850  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Изготовление препарата до стекла с окрашиванием (до 2 блоков, до 2 стекол) терапия онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Изготовление препарата до стекла с окрашиванием (до 2 блоков, до 2 стекол) Изготовление препарата до стекла с окрашиванием (до 2 блоков, до 2 стекол) Изготовление препарата до стекла с окрашиванием (до 2 блоков, до 2 стекол) до 2 блоков, до 2 стекол до 2 блоков, до 2 стекол     ГИИ ГИИ ГИИ ГИИ ГИИ ГИИ  кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Флакон для транспортировки гистологического материала HISTOPOT 824  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Изготовление препарата до стекла с окрашиванием (до 6 блоков, до 6 стекол) терапия онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Изготовление препарата до стекла с окрашиванием (до 6 блоков, до 6 стекол) Изготовление препарата до стекла с окрашиванием (до 6 блоков, до 6 стекол) Изготовление препарата до стекла с окрашиванием (до 6 блоков, до 6 стекол) до 6 блоков, до 6 стекол до 6 блоков, до 6 стекол     ГИИ ГИИ ГИИ ГИИ ГИИ ГИИ  кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Флакон для транспортировки гистологического материала HISTOPOT 824  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Изготовление препарата до стекла с окрашиванием (до 24 блоков, до 24 стекол) терапия онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Изготовление препарата до стекла с окрашиванием (до 24 блоков, до 24 стекол) Изготовление препарата до стекла с окрашиванием (до 24 блоков, до 24 стекол) Изготовление препарата до стекла с окрашиванием (до 24 блоков, до 24 стекол) до 24 блоков, до 24 стекол до 24 блоков, до 24 стекол     ГИИ ГИИ ГИИ ГИИ ГИИ ГИИ  кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Флакон для транспортировки гистологического материала HISTOPOT 824  +2°С…+8°С</t>
+    <t>Общий анализ крови (флуоресцентная проточная цитометрия + микроскопия мазка при наличии патологических сдвигов) Общий анализ крови (флуоресцентная проточная цитометрия + микроскопия мазка при наличии патологических сдвигов) Гематологическое исследования крови Гематологическое исследования крови общий Тесты флуоресцентная проточная цитометрия + микроскопия мазка при наличии патологических сдвигов флуоресцентная проточная цитометрия + микроскопия мазка при наличии патологических сдвигов Длия мелких животных используйте микровету. Доставить не позднее 72 часов после взятия кровь с ЭДТА собака кошка лошадь хорьки грызуны кролики Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С FLOWCYTO ФЦ Цитология ФЦ FlowCyto Цитология ОАК Гематология</t>
+  </si>
+  <si>
+    <t>Ретикулоциты кошек Ретикулоциты кошек Гематологическое исследования крови Гематологическое исследования крови терапия Тесты CAT CAT Длия мелких животных используйте микровету. Доставить не позднее 72 часов после взятия кровь с ЭДТА кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С RETICS Рети Гематология РЕТИ Retics Гематология</t>
+  </si>
+  <si>
+    <t>Ретикулоциты собак Ретикулоциты собак Гематологическое исследования крови Гематологическое исследования крови терапия Тесты DOG DOG Длия мелких животных используйте микровету. Доставить не позднее 72 часов после взятия кровь с ЭДТА кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С RETICS Рети Гематология РЕТИ Retics Гематология</t>
+  </si>
+  <si>
+    <t>Определение группы крови (кошки), экспресс-тест Определение группы крови (кошки), экспресс-тест Гематологическое исследования крови Гематологическое исследования крови терапия Тесты кошки кошки CAT CAT Длия мелких животных используйте микровету. Доставить не позднее 72 часов после взятия кровь с ЭДТА кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С SNAP Иммунология/Экспресс</t>
+  </si>
+  <si>
+    <t>Определение группы крови (собаки), экспресс-тест Определение группы крови (собаки), экспресс-тест Гематологическое исследования крови Гематологическое исследования крови терапия Тесты собаки собаки DOG DOG Длия мелких животных используйте микровету. Доставить не позднее 72 часов после взятия кровь с ЭДТА собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С SNAP Иммунология/Экспресс</t>
+  </si>
+  <si>
+    <t>АЧТВ АЧТВ Исследование гемостаза Исследование гемостаза терапия ОРИТ отравления кардиология Тесты PTT PTT плазма крови (цитрат натрия) собака кошка морские млекопитающие лошадь Пробирка с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Протромбиновое время Протромбиновое время Исследование гемостаза Исследование гемостаза терапия ОРИТ отравления кардиология Тесты PT PT плазма крови (цитрат натрия) собака кошка морские млекопитающие лошадь Пробирка с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Фибриноген Фибриноген Исследование гемостаза Исследование гемостаза терапия ОРИТ отравления кардиология Тесты FIBR FIBR плазма крови (цитрат натрия) собака кошка морские млекопитающие лошадь Пробирка с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Антитромбин III Антитромбин III Исследование гемостаза Исследование гемостаза терапия ОРИТ отравления кардиология Тесты плазма крови (цитрат натрия) собака кошка морские млекопитающие лошадь Пробирка с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>D-димер D-димер Исследование гемостаза Исследование гемостаза терапия ОРИТ отравления кардиология Тесты DD DD плазма крови (цитрат натрия) собака кошка Пробирка с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Тромбиновое время Тромбиновое время Исследование гемостаза Исследование гемостаза терапия ОРИТ отравления кардиология Тесты TT TT плазма крови (цитрат натрия) собака кошка морские млекопитающие лошадь Пробирка с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>АЛТ (аланинаминотрансфераза) АЛТ (аланинаминотрансфераза) Биохимическое исследование Биохимическое исследование для всех специальностей Тесты аланинаминотрансфераза аланинаминотрансфераза ALT ALT сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ALT АЛТ Фермент АЛТ ALT Фермент</t>
+  </si>
+  <si>
+    <t>АСТ (аспартатаминотрансфераза) АСТ (аспартатаминотрансфераза) Биохимическое исследование Биохимическое исследование для всех специальностей Тесты аспартатаминотрансфераза аспартатаминотрансфераза AST AST сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С AST АСТ Фермент АСТ AST Фермент</t>
+  </si>
+  <si>
+    <t>Альбумин Альбумин Биохимическое исследование Биохимическое исследование для всех специальностей Тесты ALB ALB сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ALB Биохимия АЛЬБ Белки</t>
+  </si>
+  <si>
+    <t>Альфа - амилаза Альфа - амилаза Биохимическое исследование Биохимическое исследование для всех специальностей Тесты AMY AMY сыворотка крови собака кошка морские млекопитающие лошадь Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С АМИЛАЗА Фермент</t>
+  </si>
+  <si>
+    <t>Билирубин общий Билирубин общий Биохимическое исследование Биохимическое исследование для всех специальностей Тесты сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С БИЛИР Пигменты</t>
+  </si>
+  <si>
+    <t>Билирубин прямой Билирубин прямой Биохимическое исследование Биохимическое исследование для всех специальностей Тесты сыворотка крови собака кошка морские млекопитающие лошадь хорьки Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С БИЛИР Пигменты</t>
+  </si>
+  <si>
+    <t>ГГТ (гамма-глутамилтрансфераза) ГГТ (гамма-глутамилтрансфераза) Биохимическое исследование Биохимическое исследование для всех специальностей Тесты гамма-глутамилтрансфераза гамма-глутамилтрансфераза GGT GGT сыворотка крови собака кошка морские млекопитающие лошадь хорьки Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С GGT ГГТ Биохимия ГГТ GGT Биохимия</t>
+  </si>
+  <si>
+    <t>Глюкоза Глюкоза Биохимическое исследование Биохимическое исследование для всех специальностей Тесты GLU GLU сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ГЛЮКОЗА Углеводы</t>
+  </si>
+  <si>
+    <t>Фруктозамин Фруктозамин Биохимическое исследование Биохимическое исследование эндокринология Тесты FRU FRU сыворотка крови собака кошка Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>КФК общая (креатинфосфокиназа) КФК общая (креатинфосфокиназа) Биохимическое исследование Биохимическое исследование для всех специальностей Тесты креатинфосфокиназа креатинфосфокиназа CK CK сыворотка крови собака кошка морские млекопитающие лошадь Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Креатинин Creatinine, CREA</t>
+  </si>
+  <si>
+    <t>Липаза панкреатическая (кошки) Липаза панкреатическая (кошки) Биохимическое исследование Биохимическое исследование терапия гастроэнтерология Тесты кошки кошки FPL FPL сыворотка крови кошка Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Креатинин Creatinine, CREA ЛИПАЗА Фермент</t>
+  </si>
+  <si>
+    <t>Липаза панкреатическая (собаки) Липаза панкреатическая (собаки) Биохимическое исследование Биохимическое исследование терапия гастроэнтерология Тесты собаки собаки CPL CPL сыворотка крови собака Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Креатинин Creatinine, CREA ЛИПАЗА Фермент</t>
+  </si>
+  <si>
+    <t>Креатинин Креатинин Биохимическое исследование Биохимическое исследование общий нефрология Тесты CRE CRE сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С CREA Биохимия КРЕАТ Азотистый обмен</t>
+  </si>
+  <si>
+    <t>СДМА (Симметричный диметиларгинин) СДМА (Симметричный диметиларгинин) Биохимическое исследование Биохимическое исследование терапия нефрология Тесты Симметричный диметиларгинин Симметричный диметиларгинин SDMA SDMA сыворотка крови собака кошка Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С SDMA Почечный маркер</t>
+  </si>
+  <si>
+    <t>Липаза общая Липаза общая Биохимическое исследование Биохимическое исследование для всех специальностей Тесты LIP LIP сыворотка крови собака кошка морские млекопитающие хорьки Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ЛИПАЗА Фермент</t>
+  </si>
+  <si>
+    <t>ЛДГ (лактатдегидрогеназа) ЛДГ (лактатдегидрогеназа) Биохимическое исследование Биохимическое исследование для всех специальностей Тесты лактатдегидрогеназа лактатдегидрогеназа LDH LDH сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С LDH ЛДГ Биохимия ЛДГ LDH Биохимия</t>
+  </si>
+  <si>
+    <t>Мочевина Мочевина Биохимическое исследование Биохимическое исследование общий нефрология Тесты UREA UREA сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С BUN Биохимия МОЧЕВИНА Азотистый обмен</t>
+  </si>
+  <si>
+    <t>Мочевая кислота Мочевая кислота Биохимическое исследование Биохимическое исследование терапия нефрология Тесты UA UA сыворотка крови собака кошка морские млекопитающие лошадь Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С МК Азотистый обмен</t>
+  </si>
+  <si>
+    <t>Белок общий Белок общий Биохимическое исследование Биохимическое исследование для всех специальностей Тесты TP TP сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Триглицериды Триглицериды Биохимическое исследование Биохимическое исследование общий гастроэнтерология эндокринология Тесты TG TG сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ТРИГЛИЦ Липиды</t>
+  </si>
+  <si>
+    <t>Холестерин Холестерин Биохимическое исследование Биохимическое исследование общий гастроэнтерология эндокринология Тесты CHOL CHOL сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ХСОЛ Липиды</t>
+  </si>
+  <si>
+    <t>Щелочная фосфатаза Щелочная фосфатаза Биохимическое исследование Биохимическое исследование для всех специальностей Тесты ALP ALP сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ЩФ АЛП Биохимия АЛП ЩФ Фермент</t>
+  </si>
+  <si>
+    <t>Кальций общий Кальций общий Биохимическое исследование Биохимическое исследование для всех специальностей Тесты CA CA сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С CA Минералы</t>
+  </si>
+  <si>
+    <t>Желчные кислоты (две пробы) Желчные кислоты (две пробы) Биохимическое исследование Биохимическое исследование терапия гастроэнтерология неврология Тесты две пробы две пробы AC AC Профиль из двух проб сыворотка крови собака кошка лошадь Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Желчные кислоты (одна проба натощак) Желчные кислоты (одна проба натощак) Биохимическое исследование Биохимическое исследование терапия Тесты одна проба натощак одна проба натощак ACF ACF сыворотка крови собака кошка лошадь Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Желчные кислоты (одна проба после еды) Желчные кислоты (одна проба после еды) Биохимическое исследование Биохимическое исследование терапия Тесты одна проба после еды одна проба после еды сыворотка крови собака кошка лошадь Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Электролиты (Калий,натрий,хлор) Электролиты (Калий,натрий,хлор) Биохимическое исследование Биохимическое исследование общий ОРИТ Тесты Калий,натрий,хлор Калий,натрий,хлор ISE ISE сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С CL Минералы K Минералы NA Минералы</t>
+  </si>
+  <si>
+    <t>Магний Магний Биохимическое исследование Биохимическое исследование общий ОРИТ Тесты MG MG сыворотка крови собака кошка морские млекопитающие лошадь Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С MG Минералы</t>
+  </si>
+  <si>
+    <t>Фосфор неорганический Фосфор неорганический Биохимическое исследование Биохимическое исследование для всех специальностей Тесты PHOS PHOS сыворотка крови собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С P Минералы</t>
+  </si>
+  <si>
+    <t>Железо Железо Биохимическое исследование Биохимическое исследование терапия Тесты FE FE сыворотка крови собака кошка морские млекопитающие лошадь Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С FE Минералы</t>
+  </si>
+  <si>
+    <t>Определение кетонов в крови тест-полоской Определение кетонов в крови тест-полоской Биохимическое исследование Биохимическое исследование терапия эндокринология Тесты KET KET сыворотка крови собака кошка лошадь хорьки Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Кальций ионизированный Кальций ионизированный Биохимическое исследование Биохимическое исследование для всех специальностей Тесты Рекомендуем производить взятие крови вакуумом. Пробирку не вскрывать, сыворотку не переливать. сыворотка крови собака кошка Пробирка с красной крышкой, с ГЕЛЕМ -17°С…-23°С CA Минералы</t>
+  </si>
+  <si>
+    <t>Цинк Цинк Биохимическое исследование Биохимическое исследование терапия Тесты ZN ZN кровь с ЭДТА собака кошка лошадь Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Медь Медь Биохимическое исследование Биохимическое исследование терапия Тесты CU CU кровь с ЭДТА собака кошка лошадь Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Исследование желчного камня (ИК-спектрометрия) Исследование желчного камня (ИК-спектрометрия) Исследование конкримента Исследование конкримента гастроэнтерология Тесты ИК-спектрометрия ИК-спектрометрия КФ КФ камень собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся приматы Стерильный контейнер с красной крышкой специальных условий не требуется</t>
+  </si>
+  <si>
+    <t>Исследование уролитов (ИК-спектрометрия) Исследование уролитов (ИК-спектрометрия) Исследование конкримента Исследование конкримента нефрология Тесты ИК-спектрометрия ИК-спектрометрия ИУ ИУ камень собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся приматы Стерильный контейнер с красной крышкой специальных условий не требуется</t>
+  </si>
+  <si>
+    <t>Исследование на уровень кобаламина (цианокобаламина, витамина В12) Исследование на уровень кобаламина (цианокобаламина, витамина В12) Витамины Витамины гастроэнтерология Тесты цианокобаламина, витамина В12 цианокобаламина, витамина В12 сыворотка крови собака кошка морские млекопитающие Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Витамин В9 Витамин В9 Витамины Витамины гастроэнтерология Тесты FOL FOL сыворотка крови собака кошка морские млекопитающие Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Исследование на уровень 25-ОН витамина D Исследование на уровень 25-ОН витамина D Витамины Витамины гастроэнтерология эндокринология Тесты сыворотка крови собака кошка морские млекопитающие Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Общий анализ мочи (с микроскопией осадка) Общий анализ мочи (с микроскопией осадка) Клиническое исследование мочи Клиническое исследование мочи общий Тесты с микроскопией осадка с микроскопией осадка моча собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с желтой крышкой для мочи / Консервант +2°С…+8°С ОАМ Урология</t>
+  </si>
+  <si>
+    <t>Соотношение белок / креатинин в моче Соотношение белок / креатинин в моче Биохимическое исследование мочи Биохимическое исследование мочи нефрология Тесты Мочу не замораживать, белки могут выпадать в осадок. Не использовать консервант. моча собака кошка лошадь Пробирка с белой крышкой +2°С…+8°С CREA Биохимия КРЕАТ Азотистый обмен</t>
+  </si>
+  <si>
+    <t>Глюкоза/креатинин соотношение в моче Глюкоза/креатинин соотношение в моче Биохимическое исследование мочи Биохимическое исследование мочи эндокринология Тесты Не использовать консервант. моча собака кошка Пробирка с белой крышкой +2°С…+8°С CREA Биохимия ГЛЮКОЗА Углеводы КРЕАТ Азотистый обмен</t>
+  </si>
+  <si>
+    <t>Соотношение кортизол / креатинин в моче Соотношение кортизол / креатинин в моче Биохимическое исследование мочи Биохимическое исследование мочи эндокринология Тесты моча собака кошка Пробирка с белой крышкой +2°С…+8°С COR Гормоны CREA Биохимия КРЕАТ Азотистый обмен</t>
+  </si>
+  <si>
+    <t>Соотношение норметанефрин/креатинин в моче Соотношение норметанефрин/креатинин в моче Биохимическое исследование мочи Биохимическое исследование мочи эндокринология Тесты Не использовать консервант. разовая порция мочи собака кошка Пробирка с белой крышкой *I* 2 пробирки с белой крышкой -17°С…-23°С CREA Биохимия КРЕАТ Азотистый обмен</t>
+  </si>
+  <si>
+    <t>Норметанефрин + метанефрин в суточной моче Норметанефрин + метанефрин в суточной моче Биохимическое исследование мочи Биохимическое исследование мочи эндокринология Тесты Заранее запросить конверт с консервантом. Подготовить  сухуя чистуя ёмкость для сбора мочи(2-3 литра). суточная моча с консервантом собака кошка 2 пробирки с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Фракционная экскреция калия и натрия с мочой Фракционная экскреция калия и натрия с мочой Биохимическое исследование мочи Биохимическое исследование мочи нефрология Тесты Забор крови и мочи должен производиться одномоментно. моча собака кошка лошадь Пробирка с белой крышкой
+*I* Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Паразитологическое исследование фекалий (флотация) Паразитологическое исследование фекалий (флотация) Паразитологическое исследование фекалий Паразитологическое исследование фекалий общий гастроэнтерология Тесты флотация флотация фекалии собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся Контейнер для кала с ложечкой +2°С…+8°С K Минералы</t>
+  </si>
+  <si>
+    <t>Исследование гельминта Исследование гельминта Исследование гельминта Исследование гельминта терапия Тесты ИГ ИГ гельминт собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся Стерильный контейнер с красной крышкой / 70% спирт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Определение скрытой крови в кале Определение скрытой крови в кале Клиничекое исследование фекалий Клиничекое исследование фекалий терапия гастроэнтерология Тесты СКР СКР фекалии собака кошка лошадь Контейнер для кала с ложечкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Контроль лечения дерматомикозов (посев) Контроль лечения дерматомикозов (посев) Дерматологическое исследование Дерматологическое исследование дерматология Тесты посев посев ПДЕ ПДЕ шерсть собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Исследование на отодектоз Исследование на отодектоз Дерматологическое исследование Дерматологическое исследование терапия дерматология Тесты ОТО ОТО В капле вазелинового масла содержимое НСП собака кошка хорьки грызуны кролики Предметное стекло / Контейнер для транспортировки +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Цитологическое исследование НСП (наружного слухового прохода) Цитологическое исследование НСП (наружного слухового прохода) Дерматологическое исследование Дерматологическое исследование дерматология Тесты наружного слухового прохода наружного слухового прохода ЛНСП ЛНСП В лабораторию поступает 2 стекла с маркировкой L и R мазок-отпечаток из НСП собака кошка хорьки грызуны кролики Предметное стекло / Контейнер для транспортировки +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Исследование на эктопаразитов Исследование на эктопаразитов Дерматологическое исследование Дерматологическое исследование терапия дерматология Тесты ЭКТ ЭКТ В капле вазелинового масла глубокий соскоб с кожи собака кошка морские млекопитающие лошадь хорьки грызуны кролики Предметное стекло / Контейнер для транспортировки +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Цитологическое исследование мазка-отпечатка с кожи Цитологическое исследование мазка-отпечатка с кожи Дерматологическое исследование Дерматологическое исследование дерматология Тесты КОЖ КОЖ мазок-отпечаток с кожи собака кошка морские млекопитающие лошадь хорьки грызуны кролики Предметное стекло / Контейнер для транспортировки +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Исследование на дирофиляриоз, анаплазмоз, боррелиоз, эрлихиоз (SNAP 4D) Исследование на дирофиляриоз, анаплазмоз, боррелиоз, эрлихиоз (SNAP 4D) Сероголическое исследование Сероголическое исследование терапия инфекции кардиология Тесты SNAP 4D SNAP 4D SN SN сыворотка крови собака кошка Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus) Экспресс-тест SNAP test</t>
+  </si>
+  <si>
+    <t>Исследование на дирофиляриоз (Dirofilaria immitis, определение АГ), собаки Исследование на дирофиляриоз (Dirofilaria immitis, определение АГ), собаки Сероголическое исследование Сероголическое исследование терапия кардиология Тесты Dirofilaria immitis, определение АГ Dirofilaria immitis, определение АГ DIO DIO сыворотка крови собака Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Радиоиммунный анализ Radioimmunoassay</t>
+  </si>
+  <si>
+    <t>Суммарные антитела класса IgG + IgM к Toxoplasma gondii (тИФА) Суммарные антитела класса IgG + IgM к Toxoplasma gondii (тИФА) Сероголическое исследование Сероголическое исследование инфекции Тесты тИФА тИФА TOX TOX сыворотка крови собака кошка Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Иммуноферментный анализ Enzyme-linked immunosorbent assay Иммуноглобулин G IgG Иммуноглобулин M IgM Нейтрофилы Neutrophils Оксалаты Oxalates Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Антитела класса IgG к коронавирусной инфекции кошек (тИФА) Антитела класса IgG к коронавирусной инфекции кошек (тИФА) Сероголическое исследование Сероголическое исследование инфекции Тесты тИФА тИФА CORV CORV сыворотка крови кошка Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Иммуноферментный анализ Enzyme-linked immunosorbent assay Иммуноглобулин G IgG</t>
+  </si>
+  <si>
+    <t>Антитела класса IgG к FIV (Feline immunodeficiency virus) (тИФА) Антитела класса IgG к FIV (Feline immunodeficiency virus) (тИФА) Сероголическое исследование Сероголическое исследование терапия инфекции Тесты Feline immunodeficiency virus тИФА Feline immunodeficiency virus тИФА FIV FIV сыворотка крови кошка Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Иммуноферментный анализ Enzyme-linked immunosorbent assay Железо Fe (Iron) Вирус иммунодефицита кошек Feline Immunodeficiency Virus Иммуноглобулин G IgG Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Определение антигена р27 FeLv (Feline leukemia virus) (тИФА) Определение антигена р27 FeLv (Feline leukemia virus) (тИФА) Сероголическое исследование Сероголическое исследование терапия инфекции Тесты Feline leukemia virus тИФА Feline leukemia virus тИФА FELV FELV сыворотка крови кошка Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С AG Иммунология Иммуноферментный анализ Enzyme-linked immunosorbent assay Железо Fe (Iron) Вирус лейкемии кошек Feline Leukemia Virus Калий K (Potassium) Лейкоциты в моче Leukocytes Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>ВакциЧек, определение антител класса IgG к аденовирусу тип I (вирусный гепатит собак (СAV I), парвовирусу (CPV), чуме плотоядных (CDV) ВакциЧек, определение антител класса IgG к аденовирусу тип I (вирусный гепатит собак (СAV I), парвовирусу (CPV), чуме плотоядных (CDV) Сероголическое исследование Сероголическое исследование терапия инфекции Тесты СAV I CPV CDV СAV I CPV CDV ЧЕК ЧЕК сыворотка крови собака Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Иммуноглобулин G IgG Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>ВакциЧек, определение антител класса IgG к вирусу панлейкопении (FPV), калицивирусу (FCV), герпес вирусу (FHV) ВакциЧек, определение антител класса IgG к вирусу панлейкопении (FPV), калицивирусу (FCV), герпес вирусу (FHV) Сероголическое исследование Сероголическое исследование терапия инфекции Тесты FPV FCV FHV FPV FCV FHV ЧЕК ЧЕК сыворотка крови кошка Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Иммуноглобулин G IgG Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Определение титра антител к бешенству (сертификат) Определение титра антител к бешенству (сертификат) Сероголическое исследование Сероголическое исследование терапия Тесты сертификат сертификат RAB RAB сыворотка крови собака кошка Пробирка с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Определение титра антител к бешенству CITO (сертификат) Определение титра антител к бешенству CITO (сертификат) Сероголическое исследование Сероголическое исследование терапия Тесты сертификат сертификат RABCT RABCT сыворотка крови собака кошка Пробирка с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>С-реактивный белок (собаки) С-реактивный белок (собаки) Специфические белки Специфические белки терапия Тесты собаки собаки CRP CRP Только для собак сыворотка крови собака Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С CRP СРБ Маркер воспаления СРБ CRP Биомаркеры АЛЬБ Альбумин ГЛОБ Глобулины ОБЩ. БЕЛОК Общий белок</t>
+  </si>
+  <si>
+    <t>SAA (Сывороточный амилоид А (кошки)) SAA (Сывороточный амилоид А (кошки)) Специфические белки Специфические белки терапия Тесты кошки кошки SAA SAA Только для кошек сыворотка крови кошка Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С АЛЬБ Альбумин ГЛОБ Глобулины ОБЩ. БЕЛОК Общий белок</t>
+  </si>
+  <si>
+    <t>Тропонин I Тропонин I Специфические белки Специфические белки кардиология Тесты TPI TPI Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка лошадь хорьки Пробирка с белой крышкой -17°С…-23°С АЛЬБ Альбумин ГЛОБ Глобулины ОБЩ. БЕЛОК Общий белок</t>
+  </si>
+  <si>
+    <t>Т4 общий (тироксин) Т4 общий (тироксин) Гормональное исследование Гормональное исследование терапия эндокринология Тесты тироксин тироксин Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка хорьки Пробирка с белой крышкой +2°С…+8°С T4 Эндокринология</t>
+  </si>
+  <si>
+    <t>ТТГ собак (тиреотропный гормон) ТТГ собак (тиреотропный гормон) Гормональное исследование Гормональное исследование эндокринология Тесты тиреотропный гормон тиреотропный гормон TSH TSH Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака Пробирка с белой крышкой +2°С…+8°С TSH Эндокринология</t>
+  </si>
+  <si>
+    <t>Эстрадиол Эстрадиол Гормональное исследование Гормональное исследование эндокринология репродуктология Тесты Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка морские млекопитающие лошадь хорьки Пробирка с белой крышкой +2°С…+8°С E2 Гормоны</t>
+  </si>
+  <si>
+    <t>Эстрадиол Эстрадиол Гормональное исследование Гормональное исследование Тесты Минимальный объем сыворотки – 0,5 мл. сыворотка крови Пробирка с белой крышкой -17°С…-23°С E2 Гормоны</t>
+  </si>
+  <si>
+    <t>Прогестерон Прогестерон Гормональное исследование Гормональное исследование эндокринология репродуктология Тесты PGN PGN Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка морские млекопитающие лошадь Пробирка с белой крышкой +2°С…+8°С PGN Гормоны PROG Гормоны</t>
+  </si>
+  <si>
+    <t>Тестостерон Тестостерон Гормональное исследование Гормональное исследование эндокринология репродуктология Тесты TES TES Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка морские млекопитающие лошадь Пробирка с белой крышкой +2°С…+8°С TEST Гормоны</t>
+  </si>
+  <si>
+    <t>Кортизол Кортизол Гормональное исследование Гормональное исследование терапия эндокринология репродуктология Тесты COR COR Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка морские млекопитающие лошадь Пробирка с белой крышкой +2°С…+8°С COR Гормоны</t>
+  </si>
+  <si>
+    <t>Малая/Большая дексаметазоновая проба Малая/Большая дексаметазоновая проба Гормональное исследование Гормональное исследование терапия эндокринология Тесты ДМП ДМП В лабораторию поступают три пробы для определения кортизола сыворотка крови собака кошка лошадь Пробирка с белой крышкой *I* Пробирка с белой крышкой *I* Пробирка с белой крышко +2°С…+8°С ДМП Гормоны, функциональные тесты</t>
+  </si>
+  <si>
+    <t>АКТГ (адренокортикотропный гормон) АКТГ (адренокортикотропный гормон) Гормональное исследование Гормональное исследование эндокринология Тесты адренокортикотропный гормон адренокортикотропный гормон ACT ACT Перед взятие крови пробирку с сиреневой крышкой охладить. плазма крови (ЭДТА) собака кошка Пробирка с белой крышкой -17°С…-23°С ACTH Эндокринология</t>
+  </si>
+  <si>
+    <t>Паратиреоидный гормон (ПТГ) Паратиреоидный гормон (ПТГ) Гормональное исследование Гормональное исследование эндокринология Тесты ПТГ ПТГ PTH PTH Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка Пробирка с белой крышкой -17°С…-23°С PTH Эндокринология</t>
+  </si>
+  <si>
+    <t>Инсулин Инсулин Гормональное исследование Гормональное исследование эндокринология Тесты INS INS Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка морские млекопитающие лошадь Пробирка с белой крышкой -17°С…-23°С INS Эндокринология</t>
+  </si>
+  <si>
+    <t>Соматомедин С (инсулиноподобный фактор роста-1, ИФР-1) Соматомедин С (инсулиноподобный фактор роста-1, ИФР-1) Гормональное исследование Гормональное исследование эндокринология Тесты инсулиноподобный фактор роста-1, ИФР-1 инсулиноподобный фактор роста-1, ИФР-1 Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка Пробирка с белой крышкой -17°С…-23°С INS Эндокринология</t>
+  </si>
+  <si>
+    <t>Андростендион Андростендион Гормональное исследование Гормональное исследование эндокринология Тесты AND AND Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка хорьки Пробирка с белой крышкой -17°С…-23°С AND Гормоны</t>
+  </si>
+  <si>
+    <t>Альдостерон Альдостерон Гормональное исследование Гормональное исследование эндокринология Тесты ALD ALD Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка морские млекопитающие Пробирка с белой крышкой -17°С…-23°С ALD Гормоны</t>
+  </si>
+  <si>
+    <t>Гастрин Гастрин Гормональное исследование Гормональное исследование гастроэнтерология эндокринология Тесты GAS GAS Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка Пробирка с белой крышкой -17°С…-23°С Аспартатаминотрансфераза AST GAS Гастроэнтерология</t>
+  </si>
+  <si>
+    <t>Антимюллеров гормон Антимюллеров гормон Гормональное исследование Гормональное исследование эндокринология репродуктология Тесты AM AM Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка хорьки Пробирка с белой крышкой -17°С…-23°С AMH Гормоны/репродукция</t>
+  </si>
+  <si>
+    <t>Рениновая активность (PRA) Рениновая активность (PRA) Гормональное исследование Гормональное исследование эндокринология нефрология Тесты PRA PRA PRA PRA Перед взятие крови пробирку с сиреневой крышкой охладить. плазма крови (ЭДТА) собака кошка Пробирка с белой крышкой -17°С…-23°С Фосфор P (Phosphorus) PRA Нефрология</t>
+  </si>
+  <si>
+    <t>17-ОН прогестерон 17-ОН прогестерон Гормональное исследование Гормональное исследование эндокринология Тесты OHP OHP Минимальный объем сыворотки – 0,5 мл. сыворотка крови хорьки Пробирка с белой крышкой -17°С…-23°С PGN Гормоны PROG Гормоны</t>
+  </si>
+  <si>
+    <t>Вагинальная цитология (определение фазы эстрального цикла) Вагинальная цитология (определение фазы эстрального цикла) Репродуктология Репродуктология репродуктология Тесты определение фазы эстрального цикла определение фазы эстрального цикла ЦИТ ЦИТ Только для собак. Укажите день последней течки. вагинальная цитология собака Предметное стекло / Контейнер для транспортировки +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Прогестерон, определение овуляции Прогестерон, определение овуляции Репродуктология Репродуктология репродуктология Тесты OPGN OPGN Только для собак сыворотка крови собака Пробирка с белой крышкой +2°С…+8°С PGN Гормоны PROG Гормоны</t>
+  </si>
+  <si>
+    <t>Фенобарбитал Фенобарбитал Лекарственный мониторинг Лекарственный мониторинг неврология Тесты PHE PHE Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Фенитоин Фенитоин Лекарственный мониторинг Лекарственный мониторинг неврология Тесты PHNY PHNY Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Вальпроевая кислота Вальпроевая кислота Лекарственный мониторинг Лекарственный мониторинг неврология Тесты VALP VALP Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Карбамазепин Карбамазепин Лекарственный мониторинг Лекарственный мониторинг неврология Тесты CARB CARB Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Дигоксин (сыворотка) Дигоксин (сыворотка) Лекарственный мониторинг Лекарственный мониторинг кардиология Тесты сыворотка сыворотка DIG DIG Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка Пробирка с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Дигоксин (моча) Дигоксин (моча) Лекарственный мониторинг Лекарственный мониторинг кардиология Тесты моча моча DIGPU DIGPU Не использовать консервант. моча собака кошка Пробирка с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Леветирацетам Леветирацетам Лекарственный мониторинг Лекарственный мониторинг неврология Тесты LEV LEV Минимальный объем сыворотки – 0,5 мл. сыворотка крови собака кошка Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Лекарственный мониторинг вещества не входящего в перечень препаратов Лекарственный мониторинг вещества не входящего в перечень препаратов Лекарственный мониторинг Лекарственный мониторинг терапия неврология Тесты LEV LEV Необходимо предварительное согласование и образец принимаемого препарата сыворотка крови собака кошка Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Циклоспорин Циклоспорин Лекарственный мониторинг Лекарственный мониторинг терапия гастроэнтерология онкология дерматология Тесты CYC CYC кровь с ЭДТА собака кошка Пробирка с сиреневой крышкой / Калий ЭДТА +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Заключение о типе выпота (транссудаты и экссудаты (биохимия + цитологическое исследование осадка, клеточный состав, включая описание атипичных/опухолевых клеток)) Заключение о типе выпота (транссудаты и экссудаты (биохимия + цитологическое исследование осадка, клеточный состав, включая описание атипичных/опухолевых клеток)) Цитологическое исследование Цитологическое исследование терапия инфекции онкология кардиология Тесты биохимия + цитологическое исследование осадка, клеточный состав, включая описание атипичных/опухолевых клеток биохимия + цитологическое исследование осадка, клеточный состав, включая описание атипичных/опухолевых клеток выпотная жидкость собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с сиреневой крышкой / Калий ЭДТА + Предметное стекло + Контейнер для транспортировки *I* Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Цитологическое исследование (пунктаты, биоптаты, кроме костного мозга) Цитологическое исследование (пунктаты, биоптаты, кроме костного мозга) Цитологическое исследование Цитологическое исследование терапия Тесты пунктаты, биоптаты, кроме костного мозга пунктаты, биоптаты, кроме костного мозга ГИЭ ГИЭ мазки -отпечатки, пунктат собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся Предметное стекло / Контейнер для транспортировки +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Цитологическое исследование бронхоальвеолярного лаважа Цитологическое исследование бронхоальвеолярного лаважа Цитологическое исследование Цитологическое исследование терапия респирторная система инфекции Тесты ГИЭ ГИЭ БАЛ собака кошка лошадь хорьки грызуны кролики Пробирка с сиреневой крышкой / Калий ЭДТА + Предметное стекло + Контейнер для транспортировки +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Цитологическое исследование венозной крови (наличие патологических клеток + общий анализ крови) Цитологическое исследование венозной крови (наличие патологических клеток + общий анализ крови) Цитологическое исследование Цитологическое исследование терапия инфекции онкология Тесты наличие патологических клеток + общий анализ крови наличие патологических клеток + общий анализ крови КРВ КРВ кровь с ЭДТА собака кошка хорьки грызуны кролики Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С ОАК Гематология</t>
+  </si>
+  <si>
+    <t>Цитологическое исследование костного мозга (включает общий анализ крови (одновременно со взятием костного мозга взять пробу цельной крови)) Цитологическое исследование костного мозга (включает общий анализ крови (одновременно со взятием костного мозга взять пробу цельной крови)) Цитологическое исследование Цитологическое исследование терапия инфекции онкология Тесты одновременно со взятием костного мозга взять пробу цельной крови одновременно со взятием костного мозга взять пробу цельной крови ГИЭ ГИЭ КМ + кровь с ЭДТА собака кошка хорьки грызуны кролики Пробирка с сиреневой крышкой / Калий ЭДТА + Предметное стекло + Контейнер для транспортировки +2°С…+8°С ОАК Гематология</t>
+  </si>
+  <si>
+    <t>Цитологическое исследование мочи Цитологическое исследование мочи Цитологическое исследование Цитологическое исследование терапия онкология нефрология Тесты урогенитальный соскоб урогенитальный соскоб УРО УРО моча собака кошка лошадь хорьки грызуны кролики Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Цитологическое исследование синовиальной жидкости Цитологическое исследование синовиальной жидкости Цитологическое исследование Цитологическое исследование терапия инфекции Тесты синовиальная жидкость суставная жидкость синовий синовиальная жидкость суставная жидкость синовий СИН СИН синовия собака кошка морские млекопитающие лошадь хорьки грызуны кролики Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Гистологическое заключение патолога (приготовление препарата до 2 блоков, до 2 стекол + описательная часть) Гистологическое заключение патолога (приготовление препарата до 2 блоков, до 2 стекол + описательная часть) Гистологическое исследование Гистологическое исследование онкология Тесты приготовление препарата до 2 блоков, до 2 стекол + описательная часть приготовление препарата до 2 блоков, до 2 стекол + описательная часть кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Флакон для транспортировки гистологического материала HISTOPOT +2°С…+8°С Аспартатаминотрансфераза AST</t>
+  </si>
+  <si>
+    <t>Гистологическое заключение патолога (приготовление препарата до 6 блоков, до 6 стекол + описательная часть Гистологическое заключение патолога (приготовление препарата до 6 блоков, до 6 стекол + описательная часть Гистологическое исследование Гистологическое исследование онкология Тесты кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Флакон для транспортировки гистологического материала HISTOPOT +2°С…+8°С Аспартатаминотрансфераза AST</t>
+  </si>
+  <si>
+    <t>Гистологическое исследование кожи (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) Гистологическое исследование кожи (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) Гистологическое исследование Гистологическое исследование дерматология Тесты приготовление препарата до 6 блоков, до 6 стекол + описательная часть приготовление препарата до 6 блоков, до 6 стекол + описательная часть кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Флакон для транспортировки гистологического материала HISTOPOT +2°С…+8°С Аспартатаминотрансфераза AST</t>
+  </si>
+  <si>
+    <t>Гистологическое исследование для экзотических животных (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) Гистологическое исследование для экзотических животных (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) Гистологическое исследование Гистологическое исследование экзоты онкология Тесты приготовление препарата до 6 блоков, до 6 стекол + описательная часть приготовление препарата до 6 блоков, до 6 стекол + описательная часть кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Флакон для транспортировки гистологического материала HISTOPOT +2°С…+8°С Аспартатаминотрансфераза AST</t>
+  </si>
+  <si>
+    <t>Гистологическое исследование головного и спинного мозга (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) Гистологическое исследование головного и спинного мозга (приготовление препарата до 6 блоков, до 6 стекол + описательная часть) Гистологическое исследование Гистологическое исследование онкология неврология Тесты приготовление препарата до 6 блоков, до 6 стекол + описательная часть приготовление препарата до 6 блоков, до 6 стекол + описательная часть кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Флакон для транспортировки гистологического материала HISTOPOT +2°С…+8°С Аспартатаминотрансфераза AST</t>
+  </si>
+  <si>
+    <t>Гистологическое заключение патолога(Европа, США, Канада) (приготовление препарата до 2 блоков, до 2 стекол + сканирование стекол + описательная часть) Гистологическое заключение патолога(Европа, США, Канада) (приготовление препарата до 2 блоков, до 2 стекол + сканирование стекол + описательная часть) Гистологическое исследование Гистологическое исследование терапия онкология Тесты Европа, США, Канада приготовление препарата до 2 блоков, до 2 стекол + сканирование стекол + описательная часть Европа, США, Канада приготовление препарата до 2 блоков, до 2 стекол + сканирование стекол + описательная часть кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Флакон для транспортировки гистологического материала HISTOPOT +2°С…+8°С Аспартатаминотрансфераза AST</t>
+  </si>
+  <si>
+    <t>Гистологическое заключение патолога(Европа, США, Канада) (приготовление препарата(костные фрагменты) до 2 блоков, до 2 стекол + сканирование стекол + описательная часть) Гистологическое заключение патолога(Европа, США, Канада) (приготовление препарата(костные фрагменты) до 2 блоков, до 2 стекол + сканирование стекол + описательная часть) Гистологическое исследование Гистологическое исследование терапия онкология Тесты Европа, США, Канада костные фрагменты Европа, США, Канада костные фрагменты кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Флакон для транспортировки гистологического материала HISTOPOT +2°С…+8°С Аспартатаминотрансфераза AST</t>
+  </si>
+  <si>
+    <t>Гистологическое исследование некропсийного материала (приготовление препарата до 24 блоков, до 24 стекол + описательная часть) Гистологическое исследование некропсийного материала (приготовление препарата до 24 блоков, до 24 стекол + описательная часть) Гистологическое исследование Гистологическое исследование терапия онкология Тесты приготовление препарата до 24 блоков, до 24 стекол + описательная часть приготовление препарата до 24 блоков, до 24 стекол + описательная часть кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Флакон для транспортировки гистологического материала HISTOPOT +2°С…+8°С Аспартатаминотрансфераза AST</t>
+  </si>
+  <si>
+    <t>Гистологическое заключение патолога(Европа, США, Канада) (сканирование готового стекла + описательная часть) Гистологическое заключение патолога(Европа, США, Канада) (сканирование готового стекла + описательная часть) Гистологическое исследование Гистологическое исследование терапия онкология Тесты Европа, США, Канада сканирование готового стекла + описательная часть Европа, США, Канада сканирование готового стекла + описательная часть кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Предметное стекло / Контейнер для транспортировки +2°С…+8°С Аспартатаминотрансфераза AST</t>
+  </si>
+  <si>
+    <t>Консультация патолога (Россия) по стеклам с заключением Консультация патолога (Россия) по стеклам с заключением Гистологическое исследование Гистологическое исследование терапия онкология Тесты Россия Россия ГИЭ ГИЭ кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Предметное стекло / Контейнер для транспортировки +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Изготовление препарата до стекла с окрашиванием (до 2 блоков, до 2 стекол) Изготовление препарата до стекла с окрашиванием (до 2 блоков, до 2 стекол) Гистологическое исследование Гистологическое исследование терапия онкология Тесты до 2 блоков, до 2 стекол до 2 блоков, до 2 стекол ГИИ ГИИ кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Флакон для транспортировки гистологического материала HISTOPOT +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Изготовление препарата до стекла с окрашиванием (до 6 блоков, до 6 стекол) Изготовление препарата до стекла с окрашиванием (до 6 блоков, до 6 стекол) Гистологическое исследование Гистологическое исследование терапия онкология Тесты до 6 блоков, до 6 стекол до 6 блоков, до 6 стекол ГИИ ГИИ кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Флакон для транспортировки гистологического материала HISTOPOT +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Изготовление препарата до стекла с окрашиванием (до 24 блоков, до 24 стекол) Изготовление препарата до стекла с окрашиванием (до 24 блоков, до 24 стекол) Гистологическое исследование Гистологическое исследование терапия онкология Тесты до 24 блоков, до 24 стекол до 24 блоков, до 24 стекол ГИИ ГИИ кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Флакон для транспортировки гистологического материала HISTOPOT +2°С…+8°С</t>
   </si>
   <si>
     <t>Сканирование готового стекла
-Сканирование готового второго стекла без заключения патолога
-Сканирование готового третьего стекла без заключения патолога
-Сканирование готового четвертого стекла без заключения патолога
-Сканирование готового пятого стекла без заключения патолога
-Сканирование готового шестого стекла без заключения патолога терапия онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Сканирование готового стекла
 Сканирование готового второго стекла без заключения патолога
 Сканирование готового третьего стекла без заключения патолога
 Сканирование готового четвертого стекла без заключения патолога
@@ -8802,1563 +8795,1541 @@
 Сканирование готового третьего стекла без заключения патолога
 Сканирование готового четвертого стекла без заключения патолога
 Сканирование готового пятого стекла без заключения патолога
-Сканирование готового шестого стекла без заключения патолога Сканирование готового стекла
-Сканирование готового второго стекла без заключения патолога
-Сканирование готового третьего стекла без заключения патолога
-Сканирование готового четвертого стекла без заключения патолога
-Сканирование готового пятого стекла без заключения патолога
-Сканирование готового шестого стекла без заключения патолога       ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ  кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Предметное стекло / Контейнер для транспортировки 850  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Запись на электронный носитель терапия онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Запись на электронный носитель Запись на электронный носитель Запись на электронный носитель       ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ  кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Предметное стекло / Контейнер для транспортировки 850  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Приготовление стекла из парафинового блока (дорезка без окрашивания) терапия онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Приготовление стекла из парафинового блока (дорезка без окрашивания) Приготовление стекла из парафинового блока (дорезка без окрашивания) Приготовление стекла из парафинового блока (дорезка без окрашивания) дорезка без окрашивания дорезка без окрашивания     ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ  кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Парафиновый блок 851  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Приготовление стекла из парафинового блока (дорезка с окрашиванием) терапия онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Приготовление стекла из парафинового блока (дорезка с окрашиванием) Приготовление стекла из парафинового блока (дорезка с окрашиванием) Приготовление стекла из парафинового блока (дорезка с окрашиванием) дорезка с окрашиванием дорезка с окрашиванием     ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ  кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Парафиновый блок 851  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дополнительное окрашивание гистосреза (изготовление стекла из блока + окрашивание) терапия онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Дополнительное окрашивание гистосреза (изготовление стекла из блока + окрашивание) Дополнительное окрашивание гистосреза (изготовление стекла из блока + окрашивание) Дополнительное окрашивание гистосреза (изготовление стекла из блока + окрашивание) изготовление стекла из блока + окрашивание изготовление стекла из блока + окрашивание            кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Парафиновый блок 851  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Декальцинация терапия онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Декальцинация Декальцинация Декальцинация              кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Флакон для транспортировки гистологического материала HISTOPOT 824  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Приготовление 1 АТ  онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Приготовление 1 АТ Приготовление 1 АТ Приготовление 1 АТ              кусочки ткани собака кошка  собака кошка  собака кошка  Флакон для транспортировки гистологического материала HISTOPOT или Парафиновый блок 864  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Приготовление 2 АТ  онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Приготовление 2 АТ Приготовление 2 АТ Приготовление 2 АТ              кусочки ткани собака кошка  собака кошка  собака кошка  Флакон для транспортировки гистологического материала HISTOPOT или Парафиновый блок 864  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Приготовление 3 АТ  онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Приготовление 3 АТ Приготовление 3 АТ Приготовление 3 АТ              кусочки ткани собака кошка  собака кошка  собака кошка  Флакон для транспортировки гистологического материала HISTOPOT или Парафиновый блок 864  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Приготовление 4 АТ  онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Приготовление 4 АТ Приготовление 4 АТ Приготовление 4 АТ              кусочки ткани собака кошка  собака кошка  собака кошка  Флакон для транспортировки гистологического материала HISTOPOT или Парафиновый блок 864  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Приготовление 6 АТ  онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Приготовление 6 АТ Приготовление 6 АТ Приготовление 6 АТ              кусочки ткани собака кошка  собака кошка  собака кошка  Флакон для транспортировки гистологического материала HISTOPOT или Парафиновый блок 864  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Приготовление 8 АТ  онкология  Тесты Тесты Гистологическое исследование Гистологическое исследование Приготовление 8 АТ Приготовление 8 АТ Приготовление 8 АТ              кусочки ткани собака кошка  собака кошка  собака кошка  Флакон для транспортировки гистологического материала HISTOPOT или Парафиновый блок 864  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мутация в гене C-KIT (собаки)  онкология  Тесты Тесты Патоморфология Патоморфология Мутация в гене C-KIT (собаки) Мутация в гене C-KIT (собаки) Мутация в гене C-KIT (собаки) собаки собаки     ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ  биоптаты ткани/аспират/костный мозг собака  собака  собака  Стерильный контейнер с красной крышкой / 70% спирт 852  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Мутация в гене C-KIT (8,9,11 экзоны) (кошки)  онкология  Тесты Тесты Патоморфология Патоморфология Мутация в гене C-KIT (8,9,11 экзоны) (кошки) Мутация в гене C-KIT (8,9,11 экзоны) (кошки) Мутация в гене C-KIT (8,9,11 экзоны) (кошки) 8,9,11 экзоны кошки 8,9,11 экзоны кошки            биоптаты ткани/аспират/костный мозг  кошка   кошка   кошка  Стерильный контейнер с красной крышкой / 70% спирт 852  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Выявление клональности лимфоцитов (PARR)  онкология  Тесты Тесты Патоморфология Патоморфология Выявление клональности лимфоцитов (PARR) Выявление клональности лимфоцитов (PARR) Выявление клональности лимфоцитов (PARR) PARR PARR     ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ ГИЭ  биоптаты ткани/аспират/ цельная кровь/костный мозг/превлальная жидкость/ абдоминальная жидкость собака кошка  собака кошка  собака кошка  Стерильный контейнер с красной крышкой / 70% спирт 852  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Определение меди в патматериале терапия гастроэнтерология  Тесты Тесты Патоморфология Патоморфология Определение меди в патматериале Определение меди в патматериале Определение меди в патматериале       CUP CUP CUP CUP CUP CUP  кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы  Стерильный контейнер с красной крышкой 839  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Этанол  отравления  Тесты Тесты Токсикология Токсикология Этанол Этанол Этанол       ETU ETU ETU ETU ETU ETU  Плазма крови (ЭДТА) собака кошка лошадь хорьки  собака кошка лошадь хорьки  собака кошка лошадь хорьки  Пробирка с белой крышкой 854  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ксилол  отравления  Тесты Тесты Токсикология Токсикология Ксилол Ксилол Ксилол       KSI KSI KSI KSI KSI KSI  Плазма крови (ЭДТА) собака кошка лошадь хорьки  собака кошка лошадь хорьки  собака кошка лошадь хорьки  Пробирка с белой крышкой 854  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Толуол  отравления  Тесты Тесты Токсикология Токсикология Толуол Толуол Толуол       TOL TOL TOL TOL TOL TOL  Плазма крови (ЭДТА) собака кошка лошадь хорьки  собака кошка лошадь хорьки  собака кошка лошадь хорьки  Пробирка с белой крышкой 854  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Фенол  отравления  Тесты Тесты Токсикология Токсикология Фенол Фенол Фенол       FE FE FE FE FE FE  Плазма крови (ЭДТА) собака кошка лошадь хорьки  собака кошка лошадь хорьки  собака кошка лошадь хорьки  Пробирка с белой крышкой 854  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Формальдегид  отравления  Тесты Тесты Токсикология Токсикология Формальдегид Формальдегид Формальдегид       FO FO FO FO FO FO  Плазма крови (ЭДТА) собака кошка лошадь хорьки  собака кошка лошадь хорьки  собака кошка лошадь хорьки  Пробирка с белой крышкой 854  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Метанол  отравления  Тесты Тесты Токсикология Токсикология Метанол Метанол Метанол       MET MET MET MET MET MET  Плазма крови (ЭДТА) собака кошка лошадь хорьки  собака кошка лошадь хорьки  собака кошка лошадь хорьки  Пробирка с белой крышкой 854  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ацетон  отравления  Тесты Тесты Токсикология Токсикология Ацетон Ацетон Ацетон       AC AC AC AC AC AC  Плазма крови (ЭДТА) собака кошка лошадь хорьки  собака кошка лошадь хорьки  собака кошка лошадь хорьки  Пробирка с белой крышкой 854  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Изопропанол  отравления  Тесты Тесты Токсикология Токсикология Изопропанол Изопропанол Изопропанол       IZ IZ IZ IZ IZ IZ  Плазма крови (ЭДТА) собака кошка лошадь хорьки  собака кошка лошадь хорьки  собака кошка лошадь хорьки  Пробирка с белой крышкой 854  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Этиленгликоль  отравления  Тесты Тесты Токсикология Токсикология Этиленгликоль Этиленгликоль Этиленгликоль       ETL ETL ETL ETL ETL ETL  Моча собака кошка хорьки  собака кошка хорьки  собака кошка хорьки  2 пробирки с белой крышкой 848  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Изониазид (моча)  отравления  Тесты Тесты Токсикология Токсикология Изониазид (моча) Изониазид (моча) Изониазид (моча) моча моча     NA NA NA NA NA NA  Моча собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  2 пробирки с белой крышкой 848  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Изониазид (сыворотка)  отравления  Тесты Тесты Токсикология Токсикология Изониазид (сыворотка) Изониазид (сыворотка) Изониазид (сыворотка) сыворотка сыворотка     NA NA NA NA NA NA  сыворотка крови собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  Пробирка с белой крышкой 814  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Комплексное токсикологическое исследование (Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей)  отравления  Тесты Тесты Токсикология Токсикология Комплексное токсикологическое исследование (Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей) Комплексное токсикологическое исследование (Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей) Комплексное токсикологическое исследование (Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей) Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей     MT MT MT MT MT MT  Моча собака кошка хорьки  собака кошка хорьки  собака кошка хорьки  2 пробирки с белой крышкой 848  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Лекарственные и ядовитые вещества (нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей)  отравления  Тесты Тесты Токсикология Токсикология Лекарственные и ядовитые вещества (нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей) Лекарственные и ядовитые вещества (нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей) Лекарственные и ядовитые вещества (нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей) нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей     LK LK LK LK LK LK  Моча собака кошка хорьки  собака кошка хорьки  собака кошка хорьки  2 пробирки с белой крышкой 848  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Комплексное токсикологическое исследование (наркотические и психоактивные вещества, более 6000 веществ)  отравления  Тесты Тесты Токсикология Токсикология Комплексное токсикологическое исследование (наркотические и психоактивные вещества, более 6000 веществ) Комплексное токсикологическое исследование (наркотические и психоактивные вещества, более 6000 веществ) Комплексное токсикологическое исследование (наркотические и психоактивные вещества, более 6000 веществ) наркотические и психоактивные вещества, более 6000 веществ наркотические и психоактивные вещества, более 6000 веществ     NP NP NP NP NP NP  Моча собака кошка хорьки  собака кошка хорьки  собака кошка хорьки  2 пробирки с белой крышкой 848  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Алюминий (Al) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Алюминий (Al) (шерсть) Алюминий (Al) (шерсть) Алюминий (Al) (шерсть) Al шерсть Al шерсть     AL AL AL AL AL AL Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бор (B) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Бор (B) (шерсть) Бор (B) (шерсть) Бор (B) (шерсть) B шерсть B шерсть     BO BO BO BO BO BO Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ванадий (V) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Ванадий (V) (шерсть) Ванадий (V) (шерсть) Ванадий (V) (шерсть) V шерсть V шерсть     VA VA VA VA VA VA Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Железо (Fe) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Железо (Fe) (шерсть) Железо (Fe) (шерсть) Железо (Fe) (шерсть) Fe шерсть Fe шерсть     FE FE FE FE FE FE Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Йод (I) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Йод (I) (шерсть) Йод (I) (шерсть) Йод (I) (шерсть) I шерсть I шерсть     I I I I I I Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Калий (К) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Калий (К) (шерсть) Калий (К) (шерсть) Калий (К) (шерсть) К шерсть К шерсть     KA KA KA KA KA KA Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кальций (Са) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Кальций (Са) (шерсть) Кальций (Са) (шерсть) Кальций (Са) (шерсть) Са шерсть Са шерсть     CA CA CA CA CA CA Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кадмий (Cd) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Кадмий (Cd) (шерсть) Кадмий (Cd) (шерсть) Кадмий (Cd) (шерсть) Cd шерсть Cd шерсть     CD CD CD CD CD CD Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кобальт (Cо) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Кобальт (Cо) (шерсть) Кобальт (Cо) (шерсть) Кобальт (Cо) (шерсть) Cо шерсть Cо шерсть     CO CO CO CO CO CO Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кремний (Si) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Кремний (Si) (шерсть) Кремний (Si) (шерсть) Кремний (Si) (шерсть) Si шерсть Si шерсть     SI SI SI SI SI SI Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Литий (Li) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Литий (Li) (шерсть) Литий (Li) (шерсть) Литий (Li) (шерсть) Li шерсть Li шерсть     LI LI LI LI LI LI Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Магний (Mg) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Магний (Mg) (шерсть) Магний (Mg) (шерсть) Магний (Mg) (шерсть) Mg шерсть Mg шерсть     MG MG MG MG MG MG Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Марганец (Mn) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Марганец (Mn) (шерсть) Марганец (Mn) (шерсть) Марганец (Mn) (шерсть) Mn шерсть Mn шерсть     MN MN MN MN MN MN Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Медь (Cu) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Медь (Cu) (шерсть) Медь (Cu) (шерсть) Медь (Cu) (шерсть) Cu шерсть Cu шерсть     CU CU CU CU CU CU Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мышьяк (As) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Мышьяк (As) (шерсть) Мышьяк (As) (шерсть) Мышьяк (As) (шерсть) As шерсть As шерсть     AS AS AS AS AS AS Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Натрий (Na) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Натрий (Na) (шерсть) Натрий (Na) (шерсть) Натрий (Na) (шерсть) Na шерсть Na шерсть     NA NA NA NA NA NA Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Никель (Ni) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Никель (Ni) (шерсть) Никель (Ni) (шерсть) Никель (Ni) (шерсть) Ni шерсть Ni шерсть     NI NI NI NI NI NI Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Олово (Sn) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Олово (Sn) (шерсть) Олово (Sn) (шерсть) Олово (Sn) (шерсть) Sn шерсть Sn шерсть     SN SN SN SN SN SN Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ртуть (Hg) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Ртуть (Hg) (шерсть) Ртуть (Hg) (шерсть) Ртуть (Hg) (шерсть) Hg шерсть Hg шерсть     HG HG HG HG HG HG Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Свинец (Pb) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Свинец (Pb) (шерсть) Свинец (Pb) (шерсть) Свинец (Pb) (шерсть) Pb шерсть Pb шерсть     PB PB PB PB PB PB Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Селен (Se) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Селен (Se) (шерсть) Селен (Se) (шерсть) Селен (Se) (шерсть) Se шерсть Se шерсть     SE SE SE SE SE SE Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Стронций (Sr) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Стронций (Sr) (шерсть) Стронций (Sr) (шерсть) Стронций (Sr) (шерсть) Sr шерсть Sr шерсть     SR SR SR SR SR SR Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Фосфор (Р) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Фосфор (Р) (шерсть) Фосфор (Р) (шерсть) Фосфор (Р) (шерсть) Р шерсть Р шерсть     P P P P P P Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Хром  (Cr) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Хром  (Cr) (шерсть) Хром  (Cr) (шерсть) Хром  (Cr) (шерсть) Cr шерсть Cr шерсть     CR CR CR CR CR CR Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цинк (Zn) (шерсть) терапия отравления  Тесты Тесты Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Цинк (Zn) (шерсть) Цинк (Zn) (шерсть) Цинк (Zn) (шерсть) Zn шерсть Zn шерсть     ZN ZN ZN ZN ZN ZN Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков)  нефрология  Тесты Тесты Микробиология Микробиология Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) основной перечень антибиотиков основной перечень антибиотиков            моча собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 825  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков)  нефрология  Тесты Тесты Микробиология Микробиология Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) дополнительный перечень антибиотиков дополнительный перечень антибиотиков            моча собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 825  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика)  нефрология  Тесты Тесты Микробиология Микробиология Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) определение минимальной ингибирующей концентрации антибиотика определение минимальной ингибирующей концентрации антибиотика            моча собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 825  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев мочи на Corynebacterium urealyticum с определением чувствительности к антимикробным препаратам   нефрология  Тесты Тесты Микробиология Микробиология Посев мочи на Corynebacterium urealyticum с определением чувствительности к антимикробным препаратам  Посев мочи на Corynebacterium urealyticum с определением чувствительности к антимикробным препаратам  Посев мочи на Corynebacterium urealyticum с определением чувствительности к антимикробным препаратам               моча собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 825  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам    нефрология  Тесты Тесты Микробиология Микробиология Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам     моча моча моча моча МОЧ МОЧ МОЧ МОЧ МОЧ МОЧ  моча собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 825  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков)  гастроэнтерология  Тесты Тесты Микробиология Микробиология Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) основной перечень антибиотиков основной перечень антибиотиков            желчь собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 826  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков)  гастроэнтерология  Тесты Тесты Микробиология Микробиология Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) дополнительный перечень антибиотиков дополнительный перечень антибиотиков            желчь собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 826  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика)  гастроэнтерология  Тесты Тесты Микробиология Микробиология Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) определение минимальной ингибирующей концентрации антибиотика определение минимальной ингибирующей концентрации антибиотика            желчь собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 826  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам    гастроэнтерология  Тесты Тесты Микробиология Микробиология Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам         ЖЕЛ ЖЕЛ ЖЕЛ ЖЕЛ ЖЕЛ ЖЕЛ  желчь собака кошка хорьки  собака кошка хорьки  собака кошка хорьки  Жидкая среда Amies с оранжевой крышкой 826  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) терапия  Тесты Тесты Микробиология Микробиология Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) основной перечень антибиотиков основной перечень антибиотиков            перитонеальная жидкость, торакальная жидкость, перикардиальная жидкость, синовия, ликвор, пунктат среднего / внутреннего уха собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 827  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) терапия  Тесты Тесты Микробиология Микробиология Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) дополнительный перечень антибиотиков дополнительный перечень антибиотиков            перитонеальная жидкость, торакальная жидкость, перикардиальная жидкость, синовия, ликвор, пунктат среднего / внутреннего уха собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 827  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) терапия  Тесты Тесты Микробиология Микробиология Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) определение минимальной ингибирующей концентрации антибиотика определение минимальной ингибирующей концентрации антибиотика            перитонеальная жидкость, торакальная жидкость, перикардиальная жидкость, синовия, ликвор, пунктат среднего / внутреннего уха собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 827  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   терапия  Тесты Тесты Микробиология Микробиология Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам         ПУН ПУН ПУН ПУН ПУН ПУН  перитонеальная жидкость, торакальная жидкость, перикардиальная жидкость, синовия, ликвор, пунктат среднего / внутреннего уха собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 827  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) терапия  Тесты Тесты Микробиология Микробиология Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) основной перечень антибиотиков основной перечень антибиотиков            аспират лимфоузла, эндоскопические выщипы, содержимое гигромы/серомы, слизистая оболочка мочевого пузыря, биоптат кожи, раневое отделяемое при оперативном вмешательстве, контроль микрофлоры при установке металлоконструкции, центральный венозный катетер, раневое отделяемое с кожи собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 828  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) терапия  Тесты Тесты Микробиология Микробиология Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) дополнительный перечень антибиотиков дополнительный перечень антибиотиков            аспират лимфоузла, эндоскопические выщипы, содержимое гигромы/серомы, слизистая оболочка мочевого пузыря, биоптат кожи, раневое отделяемое при оперативном вмешательстве, контроль микрофлоры при установке металлоконструкции, центральный венозный катетер, раневое отделяемое с кожи собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 828  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам (определение минимальной ингибирующей концентрации антибиотика) терапия  Тесты Тесты Микробиология Микробиология Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам (определение минимальной ингибирующей концентрации антибиотика) Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам (определение минимальной ингибирующей концентрации антибиотика) Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам (определение минимальной ингибирующей концентрации антибиотика) определение минимальной ингибирующей концентрации антибиотика определение минимальной ингибирующей концентрации антибиотика            аспират лимфоузла, эндоскопические выщипы, содержимое гигромы/серомы, слизистая оболочка мочевого пузыря, биоптат кожи, раневое отделяемое при оперативном вмешательстве, контроль микрофлоры при установке металлоконструкции, центральный венозный катетер, раневое отделяемое с кожи собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 828  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   терапия  Тесты Тесты Микробиология Микробиология Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам         РАН РАН РАН РАН РАН РАН  аспират лимфоузла, эндоскопические выщипы, содержимое гигромы/серомы, слизистая оболочка мочевого пузыря, биоптат кожи, раневое отделяемое при оперативном вмешательстве, контроль микрофлоры при установке металлоконструкции, центральный венозный катетер, раневое отделяемое с кожи собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 828  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков)  респирторная система  Тесты Тесты Микробиология Микробиология Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) основной перечень антибиотиков основной перечень антибиотиков            отделяемое ротоглотки, носовой полости, аспират из пазух носа, бронхоальвеолярный лаваж собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 899  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков)  респирторная система  Тесты Тесты Микробиология Микробиология Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) дополнительный перечень антибиотиков дополнительный перечень антибиотиков            отделяемое ротоглотки, носовой полости, аспират из пазух носа, бронхоальвеолярный лаваж собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 899  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам (определение минимальной ингибирующей концентрации антибиотика)  респирторная система  Тесты Тесты Микробиология Микробиология Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам (определение минимальной ингибирующей концентрации антибиотика) Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам (определение минимальной ингибирующей концентрации антибиотика) Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам (определение минимальной ингибирующей концентрации антибиотика) определение минимальной ингибирующей концентрации антибиотика определение минимальной ингибирующей концентрации антибиотика            отделяемое ротоглотки, носовой полости, аспират из пазух носа, бронхоальвеолярный лаваж собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 899  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам    респирторная система  Тесты Тесты Микробиология Микробиология Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам         ЗЕВ ЗЕВ ЗЕВ ЗЕВ ЗЕВ ЗЕВ  отделяемое ротоглотки, носовой полости, аспират из пазух носа, бронхоальвеолярный лаваж собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 899  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев отделяемого половых органов на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков)  репродуктология  Тесты Тесты Микробиология Микробиология Посев отделяемого половых органов на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Посев отделяемого половых органов на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Посев отделяемого половых органов на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) основной перечень антибиотиков основной перечень антибиотиков            простатическая фракция спермы, отделяемое  шейки матки, содержимое абсцесса / кисты предстательной железы собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 822  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев отделяемого половых органов на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков)  репродуктология  Тесты Тесты Микробиология Микробиология Посев отделяемого половых органов на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Посев отделяемого половых органов на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Посев отделяемого половых органов на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) дополнительный перечень антибиотиков дополнительный перечень антибиотиков            простатическая фракция спермы, отделяемое  шейки матки, содержимое абсцесса / кисты предстательной железы собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 822  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам    репродуктология  Тесты Тесты Микробиология Микробиология Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам         ГИН ГИН ГИН ГИН ГИН ГИН  простатическая фракция спермы, отделяемое  шейки матки, содержимое абсцесса / кисты предстательной железы собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 822  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев отделяемого глаз на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) терапия  Тесты Тесты Микробиология Микробиология Посев отделяемого глаз на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Посев отделяемого глаз на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Посев отделяемого глаз на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) основной перечень антибиотиков основной перечень антибиотиков            отделяемое конъюнктивы собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 903  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев отделяемого глаз на микрофлору с определением чувствительности к антимикробным препаратам   (дополнительный перечень антибиотиков) терапия  Тесты Тесты Микробиология Микробиология Посев отделяемого глаз на микрофлору с определением чувствительности к антимикробным препаратам   (дополнительный перечень антибиотиков) Посев отделяемого глаз на микрофлору с определением чувствительности к антимикробным препаратам   (дополнительный перечень антибиотиков) Посев отделяемого глаз на микрофлору с определением чувствительности к антимикробным препаратам   (дополнительный перечень антибиотиков) дополнительный перечень антибиотиков дополнительный перечень антибиотиков            отделяемое конъюнктивы собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 903  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   терапия  Тесты Тесты Микробиология Микробиология Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам         ГЛА ГЛА ГЛА ГЛА ГЛА ГЛА  отделяемое конъюнктивы собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 903  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев отделяемого наружного слухового прохода (НСП) на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) терапия дерматология  Тесты Тесты Микробиология Микробиология Посев отделяемого наружного слухового прохода (НСП) на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Посев отделяемого наружного слухового прохода (НСП) на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Посев отделяемого наружного слухового прохода (НСП) на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) НСП основной перечень антибиотиков НСП основной перечень антибиотиков            отделяемое наружного слухового прохода собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 901  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев отделяемого наружного слухового прохода (НСП) на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) терапия дерматология  Тесты Тесты Микробиология Микробиология Посев отделяемого наружного слухового прохода (НСП) на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Посев отделяемого наружного слухового прохода (НСП) на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Посев отделяемого наружного слухового прохода (НСП) на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) НСП дополнительный перечень антибиотиков НСП дополнительный перечень антибиотиков            отделяемое наружного слухового прохода собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 901  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Посев на грибы рода Candida, Malassezia с определением чувствительности к антимикотическим препаратам   терапия дерматология  Тесты Тесты Микробиология Микробиология Посев на грибы рода Candida, Malassezia с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida, Malassezia с определением чувствительности к антимикотическим препаратам   Посев на грибы рода Candida, Malassezia с определением чувствительности к антимикотическим препаратам         УХО УХО УХО УХО УХО УХО  отделяемое наружного слухового прохода собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 901  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Посев крови на аэробную микрофлору  с определением чувствительности к антимикробным  препаратам (основной перечень антибиотиков) терапия ОРИТ  Тесты Тесты Микробиология Микробиология Посев крови на аэробную микрофлору  с определением чувствительности к антимикробным  препаратам (основной перечень антибиотиков) Посев крови на аэробную микрофлору  с определением чувствительности к антимикробным  препаратам (основной перечень антибиотиков) Посев крови на аэробную микрофлору  с определением чувствительности к антимикробным  препаратам (основной перечень антибиотиков) основной перечень антибиотиков основной перечень антибиотиков            венозная кровь, кровь из центрального венозного катетера собака кошка  собака кошка  собака кошка  Флакон Юнона детский (для детей весом &lt; 40 кг) 833  хранение +20°C...+25°С транспортировка +20°C...+25°С </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Посев крови на аэробную микрофлору с определением чувствительности к антимикробным  препаратам (дополнительный перечень антибиотиков) терапия ОРИТ  Тесты Тесты Микробиология Микробиология Посев крови на аэробную микрофлору с определением чувствительности к антимикробным  препаратам (дополнительный перечень антибиотиков) Посев крови на аэробную микрофлору с определением чувствительности к антимикробным  препаратам (дополнительный перечень антибиотиков) Посев крови на аэробную микрофлору с определением чувствительности к антимикробным  препаратам (дополнительный перечень антибиотиков) дополнительный перечень антибиотиков дополнительный перечень антибиотиков            венозная кровь, кровь из центрального венозного катетера собака кошка  собака кошка  собака кошка  Флакон Юнона детский (для детей весом &lt; 40 кг) 833  хранение +20°C...+25°С транспортировка +20°C...+25°С </t>
-  </si>
-  <si>
-    <t>Посев на анаэробы с определением чувствительности к анитимикробным препаратам    терапия ОРИТ гастроэнтерология респирторная система  Тесты Тесты Микробиология Микробиология Посев на анаэробы с определением чувствительности к анитимикробным препаратам    Посев на анаэробы с определением чувствительности к анитимикробным препаратам    Посев на анаэробы с определением чувствительности к анитимикробным препаратам                 перитонеальная, торакальная, перикардиальная жидкости,раневое отделяемое, желчь собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  собака кошка морские млекопитающие лошадь хорьки грызуны кролики  Жидкая среда Amies с оранжевой крышкой 834  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Аденовирус 2 типа (CAV 2) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Аденовирус 2 типа (CAV 2) Аденовирус 2 типа (CAV 2) Аденовирус 2 типа (CAV 2) CAV 2 CAV 2 бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ БАЛ БАЛ БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 876  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) терапия респирторная система экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Aspergillus fumigatus/ flavus/terreus/niger Aspergillus fumigatus/ flavus/terreus/niger бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ БАЛ БАЛ БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 876  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бордетелла (Bordetella bronchiseptica) терапия респирторная система экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бордетелла (Bordetella bronchiseptica) Бордетелла (Bordetella bronchiseptica) Бордетелла (Bordetella bronchiseptica) Bordetella bronchiseptica Bordetella bronchiseptica бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ БАЛ БАЛ БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака кошка лошадь грызуны кролики земноводные пресмыкающиеся  собака кошка лошадь грызуны кролики земноводные пресмыкающиеся  собака кошка лошадь грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 876  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус парагриппа (СPiV) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус парагриппа (СPiV) Вирус парагриппа (СPiV) Вирус парагриппа (СPiV) СPiV СPiV бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ БАЛ БАЛ БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 876  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Криптококк (Cryptococcus spp.) терапия респирторная система экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Криптококк (Cryptococcus spp.) Криптококк (Cryptococcus spp.) Криптококк (Cryptococcus spp.) Cryptococcus spp. Cryptococcus spp. бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ БАЛ БАЛ БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 876  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Микоплазма (Mycoplasma cynos) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Микоплазма (Mycoplasma cynos) Микоплазма (Mycoplasma cynos) Микоплазма (Mycoplasma cynos) Mycoplasma cynos Mycoplasma cynos бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ БАЛ БАЛ БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 876  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Микоплазма (Mycoplasma spp.) терапия экзоты  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Микоплазма (Mycoplasma spp.) Микоплазма (Mycoplasma spp.) Микоплазма (Mycoplasma spp.) Mycoplasma spp. Mycoplasma spp. бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ БАЛ БАЛ БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ)  грызуны кролики земноводные пресмыкающиеся   грызуны кролики земноводные пресмыкающиеся   грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 876  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Микобактерия (Mycobacterium tuberculosis complex) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Микобактерия (Mycobacterium tuberculosis complex) Микобактерия (Mycobacterium tuberculosis complex) Микобактерия (Mycobacterium tuberculosis complex) Mycobacterium tuberculosis complex Mycobacterium tuberculosis complex бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ БАЛ БАЛ БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 876  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Хламидия (Сhlamydia spp.) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Хламидия (Сhlamydia spp.) Хламидия (Сhlamydia spp.) Хламидия (Сhlamydia spp.) Сhlamydia spp. Сhlamydia spp. бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ БАЛ БАЛ БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 876  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Микоплазма (Mycoplasma felis) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Микоплазма (Mycoplasma felis) Микоплазма (Mycoplasma felis) Микоплазма (Mycoplasma felis) Mycoplasma felis Mycoplasma felis бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ БАЛ БАЛ БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ)  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 876  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Хламидия (Chlamydia felis) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Хламидия (Chlamydia felis) Хламидия (Chlamydia felis) Хламидия (Chlamydia felis) Chlamydia felis Chlamydia felis бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ БАЛ БАЛ БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ)  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 876  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Aspergillus fumigatus/ flavus/terreus/niger Aspergillus fumigatus/ flavus/terreus/niger биоптат аутоптат биоптат аутоптат биоптат аутоптат биоптат аутоптат БТК БТК БТК БТК БТК БТК гранулемы биоптат ткани собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  Микропробирка / Транспортная среда 877  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Aspergillus fumigatus/ flavus/terreus/niger Aspergillus fumigatus/ flavus/terreus/niger аспират аспират аспират аспират АСП АСП АСП АСП АСП АСП  аспират ткани собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 896  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бруцелла (Brucella spp.) терапия репродуктология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) Brucella spp. Brucella spp. биоптат аутоптат биоптат аутоптат биоптат аутоптат биоптат аутоптат БТК БТК БТК БТК БТК БТК внутренние органы, абортированные плоды биоптат ткани собака морские млекопитающие  собака морские млекопитающие  собака морские млекопитающие  Микропробирка / Транспортная среда 877  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Возбудитель болезни Ауески (ДНК SuHV1/ ДНК гена gE полевых штаммов) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Возбудитель болезни Ауески (ДНК SuHV1/ ДНК гена gE полевых штаммов) Возбудитель болезни Ауески (ДНК SuHV1/ ДНК гена gE полевых штаммов) Возбудитель болезни Ауески (ДНК SuHV1/ ДНК гена gE полевых штаммов) ДНК SuHV1/ ДНК гена gE полевых штаммов ДНК SuHV1/ ДНК гена gE полевых штаммов биоптат аутоптат биоптат аутоптат биоптат аутоптат биоптат аутоптат БТК БТК БТК БТК БТК БТК кожа, верхние и нижние дыхательные пути биоптат ткани собака кошка  собака кошка  собака кошка  Микропробирка / Транспортная среда 877  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Калицивирус (FCV) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Калицивирус (FCV) Калицивирус (FCV) Калицивирус (FCV) FCV FCV биоптат аутоптат биоптат аутоптат биоптат аутоптат биоптат аутоптат БТК БТК БТК БТК БТК БТК кожа, верхние и нижние дыхательные пути биоптат ткани  кошка   кошка   кошка  Микропробирка / Транспортная среда 877  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Коронавирусная инфекция кошек  (FCoV) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) FCoV FCoV биоптат аутоптат биоптат аутоптат биоптат аутоптат биоптат аутоптат БТК БТК БТК БТК БТК БТК почки, лимфатические узлы биоптат ткани  кошка   кошка   кошка  Микропробирка / Транспортная среда 877  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Микобактерия (Mycobacterium tuberculosis complex) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Микобактерия (Mycobacterium tuberculosis complex) Микобактерия (Mycobacterium tuberculosis complex) Микобактерия (Mycobacterium tuberculosis complex) Mycobacterium tuberculosis complex Mycobacterium tuberculosis complex биоптат аутоптат биоптат аутоптат биоптат аутоптат биоптат аутоптат БТК БТК БТК БТК БТК БТК внутренние органы биоптат ткани собака кошка морские млекопитающие лошадь грызуны кролики земноводные пресмыкающиеся  собака кошка морские млекопитающие лошадь грызуны кролики земноводные пресмыкающиеся  собака кошка морские млекопитающие лошадь грызуны кролики земноводные пресмыкающиеся  Микропробирка / Транспортная среда 877  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Микоплазма (Mycoplasma canis) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Микоплазма (Mycoplasma canis) Микоплазма (Mycoplasma canis) Микоплазма (Mycoplasma canis) Mycoplasma canis Mycoplasma canis биоптат аутоптат биоптат аутоптат биоптат аутоптат биоптат аутоптат БТК БТК БТК БТК БТК БТК матка, семенник биоптат ткани собака  собака  собака  Микропробирка / Транспортная среда 877  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Лептоспира (Leptospira spp.) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Лептоспира (Leptospira spp.) Лептоспира (Leptospira spp.) Лептоспира (Leptospira spp.) Leptospira spp. Leptospira spp. биоптат аутоптат биоптат аутоптат биоптат аутоптат биоптат аутоптат БТК БТК БТК БТК БТК БТК печень, почки биоптат ткани собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  Микропробирка / Транспортная среда 877  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Коронавирусная инфекция кошек  (FCoV) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) FCoV FCoV влага глаза влага глаза влага глаза влага глаза ВЛГ ВЛГ ВЛГ ВЛГ ВЛГ ВЛГ  Водянистая влага глаза  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 907  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Микобактерия (Mycobacterium tuberculosis complex) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Микобактерия (Mycobacterium tuberculosis complex) Микобактерия (Mycobacterium tuberculosis complex) Микобактерия (Mycobacterium tuberculosis complex) Mycobacterium tuberculosis complex Mycobacterium tuberculosis complex выпотная жидкость выпот выпотная жидкость выпот выпотная жидкость выпот выпотная жидкость выпот ВПТ ВПТ ВПТ ВПТ ВПТ ВПТ  выпотная жидкость собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 870  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Токсоплазма (Toxoplasma gondii) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) Toxoplasma gondii Toxoplasma gondii выпотная жидкость выпот выпотная жидкость выпот выпотная жидкость выпот выпотная жидкость выпот ВПТ ВПТ ВПТ ВПТ ВПТ ВПТ  выпотная жидкость собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 870  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Коронавирусная инфекция кошек  (FCoV) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) FCoV FCoV выпотная жидкость выпот выпотная жидкость выпот выпотная жидкость выпот выпотная жидкость выпот ВПТ ВПТ ВПТ ВПТ ВПТ ВПТ  выпотная жидкость  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 870  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Герпесвирус кошек (FHV-1) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Герпесвирус кошек (FHV-1) Герпесвирус кошек (FHV-1) Герпесвирус кошек (FHV-1) FHV-1 FHV-1 глаз глаз глаз глаз ГЛЗ ГЛЗ ГЛЗ ГЛЗ ГЛЗ ГЛЗ  соскоб эпителиальных клеток конъюнктивы  кошка   кошка   кошка  Микропробирка / Транспортная среда 882  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Микоплазма (Mycoplasma felis) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Микоплазма (Mycoplasma felis) Микоплазма (Mycoplasma felis) Микоплазма (Mycoplasma felis) Mycoplasma felis Mycoplasma felis глаз глаз глаз глаз ГЛЗ ГЛЗ ГЛЗ ГЛЗ ГЛЗ ГЛЗ  соскоб эпителиальных клеток конъюнктивы  кошка   кошка   кошка  Микропробирка / Транспортная среда 882  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Хламидия (Chlamydia felis) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Хламидия (Chlamydia felis) Хламидия (Chlamydia felis) Хламидия (Chlamydia felis) Chlamydia felis Chlamydia felis глаз глаз глаз глаз ГЛЗ ГЛЗ ГЛЗ ГЛЗ ГЛЗ ГЛЗ  соскоб эпителиальных клеток конъюнктивы  кошка   кошка   кошка  Микропробирка / Транспортная среда 882  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус чумы плотоядных (CDV) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) CDV CDV глаз глаз глаз глаз ГЛЗ ГЛЗ ГЛЗ ГЛЗ ГЛЗ ГЛЗ  соскоб эпителиальных клеток конъюнктивы собака  собака  собака  Микропробирка / Транспортная среда 882  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Токсоплазма (Toxoplasma gondii) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) Toxoplasma gondii Toxoplasma gondii глаз глаз глаз глаз ГЛЗ ГЛЗ ГЛЗ ГЛЗ ГЛЗ ГЛЗ  соскоб эпителиальных клеток конъюнктивы собака кошка морские млекопитающие грызуны кролики земноводные пресмыкающиеся  собака кошка морские млекопитающие грызуны кролики земноводные пресмыкающиеся  собака кошка морские млекопитающие грызуны кролики земноводные пресмыкающиеся  Микропробирка / Транспортная среда 882  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Трихомонада (Tritrichomonas blagburni (foetus)) терапия гастроэнтерология  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Трихомонада (Tritrichomonas blagburni (foetus)) Трихомонада (Tritrichomonas blagburni (foetus)) Трихомонада (Tritrichomonas blagburni (foetus)) foetus foetus глубокий смыв прямой кишки трихомонад аспират кишки глубокий смыв прямой кишки трихомонад аспират кишки глубокий смыв прямой кишки трихомонад аспират кишки глубокий смыв прямой кишки трихомонад аспират кишки ГСК ГСК ГСК ГСК ГСК ГСК  глубокий смыв со слизистой оболочки кишечника  кошка   кошка   кошка  Пробирка с белой крышкой 884  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Анаплазма (Anaplasma platys, Anaplasma phagocytophilum)(клещ с животного) терапия  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Анаплазма (Anaplasma platys, Anaplasma phagocytophilum)(клещ с животного) Анаплазма (Anaplasma platys, Anaplasma phagocytophilum)(клещ с животного) Анаплазма (Anaplasma platys, Anaplasma phagocytophilum)(клещ с животного) Anaplasma platys, Anaplasma phagocytophilum клещ с животного Anaplasma platys, Anaplasma phagocytophilum клещ с животного клещ клещ клещ клещ КЛЩ КЛЩ КЛЩ КЛЩ КЛЩ КЛЩ  клещ  клещ  клещ  клещ Пробирка с белой крышкой 820  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бабезия (Babesia spp.)(клещ с животного) терапия  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бабезия (Babesia spp.)(клещ с животного) Бабезия (Babesia spp.)(клещ с животного) Бабезия (Babesia spp.)(клещ с животного) Babesia spp. клещ с животного Babesia spp. клещ с животного клещ клещ клещ клещ КЛЩ КЛЩ КЛЩ КЛЩ КЛЩ КЛЩ  клещ  клещ  клещ  клещ Пробирка с белой крышкой 820  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Боррелия (Borrelia burgdorferi sensu lato)(клещ с животного) терапия  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Боррелия (Borrelia burgdorferi sensu lato)(клещ с животного) Боррелия (Borrelia burgdorferi sensu lato)(клещ с животного) Боррелия (Borrelia burgdorferi sensu lato)(клещ с животного) Borrelia burgdorferi sensu lato клещ с животного Borrelia burgdorferi sensu lato клещ с животного клещ клещ клещ клещ КЛЩ КЛЩ КЛЩ КЛЩ КЛЩ КЛЩ  клещ  клещ  клещ  клещ Пробирка с белой крышкой 820  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Эрлихия (Ehrlichia canis)(клещ с животного) терапия  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Эрлихия (Ehrlichia canis)(клещ с животного) Эрлихия (Ehrlichia canis)(клещ с животного) Эрлихия (Ehrlichia canis)(клещ с животного) Ehrlichia canis клещ с животного Ehrlichia canis клещ с животного клещ клещ клещ клещ КЛЩ КЛЩ КЛЩ КЛЩ КЛЩ КЛЩ  клещ  клещ  клещ  клещ Пробирка с белой крышкой 820  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Исследование клеща c животного (анаплазма (Anaplasma phagocytophilum, Anaplasma platys), бабезия (Babesia spp.), эрлихия (Ehrlichia canis), боррелия (Borrelia burgdorferi sensu lato)) терапия  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Исследование клеща c животного (анаплазма (Anaplasma phagocytophilum, Anaplasma platys), бабезия (Babesia spp.), эрлихия (Ehrlichia canis), боррелия (Borrelia burgdorferi sensu lato)) Исследование клеща c животного (анаплазма (Anaplasma phagocytophilum, Anaplasma platys), бабезия (Babesia spp.), эрлихия (Ehrlichia canis), боррелия (Borrelia burgdorferi sensu lato)) Исследование клеща c животного (анаплазма (Anaplasma phagocytophilum, Anaplasma platys), бабезия (Babesia spp.), эрлихия (Ehrlichia canis), боррелия (Borrelia burgdorferi sensu lato)) Anaplasma phagocytophilum, Anaplasma platys Babesia spp. Ehrlichia canis Borrelia burgdorferi sensu lato Anaplasma phagocytophilum, Anaplasma platys Babesia spp. Ehrlichia canis Borrelia burgdorferi sensu lato     КЛ КЛ КЛ КЛ КЛ КЛ  клещ  клещ  клещ  клещ Пробирка с белой крышкой 820  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика) Анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика) Анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика) Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика костный мозг костный мозг костный мозг костный мозг КМ КМ КМ КМ КМ КМ  костный мозг (КМ) собака кошка  собака кошка  собака кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 873  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бабезия (Babesia spp.) терапия  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бабезия (Babesia spp.) Бабезия (Babesia spp.) Бабезия (Babesia spp.) Babesia spp. Babesia spp. костный мозг костный мозг костный мозг костный мозг КМ КМ КМ КМ КМ КМ  костный мозг (КМ) собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 873  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бабезия Гибсона (Babesia gibsoni) терапия  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бабезия Гибсона (Babesia gibsoni) Бабезия Гибсона (Babesia gibsoni) Бабезия Гибсона (Babesia gibsoni) Babesia gibsoni Babesia gibsoni костный мозг костный мозг костный мозг костный мозг КМ КМ КМ КМ КМ КМ  костный мозг (КМ) собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 873  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гепатозоон (Hepatozoon canis) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Гепатозоон (Hepatozoon canis) Гепатозоон (Hepatozoon canis) Гепатозоон (Hepatozoon canis) Hepatozoon canis Hepatozoon canis костный мозг костный мозг костный мозг костный мозг КМ КМ КМ КМ КМ КМ  костный мозг (КМ) собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 873  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Лейшмания (Leishmania spp.) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Лейшмания (Leishmania spp.) Лейшмания (Leishmania spp.) Лейшмания (Leishmania spp.) Leishmania spp. Leishmania spp. костный мозг костный мозг костный мозг костный мозг КМ КМ КМ КМ КМ КМ  костный мозг (КМ) собака кошка  собака кошка  собака кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 873  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Эрлихия (Ehrlichia canis) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Эрлихия (Ehrlichia canis) Эрлихия (Ehrlichia canis) Эрлихия (Ehrlichia canis) Ehrlichia canis Ehrlichia canis костный мозг костный мозг костный мозг костный мозг КМ КМ КМ КМ КМ КМ  костный мозг (КМ) собака кошка  собака кошка  собака кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 873  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус иммунодефицита (FIV, обнаружение провирусной ДНК) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус иммунодефицита (FIV, обнаружение провирусной ДНК) Вирус иммунодефицита (FIV, обнаружение провирусной ДНК) Вирус иммунодефицита (FIV, обнаружение провирусной ДНК) FIV, обнаружение провирусной ДНК FIV, обнаружение провирусной ДНК костный мозг костный мозг костный мозг костный мозг КМ КМ КМ КМ КМ КМ  костный мозг (КМ)  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 873  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус лейкемии (FeLV, обнаружение провирусной ДНК) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус лейкемии (FeLV, обнаружение провирусной ДНК) Вирус лейкемии (FeLV, обнаружение провирусной ДНК) Вирус лейкемии (FeLV, обнаружение провирусной ДНК) FeLV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК костный мозг костный мозг костный мозг костный мозг КМ КМ КМ КМ КМ КМ  костный мозг (КМ)  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 873  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Аденовирус 1 типа (CAV 1) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Аденовирус 1 типа (CAV 1) Аденовирус 1 типа (CAV 1) Аденовирус 1 типа (CAV 1) CAV 1 CAV 1 кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика) Анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика) Анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика) Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бабезия (Babesia spp.) терапия  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бабезия (Babesia spp.) Бабезия (Babesia spp.) Бабезия (Babesia spp.) Babesia spp. Babesia spp. кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бабезия Гибсона (Babesia gibsoni) терапия  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бабезия Гибсона (Babesia gibsoni) Бабезия Гибсона (Babesia gibsoni) Бабезия Гибсона (Babesia gibsoni) Babesia gibsoni Babesia gibsoni кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бабезия (Babesia canis) терапия  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бабезия (Babesia canis) Бабезия (Babesia canis) Бабезия (Babesia canis) Babesia canis Babesia canis кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бартонелла (Bartonеlla spp.) терапия  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бартонелла (Bartonеlla spp.) Бартонелла (Bartonеlla spp.) Бартонелла (Bartonеlla spp.) Bartonеlla spp. Bartonеlla spp. кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бруцелла (Brucella spp.) терапия репродуктология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) Brucella spp. Brucella spp. кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус чумы плотоядных (CDV) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) CDV CDV кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гемоплазма (Haemobartonella canis/Mycoplasma haemocanis) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Гемоплазма (Haemobartonella canis/Mycoplasma haemocanis) Гемоплазма (Haemobartonella canis/Mycoplasma haemocanis) Гемоплазма (Haemobartonella canis/Mycoplasma haemocanis) Haemobartonella canis/Mycoplasma haemocanis Haemobartonella canis/Mycoplasma haemocanis кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гемоплазма (Mycoplasma haemofelis) кол. терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Гемоплазма (Mycoplasma haemofelis) кол. Гемоплазма (Mycoplasma haemofelis) кол. Гемоплазма (Mycoplasma haemofelis) кол. Mycoplasma haemofelis Mycoplasma haemofelis кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гемоплазма (Candidatus Mycoplasma haemominutum) кол. терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Гемоплазма (Candidatus Mycoplasma haemominutum) кол. Гемоплазма (Candidatus Mycoplasma haemominutum) кол. Гемоплазма (Candidatus Mycoplasma haemominutum) кол. Candidatus Mycoplasma haemominutum Candidatus Mycoplasma haemominutum кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гепатозоон (Hepatozoon canis) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Гепатозоон (Hepatozoon canis) Гепатозоон (Hepatozoon canis) Гепатозоон (Hepatozoon canis) Hepatozoon canis Hepatozoon canis кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака кошка  собака кошка  собака кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дирофилярии (Dirofilaria immitis и Dirofilaria repens, дифференциальная диагностика) терапия кардиология Тесты Тесты ПЦР-диагностика ПЦР-диагностика Дирофилярии (Dirofilaria immitis и Dirofilaria repens, дифференциальная диагностика) Дирофилярии (Dirofilaria immitis и Dirofilaria repens, дифференциальная диагностика) Дирофилярии (Dirofilaria immitis и Dirofilaria repens, дифференциальная диагностика) Dirofilaria immitis и Dirofilaria repens, дифференциальная диагностика Dirofilaria immitis и Dirofilaria repens, дифференциальная диагностика кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся  собака морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся  собака морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Калицивирус (FCV) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Калицивирус (FCV) Калицивирус (FCV) Калицивирус (FCV) FCV FCV кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Лейшмания (Leishmania spp.) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Лейшмания (Leishmania spp.) Лейшмания (Leishmania spp.) Лейшмания (Leishmania spp.) Leishmania spp. Leishmania spp. кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака кошка  собака кошка  собака кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Лептоспира (Leptospira spp.) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Лептоспира (Leptospira spp.) Лептоспира (Leptospira spp.) Лептоспира (Leptospira spp.) Leptospira spp. Leptospira spp. кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Эрлихия (Ehrlichia canis) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Эрлихия (Ehrlichia canis) Эрлихия (Ehrlichia canis) Эрлихия (Ehrlichia canis) Ehrlichia canis Ehrlichia canis кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака хорьки грызуны кролики земноводные пресмыкающиеся  собака хорьки грызуны кролики земноводные пресмыкающиеся  собака хорьки грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус иммунодефицита (FIV, обнаружение провирусной ДНК) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус иммунодефицита (FIV, обнаружение провирусной ДНК) Вирус иммунодефицита (FIV, обнаружение провирусной ДНК) Вирус иммунодефицита (FIV, обнаружение провирусной ДНК) FIV, обнаружение провирусной ДНК FIV, обнаружение провирусной ДНК кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус лейкемии (FeLV, обнаружение провирусной ДНК) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус лейкемии (FeLV, обнаружение провирусной ДНК) Вирус лейкемии (FeLV, обнаружение провирусной ДНК) Вирус лейкемии (FeLV, обнаружение провирусной ДНК) FeLV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус лейкемии (FeLV, обнаружение вирусной РНК) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус лейкемии (FeLV, обнаружение вирусной РНК) Вирус лейкемии (FeLV, обнаружение вирусной РНК) Вирус лейкемии (FeLV, обнаружение вирусной РНК) FeLV, обнаружение вирусной РНК FeLV, обнаружение вирусной РНК кровь кровь кровь кровь КР КР КР КР КР КР  сыворотка крови  кошка   кошка   кошка  Пробирка с красной крышкой, с ГЕЛЕМ 912  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус лейкемии (FeLV, количественное обнаружение вирусной РНК) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус лейкемии (FeLV, количественное обнаружение вирусной РНК) Вирус лейкемии (FeLV, количественное обнаружение вирусной РНК) Вирус лейкемии (FeLV, количественное обнаружение вирусной РНК) FeLV, количественное обнаружение вирусной РНК FeLV, количественное обнаружение вирусной РНК кровь кровь кровь кровь КР КР КР КР КР КР  сыворотка крови  кошка   кошка   кошка  Пробирка с красной крышкой, с ГЕЛЕМ 912  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Пастерелла мультоцида (Pasteurella multocida) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Пастерелла мультоцида (Pasteurella multocida) Пастерелла мультоцида (Pasteurella multocida) Пастерелла мультоцида (Pasteurella multocida) Pasteurella multocida Pasteurella multocida кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Токсоплазма (Toxoplasma gondii) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) Toxoplasma gondii Toxoplasma gondii кровь кровь кровь кровь КР КР КР КР КР КР  кровь с ЭДТА  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Криптококк (Cryptococcus spp.) терапия инфекции неврология  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Криптококк (Cryptococcus spp.) Криптококк (Cryptococcus spp.) Криптококк (Cryptococcus spp.) Cryptococcus spp. Cryptococcus spp. ликвор спинномозговая жидкость ликвор спинномозговая жидкость ликвор спинномозговая жидкость ликвор спинномозговая жидкость ЛИК ЛИК ЛИК ЛИК ЛИК ЛИК  ликвор собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  Пробирка с Сиреневой крышкой / Калий ЭДТА 875  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Неоспора (Neospora caninum) терапия инфекции неврология  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Неоспора (Neospora caninum) Неоспора (Neospora caninum) Неоспора (Neospora caninum) Neospora caninum Neospora caninum ликвор спинномозговая жидкость ликвор спинномозговая жидкость ликвор спинномозговая жидкость ликвор спинномозговая жидкость ЛИК ЛИК ЛИК ЛИК ЛИК ЛИК  ликвор собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 875  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Коронавирусная инфекция кошек  (FCoV) терапия инфекции неврология  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) FCoV FCoV ликвор спинномозговая жидкость ликвор спинномозговая жидкость ликвор спинномозговая жидкость ликвор спинномозговая жидкость ЛИК ЛИК ЛИК ЛИК ЛИК ЛИК  ликвор  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 875  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Аденовирус 1 типа (CAV 1) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Аденовирус 1 типа (CAV 1) Аденовирус 1 типа (CAV 1) Аденовирус 1 типа (CAV 1) CAV 1 CAV 1 моча моча моча моча МОЧ МОЧ МОЧ МОЧ МОЧ МОЧ  моча  собака  собака  собака  Пробирка с белой крышкой 866  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Лептоспира (Leptospira spp.) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Лептоспира (Leptospira spp.) Лептоспира (Leptospira spp.) Лептоспира (Leptospira spp.) Leptospira spp. Leptospira spp. моча моча моча моча МОЧ МОЧ МОЧ МОЧ МОЧ МОЧ  моча  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  Пробирка с белой крышкой 866  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Аденовирус 2 типа (CAV 2) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Аденовирус 2 типа (CAV 2) Аденовирус 2 типа (CAV 2) Аденовирус 2 типа (CAV 2) CAV 2 CAV 2 нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости собака  собака  собака  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Aspergillus fumigatus/ flavus/terreus/niger Aspergillus fumigatus/ flavus/terreus/niger нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бордетелла (Bordetella bronchiseptica) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бордетелла (Bordetella bronchiseptica) Бордетелла (Bordetella bronchiseptica) Бордетелла (Bordetella bronchiseptica) Bordetella bronchiseptica Bordetella bronchiseptica нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус парагриппа (СPiV) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус парагриппа (СPiV) Вирус парагриппа (СPiV) Вирус парагриппа (СPiV) СPiV СPiV нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости собака  собака  собака  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус чумы плотоядных (CDV) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) CDV CDV нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости собака  собака  собака  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Возбудитель болезни Ауески (ДНК SuHV1/ ДНК гена gE полевых штаммов)  инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Возбудитель болезни Ауески (ДНК SuHV1/ ДНК гена gE полевых штаммов) Возбудитель болезни Ауески (ДНК SuHV1/ ДНК гена gE полевых штаммов) Возбудитель болезни Ауески (ДНК SuHV1/ ДНК гена gE полевых штаммов) ДНК SuHV1/ ДНК гена gE полевых штаммов ДНК SuHV1/ ДНК гена gE полевых штаммов нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости собака кошка  собака кошка  собака кошка  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Герпесвирус собак (CHV 1) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Герпесвирус собак (CHV 1) Герпесвирус собак (CHV 1) Герпесвирус собак (CHV 1) CHV 1 CHV 1 нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости собака  собака  собака  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Криптококк (Cryptococcus spp.) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Криптококк (Cryptococcus spp.) Криптококк (Cryptococcus spp.) Криптококк (Cryptococcus spp.) Cryptococcus spp. Cryptococcus spp. нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  собака кошка грызуны кролики земноводные пресмыкающиеся  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Микоплазма (Mycoplasma cynos) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Микоплазма (Mycoplasma cynos) Микоплазма (Mycoplasma cynos) Микоплазма (Mycoplasma cynos) Mycoplasma cynos Mycoplasma cynos нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости собака  собака  собака  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Микоплазма (Mycoplasma spp.)  респирторная система экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Микоплазма (Mycoplasma spp.) Микоплазма (Mycoplasma spp.) Микоплазма (Mycoplasma spp.) Mycoplasma spp. Mycoplasma spp. нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости  хорьки грызуны кролики земноводные пресмыкающиеся   хорьки грызуны кролики земноводные пресмыкающиеся   хорьки грызуны кролики земноводные пресмыкающиеся  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Хламидия (Сhlamydia spp.) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Хламидия (Сhlamydia spp.) Хламидия (Сhlamydia spp.) Хламидия (Сhlamydia spp.) Сhlamydia spp. Сhlamydia spp. нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости собака хорьки грызуны кролики земноводные пресмыкающиеся  собака хорьки грызуны кролики земноводные пресмыкающиеся  собака хорьки грызуны кролики земноводные пресмыкающиеся  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Герпесвирус кошек (FHV-1) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Герпесвирус кошек (FHV-1) Герпесвирус кошек (FHV-1) Герпесвирус кошек (FHV-1) FHV-1 FHV-1 нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости  кошка   кошка   кошка  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Калицивирус (FCV) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Калицивирус (FCV) Калицивирус (FCV) Калицивирус (FCV) FCV FCV нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости  кошка   кошка   кошка  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Микоплазма (Mycoplasma felis) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Микоплазма (Mycoplasma felis) Микоплазма (Mycoplasma felis) Микоплазма (Mycoplasma felis) Mycoplasma felis Mycoplasma felis нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости  кошка   кошка   кошка  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Пастерелла мультоцида (Pasteurella multocida) терапия респирторная система экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Пастерелла мультоцида (Pasteurella multocida) Пастерелла мультоцида (Pasteurella multocida) Пастерелла мультоцида (Pasteurella multocida) Pasteurella multocida Pasteurella multocida нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Хламидия (Chlamydia felis) терапия респирторная система инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Хламидия (Chlamydia felis) Хламидия (Chlamydia felis) Хламидия (Chlamydia felis) Chlamydia felis Chlamydia felis нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости  кошка   кошка   кошка  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Аденовирус 1 типа (CAV 1) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Аденовирус 1 типа (CAV 1) Аденовирус 1 типа (CAV 1) Аденовирус 1 типа (CAV 1) CAV 1 CAV 1 смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки собака  собака  собака  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус чумы плотоядных (CDV) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) CDV CDV смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки собака хорьки  собака хорьки  собака хорьки  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гиардиа (Giardia lamblia spp.) терапия гастроэнтерология  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Гиардиа (Giardia lamblia spp.) Гиардиа (Giardia lamblia spp.) Гиардиа (Giardia lamblia spp.) Giardia lamblia spp. Giardia lamblia spp. смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки собака кошка морские млекопитающие грызуны кролики птицы декоративные земноводные пресмыкающиеся  собака кошка морские млекопитающие грызуны кролики птицы декоративные земноводные пресмыкающиеся  собака кошка морские млекопитающие грызуны кролики птицы декоративные земноводные пресмыкающиеся  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Коронавирус собак энтеральный (CCoV 1) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Коронавирус собак энтеральный (CCoV 1) Коронавирус собак энтеральный (CCoV 1) Коронавирус собак энтеральный (CCoV 1) CCoV 1 CCoV 1 смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки собака  собака  собака  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Криптоспоридии (Cryptosporidium spp.) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Криптоспоридии (Cryptosporidium spp.) Криптоспоридии (Cryptosporidium spp.) Криптоспоридии (Cryptosporidium spp.) Cryptosporidium spp. Cryptosporidium spp. смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки собака кошка морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Парвовирус собак (CPV 2) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Парвовирус собак (CPV 2) Парвовирус собак (CPV 2) Парвовирус собак (CPV 2) CPV 2 CPV 2 смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки собака  собака  собака  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ротавирус А (Rotavirus А) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Ротавирус А (Rotavirus А) Ротавирус А (Rotavirus А) Ротавирус А (Rotavirus А) Rotavirus А Rotavirus А смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки собака кошка морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Сальмонелла (Salmonella spp.) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Сальмонелла (Salmonella spp.) Сальмонелла (Salmonella spp.) Сальмонелла (Salmonella spp.) Salmonella spp. Salmonella spp. смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки собака кошка морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус панлейкопении (FPV) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус панлейкопении (FPV) Вирус панлейкопении (FPV) Вирус панлейкопении (FPV) FPV FPV смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки  кошка   кошка   кошка  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кампилобактер (Campylobacter spp.) терапия гастроэнтерология  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Кампилобактер (Campylobacter spp.) Кампилобактер (Campylobacter spp.) Кампилобактер (Campylobacter spp.) Campylobacter spp. Campylobacter spp. смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Клостридиальный энтеротоксин (Clostridium perfringens) терапия гастроэнтерология  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Клостридиальный энтеротоксин (Clostridium perfringens) Клостридиальный энтеротоксин (Clostridium perfringens) Клостридиальный энтеротоксин (Clostridium perfringens) Clostridium perfringens Clostridium perfringens смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Коронавирус кошек энтеральный (FCoV) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Коронавирус кошек энтеральный (FCoV) Коронавирус кошек энтеральный (FCoV) Коронавирус кошек энтеральный (FCoV) FCoV FCoV смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки  кошка   кошка   кошка  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Токсоплазма (Toxoplasma gondii) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) Toxoplasma gondii Toxoplasma gondii смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки  кошка   кошка   кошка  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бартонелла (Bartonalla spp.) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бартонелла (Bartonalla spp.) Бартонелла (Bartonalla spp.) Бартонелла (Bartonalla spp.) Bartonalla spp. Bartonalla spp. рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости РОТ РОТ РОТ РОТ РОТ РОТ  соскоб эпителиальных клеток слизистой ротовой полости  кошка   кошка   кошка  Микропробирка / Транспортная среда 883  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Герпесвирус кошек (FHV-1) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Герпесвирус кошек (FHV-1) Герпесвирус кошек (FHV-1) Герпесвирус кошек (FHV-1) FHV-1 FHV-1 рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости РОТ РОТ РОТ РОТ РОТ РОТ  соскоб эпителиальных клеток слизистой ротовой полости  кошка   кошка   кошка  Микропробирка / Транспортная среда 883  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Калицивирус (FCV) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Калицивирус (FCV) Калицивирус (FCV) Калицивирус (FCV) FCV FCV рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости РОТ РОТ РОТ РОТ РОТ РОТ  соскоб эпителиальных клеток слизистой ротовой полости  кошка   кошка   кошка  Микропробирка / Транспортная среда 883  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Пастерелла мультоцида (Pasteurella multocida) терапия экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Пастерелла мультоцида (Pasteurella multocida) Пастерелла мультоцида (Pasteurella multocida) Пастерелла мультоцида (Pasteurella multocida) Pasteurella multocida Pasteurella multocida рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости РОТ РОТ РОТ РОТ РОТ РОТ  соскоб эпителиальных клеток слизистой ротовой полости собака кошка грызуны кролики  собака кошка грызуны кролики  собака кошка грызуны кролики  Микропробирка / Транспортная среда 883  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Токсоплазма (Toxoplasma gondii) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) Toxoplasma gondii Toxoplasma gondii рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости РОТ РОТ РОТ РОТ РОТ РОТ  соскоб эпителиальных клеток слизистой ротовой полости собака морские млекопитающие грызуны кролики земноводные пресмыкающиеся  собака морские млекопитающие грызуны кролики земноводные пресмыкающиеся  собака морские млекопитающие грызуны кролики земноводные пресмыкающиеся  Микропробирка / Транспортная среда 883  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Боррелия (Borrelia burgdorferi sensu lato) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Боррелия (Borrelia burgdorferi sensu lato) Боррелия (Borrelia burgdorferi sensu lato) Боррелия (Borrelia burgdorferi sensu lato) Borrelia burgdorferi sensu lato Borrelia burgdorferi sensu lato синовиальная жидкость суставная жидкость синовий синовиальная жидкость суставная жидкость синовий синовиальная жидкость суставная жидкость синовий синовиальная жидкость суставная жидкость синовий СИН СИН СИН СИН СИН СИН  синовия собака  собака  собака  Пробирка с сиреневой крышкой / Калий ЭДТА 874  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бруцелла (Brucella spp.) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) Brucella spp. Brucella spp. синовиальная жидкость суставная жидкость синовий синовиальная жидкость суставная жидкость синовий синовиальная жидкость суставная жидкость синовий синовиальная жидкость суставная жидкость синовий СИН СИН СИН СИН СИН СИН  синовия собака  собака  собака  Пробирка с сиреневой крышкой / Калий ЭДТА 874  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бруцелла (Brucella spp.) терапия репродуктология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) Brucella spp. Brucella spp. сперма сперма сперма сперма СП СП СП СП СП СП  сперма собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 879  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Микоплазма (Mycoplasma canis) терапия репродуктология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Микоплазма (Mycoplasma canis) Микоплазма (Mycoplasma canis) Микоплазма (Mycoplasma canis) Mycoplasma canis Mycoplasma canis сперма сперма сперма сперма СП СП СП СП СП СП  сперма собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 879  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Коронавирусная инфекция кошек  (FCoV) терапия инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) FCoV FCoV туберкулёз туберкулёз туберкулёз туберкулёз ТБ ТБ ТБ ТБ ТБ ТБ  ТИАБ  кошка   кошка   кошка  Микропробирка / Транспортная среда 867  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Бруцелла (Brucella spp.) терапия репродуктология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) Brucella spp. Brucella spp. урогенитальный соскоб урогенитальный соскоб урогенитальный соскоб урогенитальный соскоб УРО УРО УРО УРО УРО УРО  соскоб эпителиальных клеток  слизистой влагалища собака морские млекопитающие  собака морские млекопитающие  собака морские млекопитающие  Микропробирка / Транспортная среда 878  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Герпесвирус собак (CHV 1) терапия репродуктология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Герпесвирус собак (CHV 1) Герпесвирус собак (CHV 1) Герпесвирус собак (CHV 1) CHV 1 CHV 1 урогенитальный соскоб урогенитальный соскоб урогенитальный соскоб урогенитальный соскоб УРО УРО УРО УРО УРО УРО  соскоб эпителиальных клеток  слизистой влагалища собака  собака  собака  Микропробирка / Транспортная среда 878  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Микоплазма (Mycoplasma canis) терапия репродуктология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Микоплазма (Mycoplasma canis) Микоплазма (Mycoplasma canis) Микоплазма (Mycoplasma canis) Mycoplasma canis Mycoplasma canis урогенитальный соскоб урогенитальный соскоб урогенитальный соскоб урогенитальный соскоб УРО УРО УРО УРО УРО УРО  соскоб эпителиальных клеток  слизистой влагалища собака  собака  собака  Микропробирка / Транспортная среда 878  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Аденовирус 1 типа (CAV 1) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Аденовирус 1 типа (CAV 1) Аденовирус 1 типа (CAV 1) Аденовирус 1 типа (CAV 1) CAV 1 CAV 1 фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии собака  собака  собака  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус чумы плотоядных (CDV) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) CDV CDV фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии собака хорьки  собака хорьки  собака хорьки  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гиардиа (Giardia lamblia spp.) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Гиардиа (Giardia lamblia spp.) Гиардиа (Giardia lamblia spp.) Гиардиа (Giardia lamblia spp.) Giardia lamblia spp. Giardia lamblia spp. фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии собака кошка морские млекопитающие хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  собака кошка морские млекопитающие хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  собака кошка морские млекопитающие хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Клостридиальный энтеротоксин (Clostridium perfringens) терапия гастроэнтерология  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Клостридиальный энтеротоксин (Clostridium perfringens) Клостридиальный энтеротоксин (Clostridium perfringens) Клостридиальный энтеротоксин (Clostridium perfringens) Clostridium perfringens Clostridium perfringens фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кампилобактер (Campylobacter spp.) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Кампилобактер (Campylobacter spp.) Кампилобактер (Campylobacter spp.) Кампилобактер (Campylobacter spp.) Campylobacter spp. Campylobacter spp. фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка хорьки грызуны кролики земноводные пресмыкающиеся  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Коронавирус собак энтеральный (CCoV 1) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Коронавирус собак энтеральный (CCoV 1) Коронавирус собак энтеральный (CCoV 1) Коронавирус собак энтеральный (CCoV 1) CCoV 1 CCoV 1 фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии собака  собака  собака  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Криптоспоридии (Cryptosporidium spp.) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Криптоспоридии (Cryptosporidium spp.) Криптоспоридии (Cryptosporidium spp.) Криптоспоридии (Cryptosporidium spp.) Cryptosporidium spp. Cryptosporidium spp. фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии собака кошка морские млекопитающие хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  собака кошка морские млекопитающие хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  собака кошка морские млекопитающие хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Парвовирус собак (CPV 2) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Парвовирус собак (CPV 2) Парвовирус собак (CPV 2) Парвовирус собак (CPV 2) CPV 2 CPV 2 фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии собака  собака  собака  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ротавирус А (Rotavirus А) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Ротавирус А (Rotavirus А) Ротавирус А (Rotavirus А) Ротавирус А (Rotavirus А) Rotavirus А Rotavirus А фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии собака кошка морские млекопитающие лошадь хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка морские млекопитающие лошадь хорьки грызуны кролики земноводные пресмыкающиеся  собака кошка морские млекопитающие лошадь хорьки грызуны кролики земноводные пресмыкающиеся  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Сальмонелла (Salmonella spp.) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Сальмонелла (Salmonella spp.) Сальмонелла (Salmonella spp.) Сальмонелла (Salmonella spp.) Salmonella spp. Salmonella spp. фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус панлейкопении (FPV) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Вирус панлейкопении (FPV) Вирус панлейкопении (FPV) Вирус панлейкопении (FPV) FPV FPV фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии  кошка   кошка   кошка  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Коронавирус кошек энтеральный (FCoV) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Коронавирус кошек энтеральный (FCoV) Коронавирус кошек энтеральный (FCoV) Коронавирус кошек энтеральный (FCoV) FCoV FCoV фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии  кошка   кошка   кошка  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Токсоплазма (Toxoplasma gondii) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) Toxoplasma gondii Toxoplasma gondii фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии  кошка   кошка   кошка  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Трихомонада (Tritrichomonas blagburni (foetus)) терапия гастроэнтерология инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Трихомонада (Tritrichomonas blagburni (foetus)) Трихомонада (Tritrichomonas blagburni (foetus)) Трихомонада (Tritrichomonas blagburni (foetus)) foetus foetus фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии  кошка   кошка   кошка  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) терапия экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Aspergillus fumigatus/ flavus/terreus/niger Aspergillus fumigatus/ flavus/terreus/niger фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии  птицы декоративные   птицы декоративные   птицы декоративные  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Микобактерия (Mycobacterium avium complex/ M. Avium) терапия экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Микобактерия (Mycobacterium avium complex/ M. Avium) Микобактерия (Mycobacterium avium complex/ M. Avium) Микобактерия (Mycobacterium avium complex/ M. Avium) Mycobacterium avium complex/ M. Avium Mycobacterium avium complex/ M. Avium фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии  птицы декоративные   птицы декоративные   птицы декоративные  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Хламидия (Clamydophila psittaci) терапия экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Хламидия (Clamydophila psittaci) Хламидия (Clamydophila psittaci) Хламидия (Clamydophila psittaci) Clamydophila psittaci Clamydophila psittaci фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии  птицы декоративные   птицы декоративные   птицы декоративные  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Хламидия (Clamydophila psittaci) терапия экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Хламидия (Clamydophila psittaci) Хламидия (Clamydophila psittaci) Хламидия (Clamydophila psittaci) Clamydophila psittaci Clamydophila psittaci нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС НОС НОС НОС НОС  соскоб эпителиальных клеток слизистой носовой полости  птицы декоративные   птицы декоративные   птицы декоративные  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Коронавирус хорьков энтеральный (FEC) терапия экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Коронавирус хорьков энтеральный (FEC) Коронавирус хорьков энтеральный (FEC) Коронавирус хорьков энтеральный (FEC) FEC FEC смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки  хорьки   хорьки   хорьки  Микропробирка / Транспортная среда 893  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Коронавирус хорьков энтеральный (FEC) терапия экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Коронавирус хорьков энтеральный (FEC) Коронавирус хорьков энтеральный (FEC) Коронавирус хорьков энтеральный (FEC) FEC FEC фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии  хорьки   хорьки   хорьки  Контейнер для кала с ложечкой 869  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Коронавирус хорьков системный (FRSCV) терапия экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Коронавирус хорьков системный (FRSCV) Коронавирус хорьков системный (FRSCV) Коронавирус хорьков системный (FRSCV) FRSCV FRSCV аспират аспират аспират аспират АСП АСП АСП АСП АСП АСП  аспират ткани  хорьки   хорьки   хорьки  Пробирка с Сиреневой крышкой / Калий ЭДТА 896  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Коронавирус хорьков системный (FRSCV) терапия экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Коронавирус хорьков системный (FRSCV) Коронавирус хорьков системный (FRSCV) Коронавирус хорьков системный (FRSCV) FRSCV FRSCV биоптат аутоптат биоптат аутоптат биоптат аутоптат биоптат аутоптат БТК БТК БТК БТК БТК БТК  биоптат ткани  хорьки   хорьки   хорьки  Стерильный контейнер с красной крышкой / 70% спирт 895  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Коронавирус хорьков системный (FRSCV) терапия экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Коронавирус хорьков системный (FRSCV) Коронавирус хорьков системный (FRSCV) Коронавирус хорьков системный (FRSCV) FRSCV FRSCV выпотная жидкость выпот выпотная жидкость выпот выпотная жидкость выпот выпотная жидкость выпот ВПТ ВПТ ВПТ ВПТ ВПТ ВПТ  выпотная жидкость  хорьки   хорьки   хорьки  Пробирка с Сиреневой крышкой / Калий ЭДТА 894  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Парвовирус норок (MEV) терапия экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Парвовирус норок (MEV) Парвовирус норок (MEV) Парвовирус норок (MEV) MEV MEV смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК ПРК ПРК ПРК ПРК  соскоб эпителиальных клеток слизистой прямой кишки  хорьки   хорьки   хорьки  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Парвовирус норок (MEV) терапия экзоты инфекции  Тесты Тесты ПЦР-диагностика ПЦР-диагностика Парвовирус норок (MEV) Парвовирус норок (MEV) Парвовирус норок (MEV) MEV MEV фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК ФК ФК ФК ФК  фекалии  хорьки   хорьки   хорьки  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус А (агути)  генетика  Тесты Тесты Генетика Генетика Локус А (агути) Локус А (агути) Локус А (агути) агути агути     ГА ГА ГА ГА ГА ГА  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус B (коричневый)  генетика  Тесты Тесты Генетика Генетика Локус B (коричневый) Локус B (коричневый) Локус B (коричневый) коричневый коричневый     ГВ ГВ ГВ ГВ ГВ ГВ  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Коричневый окрас шерсти, аллель bA  генетика  Тесты Тесты Генетика Генетика Коричневый окрас шерсти, аллель bA Коричневый окрас шерсти, аллель bA Коричневый окрас шерсти, аллель bA       GBA GBA GBA GBA GBA GBA  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Окрас какао/шоколад Французского бульдога (Cocoa)  генетика  Тесты Тесты Генетика Генетика Окрас какао/шоколад Французского бульдога (Cocoa) Окрас какао/шоколад Французского бульдога (Cocoa) Окрас какао/шоколад Французского бульдога (Cocoa) Cocoa Cocoa     ОС ОС ОС ОС ОС ОС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус C, аллель ch  генетика  Тесты Тесты Генетика Генетика Локус C, аллель ch Локус C, аллель ch Локус C, аллель ch       GC GC GC GC GC GC  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус D, аллель d1 (осветленный)  генетика  Тесты Тесты Генетика Генетика Локус D, аллель d1 (осветленный) Локус D, аллель d1 (осветленный) Локус D, аллель d1 (осветленный) осветленный осветленный     ГД ГД ГД ГД ГД ГД  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус D, аллель d2 (осветленный)  генетика  Тесты Тесты Генетика Генетика Локус D, аллель d2 (осветленный) Локус D, аллель d2 (осветленный) Локус D, аллель d2 (осветленный) осветленный осветленный            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус D, аллель d3 (осветленный)  генетика  Тесты Тесты Генетика Генетика Локус D, аллель d3 (осветленный) Локус D, аллель d3 (осветленный) Локус D, аллель d3 (осветленный) осветленный осветленный            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус Е, аллели EM (маска) и е1 (палевый)  генетика  Тесты Тесты Генетика Генетика Локус Е, аллели EM (маска) и е1 (палевый) Локус Е, аллели EM (маска) и е1 (палевый) Локус Е, аллели EM (маска) и е1 (палевый) маска палевый маска палевый     ГЕ ГЕ ГЕ ГЕ ГЕ ГЕ  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус Е, аллель e2 (кремовый окрас австралийской пастушьей собаки)  генетика  Тесты Тесты Генетика Генетика Локус Е, аллель e2 (кремовый окрас австралийской пастушьей собаки) Локус Е, аллель e2 (кремовый окрас австралийской пастушьей собаки) Локус Е, аллель e2 (кремовый окрас австралийской пастушьей собаки) кремовый окрас австралийской пастушьей собаки кремовый окрас австралийской пастушьей собаки            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус Е, аллель e3 (светло-кремовый окрас хаски)  генетика  Тесты Тесты Генетика Генетика Локус Е, аллель e3 (светло-кремовый окрас хаски) Локус Е, аллель e3 (светло-кремовый окрас хаски) Локус Е, аллель e3 (светло-кремовый окрас хаски) светло-кремовый окрас хаски светло-кремовый окрас хаски            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус Е, аллель EG (гризли, домино)  генетика  Тесты Тесты Генетика Генетика Локус Е, аллель EG (гризли, домино) Локус Е, аллель EG (гризли, домино) Локус Е, аллель EG (гризли, домино) гризли, домино гризли, домино     GEG GEG GEG GEG GEG GEG  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус Е, аллель еА  генетика  Тесты Тесты Генетика Генетика Локус Е, аллель еА Локус Е, аллель еА Локус Е, аллель еА       GEA GEA GEA GEA GEA GEA  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Аллель eH (соболиный)  генетика  Тесты Тесты Генетика Генетика Аллель eH (соболиный) Аллель eH (соболиный) Аллель eH (соболиный) соболиный соболиный     EH EH EH EH EH EH  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус H (арлекин)  генетика  Тесты Тесты Генетика Генетика Локус H (арлекин) Локус H (арлекин) Локус H (арлекин) арлекин арлекин     GH GH GH GH GH GH  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус I (ослабление феомеланина)  генетика  Тесты Тесты Генетика Генетика Локус I (ослабление феомеланина) Локус I (ослабление феомеланина) Локус I (ослабление феомеланина) ослабление феомеланина ослабление феомеланина     GI GI GI GI GI GI  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус K (доминантный черный)  генетика  Тесты Тесты Генетика Генетика Локус K (доминантный черный) Локус K (доминантный черный) Локус K (доминантный черный) доминантный черный доминантный черный     ГК ГК ГК ГК ГК ГК  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус M (Мерль)  генетика  Тесты Тесты Генетика Генетика Локус M (Мерль) Локус M (Мерль) Локус M (Мерль) Мерль Мерль     ГМ ГМ ГМ ГМ ГМ ГМ  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус S (белая пятнистость)  генетика  Тесты Тесты Генетика Генетика Локус S (белая пятнистость) Локус S (белая пятнистость) Локус S (белая пятнистость) белая пятнистость белая пятнистость     GS GS GS GS GS GS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Подпалый / чепрачный окрас с подпалинами (Saddle tan)  генетика  Тесты Тесты Генетика Генетика Подпалый / чепрачный окрас с подпалинами (Saddle tan) Подпалый / чепрачный окрас с подпалинами (Saddle tan) Подпалый / чепрачный окрас с подпалинами (Saddle tan) Saddle tan Saddle tan     GAS GAS GAS GAS GAS GAS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Два локуса окраса  генетика  Тесты Тесты Генетика Генетика Два локуса окраса Два локуса окраса Два локуса окраса              сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Три локуса окраса  генетика  Тесты Тесты Генетика Генетика Три локуса окраса Три локуса окраса Три локуса окраса              сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Четыре локуса окраса  генетика  Тесты Тесты Генетика Генетика Четыре локуса окраса Четыре локуса окраса Четыре локуса окраса              сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Пять локусов окраса  генетика  Тесты Тесты Генетика Генетика Пять локусов окраса Пять локусов окраса Пять локусов окраса              сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Шесть локусов окраса  генетика  Тесты Тесты Генетика Генетика Шесть локусов окраса Шесть локусов окраса Шесть локусов окраса              сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Длина шерсти, мутация  p.C95F (c.284G&gt;T)  генетика  Тесты Тесты Генетика Генетика Длина шерсти, мутация  p.C95F (c.284G&gt;T) Длина шерсти, мутация  p.C95F (c.284G&gt;T) Длина шерсти, мутация  p.C95F (c.284G&gt;T) c.284G&gt;T c.284G&gt;T     ШЕР ШЕР ШЕР ШЕР ШЕР ШЕР  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Длина шерсти, мутация  p.A193V (c.578C&gt;T)  генетика  Тесты Тесты Генетика Генетика Длина шерсти, мутация  p.A193V (c.578C&gt;T) Длина шерсти, мутация  p.A193V (c.578C&gt;T) Длина шерсти, мутация  p.A193V (c.578C&gt;T) c.578C&gt;T c.578C&gt;T     AKI AKI AKI AKI AKI AKI  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Длина шерсти Евразиера, аллель L3 (c.556_571del16) (FGF_L3)  генетика  Тесты Тесты Генетика Генетика Длина шерсти Евразиера, аллель L3 (c.556_571del16) (FGF_L3) Длина шерсти Евразиера, аллель L3 (c.556_571del16) (FGF_L3) Длина шерсти Евразиера, аллель L3 (c.556_571del16) (FGF_L3) c.556_571del16 FGF_L3 c.556_571del16 FGF_L3            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Длина шерсти Афг. борзой, Евразиера и Фр. бульдога, аллель L4(FGF5_L4)  генетика  Тесты Тесты Генетика Генетика Длина шерсти Афг. борзой, Евразиера и Фр. бульдога, аллель L4(FGF5_L4) Длина шерсти Афг. борзой, Евразиера и Фр. бульдога, аллель L4(FGF5_L4) Длина шерсти Афг. борзой, Евразиера и Фр. бульдога, аллель L4(FGF5_L4) FGF5_L4 FGF5_L4            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Длина шерсти Афганской борзой, аллель L5 (g.8193T&gt;A) (FGF5_L5)  генетика  Тесты Тесты Генетика Генетика Длина шерсти Афганской борзой, аллель L5 (g.8193T&gt;A) (FGF5_L5) Длина шерсти Афганской борзой, аллель L5 (g.8193T&gt;A) (FGF5_L5) Длина шерсти Афганской борзой, аллель L5 (g.8193T&gt;A) (FGF5_L5) g.8193T&gt;A FGF5_L5 g.8193T&gt;A FGF5_L5            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Структура шерсти и длина шерсти на морде (локус Wh, "furnishing")  генетика  Тесты Тесты Генетика Генетика Структура шерсти и длина шерсти на морде (локус Wh, "furnishing") Структура шерсти и длина шерсти на морде (локус Wh, "furnishing") Структура шерсти и длина шерсти на морде (локус Wh, "furnishing") локус Wh, "furnishing" локус Wh, "furnishing"     FUR FUR FUR FUR FUR FUR  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Курчавая шерсть собак (Curl1)  генетика  Тесты Тесты Генетика Генетика Курчавая шерсть собак (Curl1) Курчавая шерсть собак (Curl1) Курчавая шерсть собак (Curl1) Curl1 Curl1            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Курчавая шерсть собак (Curl2)  генетика  Тесты Тесты Генетика Генетика Курчавая шерсть собак (Curl2) Курчавая шерсть собак (Curl2) Курчавая шерсть собак (Curl2) Curl2 Curl2            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Куцехвостость  генетика  Тесты Тесты Генетика Генетика Куцехвостость Куцехвостость Куцехвостость       КУЦ КУЦ КУЦ КУЦ КУЦ КУЦ  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус SD собак, интенсивность линьки (Shedding)  генетика  Тесты Тесты Генетика Генетика Локус SD собак, интенсивность линьки (Shedding) Локус SD собак, интенсивность линьки (Shedding) Локус SD собак, интенсивность линьки (Shedding) Shedding Shedding     SD SD SD SD SD SD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Объем мышечной массы уиппетов ("bully")  генетика  Тесты Тесты Генетика Генетика Объем мышечной массы уиппетов ("bully") Объем мышечной массы уиппетов ("bully") Объем мышечной массы уиппетов ("bully") "bully" "bully"     УИП УИП УИП УИП УИП УИП  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Хондродисплазия (CDPA)  генетика  Тесты Тесты Генетика Генетика Хондродисплазия (CDPA) Хондродисплазия (CDPA) Хондродисплазия (CDPA) CDPA CDPA     CDPA CDPA CDPA CDPA CDPA CDPA  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Длина шерсти французкого бульдога (L1, L4)  генетика  Тесты Тесты Генетика Генетика Длина шерсти французкого бульдога (L1, L4) Длина шерсти французкого бульдога (L1, L4) Длина шерсти французкого бульдога (L1, L4) L1, L4 L1, L4            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Длина шерсти самоеда (L1, L2)  генетика  Тесты Тесты Генетика Генетика Длина шерсти самоеда (L1, L2) Длина шерсти самоеда (L1, L2) Длина шерсти самоеда (L1, L2) L1, L2 L1, L2            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Длина шерсти афганской борзой (L4, L5)  генетика  Тесты Тесты Генетика Генетика Длина шерсти афганской борзой (L4, L5) Длина шерсти афганской борзой (L4, L5) Длина шерсти афганской борзой (L4, L5) L4, L5 L4, L5            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Длина шерсти 5 мутаций (L1, L2, L3, L4, L5)  генетика  Тесты Тесты Генетика Генетика Длина шерсти 5 мутаций (L1, L2, L3, L4, L5) Длина шерсти 5 мутаций (L1, L2, L3, L4, L5) Длина шерсти 5 мутаций (L1, L2, L3, L4, L5) L1, L2, L3, L4, L5 L1, L2, L3, L4, L5            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>L-2-гидроксиглутаровая ацидурия стаффордширских бультерьеров (L2HGA)  генетика  Тесты Тесты Генетика Генетика L-2-гидроксиглутаровая ацидурия стаффордширских бультерьеров (L2HGA) L-2-гидроксиглутаровая ацидурия стаффордширских бультерьеров (L2HGA) L-2-гидроксиглутаровая ацидурия стаффордширских бультерьеров (L2HGA) L2HGA L2HGA            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Альбинизм немецкого шпица (OCA2)  генетика  Тесты Тесты Генетика Генетика Альбинизм немецкого шпица (OCA2) Альбинизм немецкого шпица (OCA2) Альбинизм немецкого шпица (OCA2) OCA2 OCA2            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Аномалия глаз колли (CEA)  генетика  Тесты Тесты Генетика Генетика Аномалия глаз колли (CEA) Аномалия глаз колли (CEA) Аномалия глаз колли (CEA) CEA CEA     CEA CEA CEA CEA CEA CEA  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Аномалия скелета, зубов и сетчатки системная (DSRA)  генетика  Тесты Тесты Генетика Генетика Аномалия скелета, зубов и сетчатки системная (DSRA) Аномалия скелета, зубов и сетчатки системная (DSRA) Аномалия скелета, зубов и сетчатки системная (DSRA) DSRA DSRA     DSRA DSRA DSRA DSRA DSRA DSRA  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ахроматопсия (дневная слепота, ACHM)  генетика  Тесты Тесты Генетика Генетика Ахроматопсия (дневная слепота, ACHM) Ахроматопсия (дневная слепота, ACHM) Ахроматопсия (дневная слепота, ACHM) дневная слепота, ACHM дневная слепота, ACHM     ACHM ACHM ACHM ACHM ACHM ACHM  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
+Сканирование готового шестого стекла без заключения патолога Гистологическое исследование Гистологическое исследование терапия онкология Тесты ГИЭ ГИЭ кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Предметное стекло / Контейнер для транспортировки +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Запись на электронный носитель Запись на электронный носитель Гистологическое исследование Гистологическое исследование терапия онкология Тесты ГИЭ ГИЭ кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Предметное стекло / Контейнер для транспортировки +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Приготовление стекла из парафинового блока (дорезка без окрашивания) Приготовление стекла из парафинового блока (дорезка без окрашивания) Гистологическое исследование Гистологическое исследование терапия онкология Тесты дорезка без окрашивания дорезка без окрашивания ГИЭ ГИЭ кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Парафиновый блок +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Приготовление стекла из парафинового блока (дорезка с окрашиванием) Приготовление стекла из парафинового блока (дорезка с окрашиванием) Гистологическое исследование Гистологическое исследование терапия онкология Тесты дорезка с окрашиванием дорезка с окрашиванием ГИЭ ГИЭ кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Парафиновый блок +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Дополнительное окрашивание гистосреза (изготовление стекла из блока + окрашивание) Дополнительное окрашивание гистосреза (изготовление стекла из блока + окрашивание) Гистологическое исследование Гистологическое исследование терапия онкология Тесты изготовление стекла из блока + окрашивание изготовление стекла из блока + окрашивание кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Парафиновый блок +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Декальцинация Декальцинация Гистологическое исследование Гистологическое исследование терапия онкология Тесты кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Флакон для транспортировки гистологического материала HISTOPOT +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Приготовление 1 АТ Приготовление 1 АТ Гистологическое исследование Гистологическое исследование онкология Тесты кусочки ткани собака кошка Флакон для транспортировки гистологического материала HISTOPOT или Парафиновый блок +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Приготовление 2 АТ Приготовление 2 АТ Гистологическое исследование Гистологическое исследование онкология Тесты кусочки ткани собака кошка Флакон для транспортировки гистологического материала HISTOPOT или Парафиновый блок +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Приготовление 3 АТ Приготовление 3 АТ Гистологическое исследование Гистологическое исследование онкология Тесты кусочки ткани собака кошка Флакон для транспортировки гистологического материала HISTOPOT или Парафиновый блок +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Приготовление 4 АТ Приготовление 4 АТ Гистологическое исследование Гистологическое исследование онкология Тесты кусочки ткани собака кошка Флакон для транспортировки гистологического материала HISTOPOT или Парафиновый блок +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Приготовление 6 АТ Приготовление 6 АТ Гистологическое исследование Гистологическое исследование онкология Тесты кусочки ткани собака кошка Флакон для транспортировки гистологического материала HISTOPOT или Парафиновый блок +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Приготовление 8 АТ Приготовление 8 АТ Гистологическое исследование Гистологическое исследование онкология Тесты кусочки ткани собака кошка Флакон для транспортировки гистологического материала HISTOPOT или Парафиновый блок +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Мутация в гене C-KIT (собаки) Мутация в гене C-KIT (собаки) Патоморфология Патоморфология онкология Тесты собаки собаки ГИЭ ГИЭ биоптаты ткани/аспират/костный мозг собака Стерильный контейнер с красной крышкой / 70% спирт -17°С…-23°С Калий K (Potassium)</t>
+  </si>
+  <si>
+    <t>Мутация в гене C-KIT (8,9,11 экзоны) (кошки) Мутация в гене C-KIT (8,9,11 экзоны) (кошки) Патоморфология Патоморфология онкология Тесты 8,9,11 экзоны кошки 8,9,11 экзоны кошки биоптаты ткани/аспират/костный мозг кошка Стерильный контейнер с красной крышкой / 70% спирт -17°С…-23°С Калий K (Potassium)</t>
+  </si>
+  <si>
+    <t>Выявление клональности лимфоцитов (PARR) Выявление клональности лимфоцитов (PARR) Патоморфология Патоморфология онкология Тесты PARR PARR ГИЭ ГИЭ биоптаты ткани/аспират/ цельная кровь/костный мозг/превлальная жидкость/ абдоминальная жидкость собака кошка Стерильный контейнер с красной крышкой / 70% спирт -17°С…-23°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Определение меди в патматериале Определение меди в патматериале Патоморфология Патоморфология терапия гастроэнтерология Тесты CUP CUP кусочки ткани собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся приматы Стерильный контейнер с красной крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Этанол Этанол Токсикология Токсикология отравления Тесты ETU ETU Плазма крови (ЭДТА) собака кошка лошадь хорьки Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ксилол Ксилол Токсикология Токсикология отравления Тесты KSI KSI Плазма крови (ЭДТА) собака кошка лошадь хорьки Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Толуол Толуол Токсикология Токсикология отравления Тесты TOL TOL Плазма крови (ЭДТА) собака кошка лошадь хорьки Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Фенол Фенол Токсикология Токсикология отравления Тесты FE FE Плазма крови (ЭДТА) собака кошка лошадь хорьки Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Формальдегид Формальдегид Токсикология Токсикология отравления Тесты FO FO Плазма крови (ЭДТА) собака кошка лошадь хорьки Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Метанол Метанол Токсикология Токсикология отравления Тесты MET MET Плазма крови (ЭДТА) собака кошка лошадь хорьки Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ацетон Ацетон Токсикология Токсикология отравления Тесты AC AC Плазма крови (ЭДТА) собака кошка лошадь хорьки Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Изопропанол Изопропанол Токсикология Токсикология отравления Тесты IZ IZ Плазма крови (ЭДТА) собака кошка лошадь хорьки Пробирка с белой крышкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Этиленгликоль Этиленгликоль Токсикология Токсикология отравления Тесты ETL ETL Моча собака кошка хорьки 2 пробирки с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Изониазид (моча) Изониазид (моча) Токсикология Токсикология отравления Тесты моча моча NA NA Моча собака кошка лошадь хорьки грызуны кролики 2 пробирки с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Изониазид (сыворотка) Изониазид (сыворотка) Токсикология Токсикология отравления Тесты сыворотка сыворотка NA NA сыворотка крови собака кошка лошадь хорьки грызуны кролики Пробирка с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Комплексное токсикологическое исследование (Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей) Комплексное токсикологическое исследование (Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей) Токсикология Токсикология отравления Тесты Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей MT MT Моча собака кошка хорьки 2 пробирки с белой крышкой -17°С…-23°С Антиген Antigen Кальций Ca (Calcium) Кластеры дифференцировки Cluster of differentiation Железо Fe (Iron) Калий K (Potassium) Магний Mg (Magnesium) Моноциты Monocytes Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Лекарственные и ядовитые вещества (нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей) Лекарственные и ядовитые вещества (нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей) Токсикология Токсикология отравления Тесты нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей LK LK Моча собака кошка хорьки 2 пробирки с белой крышкой -17°С…-23°С Иммуноферментный анализ Enzyme-linked immunosorbent assay</t>
+  </si>
+  <si>
+    <t>Комплексное токсикологическое исследование (наркотические и психоактивные вещества, более 6000 веществ) Комплексное токсикологическое исследование (наркотические и психоактивные вещества, более 6000 веществ) Токсикология Токсикология отравления Тесты наркотические и психоактивные вещества, более 6000 веществ наркотические и психоактивные вещества, более 6000 веществ NP NP Моча собака кошка хорьки 2 пробирки с белой крышкой -17°С…-23°С Общий анализ крови CBC</t>
+  </si>
+  <si>
+    <t>Алюминий (Al) (шерсть) Алюминий (Al) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Al шерсть Al шерсть AL AL Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Бор (B) (шерсть) Бор (B) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты B шерсть B шерсть BO BO Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ванадий (V) (шерсть) Ванадий (V) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты V шерсть V шерсть VA VA Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Железо (Fe) (шерсть) Железо (Fe) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Fe шерсть Fe шерсть FE FE Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С FE Минералы</t>
+  </si>
+  <si>
+    <t>Йод (I) (шерсть) Йод (I) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты I шерсть I шерсть I I Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Калий (К) (шерсть) Калий (К) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты К шерсть К шерсть KA KA Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С K Минералы</t>
+  </si>
+  <si>
+    <t>Кальций (Са) (шерсть) Кальций (Са) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Са шерсть Са шерсть CA CA Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С CA Минералы</t>
+  </si>
+  <si>
+    <t>Кадмий (Cd) (шерсть) Кадмий (Cd) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Cd шерсть Cd шерсть CD CD Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation</t>
+  </si>
+  <si>
+    <t>Кобальт (Cо) (шерсть) Кобальт (Cо) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Cо шерсть Cо шерсть CO CO Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Кремний (Si) (шерсть) Кремний (Si) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Si шерсть Si шерсть SI SI Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Литий (Li) (шерсть) Литий (Li) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Li шерсть Li шерсть LI LI Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Магний (Mg) (шерсть) Магний (Mg) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Mg шерсть Mg шерсть MG MG Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С MG Минералы</t>
+  </si>
+  <si>
+    <t>Марганец (Mn) (шерсть) Марганец (Mn) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Mn шерсть Mn шерсть MN MN Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Медь (Cu) (шерсть) Медь (Cu) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Cu шерсть Cu шерсть CU CU Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Мышьяк (As) (шерсть) Мышьяк (As) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты As шерсть As шерсть AS AS Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Натрий (Na) (шерсть) Натрий (Na) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Na шерсть Na шерсть NA NA Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С Нейтрофилы Neutrophils NA Минералы</t>
+  </si>
+  <si>
+    <t>Никель (Ni) (шерсть) Никель (Ni) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Ni шерсть Ni шерсть NI NI Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Олово (Sn) (шерсть) Олово (Sn) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Sn шерсть Sn шерсть SN SN Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Ртуть (Hg) (шерсть) Ртуть (Hg) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Hg шерсть Hg шерсть HG HG Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Свинец (Pb) (шерсть) Свинец (Pb) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Pb шерсть Pb шерсть PB PB Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Селен (Se) (шерсть) Селен (Se) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Se шерсть Se шерсть SE SE Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Стронций (Sr) (шерсть) Стронций (Sr) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Sr шерсть Sr шерсть SR SR Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Фосфор (Р) (шерсть) Фосфор (Р) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Р шерсть Р шерсть P P Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С P Минералы</t>
+  </si>
+  <si>
+    <t>Хром  (Cr) (шерсть) Хром  (Cr) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Cr шерсть Cr шерсть CR CR Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Цинк (Zn) (шерсть) Цинк (Zn) (шерсть) Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Тесты Zn шерсть Zn шерсть ZN ZN Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Микробиология Микробиология нефрология Тесты основной перечень антибиотиков основной перечень антибиотиков моча собака кошка лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) Микробиология Микробиология нефрология Тесты дополнительный перечень антибиотиков дополнительный перечень антибиотиков моча собака кошка лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) Посев мочи на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) Микробиология Микробиология нефрология Тесты определение минимальной ингибирующей концентрации антибиотика определение минимальной ингибирующей концентрации антибиотика моча собака кошка хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев мочи на Corynebacterium urealyticum с определением чувствительности к антимикробным препаратам Посев мочи на Corynebacterium urealyticum с определением чувствительности к антимикробным препаратам Микробиология Микробиология нефрология Тесты моча собака кошка хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С Бактерии Bacteria Кортизол Cortisol Нейтрофилы Neutrophils API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам Микробиология Микробиология нефрология Тесты моча моча МОЧ МОЧ моча собака кошка хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С Андростендион Androstenedione Кальций Ca (Calcium) Нейтрофилы Neutrophils API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Микробиология Микробиология гастроэнтерология Тесты основной перечень антибиотиков основной перечень антибиотиков желчь собака кошка хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Микробиология Микробиология гастроэнтерология Тесты дополнительный перечень антибиотиков дополнительный перечень антибиотиков желчь собака кошка хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) Посев желчи на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) Микробиология Микробиология гастроэнтерология Тесты определение минимальной ингибирующей концентрации антибиотика определение минимальной ингибирующей концентрации антибиотика желчь собака кошка хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам Микробиология Микробиология гастроэнтерология Тесты ЖЕЛ ЖЕЛ желчь собака кошка хорьки Жидкая среда Amies с оранжевой крышкой +2°С…+8°С Андростендион Androstenedione Кальций Ca (Calcium) Нейтрофилы Neutrophils API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Микробиология Микробиология терапия Тесты основной перечень антибиотиков основной перечень антибиотиков перитонеальная жидкость, торакальная жидкость, перикардиальная жидкость, синовия, ликвор, пунктат среднего / внутреннего уха собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) Микробиология Микробиология терапия Тесты дополнительный перечень антибиотиков дополнительный перечень антибиотиков перитонеальная жидкость, торакальная жидкость, перикардиальная жидкость, синовия, ликвор, пунктат среднего / внутреннего уха собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) Посев пункционной или аспирационной жидкости  на микрофлору с определением чувствительности к антимикробным препаратам  (определение минимальной ингибирующей концентрации антибиотика) Микробиология Микробиология терапия Тесты определение минимальной ингибирующей концентрации антибиотика определение минимальной ингибирующей концентрации антибиотика перитонеальная жидкость, торакальная жидкость, перикардиальная жидкость, синовия, ликвор, пунктат среднего / внутреннего уха собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам Микробиология Микробиология терапия Тесты ПУН ПУН перитонеальная жидкость, торакальная жидкость, перикардиальная жидкость, синовия, ликвор, пунктат среднего / внутреннего уха собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С Андростендион Androstenedione Кальций Ca (Calcium) Нейтрофилы Neutrophils API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Микробиология Микробиология терапия Тесты основной перечень антибиотиков основной перечень антибиотиков аспират лимфоузла, эндоскопические выщипы, содержимое гигромы/серомы, слизистая оболочка мочевого пузыря, биоптат кожи, раневое отделяемое при оперативном вмешательстве, контроль микрофлоры при установке металлоконструкции, центральный венозный катетер, раневое отделяемое с кожи собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Микробиология Микробиология терапия Тесты дополнительный перечень антибиотиков дополнительный перечень антибиотиков аспират лимфоузла, эндоскопические выщипы, содержимое гигромы/серомы, слизистая оболочка мочевого пузыря, биоптат кожи, раневое отделяемое при оперативном вмешательстве, контроль микрофлоры при установке металлоконструкции, центральный венозный катетер, раневое отделяемое с кожи собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам (определение минимальной ингибирующей концентрации антибиотика) Посев раневого отделяемого/нестерильного биоматериала на микрофлору с определением чувствительности к антимикробным препаратам (определение минимальной ингибирующей концентрации антибиотика) Микробиология Микробиология терапия Тесты определение минимальной ингибирующей концентрации антибиотика определение минимальной ингибирующей концентрации антибиотика аспират лимфоузла, эндоскопические выщипы, содержимое гигромы/серомы, слизистая оболочка мочевого пузыря, биоптат кожи, раневое отделяемое при оперативном вмешательстве, контроль микрофлоры при установке металлоконструкции, центральный венозный катетер, раневое отделяемое с кожи собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам Микробиология Микробиология терапия Тесты РАН РАН аспират лимфоузла, эндоскопические выщипы, содержимое гигромы/серомы, слизистая оболочка мочевого пузыря, биоптат кожи, раневое отделяемое при оперативном вмешательстве, контроль микрофлоры при установке металлоконструкции, центральный венозный катетер, раневое отделяемое с кожи собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С Андростендион Androstenedione Кальций Ca (Calcium) Нейтрофилы Neutrophils API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Микробиология Микробиология респирторная система Тесты основной перечень антибиотиков основной перечень антибиотиков отделяемое ротоглотки, носовой полости, аспират из пазух носа, бронхоальвеолярный лаваж собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам  (дополнительный перечень антибиотиков) Микробиология Микробиология респирторная система Тесты дополнительный перечень антибиотиков дополнительный перечень антибиотиков отделяемое ротоглотки, носовой полости, аспират из пазух носа, бронхоальвеолярный лаваж собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам (определение минимальной ингибирующей концентрации антибиотика) Посев отделяемого верхних дыхательных путей на микрофлору с определением чувствительности к антимикробным препаратам (определение минимальной ингибирующей концентрации антибиотика) Микробиология Микробиология респирторная система Тесты определение минимальной ингибирующей концентрации антибиотика определение минимальной ингибирующей концентрации антибиотика отделяемое ротоглотки, носовой полости, аспират из пазух носа, бронхоальвеолярный лаваж собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам Микробиология Микробиология респирторная система Тесты ЗЕВ ЗЕВ отделяемое ротоглотки, носовой полости, аспират из пазух носа, бронхоальвеолярный лаваж собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С Андростендион Androstenedione Кальций Ca (Calcium) Нейтрофилы Neutrophils API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев отделяемого половых органов на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Посев отделяемого половых органов на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Микробиология Микробиология репродуктология Тесты основной перечень антибиотиков основной перечень антибиотиков простатическая фракция спермы, отделяемое  шейки матки, содержимое абсцесса / кисты предстательной железы собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев отделяемого половых органов на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Посев отделяемого половых органов на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Микробиология Микробиология репродуктология Тесты дополнительный перечень антибиотиков дополнительный перечень антибиотиков простатическая фракция спермы, отделяемое  шейки матки, содержимое абсцесса / кисты предстательной железы собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам Микробиология Микробиология репродуктология Тесты ГИН ГИН простатическая фракция спермы, отделяемое  шейки матки, содержимое абсцесса / кисты предстательной железы собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С Андростендион Androstenedione Кальций Ca (Calcium) Нейтрофилы Neutrophils API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев отделяемого глаз на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Посев отделяемого глаз на микрофлору с определением чувствительности к антимикробным препаратам  (основной перечень антибиотиков) Микробиология Микробиология терапия Тесты основной перечень антибиотиков основной перечень антибиотиков отделяемое конъюнктивы собака кошка лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев отделяемого глаз на микрофлору с определением чувствительности к антимикробным препаратам   (дополнительный перечень антибиотиков) Посев отделяемого глаз на микрофлору с определением чувствительности к антимикробным препаратам   (дополнительный перечень антибиотиков) Микробиология Микробиология терапия Тесты дополнительный перечень антибиотиков дополнительный перечень антибиотиков отделяемое конъюнктивы собака кошка лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам Посев на грибы рода Candida с определением чувствительности к антимикотическим препаратам Микробиология Микробиология терапия Тесты ГЛА ГЛА отделяемое конъюнктивы собака кошка лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С Андростендион Androstenedione Кальций Ca (Calcium) Нейтрофилы Neutrophils API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев отделяемого наружного слухового прохода (НСП) на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Посев отделяемого наружного слухового прохода (НСП) на микрофлору с определением чувствительности к антимикробным препаратам (основной перечень антибиотиков) Микробиология Микробиология терапия дерматология Тесты НСП основной перечень антибиотиков НСП основной перечень антибиотиков отделяемое наружного слухового прохода собака кошка хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев отделяемого наружного слухового прохода (НСП) на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Посев отделяемого наружного слухового прохода (НСП) на микрофлору с определением чувствительности к антимикробным препаратам (дополнительный перечень антибиотиков) Микробиология Микробиология терапия дерматология Тесты НСП дополнительный перечень антибиотиков НСП дополнительный перечень антибиотиков отделяемое наружного слухового прохода собака кошка хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев на грибы рода Candida, Malassezia с определением чувствительности к антимикотическим препаратам Посев на грибы рода Candida, Malassezia с определением чувствительности к антимикотическим препаратам Микробиология Микробиология терапия дерматология Тесты УХО УХО отделяемое наружного слухового прохода собака кошка хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С Андростендион Androstenedione Кальций Ca (Calcium) Нейтрофилы Neutrophils API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев крови на аэробную микрофлору  с определением чувствительности к антимикробным  препаратам (основной перечень антибиотиков) Посев крови на аэробную микрофлору  с определением чувствительности к антимикробным  препаратам (основной перечень антибиотиков) Микробиология Микробиология терапия ОРИТ Тесты основной перечень антибиотиков основной перечень антибиотиков венозная кровь, кровь из центрального венозного катетера собака кошка Флакон Юнона детский (для детей весом &lt; 40 кг) хранение +20°C...+25°С транспортировка +20°C...+25°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев крови на аэробную микрофлору с определением чувствительности к антимикробным  препаратам (дополнительный перечень антибиотиков) Посев крови на аэробную микрофлору с определением чувствительности к антимикробным  препаратам (дополнительный перечень антибиотиков) Микробиология Микробиология терапия ОРИТ Тесты дополнительный перечень антибиотиков дополнительный перечень антибиотиков венозная кровь, кровь из центрального венозного катетера собака кошка Флакон Юнона детский (для детей весом &lt; 40 кг) хранение +20°C...+25°С транспортировка +20°C...+25°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Посев на анаэробы с определением чувствительности к анитимикробным препаратам Посев на анаэробы с определением чувствительности к анитимикробным препаратам Микробиология Микробиология терапия ОРИТ гастроэнтерология респирторная система Тесты перитонеальная, торакальная, перикардиальная жидкости,раневое отделяемое, желчь собака кошка морские млекопитающие лошадь хорьки грызуны кролики Жидкая среда Amies с оранжевой крышкой +2°С…+8°С API Идентификационные панели BHI Мозговой инъекционный агар CFU Колониеобразующие единицы MBC Минимальная бактерицидная конц-ция MIC Минимальная ингибирующая конц-ция TSI Триложный агар VITEK Автоматизированный анализатор</t>
+  </si>
+  <si>
+    <t>Аденовирус 2 типа (CAV 2) Аденовирус 2 типа (CAV 2) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты CAV 2 CAV 2 бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Кальций Ca (Calcium)</t>
+  </si>
+  <si>
+    <t>Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) ПЦР-диагностика ПЦР-диагностика терапия респирторная система экзоты инфекции Тесты Aspergillus fumigatus/ flavus/terreus/niger Aspergillus fumigatus/ flavus/terreus/niger бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака кошка грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Иммуноглобулин A IgA Иммуноглобулин E IgE Нейтрофилы Neutrophils Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Бордетелла (Bordetella bronchiseptica) Бордетелла (Bordetella bronchiseptica) ПЦР-диагностика ПЦР-диагностика терапия респирторная система экзоты инфекции Тесты Bordetella bronchiseptica Bordetella bronchiseptica бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака кошка лошадь грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Кальций Ca (Calcium) Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Вирус парагриппа (СPiV) Вирус парагриппа (СPiV) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты СPiV СPiV бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Криптококк (Cryptococcus spp.) Криптококк (Cryptococcus spp.) ПЦР-диагностика ПЦР-диагностика терапия респирторная система экзоты инфекции Тесты Cryptococcus spp. Cryptococcus spp. бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака кошка грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Микоплазма (Mycoplasma cynos) Микоплазма (Mycoplasma cynos) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты Mycoplasma cynos Mycoplasma cynos бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Микоплазма (Mycoplasma spp.) Микоплазма (Mycoplasma spp.) ПЦР-диагностика ПЦР-диагностика терапия экзоты Тесты Mycoplasma spp. Mycoplasma spp. бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Микобактерия (Mycobacterium tuberculosis complex) Микобактерия (Mycobacterium tuberculosis complex) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты Mycobacterium tuberculosis complex Mycobacterium tuberculosis complex бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака кошка грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Бактерии Bacteria Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Хламидия (Сhlamydia spp.) Хламидия (Сhlamydia spp.) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты Сhlamydia spp. Сhlamydia spp. бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) собака кошка грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Микоплазма (Mycoplasma felis) Микоплазма (Mycoplasma felis) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты Mycoplasma felis Mycoplasma felis бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Железо Fe (Iron) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Хламидия (Chlamydia felis) Хламидия (Chlamydia felis) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты Chlamydia felis Chlamydia felis бронхо-альвеолярный лаваж бронхо-альвеолярный лаваж БАЛ БАЛ Необходимо следить, чтобы пробу не попадала носоглоточная слизь. бронхоальвеолярный лаваж (БАЛ) кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Железо Fe (Iron)</t>
+  </si>
+  <si>
+    <t>Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Aspergillus fumigatus/ flavus/terreus/niger Aspergillus fumigatus/ flavus/terreus/niger биоптат аутоптат биоптат аутоптат БТК БТК гранулемы биоптат ткани собака кошка грызуны кролики земноводные пресмыкающиеся Микропробирка / Транспортная среда -17°С…-23°С Иммуноглобулин A IgA Иммуноглобулин E IgE Нейтрофилы Neutrophils Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Aspergillus fumigatus/ flavus/terreus/niger Aspergillus fumigatus/ flavus/terreus/niger аспират аспират АСП АСП аспират ткани собака кошка грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Иммуноглобулин A IgA Иммуноглобулин E IgE Нейтрофилы Neutrophils Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) ПЦР-диагностика ПЦР-диагностика терапия репродуктология инфекции Тесты Brucella spp. Brucella spp. биоптат аутоптат биоптат аутоптат БТК БТК внутренние органы, абортированные плоды биоптат ткани собака морские млекопитающие Микропробирка / Транспортная среда -17°С…-23°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Возбудитель болезни Ауески (ДНК SuHV1/ ДНК гена gE полевых штаммов) Возбудитель болезни Ауески (ДНК SuHV1/ ДНК гена gE полевых штаммов) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты ДНК SuHV1/ ДНК гена gE полевых штаммов ДНК SuHV1/ ДНК гена gE полевых штаммов биоптат аутоптат биоптат аутоптат БТК БТК кожа, верхние и нижние дыхательные пути биоптат ткани собака кошка Микропробирка / Транспортная среда -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Калицивирус (FCV) Калицивирус (FCV) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FCV FCV биоптат аутоптат биоптат аутоптат БТК БТК кожа, верхние и нижние дыхательные пути биоптат ткани кошка Микропробирка / Транспортная среда -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FCoV FCoV биоптат аутоптат биоптат аутоптат БТК БТК почки, лимфатические узлы биоптат ткани кошка Микропробирка / Транспортная среда -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Микобактерия (Mycobacterium tuberculosis complex) Микобактерия (Mycobacterium tuberculosis complex) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Mycobacterium tuberculosis complex Mycobacterium tuberculosis complex биоптат аутоптат биоптат аутоптат БТК БТК внутренние органы биоптат ткани собака кошка морские млекопитающие лошадь грызуны кролики земноводные пресмыкающиеся Микропробирка / Транспортная среда -17°С…-23°С Бактерии Bacteria Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Микоплазма (Mycoplasma canis) Микоплазма (Mycoplasma canis) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты Mycoplasma canis Mycoplasma canis биоптат аутоптат биоптат аутоптат БТК БТК матка, семенник биоптат ткани собака Микропробирка / Транспортная среда -17°С…-23°С Кальций Ca (Calcium) Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Лептоспира (Leptospira spp.) Лептоспира (Leptospira spp.) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Leptospira spp. Leptospira spp. биоптат аутоптат биоптат аутоптат БТК БТК печень, почки биоптат ткани собака кошка хорьки грызуны кролики земноводные пресмыкающиеся Микропробирка / Транспортная среда -17°С…-23°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FCoV FCoV влага глаза влага глаза ВЛГ ВЛГ Водянистая влага глаза кошка Пробирка с Сиреневой крышкой / Калий ЭДТА -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Микобактерия (Mycobacterium tuberculosis complex) Микобактерия (Mycobacterium tuberculosis complex) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Mycobacterium tuberculosis complex Mycobacterium tuberculosis complex выпотная жидкость выпот выпотная жидкость выпот ВПТ ВПТ выпотная жидкость собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Бактерии Bacteria Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Toxoplasma gondii Toxoplasma gondii выпотная жидкость выпот выпотная жидкость выпот ВПТ ВПТ выпотная жидкость собака кошка грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Нейтрофилы Neutrophils Оксалаты Oxalates Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FCoV FCoV выпотная жидкость выпот выпотная жидкость выпот ВПТ ВПТ выпотная жидкость кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Герпесвирус кошек (FHV-1) Герпесвирус кошек (FHV-1) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FHV-1 FHV-1 глаз глаз ГЛЗ ГЛЗ соскоб эпителиальных клеток конъюнктивы кошка Микропробирка / Транспортная среда +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Микоплазма (Mycoplasma felis) Микоплазма (Mycoplasma felis) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Mycoplasma felis Mycoplasma felis глаз глаз ГЛЗ ГЛЗ соскоб эпителиальных клеток конъюнктивы кошка Микропробирка / Транспортная среда +2°С…+8°С Железо Fe (Iron) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Хламидия (Chlamydia felis) Хламидия (Chlamydia felis) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Chlamydia felis Chlamydia felis глаз глаз ГЛЗ ГЛЗ соскоб эпителиальных клеток конъюнктивы кошка Микропробирка / Транспортная среда +2°С…+8°С Железо Fe (Iron)</t>
+  </si>
+  <si>
+    <t>Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты CDV CDV глаз глаз ГЛЗ ГЛЗ соскоб эпителиальных клеток конъюнктивы собака Микропробирка / Транспортная среда +2°С…+8°С Кластеры дифференцировки Cluster of differentiation</t>
+  </si>
+  <si>
+    <t>Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Toxoplasma gondii Toxoplasma gondii глаз глаз ГЛЗ ГЛЗ соскоб эпителиальных клеток конъюнктивы собака кошка морские млекопитающие грызуны кролики земноводные пресмыкающиеся Микропробирка / Транспортная среда +2°С…+8°С Нейтрофилы Neutrophils Оксалаты Oxalates Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Трихомонада (Tritrichomonas blagburni (foetus)) Трихомонада (Tritrichomonas blagburni (foetus)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология Тесты foetus foetus глубокий смыв прямой кишки трихомонад аспират кишки глубокий смыв прямой кишки трихомонад аспират кишки ГСК ГСК глубокий смыв со слизистой оболочки кишечника кошка Пробирка с белой крышкой +2°С…+8°С Антиген Antigen Моноциты Monocytes Моноциты MON (Monocytes) Нейтрофилы Neutrophils Натрий Na (Sodium)</t>
+  </si>
+  <si>
+    <t>Анаплазма (Anaplasma platys, Anaplasma phagocytophilum)(клещ с животного) Анаплазма (Anaplasma platys, Anaplasma phagocytophilum)(клещ с животного) ПЦР-диагностика ПЦР-диагностика терапия Тесты Anaplasma platys, Anaplasma phagocytophilum клещ с животного Anaplasma platys, Anaplasma phagocytophilum клещ с животного клещ клещ КЛЩ КЛЩ клещ клещ Пробирка с белой крышкой +2°С…+8°С Антиген Antigen Антинуклеарные антитела Antinuclear Antibodies Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Бабезия (Babesia spp.)(клещ с животного) Бабезия (Babesia spp.)(клещ с животного) ПЦР-диагностика ПЦР-диагностика терапия Тесты Babesia spp. клещ с животного Babesia spp. клещ с животного клещ клещ КЛЩ КЛЩ клещ клещ Пробирка с белой крышкой +2°С…+8°С Антитело Antibody Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Боррелия (Borrelia burgdorferi sensu lato)(клещ с животного) Боррелия (Borrelia burgdorferi sensu lato)(клещ с животного) ПЦР-диагностика ПЦР-диагностика терапия Тесты Borrelia burgdorferi sensu lato клещ с животного Borrelia burgdorferi sensu lato клещ с животного клещ клещ КЛЩ КЛЩ клещ клещ Пробирка с белой крышкой +2°С…+8°С Железо Fe (Iron) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Эрлихия (Ehrlichia canis)(клещ с животного) Эрлихия (Ehrlichia canis)(клещ с животного) ПЦР-диагностика ПЦР-диагностика терапия Тесты Ehrlichia canis клещ с животного Ehrlichia canis клещ с животного клещ клещ КЛЩ КЛЩ клещ клещ Пробирка с белой крышкой +2°С…+8°С Кальций Ca (Calcium) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Исследование клеща c животного (анаплазма (Anaplasma phagocytophilum, Anaplasma platys), бабезия (Babesia spp.), эрлихия (Ehrlichia canis), боррелия (Borrelia burgdorferi sensu lato)) Исследование клеща c животного (анаплазма (Anaplasma phagocytophilum, Anaplasma platys), бабезия (Babesia spp.), эрлихия (Ehrlichia canis), боррелия (Borrelia burgdorferi sensu lato)) ПЦР-диагностика ПЦР-диагностика терапия Тесты Anaplasma phagocytophilum, Anaplasma platys Babesia spp. Ehrlichia canis Borrelia burgdorferi sensu lato Anaplasma phagocytophilum, Anaplasma platys Babesia spp. Ehrlichia canis Borrelia burgdorferi sensu lato КЛ КЛ клещ клещ Пробирка с белой крышкой +2°С…+8°С Антитело Antibody Антиген Antigen Антинуклеарные антитела Antinuclear Antibodies Кальций Ca (Calcium) Железо Fe (Iron) Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика) Анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика костный мозг костный мозг КМ КМ костный мозг (КМ) собака кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Антиген Antigen Антинуклеарные антитела Antinuclear Antibodies Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Бабезия (Babesia spp.) Бабезия (Babesia spp.) ПЦР-диагностика ПЦР-диагностика терапия Тесты Babesia spp. Babesia spp. костный мозг костный мозг КМ КМ костный мозг (КМ) собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Антитело Antibody Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Бабезия Гибсона (Babesia gibsoni) Бабезия Гибсона (Babesia gibsoni) ПЦР-диагностика ПЦР-диагностика терапия Тесты Babesia gibsoni Babesia gibsoni костный мозг костный мозг КМ КМ костный мозг (КМ) собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Антитело Antibody Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Гепатозоон (Hepatozoon canis) Гепатозоон (Hepatozoon canis) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Hepatozoon canis Hepatozoon canis костный мозг костный мозг КМ КМ костный мозг (КМ) собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Кальций Ca (Calcium) Гематоксилин-эозин Hematoxylin and eosin Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Лейшмания (Leishmania spp.) Лейшмания (Leishmania spp.) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Leishmania spp. Leishmania spp. костный мозг костный мозг КМ КМ костный мозг (КМ) собака кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Эрлихия (Ehrlichia canis) Эрлихия (Ehrlichia canis) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Ehrlichia canis Ehrlichia canis костный мозг костный мозг КМ КМ костный мозг (КМ) собака кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Кальций Ca (Calcium) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Вирус иммунодефицита (FIV, обнаружение провирусной ДНК) Вирус иммунодефицита (FIV, обнаружение провирусной ДНК) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FIV, обнаружение провирусной ДНК FIV, обнаружение провирусной ДНК костный мозг костный мозг КМ КМ костный мозг (КМ) кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Вирус иммунодефицита кошек Feline Immunodeficiency Virus</t>
+  </si>
+  <si>
+    <t>Вирус лейкемии (FeLV, обнаружение провирусной ДНК) Вирус лейкемии (FeLV, обнаружение провирусной ДНК) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FeLV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК костный мозг костный мозг КМ КМ костный мозг (КМ) кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Железо Fe (Iron) Вирус лейкемии кошек Feline Leukemia Virus</t>
+  </si>
+  <si>
+    <t>Аденовирус 1 типа (CAV 1) Аденовирус 1 типа (CAV 1) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты CAV 1 CAV 1 кровь кровь КР КР кровь с ЭДТА собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Кальций Ca (Calcium)</t>
+  </si>
+  <si>
+    <t>Анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика) Анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика кровь кровь КР КР кровь с ЭДТА собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Антиген Antigen Антинуклеарные антитела Antinuclear Antibodies Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Бабезия (Babesia spp.) Бабезия (Babesia spp.) ПЦР-диагностика ПЦР-диагностика терапия Тесты Babesia spp. Babesia spp. кровь кровь КР КР кровь с ЭДТА собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Антитело Antibody Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Бабезия Гибсона (Babesia gibsoni) Бабезия Гибсона (Babesia gibsoni) ПЦР-диагностика ПЦР-диагностика терапия Тесты Babesia gibsoni Babesia gibsoni кровь кровь КР КР кровь с ЭДТА собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Антитело Antibody Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Бабезия (Babesia canis) Бабезия (Babesia canis) ПЦР-диагностика ПЦР-диагностика терапия Тесты Babesia canis Babesia canis кровь кровь КР КР кровь с ЭДТА собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Антитело Antibody Кальций Ca (Calcium) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Бартонелла (Bartonеlla spp.) Бартонелла (Bartonеlla spp.) ПЦР-диагностика ПЦР-диагностика терапия Тесты Bartonеlla spp. Bartonеlla spp. кровь кровь КР КР кровь с ЭДТА собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) ПЦР-диагностика ПЦР-диагностика терапия репродуктология инфекции Тесты Brucella spp. Brucella spp. кровь кровь КР КР кровь с ЭДТА собака кошка хорьки грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты CDV CDV кровь кровь КР КР кровь с ЭДТА собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Кластеры дифференцировки Cluster of differentiation</t>
+  </si>
+  <si>
+    <t>Гемоплазма (Haemobartonella canis/Mycoplasma haemocanis) Гемоплазма (Haemobartonella canis/Mycoplasma haemocanis) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Haemobartonella canis/Mycoplasma haemocanis Haemobartonella canis/Mycoplasma haemocanis кровь кровь КР КР кровь с ЭДТА собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Кальций Ca (Calcium) Моноциты Monocytes Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Гемоплазма (Mycoplasma haemofelis) кол. Гемоплазма (Mycoplasma haemofelis) кол. ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Mycoplasma haemofelis Mycoplasma haemofelis кровь кровь КР КР кровь с ЭДТА кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Железо Fe (Iron) Моноциты Monocytes Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Гемоплазма (Candidatus Mycoplasma haemominutum) кол. Гемоплазма (Candidatus Mycoplasma haemominutum) кол. ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Candidatus Mycoplasma haemominutum Candidatus Mycoplasma haemominutum кровь кровь КР КР кровь с ЭДТА кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Андростендион Androstenedione Кальций Ca (Calcium) Моноциты Monocytes Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Гепатозоон (Hepatozoon canis) Гепатозоон (Hepatozoon canis) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Hepatozoon canis Hepatozoon canis кровь кровь КР КР кровь с ЭДТА собака кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Кальций Ca (Calcium) Гематоксилин-эозин Hematoxylin and eosin Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Дирофилярии (Dirofilaria immitis и Dirofilaria repens, дифференциальная диагностика) Дирофилярии (Dirofilaria immitis и Dirofilaria repens, дифференциальная диагностика) ПЦР-диагностика ПЦР-диагностика терапия кардиология Тесты Dirofilaria immitis и Dirofilaria repens, дифференциальная диагностика Dirofilaria immitis и Dirofilaria repens, дифференциальная диагностика кровь кровь КР КР кровь с ЭДТА собака морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin Радиоиммунный анализ Radioimmunoassay</t>
+  </si>
+  <si>
+    <t>Калицивирус (FCV) Калицивирус (FCV) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FCV FCV кровь кровь КР КР кровь с ЭДТА кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Лейшмания (Leishmania spp.) Лейшмания (Leishmania spp.) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Leishmania spp. Leishmania spp. кровь кровь КР КР кровь с ЭДТА собака кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Лептоспира (Leptospira spp.) Лептоспира (Leptospira spp.) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Leptospira spp. Leptospira spp. кровь кровь КР КР кровь с ЭДТА собака кошка хорьки грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Эрлихия (Ehrlichia canis) Эрлихия (Ehrlichia canis) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Ehrlichia canis Ehrlichia canis кровь кровь КР КР кровь с ЭДТА собака хорьки грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Кальций Ca (Calcium) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Вирус иммунодефицита (FIV, обнаружение провирусной ДНК) Вирус иммунодефицита (FIV, обнаружение провирусной ДНК) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FIV, обнаружение провирусной ДНК FIV, обнаружение провирусной ДНК кровь кровь КР КР кровь с ЭДТА кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Вирус иммунодефицита кошек Feline Immunodeficiency Virus</t>
+  </si>
+  <si>
+    <t>Вирус лейкемии (FeLV, обнаружение провирусной ДНК) Вирус лейкемии (FeLV, обнаружение провирусной ДНК) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FeLV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК кровь кровь КР КР кровь с ЭДТА кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Железо Fe (Iron) Вирус лейкемии кошек Feline Leukemia Virus</t>
+  </si>
+  <si>
+    <t>Вирус лейкемии (FeLV, обнаружение вирусной РНК) Вирус лейкемии (FeLV, обнаружение вирусной РНК) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FeLV, обнаружение вирусной РНК FeLV, обнаружение вирусной РНК кровь кровь КР КР сыворотка крови кошка Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Железо Fe (Iron) Вирус лейкемии кошек Feline Leukemia Virus</t>
+  </si>
+  <si>
+    <t>Вирус лейкемии (FeLV, количественное обнаружение вирусной РНК) Вирус лейкемии (FeLV, количественное обнаружение вирусной РНК) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FeLV, количественное обнаружение вирусной РНК FeLV, количественное обнаружение вирусной РНК кровь кровь КР КР сыворотка крови кошка Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Железо Fe (Iron) Вирус лейкемии кошек Feline Leukemia Virus</t>
+  </si>
+  <si>
+    <t>Пастерелла мультоцида (Pasteurella multocida) Пастерелла мультоцида (Pasteurella multocida) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Pasteurella multocida Pasteurella multocida кровь кровь КР КР кровь с ЭДТА собака кошка хорьки грызуны кролики Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Аспартатаминотрансфераза AST Аспартатаминотрансфераза AST Фосфор P (Phosphorus) Периодическая кислота Шиффа Periodic acid-Schiff</t>
+  </si>
+  <si>
+    <t>Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Toxoplasma gondii Toxoplasma gondii кровь кровь КР КР кровь с ЭДТА кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Нейтрофилы Neutrophils Оксалаты Oxalates Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Криптококк (Cryptococcus spp.) Криптококк (Cryptococcus spp.) ПЦР-диагностика ПЦР-диагностика терапия инфекции неврология Тесты Cryptococcus spp. Cryptococcus spp. ликвор спинномозговая жидкость ликвор спинномозговая жидкость ЛИК ЛИК ликвор собака кошка грызуны кролики земноводные пресмыкающиеся Пробирка с Сиреневой крышкой / Калий ЭДТА -17°С…-23°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Неоспора (Neospora caninum) Неоспора (Neospora caninum) ПЦР-диагностика ПЦР-диагностика терапия инфекции неврология Тесты Neospora caninum Neospora caninum ликвор спинномозговая жидкость ликвор спинномозговая жидкость ЛИК ЛИК ликвор собака Пробирка с Сиреневой крышкой / Калий ЭДТА -17°С…-23°С Кальций Ca (Calcium) Эозинофилы Eosinophils Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) ПЦР-диагностика ПЦР-диагностика терапия инфекции неврология Тесты FCoV FCoV ликвор спинномозговая жидкость ликвор спинномозговая жидкость ЛИК ЛИК ликвор кошка Пробирка с Сиреневой крышкой / Калий ЭДТА -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Аденовирус 1 типа (CAV 1) Аденовирус 1 типа (CAV 1) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты CAV 1 CAV 1 моча моча МОЧ МОЧ моча собака Пробирка с белой крышкой +2°С…+8°С Кальций Ca (Calcium)</t>
+  </si>
+  <si>
+    <t>Лептоспира (Leptospira spp.) Лептоспира (Leptospira spp.) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Leptospira spp. Leptospira spp. моча моча МОЧ МОЧ моча собака кошка хорьки грызуны кролики земноводные пресмыкающиеся Пробирка с белой крышкой +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Аденовирус 2 типа (CAV 2) Аденовирус 2 типа (CAV 2) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты CAV 2 CAV 2 нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости собака Микропробирка / Транспортная среда +2°С…+8°С Кальций Ca (Calcium)</t>
+  </si>
+  <si>
+    <t>Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты Aspergillus fumigatus/ flavus/terreus/niger Aspergillus fumigatus/ flavus/terreus/niger нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости собака кошка грызуны кролики земноводные пресмыкающиеся Микропробирка / Транспортная среда +2°С…+8°С Иммуноглобулин A IgA Иммуноглобулин E IgE Нейтрофилы Neutrophils Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Бордетелла (Bordetella bronchiseptica) Бордетелла (Bordetella bronchiseptica) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты Bordetella bronchiseptica Bordetella bronchiseptica нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости собака кошка лошадь хорьки грызуны кролики земноводные пресмыкающиеся Микропробирка / Транспортная среда +2°С…+8°С Кальций Ca (Calcium) Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Вирус парагриппа (СPiV) Вирус парагриппа (СPiV) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты СPiV СPiV нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости собака Микропробирка / Транспортная среда +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты CDV CDV нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости собака Микропробирка / Транспортная среда +2°С…+8°С Кластеры дифференцировки Cluster of differentiation</t>
+  </si>
+  <si>
+    <t>Возбудитель болезни Ауески (ДНК SuHV1/ ДНК гена gE полевых штаммов) Возбудитель болезни Ауески (ДНК SuHV1/ ДНК гена gE полевых штаммов) ПЦР-диагностика ПЦР-диагностика инфекции Тесты ДНК SuHV1/ ДНК гена gE полевых штаммов ДНК SuHV1/ ДНК гена gE полевых штаммов нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости собака кошка Микропробирка / Транспортная среда +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Герпесвирус собак (CHV 1) Герпесвирус собак (CHV 1) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты CHV 1 CHV 1 нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости собака Микропробирка / Транспортная среда +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Криптококк (Cryptococcus spp.) Криптококк (Cryptococcus spp.) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты Cryptococcus spp. Cryptococcus spp. нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости собака кошка грызуны кролики земноводные пресмыкающиеся Микропробирка / Транспортная среда +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Микоплазма (Mycoplasma cynos) Микоплазма (Mycoplasma cynos) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты Mycoplasma cynos Mycoplasma cynos нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости собака Микропробирка / Транспортная среда +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Микоплазма (Mycoplasma spp.) Микоплазма (Mycoplasma spp.) ПЦР-диагностика ПЦР-диагностика респирторная система экзоты инфекции Тесты Mycoplasma spp. Mycoplasma spp. нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости хорьки грызуны кролики земноводные пресмыкающиеся Микропробирка / Транспортная среда +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Хламидия (Сhlamydia spp.) Хламидия (Сhlamydia spp.) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты Сhlamydia spp. Сhlamydia spp. нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости собака хорьки грызуны кролики земноводные пресмыкающиеся Микропробирка / Транспортная среда +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Герпесвирус кошек (FHV-1) Герпесвирус кошек (FHV-1) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты FHV-1 FHV-1 нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости кошка Микропробирка / Транспортная среда +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Калицивирус (FCV) Калицивирус (FCV) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты FCV FCV нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости кошка Микропробирка / Транспортная среда +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Микоплазма (Mycoplasma felis) Микоплазма (Mycoplasma felis) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты Mycoplasma felis Mycoplasma felis нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости кошка Микропробирка / Транспортная среда +2°С…+8°С Железо Fe (Iron) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Пастерелла мультоцида (Pasteurella multocida) Пастерелла мультоцида (Pasteurella multocida) ПЦР-диагностика ПЦР-диагностика терапия респирторная система экзоты инфекции Тесты Pasteurella multocida Pasteurella multocida нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости собака кошка хорьки грызуны кролики Микропробирка / Транспортная среда +2°С…+8°С Аспартатаминотрансфераза AST Аспартатаминотрансфераза AST Фосфор P (Phosphorus) Периодическая кислота Шиффа Periodic acid-Schiff</t>
+  </si>
+  <si>
+    <t>Хламидия (Chlamydia felis) Хламидия (Chlamydia felis) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Тесты Chlamydia felis Chlamydia felis нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости кошка Микропробирка / Транспортная среда +2°С…+8°С Железо Fe (Iron)</t>
+  </si>
+  <si>
+    <t>Аденовирус 1 типа (CAV 1) Аденовирус 1 типа (CAV 1) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты CAV 1 CAV 1 смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки собака Микропробирка / Транспортная среда +2°С…+8°С Кальций Ca (Calcium)</t>
+  </si>
+  <si>
+    <t>Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты CDV CDV смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки собака хорьки Микропробирка / Транспортная среда +2°С…+8°С Кластеры дифференцировки Cluster of differentiation</t>
+  </si>
+  <si>
+    <t>Гиардиа (Giardia lamblia spp.) Гиардиа (Giardia lamblia spp.) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология Тесты Giardia lamblia spp. Giardia lamblia spp. смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки собака кошка морские млекопитающие грызуны кролики птицы декоративные земноводные пресмыкающиеся Микропробирка / Транспортная среда +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Коронавирус собак энтеральный (CCoV 1) Коронавирус собак энтеральный (CCoV 1) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты CCoV 1 CCoV 1 смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки собака Микропробирка / Транспортная среда +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Криптоспоридии (Cryptosporidium spp.) Криптоспоридии (Cryptosporidium spp.) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты Cryptosporidium spp. Cryptosporidium spp. смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки собака кошка морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся Микропробирка / Транспортная среда +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Парвовирус собак (CPV 2) Парвовирус собак (CPV 2) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты CPV 2 CPV 2 смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки собака Микропробирка / Транспортная среда +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Ротавирус А (Rotavirus А) Ротавирус А (Rotavirus А) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты Rotavirus А Rotavirus А смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки собака кошка морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся Микропробирка / Транспортная среда +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Сальмонелла (Salmonella spp.) Сальмонелла (Salmonella spp.) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты Salmonella spp. Salmonella spp. смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки собака кошка морские млекопитающие хорьки грызуны кролики земноводные пресмыкающиеся Микропробирка / Транспортная среда +2°С…+8°С Моноциты Monocytes Моноциты MON (Monocytes) Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Вирус панлейкопении (FPV) Вирус панлейкопении (FPV) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты FPV FPV смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки кошка Микропробирка / Транспортная среда +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Кампилобактер (Campylobacter spp.) Кампилобактер (Campylobacter spp.) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология Тесты Campylobacter spp. Campylobacter spp. смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки собака кошка хорьки грызуны кролики земноводные пресмыкающиеся Микропробирка / Транспортная среда +2°С…+8°С Бактерии Bacteria Кальций Ca (Calcium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Клостридиальный энтеротоксин (Clostridium perfringens) Клостридиальный энтеротоксин (Clostridium perfringens) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология Тесты Clostridium perfringens Clostridium perfringens смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки собака кошка хорьки грызуны кролики Микропробирка / Транспортная среда +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Коронавирус кошек энтеральный (FCoV) Коронавирус кошек энтеральный (FCoV) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты FCoV FCoV смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки кошка Микропробирка / Транспортная среда +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты Toxoplasma gondii Toxoplasma gondii смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки кошка Микропробирка / Транспортная среда +2°С…+8°С Нейтрофилы Neutrophils Оксалаты Oxalates Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Бартонелла (Bartonalla spp.) Бартонелла (Bartonalla spp.) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Bartonalla spp. Bartonalla spp. рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости РОТ РОТ соскоб эпителиальных клеток слизистой ротовой полости кошка Микропробирка / Транспортная среда +2°С…+8°С Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Герпесвирус кошек (FHV-1) Герпесвирус кошек (FHV-1) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FHV-1 FHV-1 рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости РОТ РОТ соскоб эпителиальных клеток слизистой ротовой полости кошка Микропробирка / Транспортная среда +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Калицивирус (FCV) Калицивирус (FCV) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FCV FCV рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости РОТ РОТ соскоб эпителиальных клеток слизистой ротовой полости кошка Микропробирка / Транспортная среда +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Пастерелла мультоцида (Pasteurella multocida) Пастерелла мультоцида (Pasteurella multocida) ПЦР-диагностика ПЦР-диагностика терапия экзоты инфекции Тесты Pasteurella multocida Pasteurella multocida рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости РОТ РОТ соскоб эпителиальных клеток слизистой ротовой полости собака кошка грызуны кролики Микропробирка / Транспортная среда +2°С…+8°С Аспартатаминотрансфераза AST Аспартатаминотрансфераза AST Фосфор P (Phosphorus) Периодическая кислота Шиффа Periodic acid-Schiff</t>
+  </si>
+  <si>
+    <t>Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Toxoplasma gondii Toxoplasma gondii рот ротовая полость смыв со слизистой ротовой полости рот ротовая полость смыв со слизистой ротовой полости РОТ РОТ соскоб эпителиальных клеток слизистой ротовой полости собака морские млекопитающие грызуны кролики земноводные пресмыкающиеся Микропробирка / Транспортная среда +2°С…+8°С Нейтрофилы Neutrophils Оксалаты Oxalates Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Боррелия (Borrelia burgdorferi sensu lato) Боррелия (Borrelia burgdorferi sensu lato) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Borrelia burgdorferi sensu lato Borrelia burgdorferi sensu lato синовиальная жидкость суставная жидкость синовий синовиальная жидкость суставная жидкость синовий СИН СИН синовия собака Пробирка с сиреневой крышкой / Калий ЭДТА +2°С…+8°С Железо Fe (Iron) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты Brucella spp. Brucella spp. синовиальная жидкость суставная жидкость синовий синовиальная жидкость суставная жидкость синовий СИН СИН синовия собака Пробирка с сиреневой крышкой / Калий ЭДТА +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) ПЦР-диагностика ПЦР-диагностика терапия репродуктология инфекции Тесты Brucella spp. Brucella spp. сперма сперма СП СП сперма собака Пробирка с Сиреневой крышкой / Калий ЭДТА -17°С…-23°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Микоплазма (Mycoplasma canis) Микоплазма (Mycoplasma canis) ПЦР-диагностика ПЦР-диагностика терапия репродуктология инфекции Тесты Mycoplasma canis Mycoplasma canis сперма сперма СП СП сперма собака Пробирка с Сиреневой крышкой / Калий ЭДТА -17°С…-23°С Кальций Ca (Calcium) Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Коронавирусная инфекция кошек  (FCoV) Коронавирусная инфекция кошек  (FCoV) ПЦР-диагностика ПЦР-диагностика терапия инфекции Тесты FCoV FCoV туберкулёз туберкулёз ТБ ТБ ТИАБ кошка Микропробирка / Транспортная среда -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Бруцелла (Brucella spp.) Бруцелла (Brucella spp.) ПЦР-диагностика ПЦР-диагностика терапия репродуктология инфекции Тесты Brucella spp. Brucella spp. урогенитальный соскоб урогенитальный соскоб УРО УРО соскоб эпителиальных клеток  слизистой влагалища собака морские млекопитающие Микропробирка / Транспортная среда +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Герпесвирус собак (CHV 1) Герпесвирус собак (CHV 1) ПЦР-диагностика ПЦР-диагностика терапия репродуктология инфекции Тесты CHV 1 CHV 1 урогенитальный соскоб урогенитальный соскоб УРО УРО соскоб эпителиальных клеток  слизистой влагалища собака Микропробирка / Транспортная среда +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Микоплазма (Mycoplasma canis) Микоплазма (Mycoplasma canis) ПЦР-диагностика ПЦР-диагностика терапия репродуктология инфекции Тесты Mycoplasma canis Mycoplasma canis урогенитальный соскоб урогенитальный соскоб УРО УРО соскоб эпителиальных клеток  слизистой влагалища собака Микропробирка / Транспортная среда +2°С…+8°С Кальций Ca (Calcium) Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Аденовирус 1 типа (CAV 1) Аденовирус 1 типа (CAV 1) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты CAV 1 CAV 1 фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии собака Контейнер для кала с ложечкой +2°С…+8°С Кальций Ca (Calcium)</t>
+  </si>
+  <si>
+    <t>Вирус чумы плотоядных (CDV) Вирус чумы плотоядных (CDV) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты CDV CDV фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии собака хорьки Контейнер для кала с ложечкой +2°С…+8°С Кластеры дифференцировки Cluster of differentiation</t>
+  </si>
+  <si>
+    <t>Гиардиа (Giardia lamblia spp.) Гиардиа (Giardia lamblia spp.) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты Giardia lamblia spp. Giardia lamblia spp. фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии собака кошка морские млекопитающие хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся Контейнер для кала с ложечкой +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Клостридиальный энтеротоксин (Clostridium perfringens) Клостридиальный энтеротоксин (Clostridium perfringens) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология Тесты Clostridium perfringens Clostridium perfringens фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии собака кошка хорьки грызуны кролики земноводные пресмыкающиеся Контейнер для кала с ложечкой +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Кампилобактер (Campylobacter spp.) Кампилобактер (Campylobacter spp.) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты Campylobacter spp. Campylobacter spp. фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии собака кошка хорьки грызуны кролики земноводные пресмыкающиеся Контейнер для кала с ложечкой +2°С…+8°С Бактерии Bacteria Кальций Ca (Calcium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Коронавирус собак энтеральный (CCoV 1) Коронавирус собак энтеральный (CCoV 1) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты CCoV 1 CCoV 1 фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии собака Контейнер для кала с ложечкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Криптоспоридии (Cryptosporidium spp.) Криптоспоридии (Cryptosporidium spp.) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты Cryptosporidium spp. Cryptosporidium spp. фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии собака кошка морские млекопитающие хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся Контейнер для кала с ложечкой +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Парвовирус собак (CPV 2) Парвовирус собак (CPV 2) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты CPV 2 CPV 2 фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии собака Контейнер для кала с ложечкой +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Ротавирус А (Rotavirus А) Ротавирус А (Rotavirus А) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты Rotavirus А Rotavirus А фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии собака кошка морские млекопитающие лошадь хорьки грызуны кролики земноводные пресмыкающиеся Контейнер для кала с ложечкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Сальмонелла (Salmonella spp.) Сальмонелла (Salmonella spp.) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты Salmonella spp. Salmonella spp. фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии собака кошка морские млекопитающие лошадь хорьки грызуны кролики птицы декоративные земноводные пресмыкающиеся Контейнер для кала с ложечкой +2°С…+8°С Моноциты Monocytes Моноциты MON (Monocytes) Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Вирус панлейкопении (FPV) Вирус панлейкопении (FPV) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты FPV FPV фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии кошка Контейнер для кала с ложечкой +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Коронавирус кошек энтеральный (FCoV) Коронавирус кошек энтеральный (FCoV) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты FCoV FCoV фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии кошка Контейнер для кала с ложечкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Токсоплазма (Toxoplasma gondii) Токсоплазма (Toxoplasma gondii) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты Toxoplasma gondii Toxoplasma gondii фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии кошка Контейнер для кала с ложечкой +2°С…+8°С Нейтрофилы Neutrophils Оксалаты Oxalates Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Трихомонада (Tritrichomonas blagburni (foetus)) Трихомонада (Tritrichomonas blagburni (foetus)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Тесты foetus foetus фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии кошка Контейнер для кала с ложечкой +2°С…+8°С Антиген Antigen Моноциты Monocytes Моноциты MON (Monocytes) Нейтрофилы Neutrophils Натрий Na (Sodium)</t>
+  </si>
+  <si>
+    <t>Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) Аспергиллус (Aspergillus fumigatus/ flavus/terreus/niger) ПЦР-диагностика ПЦР-диагностика терапия экзоты инфекции Тесты Aspergillus fumigatus/ flavus/terreus/niger Aspergillus fumigatus/ flavus/terreus/niger фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии птицы декоративные Контейнер для кала с ложечкой +2°С…+8°С Иммуноглобулин A IgA Иммуноглобулин E IgE Нейтрофилы Neutrophils Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Микобактерия (Mycobacterium avium complex/ M. Avium) Микобактерия (Mycobacterium avium complex/ M. Avium) ПЦР-диагностика ПЦР-диагностика терапия экзоты инфекции Тесты Mycobacterium avium complex/ M. Avium Mycobacterium avium complex/ M. Avium фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии птицы декоративные Контейнер для кала с ложечкой +2°С…+8°С Бактерии Bacteria Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Хламидия (Clamydophila psittaci) Хламидия (Clamydophila psittaci) ПЦР-диагностика ПЦР-диагностика терапия экзоты инфекции Тесты Clamydophila psittaci Clamydophila psittaci фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии птицы декоративные Контейнер для кала с ложечкой +2°С…+8°С Хлор Cl (Chloride) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Хламидия (Clamydophila psittaci) Хламидия (Clamydophila psittaci) ПЦР-диагностика ПЦР-диагностика терапия экзоты инфекции Тесты Clamydophila psittaci Clamydophila psittaci нос носовая полость смыв со слизистой носа нос носовая полость смыв со слизистой носа НОС НОС соскоб эпителиальных клеток слизистой носовой полости птицы декоративные Микропробирка / Транспортная среда +2°С…+8°С Хлор Cl (Chloride) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Коронавирус хорьков энтеральный (FEC) Коронавирус хорьков энтеральный (FEC) ПЦР-диагностика ПЦР-диагностика терапия экзоты инфекции Тесты FEC FEC смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки хорьки Микропробирка / Транспортная среда +2°С…+8°С Железо Fe (Iron)</t>
+  </si>
+  <si>
+    <t>Коронавирус хорьков энтеральный (FEC) Коронавирус хорьков энтеральный (FEC) ПЦР-диагностика ПЦР-диагностика терапия экзоты инфекции Тесты FEC FEC фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии хорьки Контейнер для кала с ложечкой -17°С…-23°С Железо Fe (Iron)</t>
+  </si>
+  <si>
+    <t>Коронавирус хорьков системный (FRSCV) Коронавирус хорьков системный (FRSCV) ПЦР-диагностика ПЦР-диагностика терапия экзоты инфекции Тесты FRSCV FRSCV аспират аспират АСП АСП аспират ткани хорьки Пробирка с Сиреневой крышкой / Калий ЭДТА -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Коронавирус хорьков системный (FRSCV) Коронавирус хорьков системный (FRSCV) ПЦР-диагностика ПЦР-диагностика терапия экзоты инфекции Тесты FRSCV FRSCV биоптат аутоптат биоптат аутоптат БТК БТК биоптат ткани хорьки Стерильный контейнер с красной крышкой / 70% спирт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Коронавирус хорьков системный (FRSCV) Коронавирус хорьков системный (FRSCV) ПЦР-диагностика ПЦР-диагностика терапия экзоты инфекции Тесты FRSCV FRSCV выпотная жидкость выпот выпотная жидкость выпот ВПТ ВПТ выпотная жидкость хорьки Пробирка с Сиреневой крышкой / Калий ЭДТА -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Парвовирус норок (MEV) Парвовирус норок (MEV) ПЦР-диагностика ПЦР-диагностика терапия экзоты инфекции Тесты MEV MEV смыв прямой кишки глубокий смыв с прямой кишки смыв прямой кишки глубокий смыв с прямой кишки ПРК ПРК соскоб эпителиальных клеток слизистой прямой кишки хорьки Микропробирка / Транспортная среда +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Парвовирус норок (MEV) Парвовирус норок (MEV) ПЦР-диагностика ПЦР-диагностика терапия экзоты инфекции Тесты MEV MEV фекалии кал фекальные массы фекалии кал фекальные массы ФК ФК фекалии хорьки Контейнер для кала с ложечкой +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус А (агути) Локус А (агути) Генетика Генетика генетика Тесты агути агути ГА ГА сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус B (коричневый) Локус B (коричневый) Генетика Генетика генетика Тесты коричневый коричневый ГВ ГВ сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Коричневый окрас шерсти, аллель bA Коричневый окрас шерсти, аллель bA Генетика Генетика генетика Тесты GBA GBA сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Окрас какао/шоколад Французского бульдога (Cocoa) Окрас какао/шоколад Французского бульдога (Cocoa) Генетика Генетика генетика Тесты Cocoa Cocoa ОС ОС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус C, аллель ch Локус C, аллель ch Генетика Генетика генетика Тесты GC GC сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус D, аллель d1 (осветленный) Локус D, аллель d1 (осветленный) Генетика Генетика генетика Тесты осветленный осветленный ГД ГД сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус D, аллель d2 (осветленный) Локус D, аллель d2 (осветленный) Генетика Генетика генетика Тесты осветленный осветленный сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус D, аллель d3 (осветленный) Локус D, аллель d3 (осветленный) Генетика Генетика генетика Тесты осветленный осветленный сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус Е, аллели EM (маска) и е1 (палевый) Локус Е, аллели EM (маска) и е1 (палевый) Генетика Генетика генетика Тесты маска палевый маска палевый ГЕ ГЕ сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус Е, аллель e2 (кремовый окрас австралийской пастушьей собаки) Локус Е, аллель e2 (кремовый окрас австралийской пастушьей собаки) Генетика Генетика генетика Тесты кремовый окрас австралийской пастушьей собаки кремовый окрас австралийской пастушьей собаки сухая кровь собака Конверт +2°С…+8°С Аспартатаминотрансфераза AST Эстрадиол Estradiol</t>
+  </si>
+  <si>
+    <t>Локус Е, аллель e3 (светло-кремовый окрас хаски) Локус Е, аллель e3 (светло-кремовый окрас хаски) Генетика Генетика генетика Тесты светло-кремовый окрас хаски светло-кремовый окрас хаски сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус Е, аллель EG (гризли, домино) Локус Е, аллель EG (гризли, домино) Генетика Генетика генетика Тесты гризли, домино гризли, домино GEG GEG сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус Е, аллель еА Локус Е, аллель еА Генетика Генетика генетика Тесты GEA GEA сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Аллель eH (соболиный) Аллель eH (соболиный) Генетика Генетика генетика Тесты соболиный соболиный EH EH сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус H (арлекин) Локус H (арлекин) Генетика Генетика генетика Тесты арлекин арлекин GH GH сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус I (ослабление феомеланина) Локус I (ослабление феомеланина) Генетика Генетика генетика Тесты ослабление феомеланина ослабление феомеланина GI GI сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус K (доминантный черный) Локус K (доминантный черный) Генетика Генетика генетика Тесты доминантный черный доминантный черный ГК ГК сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium)</t>
+  </si>
+  <si>
+    <t>Локус M (Мерль) Локус M (Мерль) Генетика Генетика генетика Тесты Мерль Мерль ГМ ГМ сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус S (белая пятнистость) Локус S (белая пятнистость) Генетика Генетика генетика Тесты белая пятнистость белая пятнистость GS GS сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Подпалый / чепрачный окрас с подпалинами (Saddle tan) Подпалый / чепрачный окрас с подпалинами (Saddle tan) Генетика Генетика генетика Тесты Saddle tan Saddle tan GAS GAS сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Два локуса окраса Два локуса окраса Генетика Генетика генетика Тесты сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Три локуса окраса Три локуса окраса Генетика Генетика генетика Тесты сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Четыре локуса окраса Четыре локуса окраса Генетика Генетика генетика Тесты сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Пять локусов окраса Пять локусов окраса Генетика Генетика генетика Тесты сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Шесть локусов окраса Шесть локусов окраса Генетика Генетика генетика Тесты сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Длина шерсти, мутация  p.C95F (c.284G&gt;T) Длина шерсти, мутация  p.C95F (c.284G&gt;T) Генетика Генетика генетика Тесты c.284G&gt;T c.284G&gt;T ШЕР ШЕР сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Длина шерсти, мутация  p.A193V (c.578C&gt;T) Длина шерсти, мутация  p.A193V (c.578C&gt;T) Генетика Генетика генетика Тесты c.578C&gt;T c.578C&gt;T AKI AKI сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Длина шерсти Евразиера, аллель L3 (c.556_571del16) (FGF_L3) Длина шерсти Евразиера, аллель L3 (c.556_571del16) (FGF_L3) Генетика Генетика генетика Тесты c.556_571del16 FGF_L3 c.556_571del16 FGF_L3 сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Длина шерсти Афг. борзой, Евразиера и Фр. бульдога, аллель L4(FGF5_L4) Длина шерсти Афг. борзой, Евразиера и Фр. бульдога, аллель L4(FGF5_L4) Генетика Генетика генетика Тесты FGF5_L4 FGF5_L4 сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Длина шерсти Афганской борзой, аллель L5 (g.8193T&gt;A) (FGF5_L5) Длина шерсти Афганской борзой, аллель L5 (g.8193T&gt;A) (FGF5_L5) Генетика Генетика генетика Тесты g.8193T&gt;A FGF5_L5 g.8193T&gt;A FGF5_L5 сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Структура шерсти и длина шерсти на морде (локус Wh, "furnishing") Структура шерсти и длина шерсти на морде (локус Wh, "furnishing") Генетика Генетика генетика Тесты локус Wh, "furnishing" локус Wh, "furnishing" FUR FUR сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Курчавая шерсть собак (Curl1) Курчавая шерсть собак (Curl1) Генетика Генетика генетика Тесты Curl1 Curl1 сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Курчавая шерсть собак (Curl2) Курчавая шерсть собак (Curl2) Генетика Генетика генетика Тесты Curl2 Curl2 сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Куцехвостость Куцехвостость Генетика Генетика генетика Тесты КУЦ КУЦ сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус SD собак, интенсивность линьки (Shedding) Локус SD собак, интенсивность линьки (Shedding) Генетика Генетика генетика Тесты Shedding Shedding SD SD сухая кровь собака Конверт +2°С…+8°С Гематоксилин-эозин Hematoxylin and eosin Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Объем мышечной массы уиппетов ("bully") Объем мышечной массы уиппетов ("bully") Генетика Генетика генетика Тесты "bully" "bully" УИП УИП сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Хондродисплазия (CDPA) Хондродисплазия (CDPA) Генетика Генетика генетика Тесты CDPA CDPA CDPA CDPA сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Длина шерсти французкого бульдога (L1, L4) Длина шерсти французкого бульдога (L1, L4) Генетика Генетика генетика Тесты L1, L4 L1, L4 сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Длина шерсти самоеда (L1, L2) Длина шерсти самоеда (L1, L2) Генетика Генетика генетика Тесты L1, L2 L1, L2 сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Длина шерсти афганской борзой (L4, L5) Длина шерсти афганской борзой (L4, L5) Генетика Генетика генетика Тесты L4, L5 L4, L5 сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Длина шерсти 5 мутаций (L1, L2, L3, L4, L5) Длина шерсти 5 мутаций (L1, L2, L3, L4, L5) Генетика Генетика генетика Тесты L1, L2, L3, L4, L5 L1, L2, L3, L4, L5 сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>L-2-гидроксиглутаровая ацидурия стаффордширских бультерьеров (L2HGA) L-2-гидроксиглутаровая ацидурия стаффордширских бультерьеров (L2HGA) Генетика Генетика генетика Тесты L2HGA L2HGA сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Альбинизм немецкого шпица (OCA2) Альбинизм немецкого шпица (OCA2) Генетика Генетика генетика Тесты OCA2 OCA2 сухая кровь собака Конверт +2°С…+8°С Кальций Ca (Calcium) Альбумин Albumin</t>
+  </si>
+  <si>
+    <t>Аномалия глаз колли (CEA) Аномалия глаз колли (CEA) Генетика Генетика генетика Тесты CEA CEA CEA CEA сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Аномалия скелета, зубов и сетчатки системная (DSRA) Аномалия скелета, зубов и сетчатки системная (DSRA) Генетика Генетика генетика Тесты DSRA DSRA DSRA DSRA сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ахроматопсия (дневная слепота, ACHM) Ахроматопсия (дневная слепота, ACHM) Генетика Генетика генетика Тесты дневная слепота, ACHM дневная слепота, ACHM ACHM ACHM сухая кровь собака Конверт +2°С…+8°С</t>
   </si>
   <si>
     <t>Болезнь фон Виллебранда
-I-го типа (vWD type I)  генетика  Тесты Тесты Генетика Генетика Болезнь фон Виллебранда
 I-го типа (vWD type I) Болезнь фон Виллебранда
-I-го типа (vWD type I) Болезнь фон Виллебранда
-I-го типа (vWD type I) vWD type I vWD type I     VWD VWD VWD VWD VWD VWD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Болезнь Фон Виллебранда II-го типа (vWD type II)  генетика  Тесты Тесты Генетика Генетика Болезнь Фон Виллебранда II-го типа (vWD type II) Болезнь Фон Виллебранда II-го типа (vWD type II) Болезнь Фон Виллебранда II-го типа (vWD type II) vWD type II vWD type II            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Болезнь фон Виллебранда III-го типа (vWD type III)  генетика  Тесты Тесты Генетика Генетика Болезнь фон Виллебранда III-го типа (vWD type III) Болезнь фон Виллебранда III-го типа (vWD type III) Болезнь фон Виллебранда III-го типа (vWD type III) vWD type III vWD type III            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Болезнь Шарко-Мари-Тута (CMT)  генетика  Тесты Тесты Генетика Генетика Болезнь Шарко-Мари-Тута (CMT) Болезнь Шарко-Мари-Тута (CMT) Болезнь Шарко-Мари-Тута (CMT) CMT CMT     CMT CMT CMT CMT CMT CMT  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Врожденный гипотиреоз с зобом SWD (CHG)  генетика  Тесты Тесты Генетика Генетика Врожденный гипотиреоз с зобом SWD (CHG) Врожденный гипотиреоз с зобом SWD (CHG) Врожденный гипотиреоз с зобом SWD (CHG) CHG CHG     SWD SWD SWD SWD SWD SWD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Врожденный гипотиреоз с зобом Terier (CHG)  генетика  Тесты Тесты Генетика Генетика Врожденный гипотиреоз с зобом Terier (CHG) Врожденный гипотиреоз с зобом Terier (CHG) Врожденный гипотиреоз с зобом Terier (CHG) CHG CHG     TER TER TER TER TER TER  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Врожденный гипотиреоз с зобом FB (CHG)  генетика  Тесты Тесты Генетика Генетика Врожденный гипотиреоз с зобом FB (CHG) Врожденный гипотиреоз с зобом FB (CHG) Врожденный гипотиреоз с зобом FB (CHG) CHG CHG     FB FB FB FB FB FB  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Врожденный ихтиоз (ICT-B / CI / ARCI)  генетика  Тесты Тесты Генетика Генетика Врожденный ихтиоз (ICT-B / CI / ARCI) Врожденный ихтиоз (ICT-B / CI / ARCI) Врожденный ихтиоз (ICT-B / CI / ARCI) ICT-B / CI / ARCI ICT-B / CI / ARCI     ICT ICT ICT ICT ICT ICT  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ганглиозидоз GM1  генетика  Тесты Тесты Генетика Генетика Ганглиозидоз GM1 Ганглиозидоз GM1 Ганглиозидоз GM1              сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ганглиозидоз GM2  генетика  Тесты Тесты Генетика Генетика Ганглиозидоз GM2 Ганглиозидоз GM2 Ганглиозидоз GM2              сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ганглиозидоз 2 той-пуделей (GM2-TP)  генетика  Тесты Тесты Генетика Генетика Ганглиозидоз 2 той-пуделей (GM2-TP) Ганглиозидоз 2 той-пуделей (GM2-TP) Ганглиозидоз 2 той-пуделей (GM2-TP) GM2-TP GM2-TP     GMTP GMTP GMTP GMTP GMTP GMTP  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гемофилия B (дефицит фактора IX, FIXD)  генетика  Тесты Тесты Генетика Генетика Гемофилия B (дефицит фактора IX, FIXD) Гемофилия B (дефицит фактора IX, FIXD) Гемофилия B (дефицит фактора IX, FIXD) дефицит фактора IX, FIXD дефицит фактора IX, FIXD     FIXD FIXD FIXD FIXD FIXD FIXD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гиперурикозурия (HUU)  генетика  Тесты Тесты Генетика Генетика Гиперурикозурия (HUU) Гиперурикозурия (HUU) Гиперурикозурия (HUU) HUU HUU     HUU HUU HUU HUU HUU HUU  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гипокаталазия, акаталазия (CAT)  генетика  Тесты Тесты Генетика Генетика Гипокаталазия, акаталазия (CAT) Гипокаталазия, акаталазия (CAT) Гипокаталазия, акаталазия (CAT) CAT CAT     CAT CAT CAT CAT CAT CAT  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гипомиелинизация ЦНС,Синдром трясущихся щенков веймаранеров(HYM (SPS))  генетика  Тесты Тесты Генетика Генетика Гипомиелинизация ЦНС,Синдром трясущихся щенков веймаранеров(HYM (SPS)) Гипомиелинизация ЦНС,Синдром трясущихся щенков веймаранеров(HYM (SPS)) Гипомиелинизация ЦНС,Синдром трясущихся щенков веймаранеров(HYM (SPS)) SPS SPS     SPS SPS SPS SPS SPS SPS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Глазной альбинизм 4 типа (OCA4 B)  генетика  Тесты Тесты Генетика Генетика Глазной альбинизм 4 типа (OCA4 B) Глазной альбинизм 4 типа (OCA4 B) Глазной альбинизм 4 типа (OCA4 B) OCA4 B OCA4 B     OCAB OCAB OCAB OCAB OCAB OCAB  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Глазной альбинизм 4 типа (OCA4 L)  генетика  Тесты Тесты Генетика Генетика Глазной альбинизм 4 типа (OCA4 L) Глазной альбинизм 4 типа (OCA4 L) Глазной альбинизм 4 типа (OCA4 L) OCA4 L OCA4 L     OCAL OCAL OCAL OCAL OCAL OCAL  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Глазной альбинизм 4 типа (OCA4 D)  генетика  Тесты Тесты Генетика Генетика Глазной альбинизм 4 типа (OCA4 D) Глазной альбинизм 4 типа (OCA4 D) Глазной альбинизм 4 типа (OCA4 D) OCA4 D OCA4 D     OCAD OCAD OCAD OCAD OCAD OCAD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гликогеноз IIIa типа (GSD IIIa)  генетика  Тесты Тесты Генетика Генетика Гликогеноз IIIa типа (GSD IIIa) Гликогеноз IIIa типа (GSD IIIa) Гликогеноз IIIa типа (GSD IIIa) GSD IIIa GSD IIIa     GSD GSD GSD GSD GSD GSD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Глобоидно-клеточная лейкодистрофия (Болезнь Краббе, GLD)  генетика  Тесты Тесты Генетика Генетика Глобоидно-клеточная лейкодистрофия (Болезнь Краббе, GLD) Глобоидно-клеточная лейкодистрофия (Болезнь Краббе, GLD) Глобоидно-клеточная лейкодистрофия (Болезнь Краббе, GLD) Болезнь Краббе, GLD Болезнь Краббе, GLD     GLD GLD GLD GLD GLD GLD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>-  генетика  Тесты Тесты Генетика Генетика - - -              сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гониодисгенез и глаукома бордер колли (GGD)  генетика  Тесты Тесты Генетика Генетика Гониодисгенез и глаукома бордер колли (GGD) Гониодисгенез и глаукома бордер колли (GGD) Гониодисгенез и глаукома бордер колли (GGD) GGD GGD     GGD GGD GGD GGD GGD GGD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Губчатая дегенерация мозжечка с мозжечковой атаксией тип 1 (SDCA1)  генетика  Тесты Тесты Генетика Генетика Губчатая дегенерация мозжечка с мозжечковой атаксией тип 1 (SDCA1) Губчатая дегенерация мозжечка с мозжечковой атаксией тип 1 (SDCA1) Губчатая дегенерация мозжечка с мозжечковой атаксией тип 1 (SDCA1) SDCA1 SDCA1     SDCA SDCA SDCA SDCA SDCA SDCA  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
+I-го типа (vWD type I) Генетика Генетика генетика Тесты vWD type I vWD type I VWD VWD сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Болезнь Фон Виллебранда II-го типа (vWD type II) Болезнь Фон Виллебранда II-го типа (vWD type II) Генетика Генетика генетика Тесты vWD type II vWD type II сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Болезнь фон Виллебранда III-го типа (vWD type III) Болезнь фон Виллебранда III-го типа (vWD type III) Генетика Генетика генетика Тесты vWD type III vWD type III сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Болезнь Шарко-Мари-Тута (CMT) Болезнь Шарко-Мари-Тута (CMT) Генетика Генетика генетика Тесты CMT CMT CMT CMT сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Врожденный гипотиреоз с зобом SWD (CHG) Врожденный гипотиреоз с зобом SWD (CHG) Генетика Генетика генетика Тесты CHG CHG SWD SWD сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Врожденный гипотиреоз с зобом Terier (CHG) Врожденный гипотиреоз с зобом Terier (CHG) Генетика Генетика генетика Тесты CHG CHG TER TER сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Врожденный гипотиреоз с зобом FB (CHG) Врожденный гипотиреоз с зобом FB (CHG) Генетика Генетика генетика Тесты CHG CHG FB FB сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Врожденный ихтиоз (ICT-B / CI / ARCI) Врожденный ихтиоз (ICT-B / CI / ARCI) Генетика Генетика генетика Тесты ICT-B / CI / ARCI ICT-B / CI / ARCI ICT ICT сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ганглиозидоз GM1 Ганглиозидоз GM1 Генетика Генетика генетика Тесты сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ганглиозидоз GM2 Ганглиозидоз GM2 Генетика Генетика генетика Тесты сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ганглиозидоз 2 той-пуделей (GM2-TP) Ганглиозидоз 2 той-пуделей (GM2-TP) Генетика Генетика генетика Тесты GM2-TP GM2-TP GMTP GMTP сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Общий белок Total Protein</t>
+  </si>
+  <si>
+    <t>Гемофилия B (дефицит фактора IX, FIXD) Гемофилия B (дефицит фактора IX, FIXD) Генетика Генетика генетика Тесты дефицит фактора IX, FIXD дефицит фактора IX, FIXD FIXD FIXD сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Гиперурикозурия (HUU) Гиперурикозурия (HUU) Генетика Генетика генетика Тесты HUU HUU HUU HUU сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Гипокаталазия, акаталазия (CAT) Гипокаталазия, акаталазия (CAT) Генетика Генетика генетика Тесты CAT CAT CAT CAT сухая кровь собака Конверт +2°С…+8°С Кальций Ca (Calcium)</t>
+  </si>
+  <si>
+    <t>Гипомиелинизация ЦНС,Синдром трясущихся щенков веймаранеров(HYM (SPS)) Гипомиелинизация ЦНС,Синдром трясущихся щенков веймаранеров(HYM (SPS)) Генетика Генетика генетика Тесты SPS SPS SPS SPS сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Глазной альбинизм 4 типа (OCA4 B) Глазной альбинизм 4 типа (OCA4 B) Генетика Генетика генетика Тесты OCA4 B OCA4 B OCAB OCAB сухая кровь собака Конверт +2°С…+8°С Кальций Ca (Calcium) Альбумин Albumin</t>
+  </si>
+  <si>
+    <t>Глазной альбинизм 4 типа (OCA4 L) Глазной альбинизм 4 типа (OCA4 L) Генетика Генетика генетика Тесты OCA4 L OCA4 L OCAL OCAL сухая кровь собака Конверт +2°С…+8°С Кальций Ca (Calcium) Альбумин Albumin</t>
+  </si>
+  <si>
+    <t>Глазной альбинизм 4 типа (OCA4 D) Глазной альбинизм 4 типа (OCA4 D) Генетика Генетика генетика Тесты OCA4 D OCA4 D OCAD OCAD сухая кровь собака Конверт +2°С…+8°С Кальций Ca (Calcium) Альбумин Albumin</t>
+  </si>
+  <si>
+    <t>Гликогеноз IIIa типа (GSD IIIa) Гликогеноз IIIa типа (GSD IIIa) Генетика Генетика генетика Тесты GSD IIIa GSD IIIa GSD GSD сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Глобоидно-клеточная лейкодистрофия (Болезнь Краббе, GLD) Глобоидно-клеточная лейкодистрофия (Болезнь Краббе, GLD) Генетика Генетика генетика Тесты Болезнь Краббе, GLD Болезнь Краббе, GLD GLD GLD сухая кровь собака Конверт +2°С…+8°С Глобулины Globulins</t>
+  </si>
+  <si>
+    <t>- - Генетика Генетика генетика Тесты сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Гониодисгенез и глаукома бордер колли (GGD) Гониодисгенез и глаукома бордер колли (GGD) Генетика Генетика генетика Тесты GGD GGD GGD GGD сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Губчатая дегенерация мозжечка с мозжечковой атаксией тип 1 (SDCA1) Губчатая дегенерация мозжечка с мозжечковой атаксией тип 1 (SDCA1) Генетика Генетика генетика Тесты SDCA1 SDCA1 SDCA SDCA сухая кровь собака Конверт +2°С…+8°С Кальций Ca (Calcium)</t>
   </si>
   <si>
     <t>Дегенеративная миелопатия
-Экзон 2 (DM Ex2)  генетика  Тесты Тесты Генетика Генетика Дегенеративная миелопатия
 Экзон 2 (DM Ex2) Дегенеративная миелопатия
-Экзон 2 (DM Ex2) Дегенеративная миелопатия
-Экзон 2 (DM Ex2) DM Ex2 DM Ex2     DM DM DM DM DM DM  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
+Экзон 2 (DM Ex2) Генетика Генетика генетика Тесты DM Ex2 DM Ex2 DM DM сухая кровь собака Конверт +2°С…+8°С</t>
   </si>
   <si>
     <t>Дегенеративная миелопатия
-Экзон 1 (DM Ex1)  генетика  Тесты Тесты Генетика Генетика Дегенеративная миелопатия
 Экзон 1 (DM Ex1) Дегенеративная миелопатия
-Экзон 1 (DM Ex1) Дегенеративная миелопатия
-Экзон 1 (DM Ex1) DM Ex1 DM Ex1     DM DM DM DM DM DM  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
+Экзон 1 (DM Ex1) Генетика Генетика генетика Тесты DM Ex1 DM Ex1 DM DM сухая кровь собака Конверт +2°С…+8°С</t>
   </si>
   <si>
     <t>Дегенеративная миелопатия         
-Два экзона (DM Ex1-Ex2)  генетика  Тесты Тесты Генетика Генетика Дегенеративная миелопатия         
 Два экзона (DM Ex1-Ex2) Дегенеративная миелопатия         
-Два экзона (DM Ex1-Ex2) Дегенеративная миелопатия         
-Два экзона (DM Ex1-Ex2) DM Ex1-Ex2 DM Ex1-Ex2     DM DM DM DM DM DM  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дегенерация коры мозжечка новорожденных/Мозжечковая абиотрофия(NCCD V)  генетика  Тесты Тесты Генетика Генетика Дегенерация коры мозжечка новорожденных/Мозжечковая абиотрофия(NCCD V) Дегенерация коры мозжечка новорожденных/Мозжечковая абиотрофия(NCCD V) Дегенерация коры мозжечка новорожденных/Мозжечковая абиотрофия(NCCD V) NCCD V NCCD V     NCCD NCCD NCCD NCCD NCCD NCCD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дерматомиозит (DMS)  генетика  Тесты Тесты Генетика Генетика Дерматомиозит (DMS) Дерматомиозит (DMS) Дерматомиозит (DMS) DMS DMS     DMS DMS DMS DMS DMS DMS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дефицит пируватдегидрогеназы (PDP1)  генетика  Тесты Тесты Генетика Генетика Дефицит пируватдегидрогеназы (PDP1) Дефицит пируватдегидрогеназы (PDP1) Дефицит пируватдегидрогеназы (PDP1) PDP1 PDP1            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дефицит пируваткиназы (PKdef)  генетика  Тесты Тесты Генетика Генетика Дефицит пируваткиназы (PKdef) Дефицит пируваткиназы (PKdef) Дефицит пируваткиназы (PKdef) PKdef PKdef     PKD PKD PKD PKD PKD PKD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дефицит плазминогена / Лигнеозный мембранит (LM)  генетика  Тесты Тесты Генетика Генетика Дефицит плазминогена / Лигнеозный мембранит (LM) Дефицит плазминогена / Лигнеозный мембранит (LM) Дефицит плазминогена / Лигнеозный мембранит (LM) LM LM     LM LM LM LM LM LM  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дилатационная кардиомиопатия доберманов (DCM-dob)  генетика  Тесты Тесты Генетика Генетика Дилатационная кардиомиопатия доберманов (DCM-dob) Дилатационная кардиомиопатия доберманов (DCM-dob) Дилатационная кардиомиопатия доберманов (DCM-dob) DCM-dob DCM-dob     DCM DCM DCM DCM DCM DCM  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дилатационная кардиомиопатия доберманов, вторая мутация (DCM2)  генетика  Тесты Тесты Генетика Генетика Дилатационная кардиомиопатия доберманов, вторая мутация (DCM2) Дилатационная кардиомиопатия доберманов, вторая мутация (DCM2) Дилатационная кардиомиопатия доберманов, вторая мутация (DCM2) DCM2 DCM2            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дилатационная кардиомиопатия боксёров (DCM-box)  генетика  Тесты Тесты Генетика Генетика Дилатационная кардиомиопатия боксёров (DCM-box) Дилатационная кардиомиопатия боксёров (DCM-box) Дилатационная кардиомиопатия боксёров (DCM-box) DCM-box DCM-box     DCMB DCMB DCMB DCMB DCMB DCMB  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дилатационная кардиомиопатия ирландских волкодавов (DCM-iw)  генетика  Тесты Тесты Генетика Генетика Дилатационная кардиомиопатия ирландских волкодавов (DCM-iw) Дилатационная кардиомиопатия ирландских волкодавов (DCM-iw) Дилатационная кардиомиопатия ирландских волкодавов (DCM-iw) DCM-iw DCM-iw     DCMI DCMI DCMI DCMI DCMI DCMI  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дилатационная кардиомиопатия шнауцеров (DCMS)  генетика  Тесты Тесты Генетика Генетика Дилатационная кардиомиопатия шнауцеров (DCMS) Дилатационная кардиомиопатия шнауцеров (DCMS) Дилатационная кардиомиопатия шнауцеров (DCMS) DCMS DCMS     DCMS DCMS DCMS DCMS DCMS DCMS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Злокачественная гипертермия (MH)  генетика  Тесты Тесты Генетика Генетика Злокачественная гипертермия (MH) Злокачественная гипертермия (MH) Злокачественная гипертермия (MH) MH MH     MH MH MH MH MH MH  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Зубная гипоминерализация / Синдром Райна (RS BC)  генетика  Тесты Тесты Генетика Генетика Зубная гипоминерализация / Синдром Райна (RS BC) Зубная гипоминерализация / Синдром Райна (RS BC) Зубная гипоминерализация / Синдром Райна (RS BC) RS BC RS BC     RSBC RSBC RSBC RSBC RSBC RSBC  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ихтиоз голден ретриверов (ICT-A)  генетика  Тесты Тесты Генетика Генетика Ихтиоз голден ретриверов (ICT-A) Ихтиоз голден ретриверов (ICT-A) Ихтиоз голден ретриверов (ICT-A) ICT-A ICT-A     ICT ICT ICT ICT ICT ICT  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кардиомиопатия и ювенильная смертность (CJM)  генетика  Тесты Тесты Генетика Генетика Кардиомиопатия и ювенильная смертность (CJM) Кардиомиопатия и ювенильная смертность (CJM) Кардиомиопатия и ювенильная смертность (CJM) CJM CJM     CJM CJM CJM CJM CJM CJM  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Коллапс, вызываемый физическими нагрузками (EIC)  генетика  Тесты Тесты Генетика Генетика Коллапс, вызываемый физическими нагрузками (EIC) Коллапс, вызываемый физическими нагрузками (EIC) Коллапс, вызываемый физическими нагрузками (EIC) EIC EIC     EIC EIC EIC EIC EIC EIC  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Краниомандибулярная остеопатия (CMO)  генетика  Тесты Тесты Генетика Генетика Краниомандибулярная остеопатия (CMO) Краниомандибулярная остеопатия (CMO) Краниомандибулярная остеопатия (CMO) CMO CMO     CMO CMO CMO CMO CMO CMO  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Куриная слепота Бриаров (CSNB)  генетика  Тесты Тесты Генетика Генетика Куриная слепота Бриаров (CSNB) Куриная слепота Бриаров (CSNB) Куриная слепота Бриаров (CSNB) CSNB CSNB     CSNB CSNB CSNB CSNB CSNB CSNB  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Лейкоэнцефаломиелопатия (LEMP)  генетика  Тесты Тесты Генетика Генетика Лейкоэнцефаломиелопатия (LEMP) Лейкоэнцефаломиелопатия (LEMP) Лейкоэнцефаломиелопатия (LEMP) LEMP LEMP     LEMP LEMP LEMP LEMP LEMP LEMP  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Лейкоэнцефаломиелопатия немецких догов и ротвейлеров (LEMP R)  генетика  Тесты Тесты Генетика Генетика Лейкоэнцефаломиелопатия немецких догов и ротвейлеров (LEMP R) Лейкоэнцефаломиелопатия немецких догов и ротвейлеров (LEMP R) Лейкоэнцефаломиелопатия немецких догов и ротвейлеров (LEMP R) LEMP R LEMP R     LEMR LEMR LEMR LEMR LEMR LEMR  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Летальный акродерматит бультерьеров (LAD)  генетика  Тесты Тесты Генетика Генетика Летальный акродерматит бультерьеров (LAD) Летальный акродерматит бультерьеров (LAD) Летальный акродерматит бультерьеров (LAD) LAD LAD     LAD LAD LAD LAD LAD LAD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Лизосомная болезнь накопления (LSD)  генетика  Тесты Тесты Генетика Генетика Лизосомная болезнь накопления (LSD) Лизосомная болезнь накопления (LSD) Лизосомная болезнь накопления (LSD) LSD LSD     LSD LSD LSD LSD LSD LSD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Лихорадка шарпеев (SPAID)  генетика  Тесты Тесты Генетика Генетика Лихорадка шарпеев (SPAID) Лихорадка шарпеев (SPAID) Лихорадка шарпеев (SPAID) SPAID SPAID     SPAI SPAI SPAI SPAI SPAI SPAI  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Макротромбоцитопения (MTC TR)  генетика  Тесты Тесты Генетика Генетика Макротромбоцитопения (MTC TR) Макротромбоцитопения (MTC TR) Макротромбоцитопения (MTC TR) MTC TR MTC TR     MTCT MTCT MTCT MTCT MTCT MTCT  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Макротромбоцитопения кавалер кинг чарльз спаниелей (MTC CKCS)  генетика  Тесты Тесты Генетика Генетика Макротромбоцитопения кавалер кинг чарльз спаниелей (MTC CKCS) Макротромбоцитопения кавалер кинг чарльз спаниелей (MTC CKCS) Макротромбоцитопения кавалер кинг чарльз спаниелей (MTC CKCS) MTC CKCS MTC CKCS     MTS MTS MTS MTS MTS MTS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мальабсорбция киш. кобаламина, син-м Имерслунд-Гресбека(IGS BC,ICM BC)  генетика  Тесты Тесты Генетика Генетика Мальабсорбция киш. кобаламина, син-м Имерслунд-Гресбека(IGS BC,ICM BC) Мальабсорбция киш. кобаламина, син-м Имерслунд-Гресбека(IGS BC,ICM BC) Мальабсорбция киш. кобаламина, син-м Имерслунд-Гресбека(IGS BC,ICM BC) IGS BC,ICM BC IGS BC,ICM BC     IGBC IGBC IGBC IGBC IGBC IGBC  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мальабсорбция кишеч. кобаламина, син-м Имерслунд-Гресбека(IGS B,ICM B)  генетика  Тесты Тесты Генетика Генетика Мальабсорбция кишеч. кобаламина, син-м Имерслунд-Гресбека(IGS B,ICM B) Мальабсорбция кишеч. кобаламина, син-м Имерслунд-Гресбека(IGS B,ICM B) Мальабсорбция кишеч. кобаламина, син-м Имерслунд-Гресбека(IGS B,ICM B) IGS B,ICM B IGS B,ICM B     IGSB IGSB IGSB IGSB IGSB IGSB  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мезиоверсия клыков верхней челюсти (эффект копья) (MCM)  генетика  Тесты Тесты Генетика Генетика Мезиоверсия клыков верхней челюсти (эффект копья) (MCM) Мезиоверсия клыков верхней челюсти (эффект копья) (MCM) Мезиоверсия клыков верхней челюсти (эффект копья) (MCM) эффект копья MCM эффект копья MCM     MCM MCM MCM MCM MCM MCM  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Микрофтальмия (RBP4)  генетика  Тесты Тесты Генетика Генетика Микрофтальмия (RBP4) Микрофтальмия (RBP4) Микрофтальмия (RBP4) RBP4 RBP4            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Миотубулярная миопатия (MTM1, XL-MTM)  генетика  Тесты Тесты Генетика Генетика Миотубулярная миопатия (MTM1, XL-MTM) Миотубулярная миопатия (MTM1, XL-MTM) Миотубулярная миопатия (MTM1, XL-MTM) MTM1, XL-MTM MTM1, XL-MTM     MTM MTM MTM MTM MTM MTM  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мозжечковая абиотрофия (NCCD)  генетика  Тесты Тесты Генетика Генетика Мозжечковая абиотрофия (NCCD) Мозжечковая абиотрофия (NCCD) Мозжечковая абиотрофия (NCCD) NCCD NCCD     NCCD NCCD NCCD NCCD NCCD NCCD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мукополисахаридоз IIIB типа (MPS IIIB)  генетика  Тесты Тесты Генетика Генетика Мукополисахаридоз IIIB типа (MPS IIIB) Мукополисахаридоз IIIB типа (MPS IIIB) Мукополисахаридоз IIIB типа (MPS IIIB) MPS IIIB MPS IIIB     MYC MYC MYC MYC MYC MYC  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мультисистемная дегенерация (CMSD)  генетика  Тесты Тесты Генетика Генетика Мультисистемная дегенерация (CMSD) Мультисистемная дегенерация (CMSD) Мультисистемная дегенерация (CMSD) CMSD CMSD     CMSD CMSD CMSD CMSD CMSD CMSD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мультифокальная ретинопатия 1 типа (CMR1)  генетика  Тесты Тесты Генетика Генетика Мультифокальная ретинопатия 1 типа (CMR1) Мультифокальная ретинопатия 1 типа (CMR1) Мультифокальная ретинопатия 1 типа (CMR1) CMR1 CMR1            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мультифокальная ретинопатия 2 типа (CMR2)  генетика  Тесты Тесты Генетика Генетика Мультифокальная ретинопатия 2 типа (CMR2) Мультифокальная ретинопатия 2 типа (CMR2) Мультифокальная ретинопатия 2 типа (CMR2) CMR2 CMR2            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мультифокальная ретинопатия 3 типа (CMR3)  генетика  Тесты Тесты Генетика Генетика Мультифокальная ретинопатия 3 типа (CMR3) Мультифокальная ретинопатия 3 типа (CMR3) Мультифокальная ретинопатия 3 типа (CMR3) CMR3 CMR3            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мышечная дистрофия кавалер кинг чарльз спаниелей (DMD-CKCS)  генетика  Тесты Тесты Генетика Генетика Мышечная дистрофия кавалер кинг чарльз спаниелей (DMD-CKCS) Мышечная дистрофия кавалер кинг чарльз спаниелей (DMD-CKCS) Мышечная дистрофия кавалер кинг чарльз спаниелей (DMD-CKCS) DMD-CKCS DMD-CKCS     DMD DMD DMD DMD DMD DMD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Нарколепсия доберманов (NARC-dob)  генетика  Тесты Тесты Генетика Генетика Нарколепсия доберманов (NARC-dob) Нарколепсия доберманов (NARC-dob) Нарколепсия доберманов (NARC-dob) NARC-dob NARC-dob     НАКД НАКД НАКД НАКД НАКД НАКД  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Нарколепсия лабрадоров (NARC-lab)  генетика  Тесты Тесты Генетика Генетика Нарколепсия лабрадоров (NARC-lab) Нарколепсия лабрадоров (NARC-lab) Нарколепсия лабрадоров (NARC-lab) NARC-lab NARC-lab     НАКЛ НАКЛ НАКЛ НАКЛ НАКЛ НАКЛ  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Наследственная катаракта (HC)  генетика  Тесты Тесты Генетика Генетика Наследственная катаракта (HC) Наследственная катаракта (HC) Наследственная катаракта (HC) HC HC            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Наследственная миотония (MC)  генетика  Тесты Тесты Генетика Генетика Наследственная миотония (MC) Наследственная миотония (MC) Наследственная миотония (MC) MC MC     MC MC MC MC MC MC  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Наследственная полинейропатия леонбергеров 1 (LPN1)  генетика  Тесты Тесты Генетика Генетика Наследственная полинейропатия леонбергеров 1 (LPN1) Наследственная полинейропатия леонбергеров 1 (LPN1) Наследственная полинейропатия леонбергеров 1 (LPN1) LPN1 LPN1            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Наследственная полинейропатия леонбергеров 2 (LPN2)  генетика  Тесты Тесты Генетика Генетика Наследственная полинейропатия леонбергеров 2 (LPN2) Наследственная полинейропатия леонбергеров 2 (LPN2) Наследственная полинейропатия леонбергеров 2 (LPN2) LPN2 LPN2            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Наследственная полинейропатия 3 / Паралич гортани (LPPN3)  генетика  Тесты Тесты Генетика Генетика Наследственная полинейропатия 3 / Паралич гортани (LPPN3) Наследственная полинейропатия 3 / Паралич гортани (LPPN3) Наследственная полинейропатия 3 / Паралич гортани (LPPN3) LPPN3 LPPN3            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Наследственный гиперкератоз подушечек лап (HFH)  генетика  Тесты Тесты Генетика Генетика Наследственный гиперкератоз подушечек лап (HFH) Наследственный гиперкератоз подушечек лап (HFH) Наследственный гиперкератоз подушечек лап (HFH) HFH HFH     HFH HFH HFH HFH HFH HFH  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Наследственный гиперкератоз подушечек лап бордоского дога (HFH-B)  генетика  Тесты Тесты Генетика Генетика Наследственный гиперкератоз подушечек лап бордоского дога (HFH-B) Наследственный гиперкератоз подушечек лап бордоского дога (HFH-B) Наследственный гиперкератоз подушечек лап бордоского дога (HFH-B) HFH-B HFH-B     HFH HFH HFH HFH HFH HFH  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Наследственный нефрит (HN)  генетика  Тесты Тесты Генетика Генетика Наследственный нефрит (HN) Наследственный нефрит (HN) Наследственный нефрит (HN) HN HN     HN HN HN HN HN HN  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Наследственный носовой паракератоз ретриверов (HNPK)  генетика  Тесты Тесты Генетика Генетика Наследственный носовой паракератоз ретриверов (HNPK) Наследственный носовой паракератоз ретриверов (HNPK) Наследственный носовой паракератоз ретриверов (HNPK) HNPK HNPK     HNPK HNPK HNPK HNPK HNPK HNPK  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Наследственный энцефалит мопсов (NME)  генетика  Тесты Тесты Генетика Генетика Наследственный энцефалит мопсов (NME) Наследственный энцефалит мопсов (NME) Наследственный энцефалит мопсов (NME) NME NME     NME NME NME NME NME NME  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Недостаточность фактора VII (FVIID)  генетика  Тесты Тесты Генетика Генетика Недостаточность фактора VII (FVIID) Недостаточность фактора VII (FVIID) Недостаточность фактора VII (FVIID) FVIID FVIID     FVII FVII FVII FVII FVII FVII  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Недостаточность фосфофруктокиназы (PFK)  генетика  Тесты Тесты Генетика Генетика Недостаточность фосфофруктокиназы (PFK) Недостаточность фосфофруктокиназы (PFK) Недостаточность фосфофруктокиназы (PFK) PFK PFK     PFK PFK PFK PFK PFK PFK  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Нейроаксональная дистрофия (NAD)  генетика  Тесты Тесты Генетика Генетика Нейроаксональная дистрофия (NAD) Нейроаксональная дистрофия (NAD) Нейроаксональная дистрофия (NAD) NAD NAD     NAD NAD NAD NAD NAD NAD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Нейроаксональная дистрофия ротвейлеров (NAD R)  генетика  Тесты Тесты Генетика Генетика Нейроаксональная дистрофия ротвейлеров (NAD R) Нейроаксональная дистрофия ротвейлеров (NAD R) Нейроаксональная дистрофия ротвейлеров (NAD R) NAD R NAD R     NADR NADR NADR NADR NADR NADR  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Нейрональный цероидный липофусциноз 1-го типа (NCL1)  генетика  Тесты Тесты Генетика Генетика Нейрональный цероидный липофусциноз 1-го типа (NCL1) Нейрональный цероидный липофусциноз 1-го типа (NCL1) Нейрональный цероидный липофусциноз 1-го типа (NCL1) NCL1 NCL1            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Нейрональный цероидный липофусциноз 2-го типа (NCL2)  генетика  Тесты Тесты Генетика Генетика Нейрональный цероидный липофусциноз 2-го типа (NCL2) Нейрональный цероидный липофусциноз 2-го типа (NCL2) Нейрональный цероидный липофусциноз 2-го типа (NCL2) NCL2 NCL2            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Нейрональный цероидный липофусциноз 4A типа (NCL IVA)  генетика  Тесты Тесты Генетика Генетика Нейрональный цероидный липофусциноз 4A типа (NCL IVA) Нейрональный цероидный липофусциноз 4A типа (NCL IVA) Нейрональный цероидный липофусциноз 4A типа (NCL IVA) NCL IVA NCL IVA     NCL NCL NCL NCL NCL NCL  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Нейрональный цероидный липофусциноз 5-го типа (NCL5)  генетика  Тесты Тесты Генетика Генетика Нейрональный цероидный липофусциноз 5-го типа (NCL5) Нейрональный цероидный липофусциноз 5-го типа (NCL5) Нейрональный цероидный липофусциноз 5-го типа (NCL5) NCL5 NCL5            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Нейрональный цероидный липофусциноз голден ретриверов 5го типа(NCL5GR)  генетика  Тесты Тесты Генетика Генетика Нейрональный цероидный липофусциноз голден ретриверов 5го типа(NCL5GR) Нейрональный цероидный липофусциноз голден ретриверов 5го типа(NCL5GR) Нейрональный цероидный липофусциноз голден ретриверов 5го типа(NCL5GR) NCL5GR NCL5GR     NCLR NCLR NCLR NCLR NCLR NCLR  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Нейрональный цероидный липофусциноз 6-го типа (NCL6)  генетика  Тесты Тесты Генетика Генетика Нейрональный цероидный липофусциноз 6-го типа (NCL6) Нейрональный цероидный липофусциноз 6-го типа (NCL6) Нейрональный цероидный липофусциноз 6-го типа (NCL6) NCL6 NCL6            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Нейрональный цероидный липофусциноз 8-го типа (NCL8S)  генетика  Тесты Тесты Генетика Генетика Нейрональный цероидный липофусциноз 8-го типа (NCL8S) Нейрональный цероидный липофусциноз 8-го типа (NCL8S) Нейрональный цероидный липофусциноз 8-го типа (NCL8S) NCL8S NCL8S            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Нейрональный цероидный липофусциноз 10-го типа (NCL10)  генетика  Тесты Тесты Генетика Генетика Нейрональный цероидный липофусциноз 10-го типа (NCL10) Нейрональный цероидный липофусциноз 10-го типа (NCL10) Нейрональный цероидный липофусциноз 10-го типа (NCL10) NCL10 NCL10            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Нейрональный цероидный липофусциноз 12-го типа (NCL12)  генетика  Тесты Тесты Генетика Генетика Нейрональный цероидный липофусциноз 12-го типа (NCL12) Нейрональный цероидный липофусциноз 12-го типа (NCL12) Нейрональный цероидный липофусциноз 12-го типа (NCL12) NCL12 NCL12            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Наследственный цероидный липофусциноз 12-го типа (NCL12 АС)  генетика  Тесты Тесты Генетика Генетика Наследственный цероидный липофусциноз 12-го типа (NCL12 АС) Наследственный цероидный липофусциноз 12-го типа (NCL12 АС) Наследственный цероидный липофусциноз 12-го типа (NCL12 АС) NCL12 АС NCL12 АС            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Неонатальная энцефалопатия с судорогами (NEWS)  генетика  Тесты Тесты Генетика Генетика Неонатальная энцефалопатия с судорогами (NEWS) Неонатальная энцефалопатия с судорогами (NEWS) Неонатальная энцефалопатия с судорогами (NEWS) NEWS NEWS     NEWS NEWS NEWS NEWS NEWS NEWS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Несовершенный амелогенез/Наследственная гипоплазия эмали(ARAI-A/FEH A)  генетика  Тесты Тесты Генетика Генетика Несовершенный амелогенез/Наследственная гипоплазия эмали(ARAI-A/FEH A) Несовершенный амелогенез/Наследственная гипоплазия эмали(ARAI-A/FEH A) Несовершенный амелогенез/Наследственная гипоплазия эмали(ARAI-A/FEH A) ARAI-A/FEH A ARAI-A/FEH A     AAFA AAFA AAFA AAFA AAFA AAFA  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Несовершенный амелогенез/Наследственная гипоплазия эмали(ARAI-L/FEH L)  генетика  Тесты Тесты Генетика Генетика Несовершенный амелогенез/Наследственная гипоплазия эмали(ARAI-L/FEH L) Несовершенный амелогенез/Наследственная гипоплазия эмали(ARAI-L/FEH L) Несовершенный амелогенез/Наследственная гипоплазия эмали(ARAI-L/FEH L) ARAI-L/FEH L ARAI-L/FEH L     ALFL ALFL ALFL ALFL ALFL ALFL  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Несовершенный амелогенез/Наследст. гипоплазия эмали(AI P/ARAI-P/FEH-P)  генетика  Тесты Тесты Генетика Генетика Несовершенный амелогенез/Наследст. гипоплазия эмали(AI P/ARAI-P/FEH-P) Несовершенный амелогенез/Наследст. гипоплазия эмали(AI P/ARAI-P/FEH-P) Несовершенный амелогенез/Наследст. гипоплазия эмали(AI P/ARAI-P/FEH-P) AI P/ARAI-P/FEH-P AI P/ARAI-P/FEH-P     ALFP ALFP ALFP ALFP ALFP ALFP  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Несовершенный амелогенез/Наследст. гипоплазия эмали самоеда (ARAI-S)  генетика  Тесты Тесты Генетика Генетика Несовершенный амелогенез/Наследст. гипоплазия эмали самоеда (ARAI-S) Несовершенный амелогенез/Наследст. гипоплазия эмали самоеда (ARAI-S) Несовершенный амелогенез/Наследст. гипоплазия эмали самоеда (ARAI-S) ARAI-S ARAI-S     ALS ALS ALS ALS ALS ALS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Несовершенный остеогенез биглей (OI b)  генетика  Тесты Тесты Генетика Генетика Несовершенный остеогенез биглей (OI b) Несовершенный остеогенез биглей (OI b) Несовершенный остеогенез биглей (OI b) OI b OI b     OLB OLB OLB OLB OLB OLB  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Несовершенный остеогенез такс (OI d)  генетика  Тесты Тесты Генетика Генетика Несовершенный остеогенез такс (OI d) Несовершенный остеогенез такс (OI d) Несовершенный остеогенез такс (OI d) OI d OI d     OI OI OI OI OI OI  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Нефропатия с потерей белка (PLN)  генетика  Тесты Тесты Генетика Генетика Нефропатия с потерей белка (PLN) Нефропатия с потерей белка (PLN) Нефропатия с потерей белка (PLN) PLN PLN     PLN PLN PLN PLN PLN PLN  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Паралич гортани бультерьеров  (LP)  генетика  Тесты Тесты Генетика Генетика Паралич гортани бультерьеров  (LP) Паралич гортани бультерьеров  (LP) Паралич гортани бультерьеров  (LP) LP LP     LP LP LP LP LP LP  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Первичная открытоугольная глаукома рыжих бретонских бассетов(POAG BFB)  генетика  Тесты Тесты Генетика Генетика Первичная открытоугольная глаукома рыжих бретонских бассетов(POAG BFB) Первичная открытоугольная глаукома рыжих бретонских бассетов(POAG BFB) Первичная открытоугольная глаукома рыжих бретонских бассетов(POAG BFB) POAG BFB POAG BFB     PBFB PBFB PBFB PBFB PBFB PBFB  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Первичная открытоугольная глаукома биглей (POAG Beagle)  генетика  Тесты Тесты Генетика Генетика Первичная открытоугольная глаукома биглей (POAG Beagle) Первичная открытоугольная глаукома биглей (POAG Beagle) Первичная открытоугольная глаукома биглей (POAG Beagle) POAG Beagle POAG Beagle     POAG POAG POAG POAG POAG POAG  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Первичная открытоугольная глаукома, вывих хрусталика POAG-PLL Shar Pei  генетика  Тесты Тесты Генетика Генетика Первичная открытоугольная глаукома, вывих хрусталика POAG-PLL Shar Pei Первичная открытоугольная глаукома, вывих хрусталика POAG-PLL Shar Pei Первичная открытоугольная глаукома, вывих хрусталика POAG-PLL Shar Pei       PPLL PPLL PPLL PPLL PPLL PPLL  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Первичная открытоугольная глаукома Элкхаунд (POAG Elk)  генетика  Тесты Тесты Генетика Генетика Первичная открытоугольная глаукома Элкхаунд (POAG Elk) Первичная открытоугольная глаукома Элкхаунд (POAG Elk) Первичная открытоугольная глаукома Элкхаунд (POAG Elk) POAG Elk POAG Elk     PELK PELK PELK PELK PELK PELK  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Первичная цилиарная дискинезия (PCD)  генетика  Тесты Тесты Генетика Генетика Первичная цилиарная дискинезия (PCD) Первичная цилиарная дискинезия (PCD) Первичная цилиарная дискинезия (PCD) PCD PCD     PCD PCD PCD PCD PCD PCD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Первичная цилиарная дискинезия (PCD AM) Аляскинских маламутов  генетика  Тесты Тесты Генетика Генетика Первичная цилиарная дискинезия (PCD AM) Аляскинских маламутов Первичная цилиарная дискинезия (PCD AM) Аляскинских маламутов Первичная цилиарная дискинезия (PCD AM) Аляскинских маламутов PCD AM PCD AM     PCDA PCDA PCDA PCDA PCDA PCDA  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Первичный вывих хрусталика (PLL)  генетика  Тесты Тесты Генетика Генетика Первичный вывих хрусталика (PLL) Первичный вывих хрусталика (PLL) Первичный вывих хрусталика (PLL) PLL PLL     PLL PLL PLL PLL PLL PLL  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Поздняя мозжечковая атаксия (LOA)  генетика  Тесты Тесты Генетика Генетика Поздняя мозжечковая атаксия (LOA) Поздняя мозжечковая атаксия (LOA) Поздняя мозжечковая атаксия (LOA) LOA LOA     LOA LOA LOA LOA LOA LOA  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Поликистоз почек бультерьеров (BTPKD)  генетика  Тесты Тесты Генетика Генетика Поликистоз почек бультерьеров (BTPKD) Поликистоз почек бультерьеров (BTPKD) Поликистоз почек бультерьеров (BTPKD) BTPKD BTPKD     BT BT BT BT BT BT  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Предрасположенность к ожирению (POMC / ADI)  генетика  Тесты Тесты Генетика Генетика Предрасположенность к ожирению (POMC / ADI) Предрасположенность к ожирению (POMC / ADI) Предрасположенность к ожирению (POMC / ADI) POMC / ADI POMC / ADI     POMC POMC POMC POMC POMC POMC  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки (GR-PRA1)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки (GR-PRA1) Прогрессирующая атрофия сетчатки (GR-PRA1) Прогрессирующая атрофия сетчатки (GR-PRA1) GR-PRA1 GR-PRA1            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки (GR-PRA2)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки (GR-PRA2) Прогрессирующая атрофия сетчатки (GR-PRA2) Прогрессирующая атрофия сетчатки (GR-PRA2) GR-PRA2 GR-PRA2            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки (PRA-CNGA1)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки (PRA-CNGA1) Прогрессирующая атрофия сетчатки (PRA-CNGA1) Прогрессирующая атрофия сетчатки (PRA-CNGA1) PRA-CNGA1 PRA-CNGA1     CNGA CNGA CNGA CNGA CNGA CNGA  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки (PRA-cord1)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки (PRA-cord1) Прогрессирующая атрофия сетчатки (PRA-cord1) Прогрессирующая атрофия сетчатки (PRA-cord1) PRA-cord1 PRA-cord1     PRAC PRAC PRAC PRAC PRAC PRAC  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки (CRD-SWD / PRA-cord2)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки (CRD-SWD / PRA-cord2) Прогрессирующая атрофия сетчатки (CRD-SWD / PRA-cord2) Прогрессирующая атрофия сетчатки (CRD-SWD / PRA-cord2) CRD-SWD / PRA-cord2 CRD-SWD / PRA-cord2     CRDS CRDS CRDS CRDS CRDS CRDS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки (PRA-prcd)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки (PRA-prcd) Прогрессирующая атрофия сетчатки (PRA-prcd) Прогрессирующая атрофия сетчатки (PRA-prcd) PRA-prcd PRA-prcd     PRAP PRAP PRAP PRAP PRAP PRAP  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки (PRA-crd1)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки (PRA-crd1) Прогрессирующая атрофия сетчатки (PRA-crd1) Прогрессирующая атрофия сетчатки (PRA-crd1) PRA-crd1 PRA-crd1            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки (PRA-crd2)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки (PRA-crd2) Прогрессирующая атрофия сетчатки (PRA-crd2) Прогрессирующая атрофия сетчатки (PRA-crd2) PRA-crd2 PRA-crd2            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки (PRA-rcd3)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки (PRA-rcd3) Прогрессирующая атрофия сетчатки (PRA-rcd3) Прогрессирующая атрофия сетчатки (PRA-rcd3) PRA-rcd3 PRA-rcd3            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки (PRA-rcd4)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки (PRA-rcd4) Прогрессирующая атрофия сетчатки (PRA-rcd4) Прогрессирующая атрофия сетчатки (PRA-rcd4) PRA-rcd4 PRA-rcd4            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки басенджи (bas-PRA)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки басенджи (bas-PRA) Прогрессирующая атрофия сетчатки басенджи (bas-PRA) Прогрессирующая атрофия сетчатки басенджи (bas-PRA) bas-PRA bas-PRA     BPRA BPRA BPRA BPRA BPRA BPRA  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки папильонов и фаленов (pap-PRA)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки папильонов и фаленов (pap-PRA) Прогрессирующая атрофия сетчатки папильонов и фаленов (pap-PRA) Прогрессирующая атрофия сетчатки папильонов и фаленов (pap-PRA) pap-PRA pap-PRA     PPRA PPRA PPRA PPRA PPRA PPRA  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки (XL-PRA1)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки (XL-PRA1) Прогрессирующая атрофия сетчатки (XL-PRA1) Прогрессирующая атрофия сетчатки (XL-PRA1) XL-PRA1 XL-PRA1     XL XL XL XL XL XL  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки цвергшнауцеров (XL-PRA2)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки цвергшнауцеров (XL-PRA2) Прогрессирующая атрофия сетчатки цвергшнауцеров (XL-PRA2) Прогрессирующая атрофия сетчатки цвергшнауцеров (XL-PRA2) XL-PRA2 XL-PRA2            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1) Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1) Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1) PRA B1 PRA B1            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки BBS4/Синдром Барде-Бидля 4(PRA-BBS4)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки BBS4/Синдром Барде-Бидля 4(PRA-BBS4) Прогрессирующая атрофия сетчатки BBS4/Синдром Барде-Бидля 4(PRA-BBS4) Прогрессирующая атрофия сетчатки BBS4/Синдром Барде-Бидля 4(PRA-BBS4) PRA-BBS4 PRA-BBS4            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ранняя глухота Бордер колли, EAOD (Linkage test)  генетика  Тесты Тесты Генетика Генетика Ранняя глухота Бордер колли, EAOD (Linkage test) Ранняя глухота Бордер колли, EAOD (Linkage test) Ранняя глухота Бордер колли, EAOD (Linkage test) Linkage test Linkage test     EAOD EAOD EAOD EAOD EAOD EAOD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ранняя прогрессирующая полинейропатия Грейхаундов (GHPN)  генетика  Тесты Тесты Генетика Генетика Ранняя прогрессирующая полинейропатия Грейхаундов (GHPN) Ранняя прогрессирующая полинейропатия Грейхаундов (GHPN) Ранняя прогрессирующая полинейропатия Грейхаундов (GHPN) GHPN GHPN     GHPN GHPN GHPN GHPN GHPN GHPN  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ранняя прогрессирующая полинейропатия маламутов (AMPN)  генетика  Тесты Тесты Генетика Генетика Ранняя прогрессирующая полинейропатия маламутов (AMPN) Ранняя прогрессирующая полинейропатия маламутов (AMPN) Ранняя прогрессирующая полинейропатия маламутов (AMPN) AMPN AMPN     AM AM AM AM AM AM  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Семейная нефропатия английских кокер спаниелей (FN)  генетика  Тесты Тесты Генетика Генетика Семейная нефропатия английских кокер спаниелей (FN) Семейная нефропатия английских кокер спаниелей (FN) Семейная нефропатия английских кокер спаниелей (FN) FN FN     FN FN FN FN FN FN  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Сенсорная атактическая нейропатия (SAN)  генетика  Тесты Тесты Генетика Генетика Сенсорная атактическая нейропатия (SAN) Сенсорная атактическая нейропатия (SAN) Сенсорная атактическая нейропатия (SAN) SAN SAN     SAN SAN SAN SAN SAN SAN  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Сенсорная невропатия (SN)  генетика  Тесты Тесты Генетика Генетика Сенсорная невропатия (SN) Сенсорная невропатия (SN) Сенсорная невропатия (SN) SN SN     SN SN SN SN SN SN  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Синдром акральной матуляции (AMS)  генетика  Тесты Тесты Генетика Генетика Синдром акральной матуляции (AMS) Синдром акральной матуляции (AMS) Синдром акральной матуляции (AMS) AMS AMS     AMS AMS AMS AMS AMS AMS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Синдром Барде-Бидля 2 (BBS2)  генетика  Тесты Тесты Генетика Генетика Синдром Барде-Бидля 2 (BBS2) Синдром Барде-Бидля 2 (BBS2) Синдром Барде-Бидля 2 (BBS2) BBS2 BBS2            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Синдром Ван ден Энде-Гупта (VDEGS)  генетика  Тесты Тесты Генетика Генетика Синдром Ван ден Энде-Гупта (VDEGS) Синдром Ван ден Энде-Гупта (VDEGS) Синдром Ван ден Энде-Гупта (VDEGS) VDEGS VDEGS     VDEG VDEG VDEG VDEG VDEG VDEG  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Синдром Грисцелли (GS1)  генетика  Тесты Тесты Генетика Генетика Синдром Грисцелли (GS1) Синдром Грисцелли (GS1) Синдром Грисцелли (GS1) GS1 GS1            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Синдром длинного интервала QT (LQT)  генетика  Тесты Тесты Генетика Генетика Синдром длинного интервала QT (LQT) Синдром длинного интервала QT (LQT) Синдром длинного интервала QT (LQT) LQT LQT     QT QT QT QT QT QT  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Синдром захваченных нейтрофилов (TNS)  генетика  Тесты Тесты Генетика Генетика Синдром захваченных нейтрофилов (TNS) Синдром захваченных нейтрофилов (TNS) Синдром захваченных нейтрофилов (TNS) TNS TNS     TNS TNS TNS TNS TNS TNS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Синдром Мусладина-Люка / Синдром китайского бигля (MLS)  генетика  Тесты Тесты Генетика Генетика Синдром Мусладина-Люка / Синдром китайского бигля (MLS) Синдром Мусладина-Люка / Синдром китайского бигля (MLS) Синдром Мусладина-Люка / Синдром китайского бигля (MLS) MLS MLS     MLS MLS MLS MLS MLS MLS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Синдром недостаточной адгезии лейкоцитов (CLAD)  генетика  Тесты Тесты Генетика Генетика Синдром недостаточной адгезии лейкоцитов (CLAD) Синдром недостаточной адгезии лейкоцитов (CLAD) Синдром недостаточной адгезии лейкоцитов (CLAD) CLAD CLAD     CLAD CLAD CLAD CLAD CLAD CLAD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Синдром персистирующих мюллеровых протоков (PMDS)  генетика  Тесты Тесты Генетика Генетика Синдром персистирующих мюллеровых протоков (PMDS) Синдром персистирующих мюллеровых протоков (PMDS) Синдром персистирующих мюллеровых протоков (PMDS) PMDS PMDS     PMDS PMDS PMDS PMDS PMDS PMDS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Синдром сухого глаза и курчавошерстности  (CKCSID)  генетика  Тесты Тесты Генетика Генетика Синдром сухого глаза и курчавошерстности  (CKCSID) Синдром сухого глаза и курчавошерстности  (CKCSID) Синдром сухого глаза и курчавошерстности  (CKCSID) CKCSID CKCSID     CKC CKC CKC CKC CKC CKC  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Синдром Фанкони басенджи (FBS)  генетика  Тесты Тесты Генетика Генетика Синдром Фанкони басенджи (FBS) Синдром Фанкони басенджи (FBS) Синдром Фанкони басенджи (FBS) FBS FBS     FBS FBS FBS FBS FBS FBS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Синдром эпизодического падения (EFS)  генетика  Тесты Тесты Генетика Генетика Синдром эпизодического падения (EFS) Синдром эпизодического падения (EFS) Синдром эпизодического падения (EFS) EFS EFS     EFS EFS EFS EFS EFS EFS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Скелетная дисплазия 2 (SD2)  генетика  Тесты Тесты Генетика Генетика Скелетная дисплазия 2 (SD2) Скелетная дисплазия 2 (SD2) Скелетная дисплазия 2 (SD2) SD2 SD2            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Спинальный дизрафизм веймаранеров (SpD)  генетика  Тесты Тесты Генетика Генетика Спинальный дизрафизм веймаранеров (SpD) Спинальный дизрафизм веймаранеров (SpD) Спинальный дизрафизм веймаранеров (SpD) SpD SpD     SPD SPD SPD SPD SPD SPD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Спиноцеребеллярная атаксия с миокимией и/или судорогами (SCA)  генетика  Тесты Тесты Генетика Генетика Спиноцеребеллярная атаксия с миокимией и/или судорогами (SCA) Спиноцеребеллярная атаксия с миокимией и/или судорогами (SCA) Спиноцеребеллярная атаксия с миокимией и/или судорогами (SCA) SCA SCA     SCA SCA SCA SCA SCA SCA  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Спондилокостальный дизостоз (SCD)  генетика  Тесты Тесты Генетика Генетика Спондилокостальный дизостоз (SCD) Спондилокостальный дизостоз (SCD) Спондилокостальный дизостоз (SCD) SCD SCD     SCD SCD SCD SCD SCD SCD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Тяжелый комбинированный иммунодефицит, сцепл-ый с Х-хромосомой(X-SCID)  генетика  Тесты Тесты Генетика Генетика Тяжелый комбинированный иммунодефицит, сцепл-ый с Х-хромосомой(X-SCID) Тяжелый комбинированный иммунодефицит, сцепл-ый с Х-хромосомой(X-SCID) Тяжелый комбинированный иммунодефицит, сцепл-ый с Х-хромосомой(X-SCID) X-SCID X-SCID     SCID SCID SCID SCID SCID SCID  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Устойчивость к микобактериозу (МАС)  генетика  Тесты Тесты Генетика Генетика Устойчивость к микобактериозу (МАС) Устойчивость к микобактериозу (МАС) Устойчивость к микобактериозу (МАС) МАС МАС     MAC MAC MAC MAC MAC MAC  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Хондродистрофия с риском дегенерации межпозвоночных дисков(CDDY, IVDD)  генетика  Тесты Тесты Генетика Генетика Хондродистрофия с риском дегенерации межпозвоночных дисков(CDDY, IVDD) Хондродистрофия с риском дегенерации межпозвоночных дисков(CDDY, IVDD) Хондродистрофия с риском дегенерации межпозвоночных дисков(CDDY, IVDD) CDDY, IVDD CDDY, IVDD     CDDY CDDY CDDY CDDY CDDY CDDY  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Хондродисплазия (CDPA) и хондродистрофия (CDDY, IVDD)  генетика  Тесты Тесты Генетика Генетика Хондродисплазия (CDPA) и хондродистрофия (CDDY, IVDD) Хондродисплазия (CDPA) и хондродистрофия (CDDY, IVDD) Хондродисплазия (CDPA) и хондродистрофия (CDDY, IVDD) CDPA CDDY, IVDD CDPA CDDY, IVDD     CDPA CDPA CDPA CDPA CDPA CDPA  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Центроядерная миопатия (CNM)  генетика  Тесты Тесты Генетика Генетика Центроядерная миопатия (CNM) Центроядерная миопатия (CNM) Центроядерная миопатия (CNM) CNM CNM     CNM CNM CNM CNM CNM CNM  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Циклическая нейтропения (Синдром серой колли, GSC)  генетика  Тесты Тесты Генетика Генетика Циклическая нейтропения (Синдром серой колли, GSC) Циклическая нейтропения (Синдром серой колли, GSC) Циклическая нейтропения (Синдром серой колли, GSC) Синдром серой колли, GSC Синдром серой колли, GSC     GSC GSC GSC GSC GSC GSC  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цистинурия 2A типа (CYST2A)  генетика  Тесты Тесты Генетика Генетика Цистинурия 2A типа (CYST2A) Цистинурия 2A типа (CYST2A) Цистинурия 2A типа (CYST2A) CYST2A CYST2A     A A A A A A  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цистинурия 2B типа (CYST2B)  генетика  Тесты Тесты Генетика Генетика Цистинурия 2B типа (CYST2B) Цистинурия 2B типа (CYST2B) Цистинурия 2B типа (CYST2B) CYST2B CYST2B     B B B B B B  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
+Два экзона (DM Ex1-Ex2) Генетика Генетика генетика Тесты DM Ex1-Ex2 DM Ex1-Ex2 DM DM сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Дегенерация коры мозжечка новорожденных/Мозжечковая абиотрофия(NCCD V) Дегенерация коры мозжечка новорожденных/Мозжечковая абиотрофия(NCCD V) Генетика Генетика генетика Тесты NCCD V NCCD V NCCD NCCD сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Дерматомиозит (DMS) Дерматомиозит (DMS) Генетика Генетика генетика Тесты DMS DMS DMS DMS сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Дефицит пируватдегидрогеназы (PDP1) Дефицит пируватдегидрогеназы (PDP1) Генетика Генетика генетика Тесты PDP1 PDP1 сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Дефицит пируваткиназы (PKdef) Дефицит пируваткиназы (PKdef) Генетика Генетика генетика Тесты PKdef PKdef PKD PKD сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Дефицит плазминогена / Лигнеозный мембранит (LM) Дефицит плазминогена / Лигнеозный мембранит (LM) Генетика Генетика генетика Тесты LM LM LM LM сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Дилатационная кардиомиопатия доберманов (DCM-dob) Дилатационная кардиомиопатия доберманов (DCM-dob) Генетика Генетика генетика Тесты DCM-dob DCM-dob DCM DCM сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Дилатационная кардиомиопатия доберманов, вторая мутация (DCM2) Дилатационная кардиомиопатия доберманов, вторая мутация (DCM2) Генетика Генетика генетика Тесты DCM2 DCM2 сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Дилатационная кардиомиопатия боксёров (DCM-box) Дилатационная кардиомиопатия боксёров (DCM-box) Генетика Генетика генетика Тесты DCM-box DCM-box DCMB DCMB сухая кровь собака Конверт +2°С…+8°С Оксалаты Oxalates</t>
+  </si>
+  <si>
+    <t>Дилатационная кардиомиопатия ирландских волкодавов (DCM-iw) Дилатационная кардиомиопатия ирландских волкодавов (DCM-iw) Генетика Генетика генетика Тесты DCM-iw DCM-iw DCMI DCMI сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Дилатационная кардиомиопатия шнауцеров (DCMS) Дилатационная кардиомиопатия шнауцеров (DCMS) Генетика Генетика генетика Тесты DCMS DCMS DCMS DCMS сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Злокачественная гипертермия (MH) Злокачественная гипертермия (MH) Генетика Генетика генетика Тесты MH MH MH MH сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Зубная гипоминерализация / Синдром Райна (RS BC) Зубная гипоминерализация / Синдром Райна (RS BC) Генетика Генетика генетика Тесты RS BC RS BC RSBC RSBC сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ихтиоз голден ретриверов (ICT-A) Ихтиоз голден ретриверов (ICT-A) Генетика Генетика генетика Тесты ICT-A ICT-A ICT ICT сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Кардиомиопатия и ювенильная смертность (CJM) Кардиомиопатия и ювенильная смертность (CJM) Генетика Генетика генетика Тесты CJM CJM CJM CJM сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Коллапс, вызываемый физическими нагрузками (EIC) Коллапс, вызываемый физическими нагрузками (EIC) Генетика Генетика генетика Тесты EIC EIC EIC EIC сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Краниомандибулярная остеопатия (CMO) Краниомандибулярная остеопатия (CMO) Генетика Генетика генетика Тесты CMO CMO CMO CMO сухая кровь собака Конверт +2°С…+8°С Моноциты Monocytes</t>
+  </si>
+  <si>
+    <t>Куриная слепота Бриаров (CSNB) Куриная слепота Бриаров (CSNB) Генетика Генетика генетика Тесты CSNB CSNB CSNB CSNB сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Лейкоэнцефаломиелопатия (LEMP) Лейкоэнцефаломиелопатия (LEMP) Генетика Генетика генетика Тесты LEMP LEMP LEMP LEMP сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Лейкоэнцефаломиелопатия немецких догов и ротвейлеров (LEMP R) Лейкоэнцефаломиелопатия немецких догов и ротвейлеров (LEMP R) Генетика Генетика генетика Тесты LEMP R LEMP R LEMR LEMR сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Летальный акродерматит бультерьеров (LAD) Летальный акродерматит бультерьеров (LAD) Генетика Генетика генетика Тесты LAD LAD LAD LAD сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Лизосомная болезнь накопления (LSD) Лизосомная болезнь накопления (LSD) Генетика Генетика генетика Тесты LSD LSD LSD LSD сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Лихорадка шарпеев (SPAID) Лихорадка шарпеев (SPAID) Генетика Генетика генетика Тесты SPAID SPAID SPAI SPAI сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Макротромбоцитопения (MTC TR) Макротромбоцитопения (MTC TR) Генетика Генетика генетика Тесты MTC TR MTC TR MTCT MTCT сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Макротромбоцитопения кавалер кинг чарльз спаниелей (MTC CKCS) Макротромбоцитопения кавалер кинг чарльз спаниелей (MTC CKCS) Генетика Генетика генетика Тесты MTC CKCS MTC CKCS MTS MTS сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium)</t>
+  </si>
+  <si>
+    <t>Мальабсорбция киш. кобаламина, син-м Имерслунд-Гресбека(IGS BC,ICM BC) Мальабсорбция киш. кобаламина, син-м Имерслунд-Гресбека(IGS BC,ICM BC) Генетика Генетика генетика Тесты IGS BC,ICM BC IGS BC,ICM BC IGBC IGBC сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Мальабсорбция кишеч. кобаламина, син-м Имерслунд-Гресбека(IGS B,ICM B) Мальабсорбция кишеч. кобаламина, син-м Имерслунд-Гресбека(IGS B,ICM B) Генетика Генетика генетика Тесты IGS B,ICM B IGS B,ICM B IGSB IGSB сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Мезиоверсия клыков верхней челюсти (эффект копья) (MCM) Мезиоверсия клыков верхней челюсти (эффект копья) (MCM) Генетика Генетика генетика Тесты эффект копья MCM эффект копья MCM MCM MCM сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Микрофтальмия (RBP4) Микрофтальмия (RBP4) Генетика Генетика генетика Тесты RBP4 RBP4 сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Миотубулярная миопатия (MTM1, XL-MTM) Миотубулярная миопатия (MTM1, XL-MTM) Генетика Генетика генетика Тесты MTM1, XL-MTM MTM1, XL-MTM MTM MTM сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Мозжечковая абиотрофия (NCCD) Мозжечковая абиотрофия (NCCD) Генетика Генетика генетика Тесты NCCD NCCD NCCD NCCD сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Мукополисахаридоз IIIB типа (MPS IIIB) Мукополисахаридоз IIIB типа (MPS IIIB) Генетика Генетика генетика Тесты MPS IIIB MPS IIIB MYC MYC сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Мультисистемная дегенерация (CMSD) Мультисистемная дегенерация (CMSD) Генетика Генетика генетика Тесты CMSD CMSD CMSD CMSD сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Мультифокальная ретинопатия 1 типа (CMR1) Мультифокальная ретинопатия 1 типа (CMR1) Генетика Генетика генетика Тесты CMR1 CMR1 сухая кровь собака Конверт +2°С…+8°С Ретикулоциты Reticulocytes</t>
+  </si>
+  <si>
+    <t>Мультифокальная ретинопатия 2 типа (CMR2) Мультифокальная ретинопатия 2 типа (CMR2) Генетика Генетика генетика Тесты CMR2 CMR2 сухая кровь собака Конверт +2°С…+8°С Ретикулоциты Reticulocytes</t>
+  </si>
+  <si>
+    <t>Мультифокальная ретинопатия 3 типа (CMR3) Мультифокальная ретинопатия 3 типа (CMR3) Генетика Генетика генетика Тесты CMR3 CMR3 сухая кровь собака Конверт +2°С…+8°С Ретикулоциты Reticulocytes</t>
+  </si>
+  <si>
+    <t>Мышечная дистрофия кавалер кинг чарльз спаниелей (DMD-CKCS) Мышечная дистрофия кавалер кинг чарльз спаниелей (DMD-CKCS) Генетика Генетика генетика Тесты DMD-CKCS DMD-CKCS DMD DMD сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium)</t>
+  </si>
+  <si>
+    <t>Нарколепсия доберманов (NARC-dob) Нарколепсия доберманов (NARC-dob) Генетика Генетика генетика Тесты NARC-dob NARC-dob НАКД НАКД сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Натрий Na (Sodium)</t>
+  </si>
+  <si>
+    <t>Нарколепсия лабрадоров (NARC-lab) Нарколепсия лабрадоров (NARC-lab) Генетика Генетика генетика Тесты NARC-lab NARC-lab НАКЛ НАКЛ сухая кровь собака Конверт +2°С…+8°С Антитело Antibody Нейтрофилы Neutrophils Натрий Na (Sodium)</t>
+  </si>
+  <si>
+    <t>Наследственная катаракта (HC) Наследственная катаракта (HC) Генетика Генетика генетика Тесты HC HC сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Наследственная миотония (MC) Наследственная миотония (MC) Генетика Генетика генетика Тесты MC MC MC MC сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Наследственная полинейропатия леонбергеров 1 (LPN1) Наследственная полинейропатия леонбергеров 1 (LPN1) Генетика Генетика генетика Тесты LPN1 LPN1 сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Наследственная полинейропатия леонбергеров 2 (LPN2) Наследственная полинейропатия леонбергеров 2 (LPN2) Генетика Генетика генетика Тесты LPN2 LPN2 сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Наследственная полинейропатия 3 / Паралич гортани (LPPN3) Наследственная полинейропатия 3 / Паралич гортани (LPPN3) Генетика Генетика генетика Тесты LPPN3 LPPN3 сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Наследственный гиперкератоз подушечек лап (HFH) Наследственный гиперкератоз подушечек лап (HFH) Генетика Генетика генетика Тесты HFH HFH HFH HFH сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Наследственный гиперкератоз подушечек лап бордоского дога (HFH-B) Наследственный гиперкератоз подушечек лап бордоского дога (HFH-B) Генетика Генетика генетика Тесты HFH-B HFH-B HFH HFH сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Наследственный нефрит (HN) Наследственный нефрит (HN) Генетика Генетика генетика Тесты HN HN HN HN сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Наследственный носовой паракератоз ретриверов (HNPK) Наследственный носовой паракератоз ретриверов (HNPK) Генетика Генетика генетика Тесты HNPK HNPK HNPK HNPK сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium) Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Наследственный энцефалит мопсов (NME) Наследственный энцефалит мопсов (NME) Генетика Генетика генетика Тесты NME NME NME NME сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Недостаточность фактора VII (FVIID) Недостаточность фактора VII (FVIID) Генетика Генетика генетика Тесты FVIID FVIID FVII FVII сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Недостаточность фосфофруктокиназы (PFK) Недостаточность фосфофруктокиназы (PFK) Генетика Генетика генетика Тесты PFK PFK PFK PFK сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Нейроаксональная дистрофия (NAD) Нейроаксональная дистрофия (NAD) Генетика Генетика генетика Тесты NAD NAD NAD NAD сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Натрий Na (Sodium) Общий анализ крови CBC</t>
+  </si>
+  <si>
+    <t>Нейроаксональная дистрофия ротвейлеров (NAD R) Нейроаксональная дистрофия ротвейлеров (NAD R) Генетика Генетика генетика Тесты NAD R NAD R NADR NADR сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Натрий Na (Sodium) Общий анализ крови CBC</t>
+  </si>
+  <si>
+    <t>Нейрональный цероидный липофусциноз 1-го типа (NCL1) Нейрональный цероидный липофусциноз 1-го типа (NCL1) Генетика Генетика генетика Тесты NCL1 NCL1 сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Нейрональный цероидный липофусциноз 2-го типа (NCL2) Нейрональный цероидный липофусциноз 2-го типа (NCL2) Генетика Генетика генетика Тесты NCL2 NCL2 сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Нейрональный цероидный липофусциноз 4A типа (NCL IVA) Нейрональный цероидный липофусциноз 4A типа (NCL IVA) Генетика Генетика генетика Тесты NCL IVA NCL IVA NCL NCL сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Нейрональный цероидный липофусциноз 5-го типа (NCL5) Нейрональный цероидный липофусциноз 5-го типа (NCL5) Генетика Генетика генетика Тесты NCL5 NCL5 сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Нейрональный цероидный липофусциноз голден ретриверов 5го типа(NCL5GR) Нейрональный цероидный липофусциноз голден ретриверов 5го типа(NCL5GR) Генетика Генетика генетика Тесты NCL5GR NCL5GR NCLR NCLR сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Нейрональный цероидный липофусциноз 6-го типа (NCL6) Нейрональный цероидный липофусциноз 6-го типа (NCL6) Генетика Генетика генетика Тесты NCL6 NCL6 сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Нейрональный цероидный липофусциноз 8-го типа (NCL8S) Нейрональный цероидный липофусциноз 8-го типа (NCL8S) Генетика Генетика генетика Тесты NCL8S NCL8S сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Нейрональный цероидный липофусциноз 10-го типа (NCL10) Нейрональный цероидный липофусциноз 10-го типа (NCL10) Генетика Генетика генетика Тесты NCL10 NCL10 сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Нейрональный цероидный липофусциноз 12-го типа (NCL12) Нейрональный цероидный липофусциноз 12-го типа (NCL12) Генетика Генетика генетика Тесты NCL12 NCL12 сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Наследственный цероидный липофусциноз 12-го типа (NCL12 АС) Наследственный цероидный липофусциноз 12-го типа (NCL12 АС) Генетика Генетика генетика Тесты NCL12 АС NCL12 АС сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Неонатальная энцефалопатия с судорогами (NEWS) Неонатальная энцефалопатия с судорогами (NEWS) Генетика Генетика генетика Тесты NEWS NEWS NEWS NEWS сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Несовершенный амелогенез/Наследственная гипоплазия эмали(ARAI-A/FEH A) Несовершенный амелогенез/Наследственная гипоплазия эмали(ARAI-A/FEH A) Генетика Генетика генетика Тесты ARAI-A/FEH A ARAI-A/FEH A AAFA AAFA сухая кровь собака Конверт +2°С…+8°С Железо Fe (Iron)</t>
+  </si>
+  <si>
+    <t>Несовершенный амелогенез/Наследственная гипоплазия эмали(ARAI-L/FEH L) Несовершенный амелогенез/Наследственная гипоплазия эмали(ARAI-L/FEH L) Генетика Генетика генетика Тесты ARAI-L/FEH L ARAI-L/FEH L ALFL ALFL сухая кровь собака Конверт +2°С…+8°С Железо Fe (Iron)</t>
+  </si>
+  <si>
+    <t>Несовершенный амелогенез/Наследст. гипоплазия эмали(AI P/ARAI-P/FEH-P) Несовершенный амелогенез/Наследст. гипоплазия эмали(AI P/ARAI-P/FEH-P) Генетика Генетика генетика Тесты AI P/ARAI-P/FEH-P AI P/ARAI-P/FEH-P ALFP ALFP сухая кровь собака Конверт +2°С…+8°С Железо Fe (Iron) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Несовершенный амелогенез/Наследст. гипоплазия эмали самоеда (ARAI-S) Несовершенный амелогенез/Наследст. гипоплазия эмали самоеда (ARAI-S) Генетика Генетика генетика Тесты ARAI-S ARAI-S ALS ALS сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Несовершенный остеогенез биглей (OI b) Несовершенный остеогенез биглей (OI b) Генетика Генетика генетика Тесты OI b OI b OLB OLB сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Несовершенный остеогенез такс (OI d) Несовершенный остеогенез такс (OI d) Генетика Генетика генетика Тесты OI d OI d OI OI сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Нефропатия с потерей белка (PLN) Нефропатия с потерей белка (PLN) Генетика Генетика генетика Тесты PLN PLN PLN PLN сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Паралич гортани бультерьеров  (LP) Паралич гортани бультерьеров  (LP) Генетика Генетика генетика Тесты LP LP LP LP сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Первичная открытоугольная глаукома рыжих бретонских бассетов(POAG BFB) Первичная открытоугольная глаукома рыжих бретонских бассетов(POAG BFB) Генетика Генетика генетика Тесты POAG BFB POAG BFB PBFB PBFB сухая кровь собака Конверт +2°С…+8°С Антиген Antigen Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Первичная открытоугольная глаукома биглей (POAG Beagle) Первичная открытоугольная глаукома биглей (POAG Beagle) Генетика Генетика генетика Тесты POAG Beagle POAG Beagle POAG POAG сухая кровь собака Конверт +2°С…+8°С Антиген Antigen Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Первичная открытоугольная глаукома, вывих хрусталика POAG-PLL Shar Pei Первичная открытоугольная глаукома, вывих хрусталика POAG-PLL Shar Pei Генетика Генетика генетика Тесты PPLL PPLL сухая кровь собака Конверт +2°С…+8°С Антиген Antigen Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Первичная открытоугольная глаукома Элкхаунд (POAG Elk) Первичная открытоугольная глаукома Элкхаунд (POAG Elk) Генетика Генетика генетика Тесты POAG Elk POAG Elk PELK PELK сухая кровь собака Конверт +2°С…+8°С Антиген Antigen Калий K (Potassium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Первичная цилиарная дискинезия (PCD) Первичная цилиарная дискинезия (PCD) Генетика Генетика генетика Тесты PCD PCD PCD PCD сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Первичная цилиарная дискинезия (PCD AM) Аляскинских маламутов Первичная цилиарная дискинезия (PCD AM) Аляскинских маламутов Генетика Генетика генетика Тесты PCD AM PCD AM PCDA PCDA сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Первичный вывих хрусталика (PLL) Первичный вывих хрусталика (PLL) Генетика Генетика генетика Тесты PLL PLL PLL PLL сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Поздняя мозжечковая атаксия (LOA) Поздняя мозжечковая атаксия (LOA) Генетика Генетика генетика Тесты LOA LOA LOA LOA сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Поликистоз почек бультерьеров (BTPKD) Поликистоз почек бультерьеров (BTPKD) Генетика Генетика генетика Тесты BTPKD BTPKD BT BT сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium) Фосфор P (Phosphorus) Общий белок Total Protein</t>
+  </si>
+  <si>
+    <t>Предрасположенность к ожирению (POMC / ADI) Предрасположенность к ожирению (POMC / ADI) Генетика Генетика генетика Тесты POMC / ADI POMC / ADI POMC POMC сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки (GR-PRA1) Прогрессирующая атрофия сетчатки (GR-PRA1) Генетика Генетика генетика Тесты GR-PRA1 GR-PRA1 сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки (GR-PRA2) Прогрессирующая атрофия сетчатки (GR-PRA2) Генетика Генетика генетика Тесты GR-PRA2 GR-PRA2 сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки (PRA-CNGA1) Прогрессирующая атрофия сетчатки (PRA-CNGA1) Генетика Генетика генетика Тесты PRA-CNGA1 PRA-CNGA1 CNGA CNGA сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки (PRA-cord1) Прогрессирующая атрофия сетчатки (PRA-cord1) Генетика Генетика генетика Тесты PRA-cord1 PRA-cord1 PRAC PRAC сухая кровь собака Конверт +2°С…+8°С Кортизол Cortisol Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки (CRD-SWD / PRA-cord2) Прогрессирующая атрофия сетчатки (CRD-SWD / PRA-cord2) Генетика Генетика генетика Тесты CRD-SWD / PRA-cord2 CRD-SWD / PRA-cord2 CRDS CRDS сухая кровь собака Конверт +2°С…+8°С Кортизол Cortisol Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки (PRA-prcd) Прогрессирующая атрофия сетчатки (PRA-prcd) Генетика Генетика генетика Тесты PRA-prcd PRA-prcd PRAP PRAP сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки (PRA-crd1) Прогрессирующая атрофия сетчатки (PRA-crd1) Генетика Генетика генетика Тесты PRA-crd1 PRA-crd1 сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки (PRA-crd2) Прогрессирующая атрофия сетчатки (PRA-crd2) Генетика Генетика генетика Тесты PRA-crd2 PRA-crd2 сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки (PRA-rcd3) Прогрессирующая атрофия сетчатки (PRA-rcd3) Генетика Генетика генетика Тесты PRA-rcd3 PRA-rcd3 сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки (PRA-rcd4) Прогрессирующая атрофия сетчатки (PRA-rcd4) Генетика Генетика генетика Тесты PRA-rcd4 PRA-rcd4 сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки басенджи (bas-PRA) Прогрессирующая атрофия сетчатки басенджи (bas-PRA) Генетика Генетика генетика Тесты bas-PRA bas-PRA BPRA BPRA сухая кровь собака Конверт +2°С…+8°С Базофилы Basophils Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки папильонов и фаленов (pap-PRA) Прогрессирующая атрофия сетчатки папильонов и фаленов (pap-PRA) Генетика Генетика генетика Тесты pap-PRA pap-PRA PPRA PPRA сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки (XL-PRA1) Прогрессирующая атрофия сетчатки (XL-PRA1) Генетика Генетика генетика Тесты XL-PRA1 XL-PRA1 XL XL сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки цвергшнауцеров (XL-PRA2) Прогрессирующая атрофия сетчатки цвергшнауцеров (XL-PRA2) Генетика Генетика генетика Тесты XL-PRA2 XL-PRA2 сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1) Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1) Генетика Генетика генетика Тесты PRA B1 PRA B1 сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки BBS4/Синдром Барде-Бидля 4(PRA-BBS4) Прогрессирующая атрофия сетчатки BBS4/Синдром Барде-Бидля 4(PRA-BBS4) Генетика Генетика генетика Тесты PRA-BBS4 PRA-BBS4 сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Ранняя глухота Бордер колли, EAOD (Linkage test) Ранняя глухота Бордер колли, EAOD (Linkage test) Генетика Генетика генетика Тесты Linkage test Linkage test EAOD EAOD сухая кровь собака Конверт +2°С…+8°С Антиген Antigen Калий K (Potassium) Нейтрофилы Neutrophils Тестостерон Testosterone</t>
+  </si>
+  <si>
+    <t>Ранняя прогрессирующая полинейропатия Грейхаундов (GHPN) Ранняя прогрессирующая полинейропатия Грейхаундов (GHPN) Генетика Генетика генетика Тесты GHPN GHPN GHPN GHPN сухая кровь собака Конверт +2°С…+8°С Гормон роста Growth Hormone Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Ранняя прогрессирующая полинейропатия маламутов (AMPN) Ранняя прогрессирующая полинейропатия маламутов (AMPN) Генетика Генетика генетика Тесты AMPN AMPN AM AM сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Семейная нефропатия английских кокер спаниелей (FN) Семейная нефропатия английских кокер спаниелей (FN) Генетика Генетика генетика Тесты FN FN FN FN сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Сенсорная атактическая нейропатия (SAN) Сенсорная атактическая нейропатия (SAN) Генетика Генетика генетика Тесты SAN SAN SAN SAN сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Сенсорная невропатия (SN) Сенсорная невропатия (SN) Генетика Генетика генетика Тесты SN SN SN SN сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Синдром акральной матуляции (AMS) Синдром акральной матуляции (AMS) Генетика Генетика генетика Тесты AMS AMS AMS AMS сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Синдром Барде-Бидля 2 (BBS2) Синдром Барде-Бидля 2 (BBS2) Генетика Генетика генетика Тесты BBS2 BBS2 сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Синдром Ван ден Энде-Гупта (VDEGS) Синдром Ван ден Энде-Гупта (VDEGS) Генетика Генетика генетика Тесты VDEGS VDEGS VDEG VDEG сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Синдром Грисцелли (GS1) Синдром Грисцелли (GS1) Генетика Генетика генетика Тесты GS1 GS1 сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Синдром длинного интервала QT (LQT) Синдром длинного интервала QT (LQT) Генетика Генетика генетика Тесты LQT LQT QT QT сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Синдром захваченных нейтрофилов (TNS) Синдром захваченных нейтрофилов (TNS) Генетика Генетика генетика Тесты TNS TNS TNS TNS сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Синдром Мусладина-Люка / Синдром китайского бигля (MLS) Синдром Мусладина-Люка / Синдром китайского бигля (MLS) Генетика Генетика генетика Тесты MLS MLS MLS MLS сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Синдром недостаточной адгезии лейкоцитов (CLAD) Синдром недостаточной адгезии лейкоцитов (CLAD) Генетика Генетика генетика Тесты CLAD CLAD CLAD CLAD сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride)</t>
+  </si>
+  <si>
+    <t>Синдром персистирующих мюллеровых протоков (PMDS) Синдром персистирующих мюллеровых протоков (PMDS) Генетика Генетика генетика Тесты PMDS PMDS PMDS PMDS сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Синдром сухого глаза и курчавошерстности  (CKCSID) Синдром сухого глаза и курчавошерстности  (CKCSID) Генетика Генетика генетика Тесты CKCSID CKCSID CKC CKC сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium)</t>
+  </si>
+  <si>
+    <t>Синдром Фанкони басенджи (FBS) Синдром Фанкони басенджи (FBS) Генетика Генетика генетика Тесты FBS FBS FBS FBS сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Синдром эпизодического падения (EFS) Синдром эпизодического падения (EFS) Генетика Генетика генетика Тесты EFS EFS EFS EFS сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Скелетная дисплазия 2 (SD2) Скелетная дисплазия 2 (SD2) Генетика Генетика генетика Тесты SD2 SD2 сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Спинальный дизрафизм веймаранеров (SpD) Спинальный дизрафизм веймаранеров (SpD) Генетика Генетика генетика Тесты SpD SpD SPD SPD сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Спиноцеребеллярная атаксия с миокимией и/или судорогами (SCA) Спиноцеребеллярная атаксия с миокимией и/или судорогами (SCA) Генетика Генетика генетика Тесты SCA SCA SCA SCA сухая кровь собака Конверт +2°С…+8°С Кальций Ca (Calcium)</t>
+  </si>
+  <si>
+    <t>Спондилокостальный дизостоз (SCD) Спондилокостальный дизостоз (SCD) Генетика Генетика генетика Тесты SCD SCD SCD SCD сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation</t>
+  </si>
+  <si>
+    <t>Тяжелый комбинированный иммунодефицит, сцепл-ый с Х-хромосомой(X-SCID) Тяжелый комбинированный иммунодефицит, сцепл-ый с Х-хромосомой(X-SCID) Генетика Генетика генетика Тесты X-SCID X-SCID SCID SCID сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Устойчивость к микобактериозу (МАС) Устойчивость к микобактериозу (МАС) Генетика Генетика генетика Тесты МАС МАС MAC MAC сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Хондродистрофия с риском дегенерации межпозвоночных дисков(CDDY, IVDD) Хондродистрофия с риском дегенерации межпозвоночных дисков(CDDY, IVDD) Генетика Генетика генетика Тесты CDDY, IVDD CDDY, IVDD CDDY CDDY сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation</t>
+  </si>
+  <si>
+    <t>Хондродисплазия (CDPA) и хондродистрофия (CDDY, IVDD) Хондродисплазия (CDPA) и хондродистрофия (CDDY, IVDD) Генетика Генетика генетика Тесты CDPA CDDY, IVDD CDPA CDDY, IVDD CDPA CDPA сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Центроядерная миопатия (CNM) Центроядерная миопатия (CNM) Генетика Генетика генетика Тесты CNM CNM CNM CNM сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Циклическая нейтропения (Синдром серой колли, GSC) Циклическая нейтропения (Синдром серой колли, GSC) Генетика Генетика генетика Тесты Синдром серой колли, GSC Синдром серой колли, GSC GSC GSC сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Цистинурия 2A типа (CYST2A) Цистинурия 2A типа (CYST2A) Генетика Генетика генетика Тесты CYST2A CYST2A A A сухая кровь собака Конверт +2°С…+8°С Цистиновые кристаллы Cystine crystals</t>
+  </si>
+  <si>
+    <t>Цистинурия 2B типа (CYST2B) Цистинурия 2B типа (CYST2B) Генетика Генетика генетика Тесты CYST2B CYST2B B B сухая кровь собака Конверт +2°С…+8°С Цистиновые кристаллы Cystine crystals</t>
   </si>
   <si>
     <t>Цистинурия бульдогов 
-(Cys-bd)  генетика  Тесты Тесты Генетика Генетика Цистинурия бульдогов 
 (Cys-bd) Цистинурия бульдогов 
-(Cys-bd) Цистинурия бульдогов 
-(Cys-bd) Cys-bd Cys-bd     CYSB CYSB CYSB CYSB CYSB CYSB  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цистинурия ньюфаундлендов (Cys-nf)  генетика  Тесты Тесты Генетика Генетика Цистинурия ньюфаундлендов (Cys-nf) Цистинурия ньюфаундлендов (Cys-nf) Цистинурия ньюфаундлендов (Cys-nf) Cys-nf Cys-nf     CYS CYS CYS CYS CYS CYS  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Чувствительность к медикаментам (MDR 1)  генетика  Тесты Тесты Генетика Генетика Чувствительность к медикаментам (MDR 1) Чувствительность к медикаментам (MDR 1) Чувствительность к медикаментам (MDR 1) MDR 1 MDR 1            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Чувствительность к фенобарбиталу (MDR ph)  генетика  Тесты Тесты Генетика Генетика Чувствительность к фенобарбиталу (MDR ph) Чувствительность к фенобарбиталу (MDR ph) Чувствительность к фенобарбиталу (MDR ph) MDR ph MDR ph     MDR MDR MDR MDR MDR MDR  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ювенильная идиопатическая эпилепсия (BFJE)  генетика  Тесты Тесты Генетика Генетика Ювенильная идиопатическая эпилепсия (BFJE) Ювенильная идиопатическая эпилепсия (BFJE) Ювенильная идиопатическая эпилепсия (BFJE) BFJE BFJE     BFJE BFJE BFJE BFJE BFJE BFJE  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ювенильная миоклоническая эпилепсия родезийских риджбеков (JME)  генетика  Тесты Тесты Генетика Генетика Ювенильная миоклоническая эпилепсия родезийских риджбеков (JME) Ювенильная миоклоническая эпилепсия родезийских риджбеков (JME) Ювенильная миоклоническая эпилепсия родезийских риджбеков (JME) JME JME     JME JME JME JME JME JME  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ювенильная энцефалопатия / Ювенильная эпилепсия (JBD)  генетика  Тесты Тесты Генетика Генетика Ювенильная энцефалопатия / Ювенильная эпилепсия (JBD) Ювенильная энцефалопатия / Ювенильная эпилепсия (JBD) Ювенильная энцефалопатия / Ювенильная эпилепсия (JBD) JBD JBD     JBD JBD JBD JBD JBD JBD  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ювенильный паралич гортани / Полинейропатия (JLPP)  генетика  Тесты Тесты Генетика Генетика Ювенильный паралич гортани / Полинейропатия (JLPP) Ювенильный паралич гортани / Полинейропатия (JLPP) Ювенильный паралич гортани / Полинейропатия (JLPP) JLPP JLPP     JLPP JLPP JLPP JLPP JLPP JLPP  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Установление родства 2 животных  генетика  Тесты Тесты Генетика Генетика Установление родства 2 животных Установление родства 2 животных Установление родства 2 животных              сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дополнительная проба (щенок, кобель, сука)  генетика  Тесты Тесты Генетика Генетика Дополнительная проба (щенок, кобель, сука) Дополнительная проба (щенок, кобель, сука) Дополнительная проба (щенок, кобель, сука) щенок, кобель, сука щенок, кобель, сука            сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Паспорт генетической идентификации  генетика  Тесты Тесты Генетика Генетика Паспорт генетической идентификации Паспорт генетической идентификации Паспорт генетической идентификации              сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус А (агути/не агути)(A, a)  генетика  Тесты Тесты Генетика Генетика Локус А (агути/не агути)(A, a) Локус А (агути/не агути)(A, a) Локус А (агути/не агути)(A, a) агути/не агути A, a агути/не агути A, a     ГА ГА ГА ГА ГА ГА  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус B (шоколад)(B, b bl)  генетика  Тесты Тесты Генетика Генетика Локус B (шоколад)(B, b bl) Локус B (шоколад)(B, b bl) Локус B (шоколад)(B, b bl) шоколад B, b bl шоколад B, b bl     ГВ ГВ ГВ ГВ ГВ ГВ  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус C (колорпоинт)(C, cb, сs)  генетика  Тесты Тесты Генетика Генетика Локус C (колорпоинт)(C, cb, сs) Локус C (колорпоинт)(C, cb, сs) Локус C (колорпоинт)(C, cb, сs) колорпоинт C, cb, сs колорпоинт C, cb, сs     ГС ГС ГС ГС ГС ГС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус D (осветление окраса)(D ,d)   генетика  Тесты Тесты Генетика Генетика Локус D (осветление окраса)(D ,d)  Локус D (осветление окраса)(D ,d)  Локус D (осветление окраса)(D ,d)  осветление окраса D ,d осветление окраса D ,d     ГД ГД ГД ГД ГД ГД  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Доминантный белый и белая пятнистость, локус W(N, W, Ws)  генетика  Тесты Тесты Генетика Генетика Доминантный белый и белая пятнистость, локус W(N, W, Ws) Доминантный белый и белая пятнистость, локус W(N, W, Ws) Доминантный белый и белая пятнистость, локус W(N, W, Ws) N, W, Ws N, W, Ws     GW GW GW GW GW GW  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Локус W, белые перчатки (GL)  генетика  Тесты Тесты Генетика Генетика Локус W, белые перчатки (GL) Локус W, белые перчатки (GL) Локус W, белые перчатки (GL) GL GL     GWGL GWGL GWGL GWGL GWGL GWGL  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Альбинизм(С, са)  генетика  Тесты Тесты Генетика Генетика Альбинизм(С, са) Альбинизм(С, са) Альбинизм(С, са) С, са С, са     GCA GCA GCA GCA GCA GCA  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Амбер норвежских лесных(E, е)  генетика  Тесты Тесты Генетика Генетика Амбер норвежских лесных(E, е) Амбер норвежских лесных(E, е) Амбер норвежских лесных(E, е) E, е E, е     ГЕ ГЕ ГЕ ГЕ ГЕ ГЕ  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Псевдозолотистый окрас / солнечный / биметаллик, аллели wb^SIB (Gold)  генетика  Тесты Тесты Генетика Генетика Псевдозолотистый окрас / солнечный / биметаллик, аллели wb^SIB (Gold) Псевдозолотистый окрас / солнечный / биметаллик, аллели wb^SIB (Gold) Псевдозолотистый окрас / солнечный / биметаллик, аллели wb^SIB (Gold) Gold Gold     GOLD GOLD GOLD GOLD GOLD GOLD  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Рассет (красный) окрас бурм(E, er)  генетика  Тесты Тесты Генетика Генетика Рассет (красный) окрас бурм(E, er) Рассет (красный) окрас бурм(E, er) Рассет (красный) окрас бурм(E, er) красный E, er красный E, er     КБ КБ КБ КБ КБ КБ  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Cердолик (cornellian) курильских бобтейлов(E, ec)  генетика  Тесты Тесты Генетика Генетика Cердолик (cornellian) курильских бобтейлов(E, ec) Cердолик (cornellian) курильских бобтейлов(E, ec) Cердолик (cornellian) курильских бобтейлов(E, ec) cornellian E, ec cornellian E, ec     СК СК СК СК СК СК  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Угольный окрас бенгальских кошек (A, Apb)  генетика  Тесты Тесты Генетика Генетика Угольный окрас бенгальских кошек (A, Apb) Угольный окрас бенгальских кошек (A, Apb) Угольный окрас бенгальских кошек (A, Apb) A, Apb A, Apb     УБ УБ УБ УБ УБ УБ  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Голубой / Лиловый / Фавн(B, D)  генетика  Тесты Тесты Генетика Генетика Голубой / Лиловый / Фавн(B, D) Голубой / Лиловый / Фавн(B, D) Голубой / Лиловый / Фавн(B, D) B, D B, D     GBD GBD GBD GBD GBD GBD  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Два локуса окраса  генетика  Тесты Тесты Генетика Генетика Два локуса окраса Два локуса окраса Два локуса окраса              сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Три локуса окраса  генетика  Тесты Тесты Генетика Генетика Три локуса окраса Три локуса окраса Три локуса окраса              сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Четыре локуса окраса  генетика  Тесты Тесты Генетика Генетика Четыре локуса окраса Четыре локуса окраса Четыре локуса окраса              сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Пять локусов окраса  генетика  Тесты Тесты Генетика Генетика Пять локусов окраса Пять локусов окраса Пять локусов окраса              сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Длина шерсти кошек (4 мутации)  генетика  Тесты Тесты Генетика Генетика Длина шерсти кошек (4 мутации) Длина шерсти кошек (4 мутации) Длина шерсти кошек (4 мутации) 4 мутации 4 мутации     ШЕР ШЕР ШЕР ШЕР ШЕР ШЕР  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Курчавость (KRT71 DR)  генетика  Тесты Тесты Генетика Генетика Курчавость (KRT71 DR) Курчавость (KRT71 DR) Курчавость (KRT71 DR) KRT71 DR KRT71 DR     KRDR KRDR KRDR KRDR KRDR KRDR  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Курчавость селкирк-рексов  генетика  Тесты Тесты Генетика Генетика Курчавость селкирк-рексов Курчавость селкирк-рексов Курчавость селкирк-рексов       KSR KSR KSR KSR KSR KSR  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Остеохондродисплазия кошек - вислоухость (Fold)  генетика  Тесты Тесты Генетика Генетика Остеохондродисплазия кошек - вислоухость (Fold) Остеохондродисплазия кошек - вислоухость (Fold) Остеохондродисплазия кошек - вислоухость (Fold) Fold Fold     FOLD FOLD FOLD FOLD FOLD FOLD  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Полидактилия, Hw аллель  генетика  Тесты Тесты Генетика Генетика Полидактилия, Hw аллель Полидактилия, Hw аллель Полидактилия, Hw аллель       HW HW HW HW HW HW  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Аутоиммунный лимфопролиферативный синдром кошек (ALPS, FALPS)  генетика  Тесты Тесты Генетика Генетика Аутоиммунный лимфопролиферативный синдром кошек (ALPS, FALPS) Аутоиммунный лимфопролиферативный синдром кошек (ALPS, FALPS) Аутоиммунный лимфопролиферативный синдром кошек (ALPS, FALPS) ALPS, FALPS ALPS, FALPS     ALPS ALPS ALPS ALPS ALPS ALPS  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Врожденный миастенический синдром девон рексов и сфинксов (CMS)  генетика  Тесты Тесты Генетика Генетика Врожденный миастенический синдром девон рексов и сфинксов (CMS) Врожденный миастенический синдром девон рексов и сфинксов (CMS) Врожденный миастенический синдром девон рексов и сфинксов (CMS) CMS CMS     CMS CMS CMS CMS CMS CMS  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ганглиозидоз GM1  генетика  Тесты Тесты Генетика Генетика Ганглиозидоз GM1 Ганглиозидоз GM1 Ганглиозидоз GM1              сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ганглиозидоз GM2 бурманских кошек  генетика  Тесты Тесты Генетика Генетика Ганглиозидоз GM2 бурманских кошек Ганглиозидоз GM2 бурманских кошек Ганглиозидоз GM2 бурманских кошек       ГАН ГАН ГАН ГАН ГАН ГАН  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гипертрофическая кардиомиопатия канадских сфинксов (HCM Sp)  генетика  Тесты Тесты Генетика Генетика Гипертрофическая кардиомиопатия канадских сфинксов (HCM Sp) Гипертрофическая кардиомиопатия канадских сфинксов (HCM Sp) Гипертрофическая кардиомиопатия канадских сфинксов (HCM Sp) HCM Sp HCM Sp     HCMS HCMS HCMS HCMS HCMS HCMS  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гипертрофическая кардиомиопатия мейн-кунов 1 мутация, A31P (HCM)  генетика  Тесты Тесты Генетика Генетика Гипертрофическая кардиомиопатия мейн-кунов 1 мутация, A31P (HCM) Гипертрофическая кардиомиопатия мейн-кунов 1 мутация, A31P (HCM) Гипертрофическая кардиомиопатия мейн-кунов 1 мутация, A31P (HCM) HCM HCM     HCMM HCMM HCMM HCMM HCMM HCMM  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гипертрофическая кардиомиопатия мейн-кунов 1 мутация, A74T (HCM A74T)  генетика  Тесты Тесты Генетика Генетика Гипертрофическая кардиомиопатия мейн-кунов 1 мутация, A74T (HCM A74T) Гипертрофическая кардиомиопатия мейн-кунов 1 мутация, A74T (HCM A74T) Гипертрофическая кардиомиопатия мейн-кунов 1 мутация, A74T (HCM A74T) HCM A74T HCM A74T            сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гипертрофическая кардиомиопатия мейн-кунов 2 мутации A31P, A74T (HCM)  генетика  Тесты Тесты Генетика Генетика Гипертрофическая кардиомиопатия мейн-кунов 2 мутации A31P, A74T (HCM) Гипертрофическая кардиомиопатия мейн-кунов 2 мутации A31P, A74T (HCM) Гипертрофическая кардиомиопатия мейн-кунов 2 мутации A31P, A74T (HCM) HCM HCM            сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гипертрофическая кардиомиопатия рэгдоллов (HCM)  генетика  Тесты Тесты Генетика Генетика Гипертрофическая кардиомиопатия рэгдоллов (HCM) Гипертрофическая кардиомиопатия рэгдоллов (HCM) Гипертрофическая кардиомиопатия рэгдоллов (HCM) HCM HCM     HCMP HCMP HCMP HCMP HCMP HCMP  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гипокалиемия бурм (BHK)  генетика  Тесты Тесты Генетика Генетика Гипокалиемия бурм (BHK) Гипокалиемия бурм (BHK) Гипокалиемия бурм (BHK) BHK BHK     BHP BHP BHP BHP BHP BHP  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Глазной альбинизм донского сфинкса (OCA DC)  генетика  Тесты Тесты Генетика Генетика Глазной альбинизм донского сфинкса (OCA DC) Глазной альбинизм донского сфинкса (OCA DC) Глазной альбинизм донского сфинкса (OCA DC) OCA DC OCA DC     OCA OCA OCA OCA OCA OCA  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гликогеноз IV типа (GSD IV)  генетика  Тесты Тесты Генетика Генетика Гликогеноз IV типа (GSD IV) Гликогеноз IV типа (GSD IV) Гликогеноз IV типа (GSD IV) GSD IV GSD IV            сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дефицит эритроцитарной пируваткиназы кошек (PK def)  генетика  Тесты Тесты Генетика Генетика Дефицит эритроцитарной пируваткиназы кошек (PK def) Дефицит эритроцитарной пируваткиназы кошек (PK def) Дефицит эритроцитарной пируваткиназы кошек (PK def) PK def PK def     PK PK PK PK PK PK  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мукополисахаридоз VI (MPS VI)  генетика  Тесты Тесты Генетика Генетика Мукополисахаридоз VI (MPS VI) Мукополисахаридоз VI (MPS VI) Мукополисахаридоз VI (MPS VI) MPS VI MPS VI     MPS MPS MPS MPS MPS MPS  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мукополисахаридоз VII (MPSVII)  генетика  Тесты Тесты Генетика Генетика Мукополисахаридоз VII (MPSVII) Мукополисахаридоз VII (MPSVII) Мукополисахаридоз VII (MPSVII) MPSVII MPSVII            сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Наследственная миотония (MC)  генетика  Тесты Тесты Генетика Генетика Наследственная миотония (MC) Наследственная миотония (MC) Наследственная миотония (MC) MC MC     MC MC MC MC MC MC  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Поликистоз почек (PKD)  генетика  Тесты Тесты Генетика Генетика Поликистоз почек (PKD) Поликистоз почек (PKD) Поликистоз почек (PKD) PKD PKD     PKD PKD PKD PKD PKD PKD  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки rdAc (PRA-rdAc)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки rdAc (PRA-rdAc) Прогрессирующая атрофия сетчатки rdAc (PRA-rdAc) Прогрессирующая атрофия сетчатки rdAc (PRA-rdAc) PRA-rdAc PRA-rdAc     PRAR PRAR PRAR PRAR PRAR PRAR  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки Rdy (PRA-Rdy)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки Rdy (PRA-Rdy) Прогрессирующая атрофия сетчатки Rdy (PRA-Rdy) Прогрессирующая атрофия сетчатки Rdy (PRA-Rdy) PRA-Rdy PRA-Rdy     PRDY PRDY PRDY PRDY PRDY PRDY  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки бенгалов (PRA-b)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки бенгалов (PRA-b) Прогрессирующая атрофия сетчатки бенгалов (PRA-b) Прогрессирующая атрофия сетчатки бенгалов (PRA-b) PRA-b PRA-b     PRAB PRAB PRAB PRAB PRAB PRAB  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Прогрессирующая атрофия сетчатки персов (PRA-pd)  генетика  Тесты Тесты Генетика Генетика Прогрессирующая атрофия сетчатки персов (PRA-pd) Прогрессирующая атрофия сетчатки персов (PRA-pd) Прогрессирующая атрофия сетчатки персов (PRA-pd) PRA-pd PRA-pd     ПА ПА ПА ПА ПА ПА  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Спинальная мышечная атрофия (SMA)  генетика  Тесты Тесты Генетика Генетика Спинальная мышечная атрофия (SMA) Спинальная мышечная атрофия (SMA) Спинальная мышечная атрофия (SMA) SMA SMA     SMA SMA SMA SMA SMA SMA  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цистинурия В (Cys B)  генетика  Тесты Тесты Генетика Генетика Цистинурия В (Cys B) Цистинурия В (Cys B) Цистинурия В (Cys B) Cys B Cys B     CYSB CYSB CYSB CYSB CYSB CYSB  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Черепно-лицевая дисплазия бурм (FND)  генетика  Тесты Тесты Генетика Генетика Черепно-лицевая дисплазия бурм (FND) Черепно-лицевая дисплазия бурм (FND) Черепно-лицевая дисплазия бурм (FND) FND FND     FND FND FND FND FND FND  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Группа крови А, группа крови В, носительство группы крови В  генетика  Тесты Тесты Генетика Генетика Группа крови А, группа крови В, носительство группы крови В Группа крови А, группа крови В, носительство группы крови В Группа крови А, группа крови В, носительство группы крови В       ГР ГР ГР ГР ГР ГР  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Установление родства 2 животных  генетика  Тесты Тесты Генетика Генетика Установление родства 2 животных Установление родства 2 животных Установление родства 2 животных       RC RC RC RC RC RC  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дополнительная проба (котенок, кот, кошка)  генетика  Тесты Тесты Генетика Генетика Дополнительная проба (котенок, кот, кошка) Дополнительная проба (котенок, кот, кошка) Дополнительная проба (котенок, кот, кошка) котенок, кот, кошка котенок, кот, кошка     RCDP RCDP RCDP RCDP RCDP RCDP  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Определение пола птиц   генетика  Тесты Тесты Генетика Генетика Определение пола птиц  Определение пола птиц  Определение пола птиц        ПОЛП ПОЛП ПОЛП ПОЛП ПОЛП ПОЛП  сухая кровь  птицы декоративные   птицы декоративные   птицы декоративные  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Коагулограмма (АЧТВ, протромбиновое время, тромбиновое время, фибриноген) терапия ОРИТ  Профили Профили Исследование гемостаза Исследование гемостаза Коагулограмма (АЧТВ, протромбиновое время, тромбиновое время, фибриноген) Коагулограмма (АЧТВ, протромбиновое время, тромбиновое время, фибриноген) Коагулограмма (АЧТВ, протромбиновое время, тромбиновое время, фибриноген) АЧТВ, протромбиновое время, тромбиновое время, фибриноген АЧТВ, протромбиновое время, тромбиновое время, фибриноген     ОБС ОБС ОБС ОБС ОБС ОБС  плазма крови (цитрат натрия) собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  собака кошка морские млекопитающие лошадь  Пробирка с белой крышкой 809  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Базовый (АЛТ, АСТ, белок общий, билирубин общий, глюкоза, креатинин, мочевина) 7 терапия  Профили Профили Биохимический профиль Биохимический профиль Базовый (АЛТ, АСТ, белок общий, билирубин общий, глюкоза, креатинин, мочевина) 7 Базовый (АЛТ, АСТ, белок общий, билирубин общий, глюкоза, креатинин, мочевина) 7 Базовый (АЛТ, АСТ, белок общий, билирубин общий, глюкоза, креатинин, мочевина) 7 АЛТ, АСТ, белок общий, билирубин общий, глюкоза, креатинин, мочевина АЛТ, АСТ, белок общий, билирубин общий, глюкоза, креатинин, мочевина     ОБС ОБС ОБС ОБС ОБС ОБС  сыворотка крови собака кошка морские млекопитающие хорьки грызуны кролики  собака кошка морские млекопитающие хорьки грызуны кролики  собака кошка морские млекопитающие хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Оптимальный (АЛТ, АСТ, альбумин, белок общий, альбумин/глобулин соотношение, билирубин общий, ГГТ, глюкоза, мочевина, креатинин, ЩФ) 11 терапия  Профили Профили Биохимический профиль Биохимический профиль Оптимальный (АЛТ, АСТ, альбумин, белок общий, альбумин/глобулин соотношение, билирубин общий, ГГТ, глюкоза, мочевина, креатинин, ЩФ) 11 Оптимальный (АЛТ, АСТ, альбумин, белок общий, альбумин/глобулин соотношение, билирубин общий, ГГТ, глюкоза, мочевина, креатинин, ЩФ) 11 Оптимальный (АЛТ, АСТ, альбумин, белок общий, альбумин/глобулин соотношение, билирубин общий, ГГТ, глюкоза, мочевина, креатинин, ЩФ) 11 АЛТ, АСТ, альбумин, белок общий, альбумин/глобулин соотношение, билирубин общий, ГГТ, глюкоза, мочевина, креатинин, ЩФ АЛТ, АСТ, альбумин, белок общий, альбумин/глобулин соотношение, билирубин общий, ГГТ, глюкоза, мочевина, креатинин, ЩФ     ОБС ОБС ОБС ОБС ОБС ОБС  сыворотка крови собака кошка морские млекопитающие грызуны кролики  собака кошка морские млекопитающие грызуны кролики  собака кошка морские млекопитающие грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Стандартный (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза,  калий, кальций, креатинин, мочевина, натрий, фосфор, ЩФ, хлор) 16 терапия  Профили Профили Биохимический профиль Биохимический профиль Стандартный (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза,  калий, кальций, креатинин, мочевина, натрий, фосфор, ЩФ, хлор) 16 Стандартный (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза,  калий, кальций, креатинин, мочевина, натрий, фосфор, ЩФ, хлор) 16 Стандартный (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза,  калий, кальций, креатинин, мочевина, натрий, фосфор, ЩФ, хлор) 16 АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза,  калий, кальций, креатинин, мочевина, натрий, фосфор, ЩФ, хлор АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза,  калий, кальций, креатинин, мочевина, натрий, фосфор, ЩФ, хлор     ОБС ОБС ОБС ОБС ОБС ОБС  сыворотка крови собака кошка морские млекопитающие хорьки  собака кошка морские млекопитающие хорьки  собака кошка морские млекопитающие хорьки  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Стандартный для кошек (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, кальций, креатинин, мочевина, фосфор, ЩФ + фруктозамин) 14 терапия  Профили Профили Биохимический профиль Биохимический профиль Стандартный для кошек (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, кальций, креатинин, мочевина, фосфор, ЩФ + фруктозамин) 14 Стандартный для кошек (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, кальций, креатинин, мочевина, фосфор, ЩФ + фруктозамин) 14 Стандартный для кошек (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, кальций, креатинин, мочевина, фосфор, ЩФ + фруктозамин) 14 АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, кальций, креатинин, мочевина, фосфор, ЩФ + фруктозамин АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, кальций, креатинин, мочевина, фосфор, ЩФ + фруктозамин     ОБС ОБС ОБС ОБС ОБС ОБС В лабораторию поступают 2 пробирки с сывороткой сыворотка крови  кошка   кошка   кошка  Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с красной крышкой, с ГЕЛЕМ 800 *I* 981  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Расширенный (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, калий, кальций, креатинин, мочевина, натрий, триглицериды, фосфор, холестерин, хлор, ЩФ) 18 терапия  Профили Профили Биохимический профиль Биохимический профиль Расширенный (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, калий, кальций, креатинин, мочевина, натрий, триглицериды, фосфор, холестерин, хлор, ЩФ) 18 Расширенный (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, калий, кальций, креатинин, мочевина, натрий, триглицериды, фосфор, холестерин, хлор, ЩФ) 18 Расширенный (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, калий, кальций, креатинин, мочевина, натрий, триглицериды, фосфор, холестерин, хлор, ЩФ) 18 АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, калий, кальций, креатинин, мочевина, натрий, триглицериды, фосфор, холестерин, хлор, ЩФ АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, калий, кальций, креатинин, мочевина, натрий, триглицериды, фосфор, холестерин, хлор, ЩФ     ОБС ОБС ОБС ОБС ОБС ОБС  сыворотка крови собака кошка морские млекопитающие  собака кошка морские млекопитающие  собака кошка морские млекопитающие  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Максимальный (АЛТ, альбумин, альбумин/глобулин соотношение, амилаза, АСТ, белок общий, билирубин общий, билирубин прямой, ГГТ, глюкоза, железо, калий, кальций, креатинин, КФК, ЛДГ, липаза, магний, мочевина, натрий, триглицериды, фосфор, хлор, холестерин, ЩФ) 25 терапия  Профили Профили Биохимический профиль Биохимический профиль Максимальный (АЛТ, альбумин, альбумин/глобулин соотношение, амилаза, АСТ, белок общий, билирубин общий, билирубин прямой, ГГТ, глюкоза, железо, калий, кальций, креатинин, КФК, ЛДГ, липаза, магний, мочевина, натрий, триглицериды, фосфор, хлор, холестерин, ЩФ) 25 Максимальный (АЛТ, альбумин, альбумин/глобулин соотношение, амилаза, АСТ, белок общий, билирубин общий, билирубин прямой, ГГТ, глюкоза, железо, калий, кальций, креатинин, КФК, ЛДГ, липаза, магний, мочевина, натрий, триглицериды, фосфор, хлор, холестерин, ЩФ) 25 Максимальный (АЛТ, альбумин, альбумин/глобулин соотношение, амилаза, АСТ, белок общий, билирубин общий, билирубин прямой, ГГТ, глюкоза, железо, калий, кальций, креатинин, КФК, ЛДГ, липаза, магний, мочевина, натрий, триглицериды, фосфор, хлор, холестерин, ЩФ) 25 АЛТ, альбумин, альбумин/глобулин соотношение, амилаза, АСТ, белок общий, билирубин общий, билирубин прямой, ГГТ, глюкоза, железо, калий, кальций, креатинин, КФК, ЛДГ, липаза, магний, мочевина, натрий, триглицериды, фосфор, хлор, холестерин, ЩФ АЛТ, альбумин, альбумин/глобулин соотношение, амилаза, АСТ, белок общий, билирубин общий, билирубин прямой, ГГТ, глюкоза, железо, калий, кальций, креатинин, КФК, ЛДГ, липаза, магний, мочевина, натрий, триглицериды, фосфор, хлор, холестерин, ЩФ     ОБС ОБС ОБС ОБС ОБС ОБС  сыворотка крови собака кошка морские млекопитающие  собака кошка морские млекопитающие  собака кошка морские млекопитающие  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Почечный (альбумин, белок общий, глюкоза, калий, кальций, креатинин, мочевина, натрий, фосфор, хлор) 10  неврология  Профили Профили Биохимический профиль Биохимический профиль Почечный (альбумин, белок общий, глюкоза, калий, кальций, креатинин, мочевина, натрий, фосфор, хлор) 10 Почечный (альбумин, белок общий, глюкоза, калий, кальций, креатинин, мочевина, натрий, фосфор, хлор) 10 Почечный (альбумин, белок общий, глюкоза, калий, кальций, креатинин, мочевина, натрий, фосфор, хлор) 10 альбумин, белок общий, глюкоза, калий, кальций, креатинин, мочевина, натрий, фосфор, хлор альбумин, белок общий, глюкоза, калий, кальций, креатинин, мочевина, натрий, фосфор, хлор     ОБС ОБС ОБС ОБС ОБС ОБС  сыворотка крови собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Печеночный (АЛТ, альбумин, АСТ, белок общий, билирубин общий,  ГГТ, глюкоза, мочевина, холестерин, ЩФ) 10  гастроэнтерология  Профили Профили Биохимический профиль Биохимический профиль Печеночный (АЛТ, альбумин, АСТ, белок общий, билирубин общий,  ГГТ, глюкоза, мочевина, холестерин, ЩФ) 10 Печеночный (АЛТ, альбумин, АСТ, белок общий, билирубин общий,  ГГТ, глюкоза, мочевина, холестерин, ЩФ) 10 Печеночный (АЛТ, альбумин, АСТ, белок общий, билирубин общий,  ГГТ, глюкоза, мочевина, холестерин, ЩФ) 10 АЛТ, альбумин, АСТ, белок общий, билирубин общий,  ГГТ, глюкоза, мочевина, холестерин, ЩФ АЛТ, альбумин, АСТ, белок общий, билирубин общий,  ГГТ, глюкоза, мочевина, холестерин, ЩФ     ОБС ОБС ОБС ОБС ОБС ОБС  сыворотка крови собака кошка хорьки  собака кошка хорьки  собака кошка хорьки  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Печеночный расширенный (АЛТ, альбумин, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, мочевина, холестерин, ЩФ) 10 + Желчные кислоты (проба натощак + проба после приема пищи)  гастроэнтерология  Профили Профили Биохимический профиль Биохимический профиль Печеночный расширенный (АЛТ, альбумин, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, мочевина, холестерин, ЩФ) 10 + Желчные кислоты (проба натощак + проба после приема пищи) Печеночный расширенный (АЛТ, альбумин, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, мочевина, холестерин, ЩФ) 10 + Желчные кислоты (проба натощак + проба после приема пищи) Печеночный расширенный (АЛТ, альбумин, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, мочевина, холестерин, ЩФ) 10 + Желчные кислоты (проба натощак + проба после приема пищи) АЛТ, альбумин, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, мочевина, холестерин, ЩФ проба натощак + проба после приема пищи АЛТ, альбумин, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, мочевина, холестерин, ЩФ проба натощак + проба после приема пищи     ОБС ОБС ОБС ОБС ОБС ОБС В лабораторию поступают 2 пробирки с сывороткой сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с красной крышкой, с ГЕЛЕМ 800 *I* 842  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Предоперационный (АЛТ, альбумин, АСТ, белок общий, билирубин общий, глюкоза, калий, креатинин, мочевина, натрий, хлор, ЩФ) 12 терапия ОРИТ  Профили Профили Биохимический профиль Биохимический профиль Предоперационный (АЛТ, альбумин, АСТ, белок общий, билирубин общий, глюкоза, калий, креатинин, мочевина, натрий, хлор, ЩФ) 12 Предоперационный (АЛТ, альбумин, АСТ, белок общий, билирубин общий, глюкоза, калий, креатинин, мочевина, натрий, хлор, ЩФ) 12 Предоперационный (АЛТ, альбумин, АСТ, белок общий, билирубин общий, глюкоза, калий, креатинин, мочевина, натрий, хлор, ЩФ) 12 АЛТ, альбумин, АСТ, белок общий, билирубин общий, глюкоза, калий, креатинин, мочевина, натрий, хлор, ЩФ АЛТ, альбумин, АСТ, белок общий, билирубин общий, глюкоза, калий, креатинин, мочевина, натрий, хлор, ЩФ     ОБС ОБС ОБС ОБС ОБС ОБС  сыворотка крови собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  собака кошка хорьки грызуны кролики  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Диабетический первичный (АЛТ, альбумин, АСТ, белок общий, глюкоза, калий, кальций, креатинин, липаза, мочевина, натрий, триглицериды, холестерин, хлор, ЩФ + фруктозамин) 16 + Общий анализ мочи + Кетоны в крови  эндокринология  Профили Профили Биохимический профиль Биохимический профиль Диабетический первичный (АЛТ, альбумин, АСТ, белок общий, глюкоза, калий, кальций, креатинин, липаза, мочевина, натрий, триглицериды, холестерин, хлор, ЩФ + фруктозамин) 16 + Общий анализ мочи + Кетоны в крови Диабетический первичный (АЛТ, альбумин, АСТ, белок общий, глюкоза, калий, кальций, креатинин, липаза, мочевина, натрий, триглицериды, холестерин, хлор, ЩФ + фруктозамин) 16 + Общий анализ мочи + Кетоны в крови Диабетический первичный (АЛТ, альбумин, АСТ, белок общий, глюкоза, калий, кальций, креатинин, липаза, мочевина, натрий, триглицериды, холестерин, хлор, ЩФ + фруктозамин) 16 + Общий анализ мочи + Кетоны в крови АЛТ, альбумин, АСТ, белок общий, глюкоза, калий, кальций, креатинин, липаза, мочевина, натрий, триглицериды, холестерин, хлор, ЩФ + фруктозамин АЛТ, альбумин, АСТ, белок общий, глюкоза, калий, кальций, креатинин, липаза, мочевина, натрий, триглицериды, холестерин, хлор, ЩФ + фруктозамин     ОБС ОБС ОБС ОБС ОБС ОБС В лабораторию поступают 3 пробирки с сывороткой и пробирка с мочей сыворотка крови + моча собака кошка  собака кошка  собака кошка  Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с желтой крышкой для мочи / Консервант 800 *I* 908 *I* 911  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Контроль диабета (АЛТ, АСТ, глюкоза, кальций,  триглицериды, холестерин, ЩФ + фруктозамин) 8  эндокринология  Профили Профили Биохимический профиль Биохимический профиль Контроль диабета (АЛТ, АСТ, глюкоза, кальций,  триглицериды, холестерин, ЩФ + фруктозамин) 8 Контроль диабета (АЛТ, АСТ, глюкоза, кальций,  триглицериды, холестерин, ЩФ + фруктозамин) 8 Контроль диабета (АЛТ, АСТ, глюкоза, кальций,  триглицериды, холестерин, ЩФ + фруктозамин) 8 АЛТ, АСТ, глюкоза, кальций,  триглицериды, холестерин, ЩФ + фруктозамин АЛТ, АСТ, глюкоза, кальций,  триглицериды, холестерин, ЩФ + фруктозамин     ОБС ОБС ОБС ОБС ОБС ОБС В лабораторию поступают 2 пробирки с сывороткой сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с красной крышкой, с ГЕЛЕМ 800 *I* 981  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мониторинг лечения фенобарбиталом (АЛТ, альбумин, ГГТ, желчные кислоты (проба натощак), ЩФ) 5 + Фенобарбитал  неврология  Профили Профили Биохимический профиль Биохимический профиль Мониторинг лечения фенобарбиталом (АЛТ, альбумин, ГГТ, желчные кислоты (проба натощак), ЩФ) 5 + Фенобарбитал Мониторинг лечения фенобарбиталом (АЛТ, альбумин, ГГТ, желчные кислоты (проба натощак), ЩФ) 5 + Фенобарбитал Мониторинг лечения фенобарбиталом (АЛТ, альбумин, ГГТ, желчные кислоты (проба натощак), ЩФ) 5 + Фенобарбитал проба натощак проба натощак     ОБС ОБС ОБС ОБС ОБС ОБС В лабораторию поступают 2 пробирки с сывороткой сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с белой крышкой
- 800 *I* 889  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Неврологический профиль первичный (АЛТ, альбумин,  альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, глюкоза,желочные кислоты(проба натощак), калий, кальций, креатинин, магний, мочевина, натрий, Na/K соотношение, триглицериды, хлор, холестерин, ЩФ) 19 + Тироксин (Т4 общий)  неврология  Профили Профили Биохимический профиль Биохимический профиль Неврологический профиль первичный (АЛТ, альбумин,  альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, глюкоза,желочные кислоты(проба натощак), калий, кальций, креатинин, магний, мочевина, натрий, Na/K соотношение, триглицериды, хлор, холестерин, ЩФ) 19 + Тироксин (Т4 общий) Неврологический профиль первичный (АЛТ, альбумин,  альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, глюкоза,желочные кислоты(проба натощак), калий, кальций, креатинин, магний, мочевина, натрий, Na/K соотношение, триглицериды, хлор, холестерин, ЩФ) 19 + Тироксин (Т4 общий) Неврологический профиль первичный (АЛТ, альбумин,  альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, глюкоза,желочные кислоты(проба натощак), калий, кальций, креатинин, магний, мочевина, натрий, Na/K соотношение, триглицериды, хлор, холестерин, ЩФ) 19 + Тироксин (Т4 общий) проба натощак Т4 общий проба натощак Т4 общий     ОБС ОБС ОБС ОБС ОБС ОБС В лабораторию поступают 2 пробирки с сывороткой сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с белой крышкой
- 800 *I* 891  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Неврологический мониторинг (АЛТ, альбумин, АСТ, билирубин общий, калий, кальций, креатинин, магний, мочевина, натрий, хлор, ЩФ) 12  неврология  Профили Профили Биохимический профиль Биохимический профиль Неврологический мониторинг (АЛТ, альбумин, АСТ, билирубин общий, калий, кальций, креатинин, магний, мочевина, натрий, хлор, ЩФ) 12 Неврологический мониторинг (АЛТ, альбумин, АСТ, билирубин общий, калий, кальций, креатинин, магний, мочевина, натрий, хлор, ЩФ) 12 Неврологический мониторинг (АЛТ, альбумин, АСТ, билирубин общий, калий, кальций, креатинин, магний, мочевина, натрий, хлор, ЩФ) 12 АЛТ, альбумин, АСТ, билирубин общий, калий, кальций, креатинин, магний, мочевина, натрий, хлор, ЩФ АЛТ, альбумин, АСТ, билирубин общий, калий, кальций, креатинин, магний, мочевина, натрий, хлор, ЩФ     ОБС ОБС ОБС ОБС ОБС ОБС  сыворотка крови собака кошка  собака кошка  собака кошка  Пробирка с красной крышкой, с ГЕЛЕМ 800  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Комплексное паразитологическое исследование (флотация + Лямблиоз (Giardia lamblia spp.) (ПЦР) + Криптоспоридиоз (Cryptosporidium spp.) (ПЦР)) терапия гастроэнтерология  Профили Профили Паразитологическое исследование фекалий Паразитологическое исследование фекалий Комплексное паразитологическое исследование (флотация + Лямблиоз (Giardia lamblia spp.) (ПЦР) + Криптоспоридиоз (Cryptosporidium spp.) (ПЦР)) Комплексное паразитологическое исследование (флотация + Лямблиоз (Giardia lamblia spp.) (ПЦР) + Криптоспоридиоз (Cryptosporidium spp.) (ПЦР)) Комплексное паразитологическое исследование (флотация + Лямблиоз (Giardia lamblia spp.) (ПЦР) + Криптоспоридиоз (Cryptosporidium spp.) (ПЦР)) Giardia lamblia spp. ПЦР Cryptosporidium spp. ПЦР Giardia lamblia spp. ПЦР Cryptosporidium spp. ПЦР     ОБС ОБС ОБС ОБС ОБС ОБС  В лабораторию поступает 2 контейнера фекалии собака кошка  собака кошка  собака кошка  Контейнер для кала с ложечкой *I* Контейнер для кала с ложечкой 812 *I* 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Исследование на вирусную лейкемию и вирусный иммунодефицит кошек (определение АТ к FIV и АГ FeLV)                              гастроэнтерология инфекции  Профили Профили Сероголическое исследование Сероголическое исследование Исследование на вирусную лейкемию и вирусный иммунодефицит кошек (определение АТ к FIV и АГ FeLV)                             Исследование на вирусную лейкемию и вирусный иммунодефицит кошек (определение АТ к FIV и АГ FeLV)                             Исследование на вирусную лейкемию и вирусный иммунодефицит кошек (определение АТ к FIV и АГ FeLV)                             определение АТ к FIV и АГ FeLV определение АТ к FIV и АГ FeLV     ОБС ОБС ОБС ОБС ОБС ОБС  сыворотка крови  кошка   кошка   кошка  Пробирка с красной крышкой, с ГЕЛЕМ 908  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Проба с АКТГ терапия эндокринология  Профили Профили Гормональное исследование Гормональное исследование Проба с АКТГ Проба с АКТГ Проба с АКТГ       ОБС ОБС ОБС ОБС ОБС ОБС В лабораторию поступают 2 пробы для определения кортизола сыворотка крови собака кошка лошадь  собака кошка лошадь  собака кошка лошадь  Пробирка с белой крышкой *I* Пробирка с белой крышкой 803 *I* 843  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гормональный профиль для хорьков (Эстрадиол/ Андростендион/ 17-ОН прогестерон)  экзоты  Профили Профили Гормональное исследование Гормональное исследование Гормональный профиль для хорьков (Эстрадиол/ Андростендион/ 17-ОН прогестерон) Гормональный профиль для хорьков (Эстрадиол/ Андростендион/ 17-ОН прогестерон) Гормональный профиль для хорьков (Эстрадиол/ Андростендион/ 17-ОН прогестерон) Эстрадиол/ Андростендион/ 17-ОН прогестерон Эстрадиол/ Андростендион/ 17-ОН прогестерон     ОБС ОБС ОБС ОБС ОБС ОБС В лабораторию поступают 3 пробирки с сывороткой. Минимальный объем сыворотки в каждой пробирке – 0,5 мл. сыворотка крови  хорьки   хорьки   хорьки  Пробирка с белой крышкой *I* Пробирка с белой крышкой *I* Пробирка с белой крышкой
- 890 *I* 871 *I* 865  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Прогестерон, определение овуляции (AN63OPGN) + Вагинальная цитология (определение фазы эстрального  цикла (AN408ЦИТ))  репродуктология  Профили Профили Репродуктология Репродуктология Прогестерон, определение овуляции (AN63OPGN) + Вагинальная цитология (определение фазы эстрального  цикла (AN408ЦИТ)) Прогестерон, определение овуляции (AN63OPGN) + Вагинальная цитология (определение фазы эстрального  цикла (AN408ЦИТ)) Прогестерон, определение овуляции (AN63OPGN) + Вагинальная цитология (определение фазы эстрального  цикла (AN408ЦИТ)) AN63OPGN AN408ЦИТ AN63OPGN AN408ЦИТ     ОБС ОБС ОБС ОБС ОБС ОБС Только для собак. Укажите день последней течки. вагинальная цитология + сыворотка крови собака  собака  собака  Предметное стекло + Контейнер для транспортировки *I* Пробирка с белой крышкой 840 *I* 856  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Комплексное исследование на: этанол, ксилол, толуол, фенол, формальдегид, метанол, ацетон, изопропанол терапия ОРИТ отравления  Профили Профили Токсикология Токсикология Комплексное исследование на: этанол, ксилол, толуол, фенол, формальдегид, метанол, ацетон, изопропанол Комплексное исследование на: этанол, ксилол, толуол, фенол, формальдегид, метанол, ацетон, изопропанол Комплексное исследование на: этанол, ксилол, толуол, фенол, формальдегид, метанол, ацетон, изопропанол       ОБС ОБС ОБС ОБС ОБС ОБС  Плазма крови (ЭДТА) собака кошка хорьки  собака кошка хорьки  собака кошка хорьки  Пробирка с белой крышкой 854  +2°С…+8°С</t>
+(Cys-bd) Генетика Генетика генетика Тесты Cys-bd Cys-bd CYSB CYSB сухая кровь собака Конверт +2°С…+8°С Цистиновые кристаллы Cystine crystals</t>
+  </si>
+  <si>
+    <t>Цистинурия ньюфаундлендов (Cys-nf) Цистинурия ньюфаундлендов (Cys-nf) Генетика Генетика генетика Тесты Cys-nf Cys-nf CYS CYS сухая кровь собака Конверт +2°С…+8°С Цистиновые кристаллы Cystine crystals Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Чувствительность к медикаментам (MDR 1) Чувствительность к медикаментам (MDR 1) Генетика Генетика генетика Тесты MDR 1 MDR 1 сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Чувствительность к фенобарбиталу (MDR ph) Чувствительность к фенобарбиталу (MDR ph) Генетика Генетика генетика Тесты MDR ph MDR ph MDR MDR сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Ювенильная идиопатическая эпилепсия (BFJE) Ювенильная идиопатическая эпилепсия (BFJE) Генетика Генетика генетика Тесты BFJE BFJE BFJE BFJE сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ювенильная миоклоническая эпилепсия родезийских риджбеков (JME) Ювенильная миоклоническая эпилепсия родезийских риджбеков (JME) Генетика Генетика генетика Тесты JME JME JME JME сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ювенильная энцефалопатия / Ювенильная эпилепсия (JBD) Ювенильная энцефалопатия / Ювенильная эпилепсия (JBD) Генетика Генетика генетика Тесты JBD JBD JBD JBD сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ювенильный паралич гортани / Полинейропатия (JLPP) Ювенильный паралич гортани / Полинейропатия (JLPP) Генетика Генетика генетика Тесты JLPP JLPP JLPP JLPP сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Установление родства 2 животных Установление родства 2 животных Генетика Генетика генетика Тесты сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Дополнительная проба (щенок, кобель, сука) Дополнительная проба (щенок, кобель, сука) Генетика Генетика генетика Тесты щенок, кобель, сука щенок, кобель, сука сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Паспорт генетической идентификации Паспорт генетической идентификации Генетика Генетика генетика Тесты сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус А (агути/не агути)(A, a) Локус А (агути/не агути)(A, a) Генетика Генетика генетика Тесты агути/не агути A, a агути/не агути A, a ГА ГА сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус B (шоколад)(B, b bl) Локус B (шоколад)(B, b bl) Генетика Генетика генетика Тесты шоколад B, b bl шоколад B, b bl ГВ ГВ сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус C (колорпоинт)(C, cb, сs) Локус C (колорпоинт)(C, cb, сs) Генетика Генетика генетика Тесты колорпоинт C, cb, сs колорпоинт C, cb, сs ГС ГС сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Локус D (осветление окраса)(D ,d) Локус D (осветление окраса)(D ,d) Генетика Генетика генетика Тесты осветление окраса D ,d осветление окраса D ,d ГД ГД сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Доминантный белый и белая пятнистость, локус W(N, W, Ws) Доминантный белый и белая пятнистость, локус W(N, W, Ws) Генетика Генетика генетика Тесты N, W, Ws N, W, Ws GW GW сухая кровь кошка Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Локус W, белые перчатки (GL) Локус W, белые перчатки (GL) Генетика Генетика генетика Тесты GL GL GWGL GWGL сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Альбинизм(С, са) Альбинизм(С, са) Генетика Генетика генетика Тесты С, са С, са GCA GCA сухая кровь кошка Конверт +2°С…+8°С Альбумин Albumin</t>
+  </si>
+  <si>
+    <t>Амбер норвежских лесных(E, е) Амбер норвежских лесных(E, е) Генетика Генетика генетика Тесты E, е E, е ГЕ ГЕ сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Псевдозолотистый окрас / солнечный / биметаллик, аллели wb^SIB (Gold) Псевдозолотистый окрас / солнечный / биметаллик, аллели wb^SIB (Gold) Генетика Генетика генетика Тесты Gold Gold GOLD GOLD сухая кровь кошка Конверт +2°С…+8°С Вестерн-блот Western blot</t>
+  </si>
+  <si>
+    <t>Рассет (красный) окрас бурм(E, er) Рассет (красный) окрас бурм(E, er) Генетика Генетика генетика Тесты красный E, er красный E, er КБ КБ сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Cердолик (cornellian) курильских бобтейлов(E, ec) Cердолик (cornellian) курильских бобтейлов(E, ec) Генетика Генетика генетика Тесты cornellian E, ec cornellian E, ec СК СК сухая кровь кошка Конверт +2°С…+8°С Кортизол Cortisol Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Угольный окрас бенгальских кошек (A, Apb) Угольный окрас бенгальских кошек (A, Apb) Генетика Генетика генетика Тесты A, Apb A, Apb УБ УБ сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Голубой / Лиловый / Фавн(B, D) Голубой / Лиловый / Фавн(B, D) Генетика Генетика генетика Тесты B, D B, D GBD GBD сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Два локуса окраса Два локуса окраса Генетика Генетика генетика Тесты сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Три локуса окраса Три локуса окраса Генетика Генетика генетика Тесты сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Четыре локуса окраса Четыре локуса окраса Генетика Генетика генетика Тесты сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Пять локусов окраса Пять локусов окраса Генетика Генетика генетика Тесты сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Длина шерсти кошек (4 мутации) Длина шерсти кошек (4 мутации) Генетика Генетика генетика Тесты 4 мутации 4 мутации ШЕР ШЕР сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Курчавость (KRT71 DR) Курчавость (KRT71 DR) Генетика Генетика генетика Тесты KRT71 DR KRT71 DR KRDR KRDR сухая кровь кошка Конверт +2°С…+8°С Калий K (Potassium)</t>
+  </si>
+  <si>
+    <t>Курчавость селкирк-рексов Курчавость селкирк-рексов Генетика Генетика генетика Тесты KSR KSR сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Остеохондродисплазия кошек - вислоухость (Fold) Остеохондродисплазия кошек - вислоухость (Fold) Генетика Генетика генетика Тесты Fold Fold FOLD FOLD сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Полидактилия, Hw аллель Полидактилия, Hw аллель Генетика Генетика генетика Тесты HW HW сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Аутоиммунный лимфопролиферативный синдром кошек (ALPS, FALPS) Аутоиммунный лимфопролиферативный синдром кошек (ALPS, FALPS) Генетика Генетика генетика Тесты ALPS, FALPS ALPS, FALPS ALPS ALPS сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Врожденный миастенический синдром девон рексов и сфинксов (CMS) Врожденный миастенический синдром девон рексов и сфинксов (CMS) Генетика Генетика генетика Тесты CMS CMS CMS CMS сухая кровь кошка Конверт +2°С…+8°С Аспартатаминотрансфераза AST</t>
+  </si>
+  <si>
+    <t>Ганглиозидоз GM1 Ганглиозидоз GM1 Генетика Генетика генетика Тесты сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ганглиозидоз GM2 бурманских кошек Ганглиозидоз GM2 бурманских кошек Генетика Генетика генетика Тесты ГАН ГАН сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Гипертрофическая кардиомиопатия канадских сфинксов (HCM Sp) Гипертрофическая кардиомиопатия канадских сфинксов (HCM Sp) Генетика Генетика генетика Тесты HCM Sp HCM Sp HCMS HCMS сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Гипертрофическая кардиомиопатия мейн-кунов 1 мутация, A31P (HCM) Гипертрофическая кардиомиопатия мейн-кунов 1 мутация, A31P (HCM) Генетика Генетика генетика Тесты HCM HCM HCMM HCMM сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Гипертрофическая кардиомиопатия мейн-кунов 1 мутация, A74T (HCM A74T) Гипертрофическая кардиомиопатия мейн-кунов 1 мутация, A74T (HCM A74T) Генетика Генетика генетика Тесты HCM A74T HCM A74T сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Гипертрофическая кардиомиопатия мейн-кунов 2 мутации A31P, A74T (HCM) Гипертрофическая кардиомиопатия мейн-кунов 2 мутации A31P, A74T (HCM) Генетика Генетика генетика Тесты HCM HCM сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Гипертрофическая кардиомиопатия рэгдоллов (HCM) Гипертрофическая кардиомиопатия рэгдоллов (HCM) Генетика Генетика генетика Тесты HCM HCM HCMP HCMP сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Гипокалиемия бурм (BHK) Гипокалиемия бурм (BHK) Генетика Генетика генетика Тесты BHK BHK BHP BHP сухая кровь кошка Конверт +2°С…+8°С Калий K (Potassium)</t>
+  </si>
+  <si>
+    <t>Глазной альбинизм донского сфинкса (OCA DC) Глазной альбинизм донского сфинкса (OCA DC) Генетика Генетика генетика Тесты OCA DC OCA DC OCA OCA сухая кровь кошка Конверт +2°С…+8°С Кальций Ca (Calcium) Альбумин Albumin</t>
+  </si>
+  <si>
+    <t>Гликогеноз IV типа (GSD IV) Гликогеноз IV типа (GSD IV) Генетика Генетика генетика Тесты GSD IV GSD IV сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Дефицит эритроцитарной пируваткиназы кошек (PK def) Дефицит эритроцитарной пируваткиназы кошек (PK def) Генетика Генетика генетика Тесты PK def PK def PK PK сухая кровь кошка Конверт +2°С…+8°С Калий K (Potassium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Мукополисахаридоз VI (MPS VI) Мукополисахаридоз VI (MPS VI) Генетика Генетика генетика Тесты MPS VI MPS VI MPS MPS сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Мукополисахаридоз VII (MPSVII) Мукополисахаридоз VII (MPSVII) Генетика Генетика генетика Тесты MPSVII MPSVII сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Наследственная миотония (MC) Наследственная миотония (MC) Генетика Генетика генетика Тесты MC MC MC MC сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Поликистоз почек (PKD) Поликистоз почек (PKD) Генетика Генетика генетика Тесты PKD PKD PKD PKD сухая кровь кошка Конверт +2°С…+8°С Калий K (Potassium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки rdAc (PRA-rdAc) Прогрессирующая атрофия сетчатки rdAc (PRA-rdAc) Генетика Генетика генетика Тесты PRA-rdAc PRA-rdAc PRAR PRAR сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки Rdy (PRA-Rdy) Прогрессирующая атрофия сетчатки Rdy (PRA-Rdy) Генетика Генетика генетика Тесты PRA-Rdy PRA-Rdy PRDY PRDY сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки бенгалов (PRA-b) Прогрессирующая атрофия сетчатки бенгалов (PRA-b) Генетика Генетика генетика Тесты PRA-b PRA-b PRAB PRAB сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Прогрессирующая атрофия сетчатки персов (PRA-pd) Прогрессирующая атрофия сетчатки персов (PRA-pd) Генетика Генетика генетика Тесты PRA-pd PRA-pd ПА ПА сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Спинальная мышечная атрофия (SMA) Спинальная мышечная атрофия (SMA) Генетика Генетика генетика Тесты SMA SMA SMA SMA сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Цистинурия В (Cys B) Цистинурия В (Cys B) Генетика Генетика генетика Тесты Cys B Cys B CYSB CYSB сухая кровь кошка Конверт +2°С…+8°С Цистиновые кристаллы Cystine crystals</t>
+  </si>
+  <si>
+    <t>Черепно-лицевая дисплазия бурм (FND) Черепно-лицевая дисплазия бурм (FND) Генетика Генетика генетика Тесты FND FND FND FND сухая кровь кошка Конверт +2°С…+8°С Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Группа крови А, группа крови В, носительство группы крови В Группа крови А, группа крови В, носительство группы крови В Генетика Генетика генетика Тесты ГР ГР сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Установление родства 2 животных Установление родства 2 животных Генетика Генетика генетика Тесты RC RC сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Дополнительная проба (котенок, кот, кошка) Дополнительная проба (котенок, кот, кошка) Генетика Генетика генетика Тесты котенок, кот, кошка котенок, кот, кошка RCDP RCDP сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Определение пола птиц Определение пола птиц Генетика Генетика генетика Тесты ПОЛП ПОЛП сухая кровь птицы декоративные Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Коагулограмма (АЧТВ, протромбиновое время, тромбиновое время, фибриноген) Коагулограмма (АЧТВ, протромбиновое время, тромбиновое время, фибриноген) Исследование гемостаза Исследование гемостаза терапия ОРИТ Профили АЧТВ, протромбиновое время, тромбиновое время, фибриноген АЧТВ, протромбиновое время, тромбиновое время, фибриноген ОБС ОБС плазма крови (цитрат натрия) собака кошка морские млекопитающие лошадь Пробирка с белой крышкой -17°С…-23°С</t>
+  </si>
+  <si>
+    <t>Базовый (АЛТ, АСТ, белок общий, билирубин общий, глюкоза, креатинин, мочевина) 7 Базовый (АЛТ, АСТ, белок общий, билирубин общий, глюкоза, креатинин, мочевина) 7 Биохимический профиль Биохимический профиль терапия Профили АЛТ, АСТ, белок общий, билирубин общий, глюкоза, креатинин, мочевина АЛТ, АСТ, белок общий, билирубин общий, глюкоза, креатинин, мочевина ОБС ОБС сыворотка крови собака кошка морские млекопитающие хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Аланинаминотрансфераза ALT Аспартатаминотрансфераза AST BUN Биохимия CREA Биохимия БИЛИР Пигменты ГЛЮКОЗА Углеводы КРЕАТ Азотистый обмен МОЧЕВИНА Азотистый обмен</t>
+  </si>
+  <si>
+    <t>Оптимальный (АЛТ, АСТ, альбумин, белок общий, альбумин/глобулин соотношение, билирубин общий, ГГТ, глюкоза, мочевина, креатинин, ЩФ) 11 Оптимальный (АЛТ, АСТ, альбумин, белок общий, альбумин/глобулин соотношение, билирубин общий, ГГТ, глюкоза, мочевина, креатинин, ЩФ) 11 Биохимический профиль Биохимический профиль терапия Профили АЛТ, АСТ, альбумин, белок общий, альбумин/глобулин соотношение, билирубин общий, ГГТ, глюкоза, мочевина, креатинин, ЩФ АЛТ, АСТ, альбумин, белок общий, альбумин/глобулин соотношение, билирубин общий, ГГТ, глюкоза, мочевина, креатинин, ЩФ ОБС ОБС сыворотка крови собака кошка морские млекопитающие грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ALB Биохимия Аланинаминотрансфераза ALT Аспартатаминотрансфераза AST BUN Биохимия CREA Биохимия Гамма-глутамилтрансфераза Gamma-glutamyl transferase (GGT) АЛЬБ Белки БИЛИР Пигменты Глобулины Globulins ГЛЮКОЗА Углеводы КРЕАТ Азотистый обмен МОЧЕВИНА Азотистый обмен Щелочная фосфатаза Alkaline Phosphatase (ALP)</t>
+  </si>
+  <si>
+    <t>Стандартный (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза,  калий, кальций, креатинин, мочевина, натрий, фосфор, ЩФ, хлор) 16 Стандартный (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза,  калий, кальций, креатинин, мочевина, натрий, фосфор, ЩФ, хлор) 16 Биохимический профиль Биохимический профиль терапия Профили АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза,  калий, кальций, креатинин, мочевина, натрий, фосфор, ЩФ, хлор АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза,  калий, кальций, креатинин, мочевина, натрий, фосфор, ЩФ, хлор ОБС ОБС сыворотка крови собака кошка морские млекопитающие хорьки Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ALB Биохимия Аланинаминотрансфераза ALT Аспартатаминотрансфераза AST BUN Биохимия CA Минералы CL Минералы CREA Биохимия Гамма-глутамилтрансфераза Gamma-glutamyl transferase (GGT) K Минералы NA Минералы P Минералы АЛЬБ Белки БИЛИР Пигменты Глобулины Globulins ГЛЮКОЗА Углеводы КРЕАТ Азотистый обмен МОЧЕВИНА Азотистый обмен Щелочная фосфатаза Alkaline Phosphatase (ALP)</t>
+  </si>
+  <si>
+    <t>Стандартный для кошек (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, кальций, креатинин, мочевина, фосфор, ЩФ + фруктозамин) 14 Стандартный для кошек (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, кальций, креатинин, мочевина, фосфор, ЩФ + фруктозамин) 14 Биохимический профиль Биохимический профиль терапия Профили АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, кальций, креатинин, мочевина, фосфор, ЩФ + фруктозамин АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, кальций, креатинин, мочевина, фосфор, ЩФ + фруктозамин ОБС ОБС В лабораторию поступают 2 пробирки с сывороткой сыворотка крови кошка Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ALB Биохимия Аланинаминотрансфераза ALT Аспартатаминотрансфераза AST BUN Биохимия CA Минералы CREA Биохимия Гамма-глутамилтрансфераза Gamma-glutamyl transferase (GGT) P Минералы АЛЬБ Белки БИЛИР Пигменты Глобулины Globulins ГЛЮКОЗА Углеводы КРЕАТ Азотистый обмен МОЧЕВИНА Азотистый обмен Щелочная фосфатаза Alkaline Phosphatase (ALP)</t>
+  </si>
+  <si>
+    <t>Расширенный (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, калий, кальций, креатинин, мочевина, натрий, триглицериды, фосфор, холестерин, хлор, ЩФ) 18 Расширенный (АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, калий, кальций, креатинин, мочевина, натрий, триглицериды, фосфор, холестерин, хлор, ЩФ) 18 Биохимический профиль Биохимический профиль терапия Профили АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, калий, кальций, креатинин, мочевина, натрий, триглицериды, фосфор, холестерин, хлор, ЩФ АЛТ, альбумин, альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, калий, кальций, креатинин, мочевина, натрий, триглицериды, фосфор, холестерин, хлор, ЩФ ОБС ОБС сыворотка крови собака кошка морские млекопитающие Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ALB Биохимия Аланинаминотрансфераза ALT Аспартатаминотрансфераза AST BUN Биохимия CA Минералы CL Минералы CREA Биохимия Гамма-глутамилтрансфераза Gamma-glutamyl transferase (GGT) K Минералы NA Минералы P Минералы АЛЬБ Белки БИЛИР Пигменты Глобулины Globulins ГЛЮКОЗА Углеводы КРЕАТ Азотистый обмен МОЧЕВИНА Азотистый обмен ТРИГЛИЦ Липиды ХСОЛ Липиды Щелочная фосфатаза Alkaline Phosphatase (ALP)</t>
+  </si>
+  <si>
+    <t>Максимальный (АЛТ, альбумин, альбумин/глобулин соотношение, амилаза, АСТ, белок общий, билирубин общий, билирубин прямой, ГГТ, глюкоза, железо, калий, кальций, креатинин, КФК, ЛДГ, липаза, магний, мочевина, натрий, триглицериды, фосфор, хлор, холестерин, ЩФ) 25 Максимальный (АЛТ, альбумин, альбумин/глобулин соотношение, амилаза, АСТ, белок общий, билирубин общий, билирубин прямой, ГГТ, глюкоза, железо, калий, кальций, креатинин, КФК, ЛДГ, липаза, магний, мочевина, натрий, триглицериды, фосфор, хлор, холестерин, ЩФ) 25 Биохимический профиль Биохимический профиль терапия Профили АЛТ, альбумин, альбумин/глобулин соотношение, амилаза, АСТ, белок общий, билирубин общий, билирубин прямой, ГГТ, глюкоза, железо, калий, кальций, креатинин, КФК, ЛДГ, липаза, магний, мочевина, натрий, триглицериды, фосфор, хлор, холестерин, ЩФ АЛТ, альбумин, альбумин/глобулин соотношение, амилаза, АСТ, белок общий, билирубин общий, билирубин прямой, ГГТ, глюкоза, железо, калий, кальций, креатинин, КФК, ЛДГ, липаза, магний, мочевина, натрий, триглицериды, фосфор, хлор, холестерин, ЩФ ОБС ОБС сыворотка крови собака кошка морские млекопитающие Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ALB Биохимия Аланинаминотрансфераза ALT Аспартатаминотрансфераза AST BUN Биохимия CA Минералы CL Минералы CREA Биохимия FE Минералы Гамма-глутамилтрансфераза Gamma-glutamyl transferase (GGT) K Минералы Лактатдегидрогеназа Lactate Dehydrogenase (LDH) MG Минералы NA Минералы P Минералы АЛЬБ Белки АМИЛАЗА Фермент БИЛИР Пигменты Глобулины Globulins ГЛЮКОЗА Углеводы КРЕАТ Азотистый обмен ЛИПАЗА Фермент МОЧЕВИНА Азотистый обмен ТРИГЛИЦ Липиды ХСОЛ Липиды Щелочная фосфатаза Alkaline Phosphatase (ALP)</t>
+  </si>
+  <si>
+    <t>Почечный (альбумин, белок общий, глюкоза, калий, кальций, креатинин, мочевина, натрий, фосфор, хлор) 10 Почечный (альбумин, белок общий, глюкоза, калий, кальций, креатинин, мочевина, натрий, фосфор, хлор) 10 Биохимический профиль Биохимический профиль неврология Профили альбумин, белок общий, глюкоза, калий, кальций, креатинин, мочевина, натрий, фосфор, хлор альбумин, белок общий, глюкоза, калий, кальций, креатинин, мочевина, натрий, фосфор, хлор ОБС ОБС сыворотка крови собака кошка хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ALB Биохимия BUN Биохимия CA Минералы CL Минералы CREA Биохимия K Минералы NA Минералы P Минералы АЛЬБ Белки ГЛЮКОЗА Углеводы КРЕАТ Азотистый обмен МОЧЕВИНА Азотистый обмен</t>
+  </si>
+  <si>
+    <t>Печеночный (АЛТ, альбумин, АСТ, белок общий, билирубин общий,  ГГТ, глюкоза, мочевина, холестерин, ЩФ) 10 Печеночный (АЛТ, альбумин, АСТ, белок общий, билирубин общий,  ГГТ, глюкоза, мочевина, холестерин, ЩФ) 10 Биохимический профиль Биохимический профиль гастроэнтерология Профили АЛТ, альбумин, АСТ, белок общий, билирубин общий,  ГГТ, глюкоза, мочевина, холестерин, ЩФ АЛТ, альбумин, АСТ, белок общий, билирубин общий,  ГГТ, глюкоза, мочевина, холестерин, ЩФ ОБС ОБС сыворотка крови собака кошка хорьки Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ALB Биохимия Аланинаминотрансфераза ALT Аспартатаминотрансфераза AST BUN Биохимия Гамма-глутамилтрансфераза Gamma-glutamyl transferase (GGT) АЛЬБ Белки БИЛИР Пигменты ГЛЮКОЗА Углеводы МОЧЕВИНА Азотистый обмен ХСОЛ Липиды Щелочная фосфатаза Alkaline Phosphatase (ALP)</t>
+  </si>
+  <si>
+    <t>Печеночный расширенный (АЛТ, альбумин, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, мочевина, холестерин, ЩФ) 10 + Желчные кислоты (проба натощак + проба после приема пищи) Печеночный расширенный (АЛТ, альбумин, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, мочевина, холестерин, ЩФ) 10 + Желчные кислоты (проба натощак + проба после приема пищи) Биохимический профиль Биохимический профиль гастроэнтерология Профили АЛТ, альбумин, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, мочевина, холестерин, ЩФ проба натощак + проба после приема пищи АЛТ, альбумин, АСТ, белок общий, билирубин общий, ГГТ, глюкоза, мочевина, холестерин, ЩФ проба натощак + проба после приема пищи ОБС ОБС В лабораторию поступают 2 пробирки с сывороткой сыворотка крови собака кошка Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ALB Биохимия Аланинаминотрансфераза ALT Аспартатаминотрансфераза AST BUN Биохимия Гамма-глутамилтрансфераза Gamma-glutamyl transferase (GGT) АЛЬБ Белки БИЛИР Пигменты ГЛЮКОЗА Углеводы МОЧЕВИНА Азотистый обмен ХСОЛ Липиды Щелочная фосфатаза Alkaline Phosphatase (ALP)</t>
+  </si>
+  <si>
+    <t>Предоперационный (АЛТ, альбумин, АСТ, белок общий, билирубин общий, глюкоза, калий, креатинин, мочевина, натрий, хлор, ЩФ) 12 Предоперационный (АЛТ, альбумин, АСТ, белок общий, билирубин общий, глюкоза, калий, креатинин, мочевина, натрий, хлор, ЩФ) 12 Биохимический профиль Биохимический профиль терапия ОРИТ Профили АЛТ, альбумин, АСТ, белок общий, билирубин общий, глюкоза, калий, креатинин, мочевина, натрий, хлор, ЩФ АЛТ, альбумин, АСТ, белок общий, билирубин общий, глюкоза, калий, креатинин, мочевина, натрий, хлор, ЩФ ОБС ОБС сыворотка крови собака кошка хорьки грызуны кролики Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ALB Биохимия Аланинаминотрансфераза ALT Аспартатаминотрансфераза AST BUN Биохимия CL Минералы CREA Биохимия K Минералы NA Минералы АЛЬБ Белки БИЛИР Пигменты ГЛЮКОЗА Углеводы КРЕАТ Азотистый обмен МОЧЕВИНА Азотистый обмен Щелочная фосфатаза Alkaline Phosphatase (ALP)</t>
+  </si>
+  <si>
+    <t>Диабетический первичный (АЛТ, альбумин, АСТ, белок общий, глюкоза, калий, кальций, креатинин, липаза, мочевина, натрий, триглицериды, холестерин, хлор, ЩФ + фруктозамин) 16 + Общий анализ мочи + Кетоны в крови Диабетический первичный (АЛТ, альбумин, АСТ, белок общий, глюкоза, калий, кальций, креатинин, липаза, мочевина, натрий, триглицериды, холестерин, хлор, ЩФ + фруктозамин) 16 + Общий анализ мочи + Кетоны в крови Биохимический профиль Биохимический профиль эндокринология Профили АЛТ, альбумин, АСТ, белок общий, глюкоза, калий, кальций, креатинин, липаза, мочевина, натрий, триглицериды, холестерин, хлор, ЩФ + фруктозамин АЛТ, альбумин, АСТ, белок общий, глюкоза, калий, кальций, креатинин, липаза, мочевина, натрий, триглицериды, холестерин, хлор, ЩФ + фруктозамин ОБС ОБС В лабораторию поступают 3 пробирки с сывороткой и пробирка с мочей сыворотка крови + моча собака кошка Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с желтой крышкой для мочи / Консервант +2°С…+8°С ALB Биохимия Аланинаминотрансфераза ALT Аспартатаминотрансфераза AST BUN Биохимия CA Минералы CL Минералы CREA Биохимия K Минералы NA Минералы АЛЬБ Белки ГЛЮКОЗА Углеводы КРЕАТ Азотистый обмен ЛИПАЗА Фермент МОЧЕВИНА Азотистый обмен ОАМ Урология ТРИГЛИЦ Липиды ХСОЛ Липиды Щелочная фосфатаза Alkaline Phosphatase (ALP)</t>
+  </si>
+  <si>
+    <t>Контроль диабета (АЛТ, АСТ, глюкоза, кальций,  триглицериды, холестерин, ЩФ + фруктозамин) 8 Контроль диабета (АЛТ, АСТ, глюкоза, кальций,  триглицериды, холестерин, ЩФ + фруктозамин) 8 Биохимический профиль Биохимический профиль эндокринология Профили АЛТ, АСТ, глюкоза, кальций,  триглицериды, холестерин, ЩФ + фруктозамин АЛТ, АСТ, глюкоза, кальций,  триглицериды, холестерин, ЩФ + фруктозамин ОБС ОБС В лабораторию поступают 2 пробирки с сывороткой сыворотка крови собака кошка Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Аланинаминотрансфераза ALT Аспартатаминотрансфераза AST CA Минералы ГЛЮКОЗА Углеводы ТРИГЛИЦ Липиды ХСОЛ Липиды Щелочная фосфатаза Alkaline Phosphatase (ALP)</t>
+  </si>
+  <si>
+    <t>Мониторинг лечения фенобарбиталом (АЛТ, альбумин, ГГТ, желчные кислоты (проба натощак), ЩФ) 5 + Фенобарбитал Мониторинг лечения фенобарбиталом (АЛТ, альбумин, ГГТ, желчные кислоты (проба натощак), ЩФ) 5 + Фенобарбитал Биохимический профиль Биохимический профиль неврология Профили проба натощак проба натощак ОБС ОБС В лабораторию поступают 2 пробирки с сывороткой сыворотка крови собака кошка Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с белой крышкой +2°С…+8°С ALB Биохимия Аланинаминотрансфераза ALT Гамма-глутамилтрансфераза Gamma-glutamyl transferase (GGT) АЛЬБ Белки Щелочная фосфатаза Alkaline Phosphatase (ALP)</t>
+  </si>
+  <si>
+    <t>Неврологический профиль первичный (АЛТ, альбумин,  альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, глюкоза,желочные кислоты(проба натощак), калий, кальций, креатинин, магний, мочевина, натрий, Na/K соотношение, триглицериды, хлор, холестерин, ЩФ) 19 + Тироксин (Т4 общий) Неврологический профиль первичный (АЛТ, альбумин,  альбумин/глобулин соотношение, АСТ, белок общий, билирубин общий, глюкоза,желочные кислоты(проба натощак), калий, кальций, креатинин, магний, мочевина, натрий, Na/K соотношение, триглицериды, хлор, холестерин, ЩФ) 19 + Тироксин (Т4 общий) Биохимический профиль Биохимический профиль неврология Профили проба натощак Т4 общий проба натощак Т4 общий ОБС ОБС В лабораторию поступают 2 пробирки с сывороткой сыворотка крови собака кошка Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с белой крышкой +2°С…+8°С ALB Биохимия Аланинаминотрансфераза ALT Аспартатаминотрансфераза AST BUN Биохимия CA Минералы CL Минералы CREA Биохимия K Минералы MG Минералы Нейтрофилы Neutrophils NA Минералы T4 Эндокринология АЛЬБ Белки БИЛИР Пигменты Глобулины Globulins ГЛЮКОЗА Углеводы КРЕАТ Азотистый обмен МОЧЕВИНА Азотистый обмен ТРИГЛИЦ Липиды ХСОЛ Липиды Щелочная фосфатаза Alkaline Phosphatase (ALP)</t>
+  </si>
+  <si>
+    <t>Неврологический мониторинг (АЛТ, альбумин, АСТ, билирубин общий, калий, кальций, креатинин, магний, мочевина, натрий, хлор, ЩФ) 12 Неврологический мониторинг (АЛТ, альбумин, АСТ, билирубин общий, калий, кальций, креатинин, магний, мочевина, натрий, хлор, ЩФ) 12 Биохимический профиль Биохимический профиль неврология Профили АЛТ, альбумин, АСТ, билирубин общий, калий, кальций, креатинин, магний, мочевина, натрий, хлор, ЩФ АЛТ, альбумин, АСТ, билирубин общий, калий, кальций, креатинин, магний, мочевина, натрий, хлор, ЩФ ОБС ОБС сыворотка крови собака кошка Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С ALB Биохимия Аланинаминотрансфераза ALT Аспартатаминотрансфераза AST BUN Биохимия CA Минералы CL Минералы CREA Биохимия K Минералы MG Минералы NA Минералы АЛЬБ Белки БИЛИР Пигменты КРЕАТ Азотистый обмен МОЧЕВИНА Азотистый обмен Щелочная фосфатаза Alkaline Phosphatase (ALP)</t>
+  </si>
+  <si>
+    <t>Комплексное паразитологическое исследование (флотация + Лямблиоз (Giardia lamblia spp.) (ПЦР) + Криптоспоридиоз (Cryptosporidium spp.) (ПЦР)) Комплексное паразитологическое исследование (флотация + Лямблиоз (Giardia lamblia spp.) (ПЦР) + Криптоспоридиоз (Cryptosporidium spp.) (ПЦР)) Паразитологическое исследование фекалий Паразитологическое исследование фекалий терапия гастроэнтерология Профили Giardia lamblia spp. ПЦР Cryptosporidium spp. ПЦР Giardia lamblia spp. ПЦР Cryptosporidium spp. ПЦР ОБС ОБС В лабораторию поступает 2 контейнера фекалии собака кошка Контейнер для кала с ложечкой *I* Контейнер для кала с ложечкой +2°С…+8°С Фосфор P (Phosphorus) Полимеразная цепная реакция Polymerase Chain Reaction (PCR)</t>
+  </si>
+  <si>
+    <t>Исследование на вирусную лейкемию и вирусный иммунодефицит кошек (определение АТ к FIV и АГ FeLV) Исследование на вирусную лейкемию и вирусный иммунодефицит кошек (определение АТ к FIV и АГ FeLV) Сероголическое исследование Сероголическое исследование гастроэнтерология инфекции Профили определение АТ к FIV и АГ FeLV определение АТ к FIV и АГ FeLV ОБС ОБС сыворотка крови кошка Пробирка с красной крышкой, с ГЕЛЕМ +2°С…+8°С Железо Fe (Iron) Вирус лейкемии кошек Feline Leukemia Virus Вирус иммунодефицита кошек Feline Immunodeficiency Virus</t>
+  </si>
+  <si>
+    <t>Проба с АКТГ Проба с АКТГ Гормональное исследование Гормональное исследование терапия эндокринология Профили ОБС ОБС В лабораторию поступают 2 пробы для определения кортизола сыворотка крови собака кошка лошадь Пробирка с белой крышкой *I* Пробирка с белой крышкой +2°С…+8°С ОБС Эндокринология</t>
+  </si>
+  <si>
+    <t>Гормональный профиль для хорьков (Эстрадиол/ Андростендион/ 17-ОН прогестерон) Гормональный профиль для хорьков (Эстрадиол/ Андростендион/ 17-ОН прогестерон) Гормональное исследование Гормональное исследование экзоты Профили Эстрадиол/ Андростендион/ 17-ОН прогестерон Эстрадиол/ Андростендион/ 17-ОН прогестерон ОБС ОБС В лабораторию поступают 3 пробирки с сывороткой. Минимальный объем сыворотки в каждой пробирке – 0,5 мл. сыворотка крови хорьки Пробирка с белой крышкой *I* Пробирка с белой крышкой *I* Пробирка с белой крышкой -17°С…-23°С AND Гормоны E2 Гормоны PGN Гормоны PROG Гормоны</t>
+  </si>
+  <si>
+    <t>Прогестерон, определение овуляции (AN63OPGN) + Вагинальная цитология (определение фазы эстрального  цикла (AN408ЦИТ)) Прогестерон, определение овуляции (AN63OPGN) + Вагинальная цитология (определение фазы эстрального  цикла (AN408ЦИТ)) Репродуктология Репродуктология репродуктология Профили AN63OPGN AN408ЦИТ AN63OPGN AN408ЦИТ ОБС ОБС Только для собак. Укажите день последней течки. вагинальная цитология + сыворотка крови собака Предметное стекло + Контейнер для транспортировки *I* Пробирка с белой крышкой +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus) PGN Гормоны PROG Гормоны</t>
+  </si>
+  <si>
+    <t>Комплексное исследование на: этанол, ксилол, толуол, фенол, формальдегид, метанол, ацетон, изопропанол Комплексное исследование на: этанол, ксилол, толуол, фенол, формальдегид, метанол, ацетон, изопропанол Токсикология Токсикология терапия ОРИТ отравления Профили ОБС ОБС Плазма крови (ЭДТА) собака кошка хорьки Пробирка с белой крышкой +2°С…+8°С</t>
   </si>
   <si>
     <t>Отравление неизвестным ядом.
-Состав:
-AN1040MT - Комплексное токсикологическое исследование (Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей) 
-AN6000NP - Комплексное токсикологическое исследование (наркотические и психоактивные вещества, более 6000 веществ) 
-AN1041LK - Лекарственные и ядовитые вещества (нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей) терапия ОРИТ отравления  Профили Профили Токсикология Токсикология Отравление неизвестным ядом.
 Состав:
 AN1040MT - Комплексное токсикологическое исследование (Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей) 
 AN6000NP - Комплексное токсикологическое исследование (наркотические и психоактивные вещества, более 6000 веществ) 
@@ -10366,413 +10337,409 @@
 Состав:
 AN1040MT - Комплексное токсикологическое исследование (Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей) 
 AN6000NP - Комплексное токсикологическое исследование (наркотические и психоактивные вещества, более 6000 веществ) 
-AN1041LK - Лекарственные и ядовитые вещества (нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей) Отравление неизвестным ядом.
-Состав:
-AN1040MT - Комплексное токсикологическое исследование (Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей) 
-AN6000NP - Комплексное токсикологическое исследование (наркотические и психоактивные вещества, более 6000 веществ) 
-AN1041LK - Лекарственные и ядовитые вещества (нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей) Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей наркотические и психоактивные вещества, более 6000 веществ нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей наркотические и психоактивные вещества, более 6000 веществ нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей     ОБС ОБС ОБС ОБС ОБС ОБС  моча собака кошка хорьки  собака кошка хорьки  собака кошка хорьки  2 пробирки с белой крышкой 848  -17°С…-23°С</t>
-  </si>
-  <si>
-    <t>Токсические микроэлементы в шерсти:  Алюминий (Al), Кадмий (Cd), Литий (Li), Мышьяк (As), Ртуть (Hg), Свинец (Pb), 6 показателей терапия отравления  Профили Профили Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Токсические микроэлементы в шерсти:  Алюминий (Al), Кадмий (Cd), Литий (Li), Мышьяк (As), Ртуть (Hg), Свинец (Pb), 6 показателей Токсические микроэлементы в шерсти:  Алюминий (Al), Кадмий (Cd), Литий (Li), Мышьяк (As), Ртуть (Hg), Свинец (Pb), 6 показателей Токсические микроэлементы в шерсти:  Алюминий (Al), Кадмий (Cd), Литий (Li), Мышьяк (As), Ртуть (Hg), Свинец (Pb), 6 показателей Al Cd Li As Hg Pb Al Cd Li As Hg Pb     ОБС ОБС ОБС ОБС ОБС ОБС Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Токсические и эссенциальные микроэлементы в шерсти:  Алюминий (Al), Ванадий (V), Кобальт (Cо), Литий (Li), Марганец (Mn), Медь (Cu),  Мышьяк (As), Никель (Ni), Ртуть (Hg), Свинец (Pb), Селен (Se), Хром  (Cr), Цинк (Zn), 13 показателей терапия отравления  Профили Профили Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Токсические и эссенциальные микроэлементы в шерсти:  Алюминий (Al), Ванадий (V), Кобальт (Cо), Литий (Li), Марганец (Mn), Медь (Cu),  Мышьяк (As), Никель (Ni), Ртуть (Hg), Свинец (Pb), Селен (Se), Хром  (Cr), Цинк (Zn), 13 показателей Токсические и эссенциальные микроэлементы в шерсти:  Алюминий (Al), Ванадий (V), Кобальт (Cо), Литий (Li), Марганец (Mn), Медь (Cu),  Мышьяк (As), Никель (Ni), Ртуть (Hg), Свинец (Pb), Селен (Se), Хром  (Cr), Цинк (Zn), 13 показателей Токсические и эссенциальные микроэлементы в шерсти:  Алюминий (Al), Ванадий (V), Кобальт (Cо), Литий (Li), Марганец (Mn), Медь (Cu),  Мышьяк (As), Никель (Ni), Ртуть (Hg), Свинец (Pb), Селен (Se), Хром  (Cr), Цинк (Zn), 13 показателей Al V Cо Li Mn Cu As Ni Hg Pb Se Cr Zn Al V Cо Li Mn Cu As Ni Hg Pb Se Cr Zn     ОБС ОБС ОБС ОБС ОБС ОБС Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Токсические и эссенциальные микроэлементы в шерсти:  Алюминий (Al), Бор (В), Ванадий (V), Железо (Fe), Йод (I), Калий (К), Кальций (Са), Кадмий (Cd), Кобальт (Cо), Кремний (Si), Литий (Li), Магний (Mn), Марганец (Mn), Медь (Cu),  Мышьяк (As), Натрий (Na), Никель (Ni), Олово (Sn), Ртуть (Hg), Свинец (Pb), Селен (Se), Стронций (Sr), Фосфор (Р), Хром  (Cr), Цинк (Zn), 25 показателей терапия отравления  Профили Профили Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы Токсические и эссенциальные микроэлементы в шерсти:  Алюминий (Al), Бор (В), Ванадий (V), Железо (Fe), Йод (I), Калий (К), Кальций (Са), Кадмий (Cd), Кобальт (Cо), Кремний (Si), Литий (Li), Магний (Mn), Марганец (Mn), Медь (Cu),  Мышьяк (As), Натрий (Na), Никель (Ni), Олово (Sn), Ртуть (Hg), Свинец (Pb), Селен (Se), Стронций (Sr), Фосфор (Р), Хром  (Cr), Цинк (Zn), 25 показателей Токсические и эссенциальные микроэлементы в шерсти:  Алюминий (Al), Бор (В), Ванадий (V), Железо (Fe), Йод (I), Калий (К), Кальций (Са), Кадмий (Cd), Кобальт (Cо), Кремний (Si), Литий (Li), Магний (Mn), Марганец (Mn), Медь (Cu),  Мышьяк (As), Натрий (Na), Никель (Ni), Олово (Sn), Ртуть (Hg), Свинец (Pb), Селен (Se), Стронций (Sr), Фосфор (Р), Хром  (Cr), Цинк (Zn), 25 показателей Токсические и эссенциальные микроэлементы в шерсти:  Алюминий (Al), Бор (В), Ванадий (V), Железо (Fe), Йод (I), Калий (К), Кальций (Са), Кадмий (Cd), Кобальт (Cо), Кремний (Si), Литий (Li), Магний (Mn), Марганец (Mn), Медь (Cu),  Мышьяк (As), Натрий (Na), Никель (Ni), Олово (Sn), Ртуть (Hg), Свинец (Pb), Селен (Se), Стронций (Sr), Фосфор (Р), Хром  (Cr), Цинк (Zn), 25 показателей Al В V Fe I К Са Cd Cо Si Li Mn Mn Cu As Na Ni Sn Hg Pb Se Sr Р Cr Zn Al В V Fe I К Са Cd Cо Si Li Mn Mn Cu As Na Ni Sn Hg Pb Se Sr Р Cr Zn     ОБС ОБС ОБС ОБС ОБС ОБС Шерсть должна быть чистая шерсть собака кошка  собака кошка  собака кошка  Конверт 844  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Респираторный малый профиль (Аденовирус 2 типа (CAV 2) , бордетелла  (Вordetella bronchiseptica), вирус парагриппа (СPiV)) терапия респирторная система инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Респираторный малый профиль (Аденовирус 2 типа (CAV 2) , бордетелла  (Вordetella bronchiseptica), вирус парагриппа (СPiV)) Респираторный малый профиль (Аденовирус 2 типа (CAV 2) , бордетелла  (Вordetella bronchiseptica), вирус парагриппа (СPiV)) Респираторный малый профиль (Аденовирус 2 типа (CAV 2) , бордетелла  (Вordetella bronchiseptica), вирус парагриппа (СPiV)) CAV 2 Вordetella bronchiseptica СPiV CAV 2 Вordetella bronchiseptica СPiV     ОБС ОБС ОБС ОБС ОБС ОБС Необходимо следить, чтобы пробу не попадала носоглоточная слизь. БАЛ собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 876  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Глазной профиль (герпесвирус кошек (FHV-1), микоплазма (Mycoplasma felis), хламидия (Chlamydia felis)) терапия инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Глазной профиль (герпесвирус кошек (FHV-1), микоплазма (Mycoplasma felis), хламидия (Chlamydia felis)) Глазной профиль (герпесвирус кошек (FHV-1), микоплазма (Mycoplasma felis), хламидия (Chlamydia felis)) Глазной профиль (герпесвирус кошек (FHV-1), микоплазма (Mycoplasma felis), хламидия (Chlamydia felis)) FHV-1 Mycoplasma felis Chlamydia felis FHV-1 Mycoplasma felis Chlamydia felis     ОБС ОБС ОБС ОБС ОБС ОБС  соскоб эпителиальных клеток конъюнктивы  кошка   кошка   кошка  Микропробирка / Транспортная среда 882  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кровепаразитарный малый профиль (анаплазма (аnaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), Эрлихия (Ehrlichia canis)) терапия инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Кровепаразитарный малый профиль (анаплазма (аnaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), Эрлихия (Ehrlichia canis)) Кровепаразитарный малый профиль (анаплазма (аnaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), Эрлихия (Ehrlichia canis)) Кровепаразитарный малый профиль (анаплазма (аnaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), Эрлихия (Ehrlichia canis)) аnaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Ehrlichia canis аnaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Ehrlichia canis     ОБС ОБС ОБС ОБС ОБС ОБС  костный мозг (КМ) собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 873  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кровепаразитарный малый профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), Эрлихия (Ehrlichia canis)) терапия инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Кровепаразитарный малый профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), Эрлихия (Ehrlichia canis)) Кровепаразитарный малый профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), Эрлихия (Ehrlichia canis)) Кровепаразитарный малый профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), Эрлихия (Ehrlichia canis)) Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Ehrlichia canis Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Ehrlichia canis     ОБС ОБС ОБС ОБС ОБС ОБС  кровь с ЭДТА  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кровепаразитарный большой профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), бабезия Гибсона (Babesia gibsoni), Эрлихия (Ehrlichia canis), гемоплазма (Haemobartonella canis/Mycoplasma haemocanis)) терапия инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Кровепаразитарный большой профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), бабезия Гибсона (Babesia gibsoni), Эрлихия (Ehrlichia canis), гемоплазма (Haemobartonella canis/Mycoplasma haemocanis)) Кровепаразитарный большой профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), бабезия Гибсона (Babesia gibsoni), Эрлихия (Ehrlichia canis), гемоплазма (Haemobartonella canis/Mycoplasma haemocanis)) Кровепаразитарный большой профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), бабезия Гибсона (Babesia gibsoni), Эрлихия (Ehrlichia canis), гемоплазма (Haemobartonella canis/Mycoplasma haemocanis)) Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Babesia gibsoni Ehrlichia canis Haemobartonella canis/Mycoplasma haemocanis Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Babesia gibsoni Ehrlichia canis Haemobartonella canis/Mycoplasma haemocanis     ОБС ОБС ОБС ОБС ОБС ОБС  кровь с ЭДТА собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кровепаразитарный расширенный профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), бабезия Гибсона (Babesia gibsoni), Эрлихия (Ehrlichia canis), гемоплазма (Haemobartonella canis/Mycoplasma haemocanis), гепатозоон (Hepatozoon canis)), лейшмания (Leishmania spp.), дирофилярии (Dirofilaria immitis и Dirofilaria repens)) терапия инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Кровепаразитарный расширенный профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), бабезия Гибсона (Babesia gibsoni), Эрлихия (Ehrlichia canis), гемоплазма (Haemobartonella canis/Mycoplasma haemocanis), гепатозоон (Hepatozoon canis)), лейшмания (Leishmania spp.), дирофилярии (Dirofilaria immitis и Dirofilaria repens)) Кровепаразитарный расширенный профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), бабезия Гибсона (Babesia gibsoni), Эрлихия (Ehrlichia canis), гемоплазма (Haemobartonella canis/Mycoplasma haemocanis), гепатозоон (Hepatozoon canis)), лейшмания (Leishmania spp.), дирофилярии (Dirofilaria immitis и Dirofilaria repens)) Кровепаразитарный расширенный профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), бабезия Гибсона (Babesia gibsoni), Эрлихия (Ehrlichia canis), гемоплазма (Haemobartonella canis/Mycoplasma haemocanis), гепатозоон (Hepatozoon canis)), лейшмания (Leishmania spp.), дирофилярии (Dirofilaria immitis и Dirofilaria repens)) Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Babesia gibsoni Ehrlichia canis Haemobartonella canis/Mycoplasma haemocanis Hepatozoon canis Leishmania spp. Dirofilaria immitis и Dirofilaria repens Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Babesia gibsoni Ehrlichia canis Haemobartonella canis/Mycoplasma haemocanis Hepatozoon canis Leishmania spp. Dirofilaria immitis и Dirofilaria repens     ОБС ОБС ОБС ОБС ОБС ОБС  кровь с ЭДТА собака  собака  собака  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Гемотропные микоплазмы (Mycoplasma haemofelis, Candidatus Mycoplasma haemominutum, Candidatus Mycoplasma turicensis) терапия инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Гемотропные микоплазмы (Mycoplasma haemofelis, Candidatus Mycoplasma haemominutum, Candidatus Mycoplasma turicensis) Гемотропные микоплазмы (Mycoplasma haemofelis, Candidatus Mycoplasma haemominutum, Candidatus Mycoplasma turicensis) Гемотропные микоплазмы (Mycoplasma haemofelis, Candidatus Mycoplasma haemominutum, Candidatus Mycoplasma turicensis) Mycoplasma haemofelis, Candidatus Mycoplasma haemominutum, Candidatus Mycoplasma turicensis Mycoplasma haemofelis, Candidatus Mycoplasma haemominutum, Candidatus Mycoplasma turicensis     ОБС ОБС ОБС ОБС ОБС ОБС  кровь с ЭДТА  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Хронические вирусные инфекции (вирус иммунодефицита (FIV, обнаружение провирусной ДНК),  вирус лейкемии (FeLV, обнаружение провирусной ДНК)) терапия инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Хронические вирусные инфекции (вирус иммунодефицита (FIV, обнаружение провирусной ДНК),  вирус лейкемии (FeLV, обнаружение провирусной ДНК)) Хронические вирусные инфекции (вирус иммунодефицита (FIV, обнаружение провирусной ДНК),  вирус лейкемии (FeLV, обнаружение провирусной ДНК)) Хронические вирусные инфекции (вирус иммунодефицита (FIV, обнаружение провирусной ДНК),  вирус лейкемии (FeLV, обнаружение провирусной ДНК)) FIV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК FIV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК     ОБС ОБС ОБС ОБС ОБС ОБС  кровь с ЭДТА  кошка   кошка   кошка  Пробирка с Сиреневой крышкой / Калий ЭДТА 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вирус лейкемии (FeLV, обнаружение вирусной РНК и провирусной ДНК одновременно)  терапия инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Вирус лейкемии (FeLV, обнаружение вирусной РНК и провирусной ДНК одновременно)  Вирус лейкемии (FeLV, обнаружение вирусной РНК и провирусной ДНК одновременно)  Вирус лейкемии (FeLV, обнаружение вирусной РНК и провирусной ДНК одновременно)  FeLV, обнаружение вирусной РНК и провирусной ДНК одновременно FeLV, обнаружение вирусной РНК и провирусной ДНК одновременно     ОБС ОБС ОБС ОБС ОБС ОБС В лабораторию поступает 2 пробирки. Пробирка с кровью ЭДТА и пробирка с сывороткой крови сыворотка крови + кровь с ЭДТА  кошка   кошка   кошка  Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с Сиреневой крышкой / Калий ЭДТА 912 *I* 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Респираторный профиль (микоплазма (Mycoplasma spp.), хламидия (Сhlamydia spp.)) терапия респирторная система инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Респираторный профиль (микоплазма (Mycoplasma spp.), хламидия (Сhlamydia spp.)) Респираторный профиль (микоплазма (Mycoplasma spp.), хламидия (Сhlamydia spp.)) Респираторный профиль (микоплазма (Mycoplasma spp.), хламидия (Сhlamydia spp.)) Mycoplasma spp. Сhlamydia spp. Mycoplasma spp. Сhlamydia spp.     ОБС ОБС ОБС ОБС ОБС ОБС  соскоб эпителиальных клеток слизистой носовой полости собака  собака  собака  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Респираторный малый профиль (Аденовирус 2 типа (CAV 2) , бордетелла  (Вordetella bronchiseptica), парагрипп собак (СPiV)) терапия респирторная система инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Респираторный малый профиль (Аденовирус 2 типа (CAV 2) , бордетелла  (Вordetella bronchiseptica), парагрипп собак (СPiV)) Респираторный малый профиль (Аденовирус 2 типа (CAV 2) , бордетелла  (Вordetella bronchiseptica), парагрипп собак (СPiV)) Респираторный малый профиль (Аденовирус 2 типа (CAV 2) , бордетелла  (Вordetella bronchiseptica), парагрипп собак (СPiV)) CAV 2 Вordetella bronchiseptica СPiV CAV 2 Вordetella bronchiseptica СPiV     ОБС ОБС ОБС ОБС ОБС ОБС  соскоб эпителиальных клеток слизистой носовой полости собака  собака  собака  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Респираторный большой профиль (Аденовирус 2 типа (CAV 2), бордетелла  (Bordetella bronchiseptica), герпесвирус собак (CHV 1), парагрипп собак (СPiV), микоплазма (Mycoplasma cynos), хламидия (Сhlamydia spp.), вирус чумы плотоядных (CDV), пастерелла мультоцида (Pasteurella multocida)) терапия респирторная система инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Респираторный большой профиль (Аденовирус 2 типа (CAV 2), бордетелла  (Bordetella bronchiseptica), герпесвирус собак (CHV 1), парагрипп собак (СPiV), микоплазма (Mycoplasma cynos), хламидия (Сhlamydia spp.), вирус чумы плотоядных (CDV), пастерелла мультоцида (Pasteurella multocida)) Респираторный большой профиль (Аденовирус 2 типа (CAV 2), бордетелла  (Bordetella bronchiseptica), герпесвирус собак (CHV 1), парагрипп собак (СPiV), микоплазма (Mycoplasma cynos), хламидия (Сhlamydia spp.), вирус чумы плотоядных (CDV), пастерелла мультоцида (Pasteurella multocida)) Респираторный большой профиль (Аденовирус 2 типа (CAV 2), бордетелла  (Bordetella bronchiseptica), герпесвирус собак (CHV 1), парагрипп собак (СPiV), микоплазма (Mycoplasma cynos), хламидия (Сhlamydia spp.), вирус чумы плотоядных (CDV), пастерелла мультоцида (Pasteurella multocida)) CAV 2 Bordetella bronchiseptica CHV 1 СPiV Mycoplasma cynos Сhlamydia spp. CDV Pasteurella multocida CAV 2 Bordetella bronchiseptica CHV 1 СPiV Mycoplasma cynos Сhlamydia spp. CDV Pasteurella multocida     ОБС ОБС ОБС ОБС ОБС ОБС  соскоб эпителиальных клеток слизистой носовой полости собака  собака  собака  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Респираторный малый профиль (бордетелла (вordetella bronchiseptica), герпесвирус кошек (FHV-1), калицивирус (FCV)) терапия респирторная система инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Респираторный малый профиль (бордетелла (вordetella bronchiseptica), герпесвирус кошек (FHV-1), калицивирус (FCV)) Респираторный малый профиль (бордетелла (вordetella bronchiseptica), герпесвирус кошек (FHV-1), калицивирус (FCV)) Респираторный малый профиль (бордетелла (вordetella bronchiseptica), герпесвирус кошек (FHV-1), калицивирус (FCV)) вordetella bronchiseptica FHV-1 FCV вordetella bronchiseptica FHV-1 FCV     ОБС ОБС ОБС ОБС ОБС ОБС  соскоб эпителиальных клеток слизистой носовой полости  кошка   кошка   кошка  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Респираторный большой профиль (бордетелла (вordetella bronchiseptica), герпесвирус кошек (FHV-1), калицивирус (FCV), микоплазма (Mycoplasma felis), хламидия (Chlamydia felis), пастерелла мультоцида (Pasteurella multocida)) терапия респирторная система инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Респираторный большой профиль (бордетелла (вordetella bronchiseptica), герпесвирус кошек (FHV-1), калицивирус (FCV), микоплазма (Mycoplasma felis), хламидия (Chlamydia felis), пастерелла мультоцида (Pasteurella multocida)) Респираторный большой профиль (бордетелла (вordetella bronchiseptica), герпесвирус кошек (FHV-1), калицивирус (FCV), микоплазма (Mycoplasma felis), хламидия (Chlamydia felis), пастерелла мультоцида (Pasteurella multocida)) Респираторный большой профиль (бордетелла (вordetella bronchiseptica), герпесвирус кошек (FHV-1), калицивирус (FCV), микоплазма (Mycoplasma felis), хламидия (Chlamydia felis), пастерелла мультоцида (Pasteurella multocida)) вordetella bronchiseptica FHV-1 FCV Mycoplasma felis Chlamydia felis Pasteurella multocida вordetella bronchiseptica FHV-1 FCV Mycoplasma felis Chlamydia felis Pasteurella multocida     ОБС ОБС ОБС ОБС ОБС ОБС  соскоб эпителиальных клеток слизистой носовой полости  кошка   кошка   кошка  Микропробирка / Транспортная среда 818  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желудочно-кишечный профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV)) терапия гастроэнтерология инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Желудочно-кишечный профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV)) Желудочно-кишечный профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV)) Желудочно-кишечный профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV)) CPV 2 CCoV 1 CAV 1 CDV CPV 2 CCoV 1 CAV 1 CDV     ОБС ОБС ОБС ОБС ОБС ОБС  соскоб эпителиальных клеток слизистой прямой кишки собака  собака  собака  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желудочно-кишечный большой профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.)) терапия гастроэнтерология инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Желудочно-кишечный большой профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.)) Желудочно-кишечный большой профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.)) Желудочно-кишечный большой профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.)) CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp. CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp.     ОБС ОБС ОБС ОБС ОБС ОБС  соскоб эпителиальных клеток слизистой прямой кишки собака  собака  собака  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желудочно-кишечный расширенный профиль собак  (парвовирус собак (CPV 2), коронавирус собак энтеральный  (CCoV 1), аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) терапия гастроэнтерология инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Желудочно-кишечный расширенный профиль собак  (парвовирус собак (CPV 2), коронавирус собак энтеральный  (CCoV 1), аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) Желудочно-кишечный расширенный профиль собак  (парвовирус собак (CPV 2), коронавирус собак энтеральный  (CCoV 1), аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) Желудочно-кишечный расширенный профиль собак  (парвовирус собак (CPV 2), коронавирус собак энтеральный  (CCoV 1), аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp. Campylobacter spp. Clostridium perfringens CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp. Campylobacter spp. Clostridium perfringens     ОБС ОБС ОБС ОБС ОБС ОБС  соскоб эпителиальных клеток слизистой прямой кишки собака  собака  собака  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желудочно-кишечный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii)) терапия гастроэнтерология инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Желудочно-кишечный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii)) Желудочно-кишечный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii)) Желудочно-кишечный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii)) FPV FCoV Toxoplasma gondii FPV FCoV Toxoplasma gondii     ОБС ОБС ОБС ОБС ОБС ОБС  соскоб эпителиальных клеток слизистой прямой кишки  кошка   кошка   кошка  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желудочно-кишечный стандартный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)) терапия гастроэнтерология инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Желудочно-кишечный стандартный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)) Желудочно-кишечный стандартный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)) Желудочно-кишечный стандартный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)) FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp.     ОБС ОБС ОБС ОБС ОБС ОБС  соскоб эпителиальных клеток слизистой прямой кишки  кошка   кошка   кошка  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желудочно-кишечный большой профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) терапия гастроэнтерология инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Желудочно-кишечный большой профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) Желудочно-кишечный большой профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) Желудочно-кишечный большой профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. Campylobacter spp. Clostridium perfringens FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. Campylobacter spp. Clostridium perfringens     ОБС ОБС ОБС ОБС ОБС ОБС  соскоб эпителиальных клеток слизистой прямой кишки  кошка   кошка   кошка  Микропробирка / Транспортная среда 880  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Стоматологический малый профиль  (вирус иммунодефицита (FIV, обнаружение провирусной ДНК), вирус лейкемии (FeLV, обнаружение провирусной ДНК), калицивирус (FCV)) терапия инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Стоматологический малый профиль  (вирус иммунодефицита (FIV, обнаружение провирусной ДНК), вирус лейкемии (FeLV, обнаружение провирусной ДНК), калицивирус (FCV)) Стоматологический малый профиль  (вирус иммунодефицита (FIV, обнаружение провирусной ДНК), вирус лейкемии (FeLV, обнаружение провирусной ДНК), калицивирус (FCV)) Стоматологический малый профиль  (вирус иммунодефицита (FIV, обнаружение провирусной ДНК), вирус лейкемии (FeLV, обнаружение провирусной ДНК), калицивирус (FCV)) FIV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК FCV FIV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК FCV     ОБС ОБС ОБС ОБС ОБС ОБС В лабораторию поступает 2 пробы. Соскоб в микропробирке с транспортной средой и кровь с ЭДТА. соскоб эпителиальных клеток слизистой ротовой полости + кровь с ЭДТА  кошка   кошка   кошка  Микропробирка / Транспортная среда *I* Пробирка с Сиреневой крышкой / Калий ЭДТА 883 *I* 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Стоматологический большой профиль  (вирус иммунодефицита (FIV, обнаружение провирусной ДНК), вирус лейкемии (FeLV, обнаружение провирусной ДНК), калицивирус (FCV), бартонелла (Bartonalla spp.)) терапия инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Стоматологический большой профиль  (вирус иммунодефицита (FIV, обнаружение провирусной ДНК), вирус лейкемии (FeLV, обнаружение провирусной ДНК), калицивирус (FCV), бартонелла (Bartonalla spp.)) Стоматологический большой профиль  (вирус иммунодефицита (FIV, обнаружение провирусной ДНК), вирус лейкемии (FeLV, обнаружение провирусной ДНК), калицивирус (FCV), бартонелла (Bartonalla spp.)) Стоматологический большой профиль  (вирус иммунодефицита (FIV, обнаружение провирусной ДНК), вирус лейкемии (FeLV, обнаружение провирусной ДНК), калицивирус (FCV), бартонелла (Bartonalla spp.)) FIV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК FCV Bartonalla spp. FIV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК FCV Bartonalla spp.     ОБС ОБС ОБС ОБС ОБС ОБС В лабораторию поступает 2 пробы. Соскоб в микропробирке с транспортной средой и кровь с ЭДТА. соскоб эпителиальных клеток слизистой ротовой полости + кровь с ЭДТА  кошка   кошка   кошка  Микропробирка / Транспортная среда *I* Пробирка с Сиреневой крышкой / Калий ЭДТА 883 *I* 819  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желудочно-кишечный профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV)) терапия гастроэнтерология инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Желудочно-кишечный профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV)) Желудочно-кишечный профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV)) Желудочно-кишечный профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV)) CPV 2 CCoV 1 CAV 1 CDV CPV 2 CCoV 1 CAV 1 CDV     ОБС ОБС ОБС ОБС ОБС ОБС  фекалии собака  собака  собака  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желудочно-кишечный большой профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.)) терапия гастроэнтерология инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Желудочно-кишечный большой профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.)) Желудочно-кишечный большой профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.)) Желудочно-кишечный большой профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.)) CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp. CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp.     ОБС ОБС ОБС ОБС ОБС ОБС  фекалии собака  собака  собака  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желудочно-кишечный расширенный профиль собак  (парвовирус собак (CPV 2), коронавирус собак энтеральный  (CCoV 1), аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) терапия гастроэнтерология инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Желудочно-кишечный расширенный профиль собак  (парвовирус собак (CPV 2), коронавирус собак энтеральный  (CCoV 1), аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) Желудочно-кишечный расширенный профиль собак  (парвовирус собак (CPV 2), коронавирус собак энтеральный  (CCoV 1), аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) Желудочно-кишечный расширенный профиль собак  (парвовирус собак (CPV 2), коронавирус собак энтеральный  (CCoV 1), аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp. Campylobacter spp. Clostridium perfringens CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp. Campylobacter spp. Clostridium perfringens     ОБС ОБС ОБС ОБС ОБС ОБС  фекалии собака  собака  собака  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желудочно-кишечный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii),Трихомонада (Tritrichomonas blagburni (foetus)) терапия гастроэнтерология инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Желудочно-кишечный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii),Трихомонада (Tritrichomonas blagburni (foetus)) Желудочно-кишечный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii),Трихомонада (Tritrichomonas blagburni (foetus)) Желудочно-кишечный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii),Трихомонада (Tritrichomonas blagburni (foetus)) FPV FCoV Toxoplasma gondii foetus FPV FCoV Toxoplasma gondii foetus     ОБС ОБС ОБС ОБС ОБС ОБС  фекалии  кошка   кошка   кошка  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желудочно-кишечный большой профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus)) терапия гастроэнтерология инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Желудочно-кишечный большой профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus)) Желудочно-кишечный большой профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus)) Желудочно-кишечный большой профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus)) FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. foetus FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. foetus     ОБС ОБС ОБС ОБС ОБС ОБС  фекалии  кошка   кошка   кошка  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Желудочно-кишечный расширенный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) терапия гастроэнтерология инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Желудочно-кишечный расширенный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) Желудочно-кишечный расширенный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) Желудочно-кишечный расширенный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. foetus Campylobacter spp. Clostridium perfringens FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. foetus Campylobacter spp. Clostridium perfringens     ОБС ОБС ОБС ОБС ОБС ОБС  фекалии  кошка   кошка   кошка  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Паразитарный профиль при хронической диарее (гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus)) терапия гастроэнтерология инфекции  Профили Профили ПЦР-диагностика ПЦР-диагностика Паразитарный профиль при хронической диарее (гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus)) Паразитарный профиль при хронической диарее (гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus)) Паразитарный профиль при хронической диарее (гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus)) Giardia spp. Cryptosporidium spp. foetus Giardia spp. Cryptosporidium spp. foetus     ОБС ОБС ОБС ОБС ОБС ОБС  фекалии  кошка   кошка   кошка  Контейнер для кала с ложечкой 881  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Исследование на дерматомикозы (обнаружение Microsporum canis, Microsporum gypseum, Malassezia pachydermatis, Trichophyton spp)  терапия инфекции дерматология  Профили Профили ПЦР-диагностика ПЦР-диагностика Исследование на дерматомикозы (обнаружение Microsporum canis, Microsporum gypseum, Malassezia pachydermatis, Trichophyton spp)  Исследование на дерматомикозы (обнаружение Microsporum canis, Microsporum gypseum, Malassezia pachydermatis, Trichophyton spp)  Исследование на дерматомикозы (обнаружение Microsporum canis, Microsporum gypseum, Malassezia pachydermatis, Trichophyton spp)  обнаружение Microsporum canis, Microsporum gypseum, Malassezia pachydermatis, Trichophyton spp обнаружение Microsporum canis, Microsporum gypseum, Malassezia pachydermatis, Trichophyton spp     ОБС ОБС ОБС ОБС ОБС ОБС  шерсть собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  собака кошка лошадь хорьки грызуны кролики  Пробирка с белой крышкой 861  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Австралийская овчарка  (аусси). Аномалия глаз колли (CEA),  Дегенеративная миелопатия (DM Ex2), Наследственная катаракта (HC), Нейрональный цероидный липофусциноз 6-го типа (NCL6), Прогрессирующая атрофия сетчатки PRA-prcd, Чувствительность к лекарственным препаратам (MDR 1)  генетика  Профили Профили Генетика Генетика Австралийская овчарка  (аусси). Аномалия глаз колли (CEA),  Дегенеративная миелопатия (DM Ex2), Наследственная катаракта (HC), Нейрональный цероидный липофусциноз 6-го типа (NCL6), Прогрессирующая атрофия сетчатки PRA-prcd, Чувствительность к лекарственным препаратам (MDR 1) Австралийская овчарка  (аусси). Аномалия глаз колли (CEA),  Дегенеративная миелопатия (DM Ex2), Наследственная катаракта (HC), Нейрональный цероидный липофусциноз 6-го типа (NCL6), Прогрессирующая атрофия сетчатки PRA-prcd, Чувствительность к лекарственным препаратам (MDR 1) Австралийская овчарка  (аусси). Аномалия глаз колли (CEA),  Дегенеративная миелопатия (DM Ex2), Наследственная катаракта (HC), Нейрональный цероидный липофусциноз 6-го типа (NCL6), Прогрессирующая атрофия сетчатки PRA-prcd, Чувствительность к лекарственным препаратам (MDR 1) аусси CEA DM Ex2 HC NCL6 MDR 1 аусси CEA DM Ex2 HC NCL6 MDR 1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Австралийская пастушья собака  (хилер). Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd, Чувствительность к лекарственным препаратам (MDR 1)  генетика  Профили Профили Генетика Генетика Австралийская пастушья собака  (хилер). Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd, Чувствительность к лекарственным препаратам (MDR 1) Австралийская пастушья собака  (хилер). Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd, Чувствительность к лекарственным препаратам (MDR 1) Австралийская пастушья собака  (хилер). Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd, Чувствительность к лекарственным препаратам (MDR 1) хилер PLL MDR 1 хилер PLL MDR 1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Австралийская пастушья собака (хилер) расширенный. Нейрональный цероидный липофусциноз 5-го типа (NCL5), Наследственный цероидный липофусциноз австралийской пастушьей собаки 12-го типа (NCL12 АС), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd, Цистинурия 2A типа (CYST2A), Цистинурия 2B типа (CYST2B), Чувствительность к лекарственным препаратам (MDR 1)  генетика  Профили Профили Генетика Генетика Австралийская пастушья собака (хилер) расширенный. Нейрональный цероидный липофусциноз 5-го типа (NCL5), Наследственный цероидный липофусциноз австралийской пастушьей собаки 12-го типа (NCL12 АС), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd, Цистинурия 2A типа (CYST2A), Цистинурия 2B типа (CYST2B), Чувствительность к лекарственным препаратам (MDR 1) Австралийская пастушья собака (хилер) расширенный. Нейрональный цероидный липофусциноз 5-го типа (NCL5), Наследственный цероидный липофусциноз австралийской пастушьей собаки 12-го типа (NCL12 АС), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd, Цистинурия 2A типа (CYST2A), Цистинурия 2B типа (CYST2B), Чувствительность к лекарственным препаратам (MDR 1) Австралийская пастушья собака (хилер) расширенный. Нейрональный цероидный липофусциноз 5-го типа (NCL5), Наследственный цероидный липофусциноз австралийской пастушьей собаки 12-го типа (NCL12 АС), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd, Цистинурия 2A типа (CYST2A), Цистинурия 2B типа (CYST2B), Чувствительность к лекарственным препаратам (MDR 1) хилер NCL5 NCL12 АС PLL CYST2A CYST2B MDR 1 хилер NCL5 NCL12 АС PLL CYST2A CYST2B MDR 1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Аляскинский маламут. Первичная цилиарная дискинезия (PCD AM) Аляскинских маламутов, Ранняя прогрессирующая полинейропатия маламутов (AMPN)  генетика  Профили Профили Генетика Генетика Аляскинский маламут. Первичная цилиарная дискинезия (PCD AM) Аляскинских маламутов, Ранняя прогрессирующая полинейропатия маламутов (AMPN) Аляскинский маламут. Первичная цилиарная дискинезия (PCD AM) Аляскинских маламутов, Ранняя прогрессирующая полинейропатия маламутов (AMPN) Аляскинский маламут. Первичная цилиарная дискинезия (PCD AM) Аляскинских маламутов, Ранняя прогрессирующая полинейропатия маламутов (AMPN) PCD AM AMPN PCD AM AMPN     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Американский булли. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Нейрональный цероидный липофусциноз 4A типа (NCL IVA)  генетика  Профили Профили Генетика Генетика Американский булли. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Нейрональный цероидный липофусциноз 4A типа (NCL IVA) Американский булли. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Нейрональный цероидный липофусциноз 4A типа (NCL IVA) Американский булли. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Нейрональный цероидный липофусциноз 4A типа (NCL IVA) HUU DM Ex2 NCL IVA HUU DM Ex2 NCL IVA     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Американский булли расширенный. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2),Нейрональный цероидный липофусциноз 4A типа (NCL IVA), Наследственая катаракта (HC), Прогрессирующая атрофия PRA- cord1  генетика  Профили Профили Генетика Генетика Американский булли расширенный. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2),Нейрональный цероидный липофусциноз 4A типа (NCL IVA), Наследственая катаракта (HC), Прогрессирующая атрофия PRA- cord1 Американский булли расширенный. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2),Нейрональный цероидный липофусциноз 4A типа (NCL IVA), Наследственая катаракта (HC), Прогрессирующая атрофия PRA- cord1 Американский булли расширенный. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2),Нейрональный цероидный липофусциноз 4A типа (NCL IVA), Наследственая катаракта (HC), Прогрессирующая атрофия PRA- cord1 HUU DM Ex2 NCL IVA HC HUU DM Ex2 NCL IVA HC     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Американский питбультерьер.   Гиперурикозурия (HUU),Нейрональный цероидный липофусциноз 4A типа (NCL IVA)), Прогресирующая атрофия сетчатки PRA-crd2  генетика  Профили Профили Генетика Генетика Американский питбультерьер.   Гиперурикозурия (HUU),Нейрональный цероидный липофусциноз 4A типа (NCL IVA)), Прогресирующая атрофия сетчатки PRA-crd2 Американский питбультерьер.   Гиперурикозурия (HUU),Нейрональный цероидный липофусциноз 4A типа (NCL IVA)), Прогресирующая атрофия сетчатки PRA-crd2 Американский питбультерьер.   Гиперурикозурия (HUU),Нейрональный цероидный липофусциноз 4A типа (NCL IVA)), Прогресирующая атрофия сетчатки PRA-crd2 HUU NCL IVA HUU NCL IVA     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Американский стаффордширский терьер. Гиперурикозурия (HUU), Нейрональный цероидный липофусциноз 4A типа (NCL IVA), Прогресирующая атрофия сетчатки PRA-crd1  генетика  Профили Профили Генетика Генетика Американский стаффордширский терьер. Гиперурикозурия (HUU), Нейрональный цероидный липофусциноз 4A типа (NCL IVA), Прогресирующая атрофия сетчатки PRA-crd1 Американский стаффордширский терьер. Гиперурикозурия (HUU), Нейрональный цероидный липофусциноз 4A типа (NCL IVA), Прогресирующая атрофия сетчатки PRA-crd1 Американский стаффордширский терьер. Гиперурикозурия (HUU), Нейрональный цероидный липофусциноз 4A типа (NCL IVA), Прогресирующая атрофия сетчатки PRA-crd1 HUU NCL IVA HUU NCL IVA     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Английский бульдог. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Мультифокальная ретинопатия (CMR 1)                                         генетика  Профили Профили Генетика Генетика Английский бульдог. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Мультифокальная ретинопатия (CMR 1)                                        Английский бульдог. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Мультифокальная ретинопатия (CMR 1)                                        Английский бульдог. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Мультифокальная ретинопатия (CMR 1)                                        HUU DM Ex2 CMR 1 HUU DM Ex2 CMR 1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Английский кокер спаниель. Cемейная нефропатия английских кокер спаниелей (FN), Прогрессирующая атрофия сетчатки PRA-prcd  генетика  Профили Профили Генетика Генетика Английский кокер спаниель. Cемейная нефропатия английских кокер спаниелей (FN), Прогрессирующая атрофия сетчатки PRA-prcd Английский кокер спаниель. Cемейная нефропатия английских кокер спаниелей (FN), Прогрессирующая атрофия сетчатки PRA-prcd Английский кокер спаниель. Cемейная нефропатия английских кокер спаниелей (FN), Прогрессирующая атрофия сетчатки PRA-prcd FN FN     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Басенджи. Прогрессирующая атрофия сетчатки басенджи (bas-PRA), Синдром Фанкони (FBS)  генетика  Профили Профили Генетика Генетика Басенджи. Прогрессирующая атрофия сетчатки басенджи (bas-PRA), Синдром Фанкони (FBS) Басенджи. Прогрессирующая атрофия сетчатки басенджи (bas-PRA), Синдром Фанкони (FBS) Басенджи. Прогрессирующая атрофия сетчатки басенджи (bas-PRA), Синдром Фанкони (FBS) bas-PRA FBS bas-PRA FBS     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Басенджи расширенный. Локус А (агути), Прогрессирующая атрофия сетчатки басенджи (bas-PRA), Синдром Фанкони (FBS)  генетика  Профили Профили Генетика Генетика Басенджи расширенный. Локус А (агути), Прогрессирующая атрофия сетчатки басенджи (bas-PRA), Синдром Фанкони (FBS) Басенджи расширенный. Локус А (агути), Прогрессирующая атрофия сетчатки басенджи (bas-PRA), Синдром Фанкони (FBS) Басенджи расширенный. Локус А (агути), Прогрессирующая атрофия сетчатки басенджи (bas-PRA), Синдром Фанкони (FBS) агути bas-PRA FBS агути bas-PRA FBS     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бассет хаунд. Болезнь Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Тяжелый комбинированный иммунодефицит, сцепленный с Х-хромосомой (X-SCID), Хондродисплазия (CDPA), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD)  генетика  Профили Профили Генетика Генетика Бассет хаунд. Болезнь Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Тяжелый комбинированный иммунодефицит, сцепленный с Х-хромосомой (X-SCID), Хондродисплазия (CDPA), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Бассет хаунд. Болезнь Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Тяжелый комбинированный иммунодефицит, сцепленный с Х-хромосомой (X-SCID), Хондродисплазия (CDPA), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Бассет хаунд. Болезнь Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Тяжелый комбинированный иммунодефицит, сцепленный с Х-хромосомой (X-SCID), Хондродисплазия (CDPA), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) vWD type I DM Ex2 X-SCID CDPA CDDY, IVDD vWD type I DM Ex2 X-SCID CDPA CDDY, IVDD     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бернский зенненхунд.  Дегенеративная миелопатия (DM Ex1-Ex2),  Болезнь фон Виллебранда 1-го типа                       генетика  Профили Профили Генетика Генетика Бернский зенненхунд.  Дегенеративная миелопатия (DM Ex1-Ex2),  Болезнь фон Виллебранда 1-го типа                      Бернский зенненхунд.  Дегенеративная миелопатия (DM Ex1-Ex2),  Болезнь фон Виллебранда 1-го типа                      Бернский зенненхунд.  Дегенеративная миелопатия (DM Ex1-Ex2),  Болезнь фон Виллебранда 1-го типа                      DM Ex1-Ex2 DM Ex1-Ex2     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бигль. Гипокаталазия, акаталазия (CAT), Мальабсорбция кишечного кобаламина, Синдром Имерслунд-Гресбека биглей (IGS B, ICM B), Мозжечковая абиотрофия (NCCD), Недостаточность фактора VII (FVIID), Синдром Мусладина-Люка / Синдром китайского бигля (MLS)  генетика  Профили Профили Генетика Генетика Бигль. Гипокаталазия, акаталазия (CAT), Мальабсорбция кишечного кобаламина, Синдром Имерслунд-Гресбека биглей (IGS B, ICM B), Мозжечковая абиотрофия (NCCD), Недостаточность фактора VII (FVIID), Синдром Мусладина-Люка / Синдром китайского бигля (MLS) Бигль. Гипокаталазия, акаталазия (CAT), Мальабсорбция кишечного кобаламина, Синдром Имерслунд-Гресбека биглей (IGS B, ICM B), Мозжечковая абиотрофия (NCCD), Недостаточность фактора VII (FVIID), Синдром Мусладина-Люка / Синдром китайского бигля (MLS) Бигль. Гипокаталазия, акаталазия (CAT), Мальабсорбция кишечного кобаламина, Синдром Имерслунд-Гресбека биглей (IGS B, ICM B), Мозжечковая абиотрофия (NCCD), Недостаточность фактора VII (FVIID), Синдром Мусладина-Люка / Синдром китайского бигля (MLS) CAT IGS B, ICM B NCCD FVIID MLS CAT IGS B, ICM B NCCD FVIID MLS     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бигль расширенный. Гипокаталазия, акаталазия (CAT), Мальабсорбция кишечного кобаламина, синдром Имерслунд-Гресбека биглей (IGS B, ICM B), Мозжечковая абиотрофия (NCCD), Недостаточность фактора VII (FVIID), Несовершенный остеогенез биглей (OI b), Синдром Мусладина-Люка / Синдром китайского бигля (MLS)  генетика  Профили Профили Генетика Генетика Бигль расширенный. Гипокаталазия, акаталазия (CAT), Мальабсорбция кишечного кобаламина, синдром Имерслунд-Гресбека биглей (IGS B, ICM B), Мозжечковая абиотрофия (NCCD), Недостаточность фактора VII (FVIID), Несовершенный остеогенез биглей (OI b), Синдром Мусладина-Люка / Синдром китайского бигля (MLS) Бигль расширенный. Гипокаталазия, акаталазия (CAT), Мальабсорбция кишечного кобаламина, синдром Имерслунд-Гресбека биглей (IGS B, ICM B), Мозжечковая абиотрофия (NCCD), Недостаточность фактора VII (FVIID), Несовершенный остеогенез биглей (OI b), Синдром Мусладина-Люка / Синдром китайского бигля (MLS) Бигль расширенный. Гипокаталазия, акаталазия (CAT), Мальабсорбция кишечного кобаламина, синдром Имерслунд-Гресбека биглей (IGS B, ICM B), Мозжечковая абиотрофия (NCCD), Недостаточность фактора VII (FVIID), Несовершенный остеогенез биглей (OI b), Синдром Мусладина-Люка / Синдром китайского бигля (MLS) CAT IGS B, ICM B NCCD FVIID OI b MLS CAT IGS B, ICM B NCCD FVIID OI b MLS     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Большой Швейцарский Зенненхунд. Болезнь фон Виллебранда I типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Длина шерсти  генетика  Профили Профили Генетика Генетика Большой Швейцарский Зенненхунд. Болезнь фон Виллебранда I типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Длина шерсти Большой Швейцарский Зенненхунд. Болезнь фон Виллебранда I типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Длина шерсти Большой Швейцарский Зенненхунд. Болезнь фон Виллебранда I типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Длина шерсти vWD type I DM Ex2 vWD type I DM Ex2     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бордер колли. Аномалия глаз колли (CEA), Нейрональный цероидный липофусциноз 5-го типа (NCL5), Сенсорная невропатия (SN), Синдром захваченных нейтрофилов (TNS), Чувствительность к медикаментам (MDR 1)  генетика  Профили Профили Генетика Генетика Бордер колли. Аномалия глаз колли (CEA), Нейрональный цероидный липофусциноз 5-го типа (NCL5), Сенсорная невропатия (SN), Синдром захваченных нейтрофилов (TNS), Чувствительность к медикаментам (MDR 1) Бордер колли. Аномалия глаз колли (CEA), Нейрональный цероидный липофусциноз 5-го типа (NCL5), Сенсорная невропатия (SN), Синдром захваченных нейтрофилов (TNS), Чувствительность к медикаментам (MDR 1) Бордер колли. Аномалия глаз колли (CEA), Нейрональный цероидный липофусциноз 5-го типа (NCL5), Сенсорная невропатия (SN), Синдром захваченных нейтрофилов (TNS), Чувствительность к медикаментам (MDR 1) CEA NCL5 SN TNS MDR 1 CEA NCL5 SN TNS MDR 1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бордер колли расширенный. Аномалия глаз колли (CEA), Гониодисгенез и глаукома бордер колли (GGD), Зубная гипоминерализация / Синдром Райна (RS BC), Мальабсорбция кишечного кобаламина, синдром Имерслунд-Гресбека бордер колли (IGS BC, ICM BC), Нейрональный цероидный липофусциноз 5-го типа (NCL5), Сенсорная невропатия (SN), Синдром захваченных нейтрофилов (TNS), Чувствительность к медикаментам (MDR 1)  генетика  Профили Профили Генетика Генетика Бордер колли расширенный. Аномалия глаз колли (CEA), Гониодисгенез и глаукома бордер колли (GGD), Зубная гипоминерализация / Синдром Райна (RS BC), Мальабсорбция кишечного кобаламина, синдром Имерслунд-Гресбека бордер колли (IGS BC, ICM BC), Нейрональный цероидный липофусциноз 5-го типа (NCL5), Сенсорная невропатия (SN), Синдром захваченных нейтрофилов (TNS), Чувствительность к медикаментам (MDR 1) Бордер колли расширенный. Аномалия глаз колли (CEA), Гониодисгенез и глаукома бордер колли (GGD), Зубная гипоминерализация / Синдром Райна (RS BC), Мальабсорбция кишечного кобаламина, синдром Имерслунд-Гресбека бордер колли (IGS BC, ICM BC), Нейрональный цероидный липофусциноз 5-го типа (NCL5), Сенсорная невропатия (SN), Синдром захваченных нейтрофилов (TNS), Чувствительность к медикаментам (MDR 1) Бордер колли расширенный. Аномалия глаз колли (CEA), Гониодисгенез и глаукома бордер колли (GGD), Зубная гипоминерализация / Синдром Райна (RS BC), Мальабсорбция кишечного кобаламина, синдром Имерслунд-Гресбека бордер колли (IGS BC, ICM BC), Нейрональный цероидный липофусциноз 5-го типа (NCL5), Сенсорная невропатия (SN), Синдром захваченных нейтрофилов (TNS), Чувствительность к медикаментам (MDR 1) CEA GGD RS BC IGS BC, ICM BC NCL5 SN TNS MDR 1 CEA GGD RS BC IGS BC, ICM BC NCL5 SN TNS MDR 1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бультерьер. Летальный акродерматит бультерьеров (LAD), Паралич гортани бультерьеров  (LP), Поликистоз почек бультерьеров (BTPKD)  генетика  Профили Профили Генетика Генетика Бультерьер. Летальный акродерматит бультерьеров (LAD), Паралич гортани бультерьеров  (LP), Поликистоз почек бультерьеров (BTPKD) Бультерьер. Летальный акродерматит бультерьеров (LAD), Паралич гортани бультерьеров  (LP), Поликистоз почек бультерьеров (BTPKD) Бультерьер. Летальный акродерматит бультерьеров (LAD), Паралич гортани бультерьеров  (LP), Поликистоз почек бультерьеров (BTPKD) LAD LP BTPKD LAD LP BTPKD     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бурбуль. Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Злокачественная гипертермия (MH), Мультифокальная ретинопатия CMR 1),Чувствительность к лекарственным препаратам (MDR 1)  генетика  Профили Профили Генетика Генетика Бурбуль. Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Злокачественная гипертермия (MH), Мультифокальная ретинопатия CMR 1),Чувствительность к лекарственным препаратам (MDR 1) Бурбуль. Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Злокачественная гипертермия (MH), Мультифокальная ретинопатия CMR 1),Чувствительность к лекарственным препаратам (MDR 1) Бурбуль. Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Злокачественная гипертермия (MH), Мультифокальная ретинопатия CMR 1),Чувствительность к лекарственным препаратам (MDR 1) DM Ex2 MH MDR 1 DM Ex2 MH MDR 1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вельш корги кардиган / пемброк расширенный.  Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки rcd3-PRA, Болезнь Виллебранда1-го типа,  Длина шерсти  генетика  Профили Профили Генетика Генетика Вельш корги кардиган / пемброк расширенный.  Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки rcd3-PRA, Болезнь Виллебранда1-го типа,  Длина шерсти Вельш корги кардиган / пемброк расширенный.  Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки rcd3-PRA, Болезнь Виллебранда1-го типа,  Длина шерсти Вельш корги кардиган / пемброк расширенный.  Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки rcd3-PRA, Болезнь Виллебранда1-го типа,  Длина шерсти DM Ex2 DM Ex2     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вельш корги кардиган / пемброк. Болезнь Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Длина шерсти  генетика  Профили Профили Генетика Генетика Вельш корги кардиган / пемброк. Болезнь Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Длина шерсти Вельш корги кардиган / пемброк. Болезнь Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Длина шерсти Вельш корги кардиган / пемброк. Болезнь Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Длина шерсти vWD type I DM Ex2 vWD type I DM Ex2     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Венгерская выжла.  Длина шерсти, Дегенерация коры мозжечка новорожденных / Мозжечковая абиотрофия (NCCD V)  генетика  Профили Профили Генетика Генетика Венгерская выжла.  Длина шерсти, Дегенерация коры мозжечка новорожденных / Мозжечковая абиотрофия (NCCD V) Венгерская выжла.  Длина шерсти, Дегенерация коры мозжечка новорожденных / Мозжечковая абиотрофия (NCCD V) Венгерская выжла.  Длина шерсти, Дегенерация коры мозжечка новорожденных / Мозжечковая абиотрофия (NCCD V) NCCD V NCCD V     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Вест хайленд уайт терьер. Глобоидно-клеточная лейкодистрофия (Болезнь Краббе, GLD), Дефицит пируваткиназы (PKdef), Краниомандибулярная остеопатия (CMO)  генетика  Профили Профили Генетика Генетика Вест хайленд уайт терьер. Глобоидно-клеточная лейкодистрофия (Болезнь Краббе, GLD), Дефицит пируваткиназы (PKdef), Краниомандибулярная остеопатия (CMO) Вест хайленд уайт терьер. Глобоидно-клеточная лейкодистрофия (Болезнь Краббе, GLD), Дефицит пируваткиназы (PKdef), Краниомандибулярная остеопатия (CMO) Вест хайленд уайт терьер. Глобоидно-клеточная лейкодистрофия (Болезнь Краббе, GLD), Дефицит пируваткиназы (PKdef), Краниомандибулярная остеопатия (CMO) Болезнь Краббе, GLD PKdef CMO Болезнь Краббе, GLD PKdef CMO     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Восточноевропейская овчарка/Белая швейцарская овчарка/Немецкая овчарка.    Дегенеративная миелопатия (DM Ex2), Злокачественная гипертермия (MH), Чувствительность к лекарственным препаратам (MDR 1)  генетика  Профили Профили Генетика Генетика Восточноевропейская овчарка/Белая швейцарская овчарка/Немецкая овчарка.    Дегенеративная миелопатия (DM Ex2), Злокачественная гипертермия (MH), Чувствительность к лекарственным препаратам (MDR 1) Восточноевропейская овчарка/Белая швейцарская овчарка/Немецкая овчарка.    Дегенеративная миелопатия (DM Ex2), Злокачественная гипертермия (MH), Чувствительность к лекарственным препаратам (MDR 1) Восточноевропейская овчарка/Белая швейцарская овчарка/Немецкая овчарка.    Дегенеративная миелопатия (DM Ex2), Злокачественная гипертермия (MH), Чувствительность к лекарственным препаратам (MDR 1) DM Ex2 MH MDR 1 DM Ex2 MH MDR 1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Голден ретривер. Ихтиоз голден ретриверов (ICT-A), Прогрессирующая атрофия сетчатки GR-PRA1, Прогрессирующая атрофия сетчатки GR-PRA2  генетика  Профили Профили Генетика Генетика Голден ретривер. Ихтиоз голден ретриверов (ICT-A), Прогрессирующая атрофия сетчатки GR-PRA1, Прогрессирующая атрофия сетчатки GR-PRA2 Голден ретривер. Ихтиоз голден ретриверов (ICT-A), Прогрессирующая атрофия сетчатки GR-PRA1, Прогрессирующая атрофия сетчатки GR-PRA2 Голден ретривер. Ихтиоз голден ретриверов (ICT-A), Прогрессирующая атрофия сетчатки GR-PRA1, Прогрессирующая атрофия сетчатки GR-PRA2 ICT-A ICT-A     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Голден ретривер (расширенный). Ихтиоз голден ретриверов (ICT-A), Нейрональный цероидный липофусциноз голден ретриверов 5-го типа (NCL5GR), Прогрессирующая атрофия сетчатки GR-PRA1, Прогрессирующая атрофия сетчатки  GR-PRA2, Сенсорная атактическая нейропатия (SAN)  генетика  Профили Профили Генетика Генетика Голден ретривер (расширенный). Ихтиоз голден ретриверов (ICT-A), Нейрональный цероидный липофусциноз голден ретриверов 5-го типа (NCL5GR), Прогрессирующая атрофия сетчатки GR-PRA1, Прогрессирующая атрофия сетчатки  GR-PRA2, Сенсорная атактическая нейропатия (SAN) Голден ретривер (расширенный). Ихтиоз голден ретриверов (ICT-A), Нейрональный цероидный липофусциноз голден ретриверов 5-го типа (NCL5GR), Прогрессирующая атрофия сетчатки GR-PRA1, Прогрессирующая атрофия сетчатки  GR-PRA2, Сенсорная атактическая нейропатия (SAN) Голден ретривер (расширенный). Ихтиоз голден ретриверов (ICT-A), Нейрональный цероидный липофусциноз голден ретриверов 5-го типа (NCL5GR), Прогрессирующая атрофия сетчатки GR-PRA1, Прогрессирующая атрофия сетчатки  GR-PRA2, Сенсорная атактическая нейропатия (SAN) расширенный ICT-A NCL5GR SAN расширенный ICT-A NCL5GR SAN     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Джек Рассел/Парсон Рассел Терьер.  Спиноцеребеллярная атаксия с миокимией и/или судорогам (SCA), Поздняя мозжечковая атаксия (LOA)  генетика  Профили Профили Генетика Генетика Джек Рассел/Парсон Рассел Терьер.  Спиноцеребеллярная атаксия с миокимией и/или судорогам (SCA), Поздняя мозжечковая атаксия (LOA) Джек Рассел/Парсон Рассел Терьер.  Спиноцеребеллярная атаксия с миокимией и/или судорогам (SCA), Поздняя мозжечковая атаксия (LOA) Джек Рассел/Парсон Рассел Терьер.  Спиноцеребеллярная атаксия с миокимией и/или судорогам (SCA), Поздняя мозжечковая атаксия (LOA) SCA LOA SCA LOA     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Джек Рассел/Парсон Рассел Терьер  расширенный. Первичный вывих хрусталика (PLL), Поздняя мозжечковая атаксия (LOA), Спиноцеребеллярная атаксия с миокимией и/или судорогам (SCA)  генетика  Профили Профили Генетика Генетика Джек Рассел/Парсон Рассел Терьер  расширенный. Первичный вывих хрусталика (PLL), Поздняя мозжечковая атаксия (LOA), Спиноцеребеллярная атаксия с миокимией и/или судорогам (SCA) Джек Рассел/Парсон Рассел Терьер  расширенный. Первичный вывих хрусталика (PLL), Поздняя мозжечковая атаксия (LOA), Спиноцеребеллярная атаксия с миокимией и/или судорогам (SCA) Джек Рассел/Парсон Рассел Терьер  расширенный. Первичный вывих хрусталика (PLL), Поздняя мозжечковая атаксия (LOA), Спиноцеребеллярная атаксия с миокимией и/или судорогам (SCA) PLL LOA SCA PLL LOA SCA     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Доберман. Болезнь фон Виллебранда I-го типа (vWD type I), Нарколепсия доберманов (NARC_dob)  генетика  Профили Профили Генетика Генетика Доберман. Болезнь фон Виллебранда I-го типа (vWD type I), Нарколепсия доберманов (NARC_dob) Доберман. Болезнь фон Виллебранда I-го типа (vWD type I), Нарколепсия доберманов (NARC_dob) Доберман. Болезнь фон Виллебранда I-го типа (vWD type I), Нарколепсия доберманов (NARC_dob) vWD type I NARC_dob vWD type I NARC_dob     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Доберман. Болезнь фон Виллебранда I-го типа (vWD type I), Дилатационная кардиомиопатия (DCM_dob), Нарколепсия доберманов (NARC_dob)  генетика  Профили Профили Генетика Генетика Доберман. Болезнь фон Виллебранда I-го типа (vWD type I), Дилатационная кардиомиопатия (DCM_dob), Нарколепсия доберманов (NARC_dob) Доберман. Болезнь фон Виллебранда I-го типа (vWD type I), Дилатационная кардиомиопатия (DCM_dob), Нарколепсия доберманов (NARC_dob) Доберман. Болезнь фон Виллебранда I-го типа (vWD type I), Дилатационная кардиомиопатия (DCM_dob), Нарколепсия доберманов (NARC_dob) vWD type I DCM_dob NARC_dob vWD type I DCM_dob NARC_dob     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Дратхаар. Болезнь Фон Виллебранда II-го типа (vWD type II), Длина шерсти на морде, KB (доминантный черный)  генетика  Профили Профили Генетика Генетика Дратхаар. Болезнь Фон Виллебранда II-го типа (vWD type II), Длина шерсти на морде, KB (доминантный черный) Дратхаар. Болезнь Фон Виллебранда II-го типа (vWD type II), Длина шерсти на морде, KB (доминантный черный) Дратхаар. Болезнь Фон Виллебранда II-го типа (vWD type II), Длина шерсти на морде, KB (доминантный черный) vWD type II доминантный черный vWD type II доминантный черный     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ирландский волкодав.  Дилатационная кардиомиопатия ирландских волкодавов (DCM_iw), Длина шерсти                                генетика  Профили Профили Генетика Генетика Ирландский волкодав.  Дилатационная кардиомиопатия ирландских волкодавов (DCM_iw), Длина шерсти                               Ирландский волкодав.  Дилатационная кардиомиопатия ирландских волкодавов (DCM_iw), Длина шерсти                               Ирландский волкодав.  Дилатационная кардиомиопатия ирландских волкодавов (DCM_iw), Длина шерсти                               DCM_iw DCM_iw     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ирландский мягкошёрстный пшеничный терьер. Микрофтальмия (RBP4), Нефропатия с потерей белка (PLN)  генетика  Профили Профили Генетика Генетика Ирландский мягкошёрстный пшеничный терьер. Микрофтальмия (RBP4), Нефропатия с потерей белка (PLN) Ирландский мягкошёрстный пшеничный терьер. Микрофтальмия (RBP4), Нефропатия с потерей белка (PLN) Ирландский мягкошёрстный пшеничный терьер. Микрофтальмия (RBP4), Нефропатия с потерей белка (PLN) RBP4 PLN RBP4 PLN     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Йоркширский терьер.  Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd  генетика  Профили Профили Генетика Генетика Йоркширский терьер.  Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd Йоркширский терьер.  Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd Йоркширский терьер.  Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd DM Ex2 PLL DM Ex2 PLL     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кавалер кинг чарльз спаниель.  Синдром эпизодического падения (EFS), Синдром сухого глаза и курчавошерстности (CKCID)           генетика  Профили Профили Генетика Генетика Кавалер кинг чарльз спаниель.  Синдром эпизодического падения (EFS), Синдром сухого глаза и курчавошерстности (CKCID)          Кавалер кинг чарльз спаниель.  Синдром эпизодического падения (EFS), Синдром сухого глаза и курчавошерстности (CKCID)          Кавалер кинг чарльз спаниель.  Синдром эпизодического падения (EFS), Синдром сухого глаза и курчавошерстности (CKCID)          EFS CKCID EFS CKCID     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кавалер кинг чарльз спаниель  (расширенный). Дегенеративная миелопатия (DM Ex2), Мышечная дистрофия кавалер кинг чарльз спаниэлей (DMD-CKCS), Синдром эпизодического падения (EFS), Синдром сухого глаза и курчавошерстности (CKCID)  генетика  Профили Профили Генетика Генетика Кавалер кинг чарльз спаниель  (расширенный). Дегенеративная миелопатия (DM Ex2), Мышечная дистрофия кавалер кинг чарльз спаниэлей (DMD-CKCS), Синдром эпизодического падения (EFS), Синдром сухого глаза и курчавошерстности (CKCID) Кавалер кинг чарльз спаниель  (расширенный). Дегенеративная миелопатия (DM Ex2), Мышечная дистрофия кавалер кинг чарльз спаниэлей (DMD-CKCS), Синдром эпизодического падения (EFS), Синдром сухого глаза и курчавошерстности (CKCID) Кавалер кинг чарльз спаниель  (расширенный). Дегенеративная миелопатия (DM Ex2), Мышечная дистрофия кавалер кинг чарльз спаниэлей (DMD-CKCS), Синдром эпизодического падения (EFS), Синдром сухого глаза и курчавошерстности (CKCID) расширенный DM Ex2 DMD-CKCS EFS CKCID расширенный DM Ex2 DMD-CKCS EFS CKCID     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кане-Корсо.  Аномалия скелета, зубов и сетчатки системная (DSRA), Мультифокальная ретинопатия (CMR1), Нейрональный цероидный липофусциноз 1-го типа (NCL1)  генетика  Профили Профили Генетика Генетика Кане-Корсо.  Аномалия скелета, зубов и сетчатки системная (DSRA), Мультифокальная ретинопатия (CMR1), Нейрональный цероидный липофусциноз 1-го типа (NCL1) Кане-Корсо.  Аномалия скелета, зубов и сетчатки системная (DSRA), Мультифокальная ретинопатия (CMR1), Нейрональный цероидный липофусциноз 1-го типа (NCL1) Кане-Корсо.  Аномалия скелета, зубов и сетчатки системная (DSRA), Мультифокальная ретинопатия (CMR1), Нейрональный цероидный липофусциноз 1-го типа (NCL1) DSRA CMR1 NCL1 DSRA CMR1 NCL1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Керри-блю терьер. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2)                                                генетика  Профили Профили Генетика Генетика Керри-блю терьер. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2)                                               Керри-блю терьер. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2)                                               Керри-блю терьер. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2)                                               vWD type I DM Ex2 vWD type I DM Ex2     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кинг чарльз спаниель. Дегенеративная миелопатия (DM Ex2), Синдром эпизодического падения (EFS)  генетика  Профили Профили Генетика Генетика Кинг чарльз спаниель. Дегенеративная миелопатия (DM Ex2), Синдром эпизодического падения (EFS) Кинг чарльз спаниель. Дегенеративная миелопатия (DM Ex2), Синдром эпизодического падения (EFS) Кинг чарльз спаниель. Дегенеративная миелопатия (DM Ex2), Синдром эпизодического падения (EFS) DM Ex2 EFS DM Ex2 EFS     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Китайская хохлатая.  Дегенеративная миелопатия (DM Ex2), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd             генетика  Профили Профили Генетика Генетика Китайская хохлатая.  Дегенеративная миелопатия (DM Ex2), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd            Китайская хохлатая.  Дегенеративная миелопатия (DM Ex2), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd            Китайская хохлатая.  Дегенеративная миелопатия (DM Ex2), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd            DM Ex2 PLL DM Ex2 PLL     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кламбер спаниель. Дегенеративная миелопатия Экзон 2 (DM Ex2), Дефицит пируватдегидрогеназы (PDP1), Коллапс, вызываемый физическими нагрузками (EIC), Прогрессирующая атрофия сетчатки (PRA-cord1)  генетика  Профили Профили Генетика Генетика Кламбер спаниель. Дегенеративная миелопатия Экзон 2 (DM Ex2), Дефицит пируватдегидрогеназы (PDP1), Коллапс, вызываемый физическими нагрузками (EIC), Прогрессирующая атрофия сетчатки (PRA-cord1) Кламбер спаниель. Дегенеративная миелопатия Экзон 2 (DM Ex2), Дефицит пируватдегидрогеназы (PDP1), Коллапс, вызываемый физическими нагрузками (EIC), Прогрессирующая атрофия сетчатки (PRA-cord1) Кламбер спаниель. Дегенеративная миелопатия Экзон 2 (DM Ex2), Дефицит пируватдегидрогеназы (PDP1), Коллапс, вызываемый физическими нагрузками (EIC), Прогрессирующая атрофия сетчатки (PRA-cord1) DM Ex2 PDP1 EIC PRA-cord1 DM Ex2 PDP1 EIC PRA-cord1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Кокер спаниель.   Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Недостаточность фосфофруктокиназы, Прогрессирующая атрофия сетчатки PRA-prcd  генетика  Профили Профили Генетика Генетика Кокер спаниель.   Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Недостаточность фосфофруктокиназы, Прогрессирующая атрофия сетчатки PRA-prcd Кокер спаниель.   Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Недостаточность фосфофруктокиназы, Прогрессирующая атрофия сетчатки PRA-prcd Кокер спаниель.   Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Недостаточность фосфофруктокиназы, Прогрессирующая атрофия сетчатки PRA-prcd DM Ex2 DM Ex2     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Колли/Шелти.  Дегенеративная миелопатия (DM Ex2), Аномалия глаз колли (CEA), Чувствительность к лекарственным препаратам (MDR 1)  генетика  Профили Профили Генетика Генетика Колли/Шелти.  Дегенеративная миелопатия (DM Ex2), Аномалия глаз колли (CEA), Чувствительность к лекарственным препаратам (MDR 1) Колли/Шелти.  Дегенеративная миелопатия (DM Ex2), Аномалия глаз колли (CEA), Чувствительность к лекарственным препаратам (MDR 1) Колли/Шелти.  Дегенеративная миелопатия (DM Ex2), Аномалия глаз колли (CEA), Чувствительность к лекарственным препаратам (MDR 1) DM Ex2 CEA MDR 1 DM Ex2 CEA MDR 1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Котон де тулеар. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия Экзон 2 (DM Ex2), Мультифокальная ретинопатия 2 типа (CMR2), Прогрессирующая атрофия сетчатки (PRA-prcd), Хондродисплазия (CDPA), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD)  генетика  Профили Профили Генетика Генетика Котон де тулеар. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия Экзон 2 (DM Ex2), Мультифокальная ретинопатия 2 типа (CMR2), Прогрессирующая атрофия сетчатки (PRA-prcd), Хондродисплазия (CDPA), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Котон де тулеар. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия Экзон 2 (DM Ex2), Мультифокальная ретинопатия 2 типа (CMR2), Прогрессирующая атрофия сетчатки (PRA-prcd), Хондродисплазия (CDPA), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Котон де тулеар. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия Экзон 2 (DM Ex2), Мультифокальная ретинопатия 2 типа (CMR2), Прогрессирующая атрофия сетчатки (PRA-prcd), Хондродисплазия (CDPA), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) vWD type I DM Ex2 CMR2 PRA-prcd CDPA CDDY, IVDD vWD type I DM Ex2 CMR2 PRA-prcd CDPA CDDY, IVDD     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Курчавошерстный ретривер. Гликогеноз IIIa, Коллапс, вызываемый физическими нагрузками (EIC), Прогрессирующая атрофия сетчатки PRA-cord1                                                 генетика  Профили Профили Генетика Генетика Курчавошерстный ретривер. Гликогеноз IIIa, Коллапс, вызываемый физическими нагрузками (EIC), Прогрессирующая атрофия сетчатки PRA-cord1                                                Курчавошерстный ретривер. Гликогеноз IIIa, Коллапс, вызываемый физическими нагрузками (EIC), Прогрессирующая атрофия сетчатки PRA-cord1                                                Курчавошерстный ретривер. Гликогеноз IIIa, Коллапс, вызываемый физическими нагрузками (EIC), Прогрессирующая атрофия сетчатки PRA-cord1                                                EIC EIC     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Лабрадор ретривер.  Коллапс, вызываемый физическими нагрузками (EIC), Наследственный носовой паракератоз ретриверов (HNPK), Прогрессирующая атрофия сетчатки PRA-prcd, Центроядерная миопатия (CNM)  генетика  Профили Профили Генетика Генетика Лабрадор ретривер.  Коллапс, вызываемый физическими нагрузками (EIC), Наследственный носовой паракератоз ретриверов (HNPK), Прогрессирующая атрофия сетчатки PRA-prcd, Центроядерная миопатия (CNM) Лабрадор ретривер.  Коллапс, вызываемый физическими нагрузками (EIC), Наследственный носовой паракератоз ретриверов (HNPK), Прогрессирующая атрофия сетчатки PRA-prcd, Центроядерная миопатия (CNM) Лабрадор ретривер.  Коллапс, вызываемый физическими нагрузками (EIC), Наследственный носовой паракератоз ретриверов (HNPK), Прогрессирующая атрофия сетчатки PRA-prcd, Центроядерная миопатия (CNM) EIC HNPK CNM EIC HNPK CNM     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Лабрадор ретривер расширенный. Ахроматопсия (дневная слепота, ACHM), Дефицит пируваткиназы (PKdef), Коллапс, вызываемый физическими нагрузками (EIC), Миотубулярная миопатия (MTM1, XL-MTM), Нарколепсия лабрадоров (NARC-lab), Наследственный носовой паракератоз ретриверов (HNPK), Предрасположенность к ожирению (POMC / ADI), Прогрессирующая атрофия сетчатки (PRA-prcd), Скелетная дисплазия 2 (SD2), Центроядерная миопатия (CNM)  генетика  Профили Профили Генетика Генетика Лабрадор ретривер расширенный. Ахроматопсия (дневная слепота, ACHM), Дефицит пируваткиназы (PKdef), Коллапс, вызываемый физическими нагрузками (EIC), Миотубулярная миопатия (MTM1, XL-MTM), Нарколепсия лабрадоров (NARC-lab), Наследственный носовой паракератоз ретриверов (HNPK), Предрасположенность к ожирению (POMC / ADI), Прогрессирующая атрофия сетчатки (PRA-prcd), Скелетная дисплазия 2 (SD2), Центроядерная миопатия (CNM) Лабрадор ретривер расширенный. Ахроматопсия (дневная слепота, ACHM), Дефицит пируваткиназы (PKdef), Коллапс, вызываемый физическими нагрузками (EIC), Миотубулярная миопатия (MTM1, XL-MTM), Нарколепсия лабрадоров (NARC-lab), Наследственный носовой паракератоз ретриверов (HNPK), Предрасположенность к ожирению (POMC / ADI), Прогрессирующая атрофия сетчатки (PRA-prcd), Скелетная дисплазия 2 (SD2), Центроядерная миопатия (CNM) Лабрадор ретривер расширенный. Ахроматопсия (дневная слепота, ACHM), Дефицит пируваткиназы (PKdef), Коллапс, вызываемый физическими нагрузками (EIC), Миотубулярная миопатия (MTM1, XL-MTM), Нарколепсия лабрадоров (NARC-lab), Наследственный носовой паракератоз ретриверов (HNPK), Предрасположенность к ожирению (POMC / ADI), Прогрессирующая атрофия сетчатки (PRA-prcd), Скелетная дисплазия 2 (SD2), Центроядерная миопатия (CNM) дневная слепота, ACHM PKdef EIC MTM1, XL-MTM NARC-lab HNPK POMC / ADI PRA-prcd SD2 CNM дневная слепота, ACHM PKdef EIC MTM1, XL-MTM NARC-lab HNPK POMC / ADI PRA-prcd SD2 CNM     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Леонбергер. Лейкоэнцефаломиелопатия (LEMP), Наследственная полинейропатия леонбергеров 1 (LPN1), Наследственная полинейропатия леонбергеров 2 (LPN2)  генетика  Профили Профили Генетика Генетика Леонбергер. Лейкоэнцефаломиелопатия (LEMP), Наследственная полинейропатия леонбергеров 1 (LPN1), Наследственная полинейропатия леонбергеров 2 (LPN2) Леонбергер. Лейкоэнцефаломиелопатия (LEMP), Наследственная полинейропатия леонбергеров 1 (LPN1), Наследственная полинейропатия леонбергеров 2 (LPN2) Леонбергер. Лейкоэнцефаломиелопатия (LEMP), Наследственная полинейропатия леонбергеров 1 (LPN1), Наследственная полинейропатия леонбергеров 2 (LPN2) LEMP LPN1 LPN2 LEMP LPN1 LPN2     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Миниатюрный бультерьер. Первичный вывих хрусталика (PLL), Поликистоз почек бультерьеров                                             генетика  Профили Профили Генетика Генетика Миниатюрный бультерьер. Первичный вывих хрусталика (PLL), Поликистоз почек бультерьеров                                            Миниатюрный бультерьер. Первичный вывих хрусталика (PLL), Поликистоз почек бультерьеров                                            Миниатюрный бультерьер. Первичный вывих хрусталика (PLL), Поликистоз почек бультерьеров                                            PLL PLL     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Миттельшнауцер. Гиперурикозурия (HUU), Дилатационная кардиомиопатия шнауцеров (DCMS), Наследственная миотония (MC)  генетика  Профили Профили Генетика Генетика Миттельшнауцер. Гиперурикозурия (HUU), Дилатационная кардиомиопатия шнауцеров (DCMS), Наследственная миотония (MC) Миттельшнауцер. Гиперурикозурия (HUU), Дилатационная кардиомиопатия шнауцеров (DCMS), Наследственная миотония (MC) Миттельшнауцер. Гиперурикозурия (HUU), Дилатационная кардиомиопатия шнауцеров (DCMS), Наследственная миотония (MC) HUU DCMS MC HUU DCMS MC     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мопс. Дегенеративная миелопатия (DM Ex2), Наследственный энцефалит мопсов (NME), Первичный вывих хрусталика (PLL)                                         генетика  Профили Профили Генетика Генетика Мопс. Дегенеративная миелопатия (DM Ex2), Наследственный энцефалит мопсов (NME), Первичный вывих хрусталика (PLL)                                        Мопс. Дегенеративная миелопатия (DM Ex2), Наследственный энцефалит мопсов (NME), Первичный вывих хрусталика (PLL)                                        Мопс. Дегенеративная миелопатия (DM Ex2), Наследственный энцефалит мопсов (NME), Первичный вывих хрусталика (PLL)                                        DM Ex2 NME PLL DM Ex2 NME PLL     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ньюфаундленд. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Цистинурия  генетика  Профили Профили Генетика Генетика Ньюфаундленд. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Цистинурия Ньюфаундленд. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Цистинурия Ньюфаундленд. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Цистинурия HUU DM Ex2 HUU DM Ex2     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Папийон/Фален.  Болезнь фон Виллебранда I-го типа (vWD type I), Нейроксальная дистрофия (NAD), Прогрессирующая атрофия сетчатки папильонов и фаленов pap-PRA  генетика  Профили Профили Генетика Генетика Папийон/Фален.  Болезнь фон Виллебранда I-го типа (vWD type I), Нейроксальная дистрофия (NAD), Прогрессирующая атрофия сетчатки папильонов и фаленов pap-PRA Папийон/Фален.  Болезнь фон Виллебранда I-го типа (vWD type I), Нейроксальная дистрофия (NAD), Прогрессирующая атрофия сетчатки папильонов и фаленов pap-PRA Папийон/Фален.  Болезнь фон Виллебранда I-го типа (vWD type I), Нейроксальная дистрофия (NAD), Прогрессирующая атрофия сетчатки папильонов и фаленов pap-PRA vWD type I NAD vWD type I NAD     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Пинчеры. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2)  генетика  Профили Профили Генетика Генетика Пинчеры. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2) Пинчеры. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2) Пинчеры. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2) vWD type I DM Ex2 vWD type I DM Ex2     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Пудель общий. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (PRA-prcd)  генетика  Профили Профили Генетика Генетика Пудель общий. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (PRA-prcd) Пудель общий. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (PRA-prcd) Пудель общий. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (PRA-prcd) vWD type I DM Ex2 PRA-prcd vWD type I DM Ex2 PRA-prcd     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Пудель большой (королевский, стандартный) расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Неонатальная энцефалопатия с судорогами (NEWS), Прогрессирующая атрофия сетчатки (PRA-prcd), Прогрессирующая атрофия сетчатки (PRA-rcd4)  генетика  Профили Профили Генетика Генетика Пудель большой (королевский, стандартный) расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Неонатальная энцефалопатия с судорогами (NEWS), Прогрессирующая атрофия сетчатки (PRA-prcd), Прогрессирующая атрофия сетчатки (PRA-rcd4) Пудель большой (королевский, стандартный) расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Неонатальная энцефалопатия с судорогами (NEWS), Прогрессирующая атрофия сетчатки (PRA-prcd), Прогрессирующая атрофия сетчатки (PRA-rcd4) Пудель большой (королевский, стандартный) расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Неонатальная энцефалопатия с судорогами (NEWS), Прогрессирующая атрофия сетчатки (PRA-prcd), Прогрессирующая атрофия сетчатки (PRA-rcd4) королевский, стандартный vWD type I DM Ex2 NEWS PRA-prcd PRA-rcd4 королевский, стандартный vWD type I DM Ex2 NEWS PRA-prcd PRA-rcd4     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Пудель средний (малый), миниатюрный (карликовый), той расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (PRA-prcd), Прогрессирующая атрофия сетчатки (PRA-rcd4), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD)  генетика  Профили Профили Генетика Генетика Пудель средний (малый), миниатюрный (карликовый), той расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (PRA-prcd), Прогрессирующая атрофия сетчатки (PRA-rcd4), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Пудель средний (малый), миниатюрный (карликовый), той расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (PRA-prcd), Прогрессирующая атрофия сетчатки (PRA-rcd4), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Пудель средний (малый), миниатюрный (карликовый), той расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (PRA-prcd), Прогрессирующая атрофия сетчатки (PRA-rcd4), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) малый карликовый vWD type I DM Ex2 PRA-prcd PRA-rcd4 CDDY, IVDD малый карликовый vWD type I DM Ex2 PRA-prcd PRA-rcd4 CDDY, IVDD     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ризеншнауцер. Гиперурикозурия (HUU), Дилатационная кардиомиопатия шнауцеров (DCMS), Недостаточность фактора VII (FVIID), Прогрессирующая атрофия сетчатки (PRA-prcd)  генетика  Профили Профили Генетика Генетика Ризеншнауцер. Гиперурикозурия (HUU), Дилатационная кардиомиопатия шнауцеров (DCMS), Недостаточность фактора VII (FVIID), Прогрессирующая атрофия сетчатки (PRA-prcd) Ризеншнауцер. Гиперурикозурия (HUU), Дилатационная кардиомиопатия шнауцеров (DCMS), Недостаточность фактора VII (FVIID), Прогрессирующая атрофия сетчатки (PRA-prcd) Ризеншнауцер. Гиперурикозурия (HUU), Дилатационная кардиомиопатия шнауцеров (DCMS), Недостаточность фактора VII (FVIID), Прогрессирующая атрофия сетчатки (PRA-prcd) HUU DCMS FVIID PRA-prcd HUU DCMS FVIID PRA-prcd     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Родезийский риджбек. Дегенеративная миелопатия (DM Ex2), Ювенильная миоклоническая эпилепсия  генетика  Профили Профили Генетика Генетика Родезийский риджбек. Дегенеративная миелопатия (DM Ex2), Ювенильная миоклоническая эпилепсия Родезийский риджбек. Дегенеративная миелопатия (DM Ex2), Ювенильная миоклоническая эпилепсия Родезийский риджбек. Дегенеративная миелопатия (DM Ex2), Ювенильная миоклоническая эпилепсия DM Ex2 DM Ex2     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Родезийский риджбек расширенный. Дегенеративная миелопатия (DM Ex2),, Осветление окраса собак, Ювенильная миоклоническая эпилепсия  генетика  Профили Профили Генетика Генетика Родезийский риджбек расширенный. Дегенеративная миелопатия (DM Ex2),, Осветление окраса собак, Ювенильная миоклоническая эпилепсия Родезийский риджбек расширенный. Дегенеративная миелопатия (DM Ex2),, Осветление окраса собак, Ювенильная миоклоническая эпилепсия Родезийский риджбек расширенный. Дегенеративная миелопатия (DM Ex2),, Осветление окраса собак, Ювенильная миоклоническая эпилепсия DM Ex2 DM Ex2     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ротвейлер. Дегенеративная миелопатия (DM Ex2), Полинейропатия (JLPP)  генетика  Профили Профили Генетика Генетика Ротвейлер. Дегенеративная миелопатия (DM Ex2), Полинейропатия (JLPP) Ротвейлер. Дегенеративная миелопатия (DM Ex2), Полинейропатия (JLPP) Ротвейлер. Дегенеративная миелопатия (DM Ex2), Полинейропатия (JLPP) DM Ex2 JLPP DM Ex2 JLPP     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ротвейлер расширенный.  Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Лейкоэнцефаломиелопатия немецких догов и ротвейлеров (LEMP R), Нейроаксональная дистрофия ротвейлеров (NAD R), Ювенильный паралич гортани / Полинейропатия (JLPP)  генетика  Профили Профили Генетика Генетика Ротвейлер расширенный.  Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Лейкоэнцефаломиелопатия немецких догов и ротвейлеров (LEMP R), Нейроаксональная дистрофия ротвейлеров (NAD R), Ювенильный паралич гортани / Полинейропатия (JLPP) Ротвейлер расширенный.  Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Лейкоэнцефаломиелопатия немецких догов и ротвейлеров (LEMP R), Нейроаксональная дистрофия ротвейлеров (NAD R), Ювенильный паралич гортани / Полинейропатия (JLPP) Ротвейлер расширенный.  Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Лейкоэнцефаломиелопатия немецких догов и ротвейлеров (LEMP R), Нейроаксональная дистрофия ротвейлеров (NAD R), Ювенильный паралич гортани / Полинейропатия (JLPP) vWD type I DM Ex2 LEMP R NAD R JLPP vWD type I DM Ex2 LEMP R NAD R JLPP     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Русский черный терьер.  Гиперурикозурия (HUU), Ювенильный паралич гортани/Полинейропатия               генетика  Профили Профили Генетика Генетика Русский черный терьер.  Гиперурикозурия (HUU), Ювенильный паралич гортани/Полинейропатия              Русский черный терьер.  Гиперурикозурия (HUU), Ювенильный паралич гортани/Полинейропатия              Русский черный терьер.  Гиперурикозурия (HUU), Ювенильный паралич гортани/Полинейропатия              HUU HUU     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Русский черный терьер (расширенный).  Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Ювенильный паралич гортани/Полинейропатия  генетика  Профили Профили Генетика Генетика Русский черный терьер (расширенный).  Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Ювенильный паралич гортани/Полинейропатия Русский черный терьер (расширенный).  Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Ювенильный паралич гортани/Полинейропатия Русский черный терьер (расширенный).  Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Ювенильный паралич гортани/Полинейропатия расширенный HUU DM Ex2 расширенный HUU DM Ex2     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Самоедская собака. Дегенеративная миелопатия (DM Ex2), Наследственный нефрит (HN), Несовершенный амелогенез, Наследственная гипоплазия эмали самоеда (ARAIS), Прогрессирующая атрофия сетчатки XL-PRA1 (XL-PRA1), Чувствительность к лекарственным препаратам (MDR 1)  генетика  Профили Профили Генетика Генетика Самоедская собака. Дегенеративная миелопатия (DM Ex2), Наследственный нефрит (HN), Несовершенный амелогенез, Наследственная гипоплазия эмали самоеда (ARAIS), Прогрессирующая атрофия сетчатки XL-PRA1 (XL-PRA1), Чувствительность к лекарственным препаратам (MDR 1) Самоедская собака. Дегенеративная миелопатия (DM Ex2), Наследственный нефрит (HN), Несовершенный амелогенез, Наследственная гипоплазия эмали самоеда (ARAIS), Прогрессирующая атрофия сетчатки XL-PRA1 (XL-PRA1), Чувствительность к лекарственным препаратам (MDR 1) Самоедская собака. Дегенеративная миелопатия (DM Ex2), Наследственный нефрит (HN), Несовершенный амелогенез, Наследственная гипоплазия эмали самоеда (ARAIS), Прогрессирующая атрофия сетчатки XL-PRA1 (XL-PRA1), Чувствительность к лекарственным препаратам (MDR 1) DM Ex2 HN ARAIS XL-PRA1 MDR 1 DM Ex2 HN ARAIS XL-PRA1 MDR 1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Сиба-ину. Ганглиозидоз GM1, Ганглиозидоз GM2  генетика  Профили Профили Генетика Генетика Сиба-ину. Ганглиозидоз GM1, Ганглиозидоз GM2 Сиба-ину. Ганглиозидоз GM1, Ганглиозидоз GM2 Сиба-ину. Ганглиозидоз GM1, Ганглиозидоз GM2       ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Сибирский хаски. Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки XL-PRA1, Чувствительность к лекарственным препаратам (MDR 1)  генетика  Профили Профили Генетика Генетика Сибирский хаски. Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки XL-PRA1, Чувствительность к лекарственным препаратам (MDR 1) Сибирский хаски. Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки XL-PRA1, Чувствительность к лекарственным препаратам (MDR 1) Сибирский хаски. Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки XL-PRA1, Чувствительность к лекарственным препаратам (MDR 1) DM Ex2 MDR 1 DM Ex2 MDR 1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Спрингер спаниель.  Прогрессирующая атрофия сетчатки PRA-cord1, Дегенеративная миелопатия (DM Ex2), Гиперурикозурия, Недостаточность фосфофруктокиназы PFK)  генетика  Профили Профили Генетика Генетика Спрингер спаниель.  Прогрессирующая атрофия сетчатки PRA-cord1, Дегенеративная миелопатия (DM Ex2), Гиперурикозурия, Недостаточность фосфофруктокиназы PFK) Спрингер спаниель.  Прогрессирующая атрофия сетчатки PRA-cord1, Дегенеративная миелопатия (DM Ex2), Гиперурикозурия, Недостаточность фосфофруктокиназы PFK) Спрингер спаниель.  Прогрессирующая атрофия сетчатки PRA-cord1, Дегенеративная миелопатия (DM Ex2), Гиперурикозурия, Недостаточность фосфофруктокиназы PFK) DM Ex2 DM Ex2     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Староанглийская овчарка (бобтейл).  Первичная цилиарная дискенезия (PCD), Чувствительность к лекарственным препаратам (MDR 1)  генетика  Профили Профили Генетика Генетика Староанглийская овчарка (бобтейл).  Первичная цилиарная дискенезия (PCD), Чувствительность к лекарственным препаратам (MDR 1) Староанглийская овчарка (бобтейл).  Первичная цилиарная дискенезия (PCD), Чувствительность к лекарственным препаратам (MDR 1) Староанглийская овчарка (бобтейл).  Первичная цилиарная дискенезия (PCD), Чувствительность к лекарственным препаратам (MDR 1) бобтейл PCD MDR 1 бобтейл PCD MDR 1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Староанглийская овчарка (бобтейл) (расширенный). Первичная цилиарная дискенезия (PCD), Коллапс, вызываемый физическими нагрузками (EIC), Чувствительность к лекарственным препаратам (MDR 1)   генетика  Профили Профили Генетика Генетика Староанглийская овчарка (бобтейл) (расширенный). Первичная цилиарная дискенезия (PCD), Коллапс, вызываемый физическими нагрузками (EIC), Чувствительность к лекарственным препаратам (MDR 1)  Староанглийская овчарка (бобтейл) (расширенный). Первичная цилиарная дискенезия (PCD), Коллапс, вызываемый физическими нагрузками (EIC), Чувствительность к лекарственным препаратам (MDR 1)  Староанглийская овчарка (бобтейл) (расширенный). Первичная цилиарная дискенезия (PCD), Коллапс, вызываемый физическими нагрузками (EIC), Чувствительность к лекарственным препаратам (MDR 1)  бобтейл расширенный PCD EIC MDR 1 бобтейл расширенный PCD EIC MDR 1     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Стаффордширский бультерьер. L-2-гидроксиглутаровая ацидурия Стаффордширских бультерьеров (L2HGA), Наследственная катаракта (HSF4)  генетика  Профили Профили Генетика Генетика Стаффордширский бультерьер. L-2-гидроксиглутаровая ацидурия Стаффордширских бультерьеров (L2HGA), Наследственная катаракта (HSF4) Стаффордширский бультерьер. L-2-гидроксиглутаровая ацидурия Стаффордширских бультерьеров (L2HGA), Наследственная катаракта (HSF4) Стаффордширский бультерьер. L-2-гидроксиглутаровая ацидурия Стаффордширских бультерьеров (L2HGA), Наследственная катаракта (HSF4) L2HGA HSF4 L2HGA HSF4     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Таксы(кроме стандартных).  Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки PRA-cord1  генетика  Профили Профили Генетика Генетика Таксы(кроме стандартных).  Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки PRA-cord1 Таксы(кроме стандартных).  Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки PRA-cord1 Таксы(кроме стандартных).  Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки PRA-cord1 кроме стандартных HUU DM Ex2 кроме стандартных HUU DM Ex2     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Таксы расширенный. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки PRA-cord1, Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD)  генетика  Профили Профили Генетика Генетика Таксы расширенный. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки PRA-cord1, Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Таксы расширенный. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки PRA-cord1, Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Таксы расширенный. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки PRA-cord1, Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) HUU DM Ex2 CDDY, IVDD HUU DM Ex2 CDDY, IVDD     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Таксы (жесткошерстные). Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (CRD-SWD / PRA-cord2), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD)  генетика  Профили Профили Генетика Генетика Таксы (жесткошерстные). Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (CRD-SWD / PRA-cord2), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Таксы (жесткошерстные). Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (CRD-SWD / PRA-cord2), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Таксы (жесткошерстные). Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (CRD-SWD / PRA-cord2), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) жесткошерстные HUU DM Ex2 CRD-SWD / PRA-cord2 CDDY, IVDD жесткошерстные HUU DM Ex2 CRD-SWD / PRA-cord2 CDDY, IVDD     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Той-фокстерьер. Врожденный гипотиреоз с зобом Terier (CHG), Первичный вывих хрусталика (PLL), Спиноцеребеллярная атаксия с миокимией и/или судорогами (SCA)  генетика  Профили Профили Генетика Генетика Той-фокстерьер. Врожденный гипотиреоз с зобом Terier (CHG), Первичный вывих хрусталика (PLL), Спиноцеребеллярная атаксия с миокимией и/или судорогами (SCA) Той-фокстерьер. Врожденный гипотиреоз с зобом Terier (CHG), Первичный вывих хрусталика (PLL), Спиноцеребеллярная атаксия с миокимией и/или судорогами (SCA) Той-фокстерьер. Врожденный гипотиреоз с зобом Terier (CHG), Первичный вывих хрусталика (PLL), Спиноцеребеллярная атаксия с миокимией и/или судорогами (SCA) CHG PLL SCA CHG PLL SCA     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Французский бульдог.  Цистинурия бульдогов (Cys-bd), Мультифокальная ретинопатия (CMR 1), Наследственная катаракта (HC)  генетика  Профили Профили Генетика Генетика Французский бульдог.  Цистинурия бульдогов (Cys-bd), Мультифокальная ретинопатия (CMR 1), Наследственная катаракта (HC) Французский бульдог.  Цистинурия бульдогов (Cys-bd), Мультифокальная ретинопатия (CMR 1), Наследственная катаракта (HC) Французский бульдог.  Цистинурия бульдогов (Cys-bd), Мультифокальная ретинопатия (CMR 1), Наследственная катаракта (HC) Cys-bd CMR 1 HC Cys-bd CMR 1 HC     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Французский бульдог (расширенный). Врожденный гипотиреоз с зобом FB (CHG), Цистинурия бульдогов (Cys-bd), Мультифокальная ретинопатия (CMR 1), Наследственная катаракта (HC)  генетика  Профили Профили Генетика Генетика Французский бульдог (расширенный). Врожденный гипотиреоз с зобом FB (CHG), Цистинурия бульдогов (Cys-bd), Мультифокальная ретинопатия (CMR 1), Наследственная катаракта (HC) Французский бульдог (расширенный). Врожденный гипотиреоз с зобом FB (CHG), Цистинурия бульдогов (Cys-bd), Мультифокальная ретинопатия (CMR 1), Наследственная катаракта (HC) Французский бульдог (расширенный). Врожденный гипотиреоз с зобом FB (CHG), Цистинурия бульдогов (Cys-bd), Мультифокальная ретинопатия (CMR 1), Наследственная катаракта (HC) расширенный CHG Cys-bd CMR 1 HC расширенный CHG Cys-bd CMR 1 HC     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цвергшнауцер. Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1), Спондилокостальный дизостоз (SCD), Устойчивость к микобактериозу (МАС)  генетика  Профили Профили Генетика Генетика Цвергшнауцер. Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1), Спондилокостальный дизостоз (SCD), Устойчивость к микобактериозу (МАС) Цвергшнауцер. Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1), Спондилокостальный дизостоз (SCD), Устойчивость к микобактериозу (МАС) Цвергшнауцер. Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1), Спондилокостальный дизостоз (SCD), Устойчивость к микобактериозу (МАС) PRA B1 SCD МАС PRA B1 SCD МАС     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Цвергшнауцер расширенный. Болезнь Шарко-Мари-Тута (CMT), Наследственная миотония (MC), Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1), Спондилокостальный дизостоз (SCD), Устойчивость к микобактериозу (МАС)  генетика  Профили Профили Генетика Генетика Цвергшнауцер расширенный. Болезнь Шарко-Мари-Тута (CMT), Наследственная миотония (MC), Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1), Спондилокостальный дизостоз (SCD), Устойчивость к микобактериозу (МАС) Цвергшнауцер расширенный. Болезнь Шарко-Мари-Тута (CMT), Наследственная миотония (MC), Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1), Спондилокостальный дизостоз (SCD), Устойчивость к микобактериозу (МАС) Цвергшнауцер расширенный. Болезнь Шарко-Мари-Тута (CMT), Наследственная миотония (MC), Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1), Спондилокостальный дизостоз (SCD), Устойчивость к микобактериозу (МАС) CMT MC PRA B1 SCD МАС CMT MC PRA B1 SCD МАС     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Шипперке. Локус K (доминантный черный), Мукополисахаридоз IIIB типа (MPS IIIB)  генетика  Профили Профили Генетика Генетика Шипперке. Локус K (доминантный черный), Мукополисахаридоз IIIB типа (MPS IIIB) Шипперке. Локус K (доминантный черный), Мукополисахаридоз IIIB типа (MPS IIIB) Шипперке. Локус K (доминантный черный), Мукополисахаридоз IIIB типа (MPS IIIB) доминантный черный MPS IIIB доминантный черный MPS IIIB     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Шипперке расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Локус K (доминантный черный), Мукополисахаридоз IIIB типа (MPS IIIB)  генетика  Профили Профили Генетика Генетика Шипперке расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Локус K (доминантный черный), Мукополисахаридоз IIIB типа (MPS IIIB) Шипперке расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Локус K (доминантный черный), Мукополисахаридоз IIIB типа (MPS IIIB) Шипперке расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Локус K (доминантный черный), Мукополисахаридоз IIIB типа (MPS IIIB) vWD type I доминантный черный MPS IIIB vWD type I доминантный черный MPS IIIB     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Шорти булл. L-2-гидроксиглутаровая ацидурия Стаффордширских бультерьеров (L2HGA), Дегенеративная миелопатия (DM Ex2), Наследственная катаракта (HC)  генетика  Профили Профили Генетика Генетика Шорти булл. L-2-гидроксиглутаровая ацидурия Стаффордширских бультерьеров (L2HGA), Дегенеративная миелопатия (DM Ex2), Наследственная катаракта (HC) Шорти булл. L-2-гидроксиглутаровая ацидурия Стаффордширских бультерьеров (L2HGA), Дегенеративная миелопатия (DM Ex2), Наследственная катаракта (HC) Шорти булл. L-2-гидроксиглутаровая ацидурия Стаффордширских бультерьеров (L2HGA), Дегенеративная миелопатия (DM Ex2), Наследственная катаракта (HC) L2HGA DM Ex2 HC L2HGA DM Ex2 HC     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Шотландский терьер (Скотч терьер). Болезнь Виллебранда 3-го типа (vWD III), Краниомандибулярная остеопатия (CMO)  генетика  Профили Профили Генетика Генетика Шотландский терьер (Скотч терьер). Болезнь Виллебранда 3-го типа (vWD III), Краниомандибулярная остеопатия (CMO) Шотландский терьер (Скотч терьер). Болезнь Виллебранда 3-го типа (vWD III), Краниомандибулярная остеопатия (CMO) Шотландский терьер (Скотч терьер). Болезнь Виллебранда 3-го типа (vWD III), Краниомандибулярная остеопатия (CMO) Скотч терьер vWD III CMO Скотч терьер vWD III CMO     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Энтленбухер зенненхунд. Длина шерсти, Прогрессирующая атрофия сетчатки PRA-prcd  генетика  Профили Профили Генетика Генетика Энтленбухер зенненхунд. Длина шерсти, Прогрессирующая атрофия сетчатки PRA-prcd Энтленбухер зенненхунд. Длина шерсти, Прогрессирующая атрофия сетчатки PRA-prcd Энтленбухер зенненхунд. Длина шерсти, Прогрессирующая атрофия сетчатки PRA-prcd       ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь собака  собака  собака  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Абиссинская кошка / Сомали. Группа крови кошек, Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc  генетика  Профили Профили Генетика Генетика Абиссинская кошка / Сомали. Группа крови кошек, Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc Абиссинская кошка / Сомали. Группа крови кошек, Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc Абиссинская кошка / Сомали. Группа крови кошек, Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc       ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Абиссинская кошка / Сомали расширенный. Группа крови кошек, Дефицит пируваткиназы (PKDef), Прогрессирующая атрофия сетчатки rdAc (PRA-rdAc), Прогрессирующая атрофия сетчатки Rdy (PRA-Rdy)  генетика  Профили Профили Генетика Генетика Абиссинская кошка / Сомали расширенный. Группа крови кошек, Дефицит пируваткиназы (PKDef), Прогрессирующая атрофия сетчатки rdAc (PRA-rdAc), Прогрессирующая атрофия сетчатки Rdy (PRA-Rdy) Абиссинская кошка / Сомали расширенный. Группа крови кошек, Дефицит пируваткиназы (PKDef), Прогрессирующая атрофия сетчатки rdAc (PRA-rdAc), Прогрессирующая атрофия сетчатки Rdy (PRA-Rdy) Абиссинская кошка / Сомали расширенный. Группа крови кошек, Дефицит пируваткиназы (PKDef), Прогрессирующая атрофия сетчатки rdAc (PRA-rdAc), Прогрессирующая атрофия сетчатки Rdy (PRA-Rdy) PKDef PRA-rdAc PRA-Rdy PKDef PRA-rdAc PRA-Rdy     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бенгальская кошка / Саванна. Дефицит эритроцитарной пируваткиназы (PKDef), Прогрессирующая атрофия сетчатки бенгалов (PRA-b)  генетика  Профили Профили Генетика Генетика Бенгальская кошка / Саванна. Дефицит эритроцитарной пируваткиназы (PKDef), Прогрессирующая атрофия сетчатки бенгалов (PRA-b) Бенгальская кошка / Саванна. Дефицит эритроцитарной пируваткиназы (PKDef), Прогрессирующая атрофия сетчатки бенгалов (PRA-b) Бенгальская кошка / Саванна. Дефицит эритроцитарной пируваткиназы (PKDef), Прогрессирующая атрофия сетчатки бенгалов (PRA-b) PKDef PRA-b PKDef PRA-b     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Британская  / Сибирская кошка / Шотландская/ Священная бирма.  Группа крови кошек, Поликистоз почек                                                        генетика  Профили Профили Генетика Генетика Британская  / Сибирская кошка / Шотландская/ Священная бирма.  Группа крови кошек, Поликистоз почек                                                       Британская  / Сибирская кошка / Шотландская/ Священная бирма.  Группа крови кошек, Поликистоз почек                                                       Британская  / Сибирская кошка / Шотландская/ Священная бирма.  Группа крови кошек, Поликистоз почек                                                             ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Британская короткошерстная /Шотландская (расширенный).  Группа крови кошек, Длина шерсти, Поликистоз почек  генетика  Профили Профили Генетика Генетика Британская короткошерстная /Шотландская (расширенный).  Группа крови кошек, Длина шерсти, Поликистоз почек Британская короткошерстная /Шотландская (расширенный).  Группа крови кошек, Длина шерсти, Поликистоз почек Британская короткошерстная /Шотландская (расширенный).  Группа крови кошек, Длина шерсти, Поликистоз почек расширенный расширенный     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Бурманская кошка.  Ганглиозидоз бурманских кошек, Гипокалиемия бурм, Черепно-лицевая дисплазия бурм  генетика  Профили Профили Генетика Генетика Бурманская кошка.  Ганглиозидоз бурманских кошек, Гипокалиемия бурм, Черепно-лицевая дисплазия бурм Бурманская кошка.  Ганглиозидоз бурманских кошек, Гипокалиемия бурм, Черепно-лицевая дисплазия бурм Бурманская кошка.  Ганглиозидоз бурманских кошек, Гипокалиемия бурм, Черепно-лицевая дисплазия бурм       ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мейн-кун. Гипертрофическая кардиомиопатия мейн кунов 1 мутация: A31P, Дефицит пируваткиназы, Спинальная мышечная атрофия  генетика  Профили Профили Генетика Генетика Мейн-кун. Гипертрофическая кардиомиопатия мейн кунов 1 мутация: A31P, Дефицит пируваткиназы, Спинальная мышечная атрофия Мейн-кун. Гипертрофическая кардиомиопатия мейн кунов 1 мутация: A31P, Дефицит пируваткиназы, Спинальная мышечная атрофия Мейн-кун. Гипертрофическая кардиомиопатия мейн кунов 1 мутация: A31P, Дефицит пируваткиназы, Спинальная мышечная атрофия       ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Мейн-кун расширенный.  Гипертрофическая кардиомиопатия мейн кунов 2 мутации: A31P, A47T(HCM), Дефицит пируваткиназы, Спинальная мышечная атрофия  генетика  Профили Профили Генетика Генетика Мейн-кун расширенный.  Гипертрофическая кардиомиопатия мейн кунов 2 мутации: A31P, A47T(HCM), Дефицит пируваткиназы, Спинальная мышечная атрофия Мейн-кун расширенный.  Гипертрофическая кардиомиопатия мейн кунов 2 мутации: A31P, A47T(HCM), Дефицит пируваткиназы, Спинальная мышечная атрофия Мейн-кун расширенный.  Гипертрофическая кардиомиопатия мейн кунов 2 мутации: A31P, A47T(HCM), Дефицит пируваткиназы, Спинальная мышечная атрофия HCM HCM     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Норвежская лесная кошка. Гликогеноз IV типа (GSD IV), Дефицит эритроцитарной пируваткиназы кошек (PK def)  генетика  Профили Профили Генетика Генетика Норвежская лесная кошка. Гликогеноз IV типа (GSD IV), Дефицит эритроцитарной пируваткиназы кошек (PK def) Норвежская лесная кошка. Гликогеноз IV типа (GSD IV), Дефицит эритроцитарной пируваткиназы кошек (PK def) Норвежская лесная кошка. Гликогеноз IV типа (GSD IV), Дефицит эритроцитарной пируваткиназы кошек (PK def) GSD IV PK def GSD IV PK def     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ориентальная кошка.  Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc  генетика  Профили Профили Генетика Генетика Ориентальная кошка.  Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc Ориентальная кошка.  Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc Ориентальная кошка.  Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc       ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Ориентальная кошка расширенный.  Группа крови кошек, Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc  генетика  Профили Профили Генетика Генетика Ориентальная кошка расширенный.  Группа крови кошек, Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc Ориентальная кошка расширенный.  Группа крови кошек, Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc Ориентальная кошка расширенный.  Группа крови кошек, Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc       ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Персидская / Экзотическая. Поликистоз почек, Прогрессирующая атрофия сетчатки персов (PRA-pd)  генетика  Профили Профили Генетика Генетика Персидская / Экзотическая. Поликистоз почек, Прогрессирующая атрофия сетчатки персов (PRA-pd) Персидская / Экзотическая. Поликистоз почек, Прогрессирующая атрофия сетчатки персов (PRA-pd) Персидская / Экзотическая. Поликистоз почек, Прогрессирующая атрофия сетчатки персов (PRA-pd) PRA-pd PRA-pd     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Персидская / Экзотическая расширенный.  Группа крови кошек, Длина шерсти, Поликистоз почек, Прогрессирующая атрофия сетчатки персов (PRA-pd)  генетика  Профили Профили Генетика Генетика Персидская / Экзотическая расширенный.  Группа крови кошек, Длина шерсти, Поликистоз почек, Прогрессирующая атрофия сетчатки персов (PRA-pd) Персидская / Экзотическая расширенный.  Группа крови кошек, Длина шерсти, Поликистоз почек, Прогрессирующая атрофия сетчатки персов (PRA-pd) Персидская / Экзотическая расширенный.  Группа крови кошек, Длина шерсти, Поликистоз почек, Прогрессирующая атрофия сетчатки персов (PRA-pd) PRA-pd PRA-pd     ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Рэгдолл. Гипертрофическая кардиомиопатия рэгдоллов, Поликистоз почек  генетика  Профили Профили Генетика Генетика Рэгдолл. Гипертрофическая кардиомиопатия рэгдоллов, Поликистоз почек Рэгдолл. Гипертрофическая кардиомиопатия рэгдоллов, Поликистоз почек Рэгдолл. Гипертрофическая кардиомиопатия рэгдоллов, Поликистоз почек       ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
-  </si>
-  <si>
-    <t>Рэгдолл расширенный. Гипертрофическая кардиомиопатия рэгдоллов, Длина шерсти, Поликистоз почек  генетика  Профили Профили Генетика Генетика Рэгдолл расширенный. Гипертрофическая кардиомиопатия рэгдоллов, Длина шерсти, Поликистоз почек Рэгдолл расширенный. Гипертрофическая кардиомиопатия рэгдоллов, Длина шерсти, Поликистоз почек Рэгдолл расширенный. Гипертрофическая кардиомиопатия рэгдоллов, Длина шерсти, Поликистоз почек       ОБС ОБС ОБС ОБС ОБС ОБС  сухая кровь  кошка   кошка   кошка  Конверт 821  +2°С…+8°С</t>
+AN1041LK - Лекарственные и ядовитые вещества (нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей) Токсикология Токсикология терапия ОРИТ отравления Профили Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей наркотические и психоактивные вещества, более 6000 веществ нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей Микроэлементы и тяжелые металлы: Li, B, Na, Mg, Al, Be, K, Ca, P, Cr, Mn, Fe, Co, Ni, Cu, Zn, Ga, Ge, As, Se, Rb, Sr, Zr, Nb, Mo, Ag, Cd, Sn, Sb, Te, Cs, Ba, Ce, Pr, Sm, W, Hg, Tl, Pb, U, 40 показателей наркотические и психоактивные вещества, более 6000 веществ нафтилтиокарбамид,  варфарин, ратиндан, бродифакум, кумарин, зоокумарин, 4-аминопиридин, изониазид, фтивазид, дигоксин, дигитоксин, 11 показателей ОБС ОБС моча собака кошка хорьки 2 пробирки с белой крышкой -17°С…-23°С Антиген Antigen Кальций Ca (Calcium) Кластеры дифференцировки Cluster of differentiation Иммуноферментный анализ Enzyme-linked immunosorbent assay Железо Fe (Iron) Калий K (Potassium) Магний Mg (Magnesium) Моноциты Monocytes Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus) Общий анализ крови CBC</t>
+  </si>
+  <si>
+    <t>Токсические микроэлементы в шерсти:  Алюминий (Al), Кадмий (Cd), Литий (Li), Мышьяк (As), Ртуть (Hg), Свинец (Pb), 6 показателей Токсические микроэлементы в шерсти:  Алюминий (Al), Кадмий (Cd), Литий (Li), Мышьяк (As), Ртуть (Hg), Свинец (Pb), 6 показателей Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Профили Al Cd Li As Hg Pb Al Cd Li As Hg Pb ОБС ОБС Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Токсические и эссенциальные микроэлементы в шерсти:  Алюминий (Al), Ванадий (V), Кобальт (Cо), Литий (Li), Марганец (Mn), Медь (Cu),  Мышьяк (As), Никель (Ni), Ртуть (Hg), Свинец (Pb), Селен (Se), Хром  (Cr), Цинк (Zn), 13 показателей Токсические и эссенциальные микроэлементы в шерсти:  Алюминий (Al), Ванадий (V), Кобальт (Cо), Литий (Li), Марганец (Mn), Медь (Cu),  Мышьяк (As), Никель (Ni), Ртуть (Hg), Свинец (Pb), Селен (Se), Хром  (Cr), Цинк (Zn), 13 показателей Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Профили Al V Cо Li Mn Cu As Ni Hg Pb Se Cr Zn Al V Cо Li Mn Cu As Ni Hg Pb Se Cr Zn ОБС ОБС Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Токсические и эссенциальные микроэлементы в шерсти:  Алюминий (Al), Бор (В), Ванадий (V), Железо (Fe), Йод (I), Калий (К), Кальций (Са), Кадмий (Cd), Кобальт (Cо), Кремний (Si), Литий (Li), Магний (Mn), Марганец (Mn), Медь (Cu),  Мышьяк (As), Натрий (Na), Никель (Ni), Олово (Sn), Ртуть (Hg), Свинец (Pb), Селен (Se), Стронций (Sr), Фосфор (Р), Хром  (Cr), Цинк (Zn), 25 показателей Токсические и эссенциальные микроэлементы в шерсти:  Алюминий (Al), Бор (В), Ванадий (V), Железо (Fe), Йод (I), Калий (К), Кальций (Са), Кадмий (Cd), Кобальт (Cо), Кремний (Si), Литий (Li), Магний (Mn), Марганец (Mn), Медь (Cu),  Мышьяк (As), Натрий (Na), Никель (Ni), Олово (Sn), Ртуть (Hg), Свинец (Pb), Селен (Se), Стронций (Sr), Фосфор (Р), Хром  (Cr), Цинк (Zn), 25 показателей Микроэлементы и тяжелые металлы Микроэлементы и тяжелые металлы терапия отравления Профили Al В V Fe I К Са Cd Cо Si Li Mn Mn Cu As Na Ni Sn Hg Pb Se Sr Р Cr Zn Al В V Fe I К Са Cd Cо Si Li Mn Mn Cu As Na Ni Sn Hg Pb Se Sr Р Cr Zn ОБС ОБС Шерсть должна быть чистая шерсть собака кошка Конверт +2°С…+8°С CA Минералы Кластеры дифференцировки Cluster of differentiation FE Минералы K Минералы MG Минералы Нейтрофилы Neutrophils NA Минералы P Минералы</t>
+  </si>
+  <si>
+    <t>Респираторный малый профиль (Аденовирус 2 типа (CAV 2) , бордетелла  (Вordetella bronchiseptica), вирус парагриппа (СPiV)) Респираторный малый профиль (Аденовирус 2 типа (CAV 2) , бордетелла  (Вordetella bronchiseptica), вирус парагриппа (СPiV)) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Профили CAV 2 Вordetella bronchiseptica СPiV CAV 2 Вordetella bronchiseptica СPiV ОБС ОБС Необходимо следить, чтобы пробу не попадала носоглоточная слизь. БАЛ собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Кальций Ca (Calcium) Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Глазной профиль (герпесвирус кошек (FHV-1), микоплазма (Mycoplasma felis), хламидия (Chlamydia felis)) Глазной профиль (герпесвирус кошек (FHV-1), микоплазма (Mycoplasma felis), хламидия (Chlamydia felis)) ПЦР-диагностика ПЦР-диагностика терапия инфекции Профили FHV-1 Mycoplasma felis Chlamydia felis FHV-1 Mycoplasma felis Chlamydia felis ОБС ОБС соскоб эпителиальных клеток конъюнктивы кошка Микропробирка / Транспортная среда +2°С…+8°С Железо Fe (Iron) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Кровепаразитарный малый профиль (анаплазма (аnaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), Эрлихия (Ehrlichia canis)) Кровепаразитарный малый профиль (анаплазма (аnaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), Эрлихия (Ehrlichia canis)) ПЦР-диагностика ПЦР-диагностика терапия инфекции Профили аnaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Ehrlichia canis аnaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Ehrlichia canis ОБС ОБС костный мозг (КМ) собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Антитело Antibody Антиген Antigen Антинуклеарные антитела Antinuclear Antibodies Кальций Ca (Calcium) Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Кровепаразитарный малый профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), Эрлихия (Ehrlichia canis)) Кровепаразитарный малый профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), Эрлихия (Ehrlichia canis)) ПЦР-диагностика ПЦР-диагностика терапия инфекции Профили Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Ehrlichia canis Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Ehrlichia canis ОБС ОБС кровь с ЭДТА кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Антитело Antibody Антиген Antigen Антинуклеарные антитела Antinuclear Antibodies Кальций Ca (Calcium) Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Кровепаразитарный большой профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), бабезия Гибсона (Babesia gibsoni), Эрлихия (Ehrlichia canis), гемоплазма (Haemobartonella canis/Mycoplasma haemocanis)) Кровепаразитарный большой профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), бабезия Гибсона (Babesia gibsoni), Эрлихия (Ehrlichia canis), гемоплазма (Haemobartonella canis/Mycoplasma haemocanis)) ПЦР-диагностика ПЦР-диагностика терапия инфекции Профили Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Babesia gibsoni Ehrlichia canis Haemobartonella canis/Mycoplasma haemocanis Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Babesia gibsoni Ehrlichia canis Haemobartonella canis/Mycoplasma haemocanis ОБС ОБС кровь с ЭДТА собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Антитело Antibody Антиген Antigen Антинуклеарные антитела Antinuclear Antibodies Кальций Ca (Calcium) Моноциты Monocytes Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Кровепаразитарный расширенный профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), бабезия Гибсона (Babesia gibsoni), Эрлихия (Ehrlichia canis), гемоплазма (Haemobartonella canis/Mycoplasma haemocanis), гепатозоон (Hepatozoon canis)), лейшмания (Leishmania spp.), дирофилярии (Dirofilaria immitis и Dirofilaria repens)) Кровепаразитарный расширенный профиль (анаплазма (Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика)), бабезия (Babesia spp.), бабезия Гибсона (Babesia gibsoni), Эрлихия (Ehrlichia canis), гемоплазма (Haemobartonella canis/Mycoplasma haemocanis), гепатозоон (Hepatozoon canis)), лейшмания (Leishmania spp.), дирофилярии (Dirofilaria immitis и Dirofilaria repens)) ПЦР-диагностика ПЦР-диагностика терапия инфекции Профили Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Babesia gibsoni Ehrlichia canis Haemobartonella canis/Mycoplasma haemocanis Hepatozoon canis Leishmania spp. Dirofilaria immitis и Dirofilaria repens Anaplasma phagocytophilum и Anaplasma platys,  дифференциальная диагностика Babesia spp. Babesia gibsoni Ehrlichia canis Haemobartonella canis/Mycoplasma haemocanis Hepatozoon canis Leishmania spp. Dirofilaria immitis и Dirofilaria repens ОБС ОБС кровь с ЭДТА собака Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Антитело Antibody Антиген Antigen Антинуклеарные антитела Antinuclear Antibodies Кальций Ca (Calcium) Гематоксилин-эозин Hematoxylin and eosin Моноциты Monocytes Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin Радиоиммунный анализ Radioimmunoassay</t>
+  </si>
+  <si>
+    <t>Гемотропные микоплазмы (Mycoplasma haemofelis, Candidatus Mycoplasma haemominutum, Candidatus Mycoplasma turicensis) Гемотропные микоплазмы (Mycoplasma haemofelis, Candidatus Mycoplasma haemominutum, Candidatus Mycoplasma turicensis) ПЦР-диагностика ПЦР-диагностика терапия инфекции Профили Mycoplasma haemofelis, Candidatus Mycoplasma haemominutum, Candidatus Mycoplasma turicensis Mycoplasma haemofelis, Candidatus Mycoplasma haemominutum, Candidatus Mycoplasma turicensis ОБС ОБС кровь с ЭДТА кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Андростендион Androstenedione Кальций Ca (Calcium) Железо Fe (Iron) Моноциты Monocytes Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Хронические вирусные инфекции (вирус иммунодефицита (FIV, обнаружение провирусной ДНК),  вирус лейкемии (FeLV, обнаружение провирусной ДНК)) Хронические вирусные инфекции (вирус иммунодефицита (FIV, обнаружение провирусной ДНК),  вирус лейкемии (FeLV, обнаружение провирусной ДНК)) ПЦР-диагностика ПЦР-диагностика терапия инфекции Профили FIV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК FIV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК ОБС ОБС кровь с ЭДТА кошка Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Железо Fe (Iron) Вирус лейкемии кошек Feline Leukemia Virus Вирус иммунодефицита кошек Feline Immunodeficiency Virus</t>
+  </si>
+  <si>
+    <t>Вирус лейкемии (FeLV, обнаружение вирусной РНК и провирусной ДНК одновременно) Вирус лейкемии (FeLV, обнаружение вирусной РНК и провирусной ДНК одновременно) ПЦР-диагностика ПЦР-диагностика терапия инфекции Профили FeLV, обнаружение вирусной РНК и провирусной ДНК одновременно FeLV, обнаружение вирусной РНК и провирусной ДНК одновременно ОБС ОБС В лабораторию поступает 2 пробирки. Пробирка с кровью ЭДТА и пробирка с сывороткой крови сыворотка крови + кровь с ЭДТА кошка Пробирка с красной крышкой, с ГЕЛЕМ *I* Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Железо Fe (Iron) Вирус лейкемии кошек Feline Leukemia Virus</t>
+  </si>
+  <si>
+    <t>Респираторный профиль (микоплазма (Mycoplasma spp.), хламидия (Сhlamydia spp.)) Респираторный профиль (микоплазма (Mycoplasma spp.), хламидия (Сhlamydia spp.)) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Профили Mycoplasma spp. Сhlamydia spp. Mycoplasma spp. Сhlamydia spp. ОБС ОБС соскоб эпителиальных клеток слизистой носовой полости собака Микропробирка / Транспортная среда +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Респираторный малый профиль (Аденовирус 2 типа (CAV 2) , бордетелла  (Вordetella bronchiseptica), парагрипп собак (СPiV)) Респираторный малый профиль (Аденовирус 2 типа (CAV 2) , бордетелла  (Вordetella bronchiseptica), парагрипп собак (СPiV)) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Профили CAV 2 Вordetella bronchiseptica СPiV CAV 2 Вordetella bronchiseptica СPiV ОБС ОБС соскоб эпителиальных клеток слизистой носовой полости собака Микропробирка / Транспортная среда +2°С…+8°С Кальций Ca (Calcium) Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Респираторный большой профиль (Аденовирус 2 типа (CAV 2), бордетелла  (Bordetella bronchiseptica), герпесвирус собак (CHV 1), парагрипп собак (СPiV), микоплазма (Mycoplasma cynos), хламидия (Сhlamydia spp.), вирус чумы плотоядных (CDV), пастерелла мультоцида (Pasteurella multocida)) Респираторный большой профиль (Аденовирус 2 типа (CAV 2), бордетелла  (Bordetella bronchiseptica), герпесвирус собак (CHV 1), парагрипп собак (СPiV), микоплазма (Mycoplasma cynos), хламидия (Сhlamydia spp.), вирус чумы плотоядных (CDV), пастерелла мультоцида (Pasteurella multocida)) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Профили CAV 2 Bordetella bronchiseptica CHV 1 СPiV Mycoplasma cynos Сhlamydia spp. CDV Pasteurella multocida CAV 2 Bordetella bronchiseptica CHV 1 СPiV Mycoplasma cynos Сhlamydia spp. CDV Pasteurella multocida ОБС ОБС соскоб эпителиальных клеток слизистой носовой полости собака Микропробирка / Транспортная среда +2°С…+8°С Аспартатаминотрансфераза AST Аспартатаминотрансфераза AST Кальций Ca (Calcium) Кластеры дифференцировки Cluster of differentiation Нейтрофилы Neutrophils Фосфор P (Phosphorus) Периодическая кислота Шиффа Periodic acid-Schiff</t>
+  </si>
+  <si>
+    <t>Респираторный малый профиль (бордетелла (вordetella bronchiseptica), герпесвирус кошек (FHV-1), калицивирус (FCV)) Респираторный малый профиль (бордетелла (вordetella bronchiseptica), герпесвирус кошек (FHV-1), калицивирус (FCV)) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Профили вordetella bronchiseptica FHV-1 FCV вordetella bronchiseptica FHV-1 FCV ОБС ОБС соскоб эпителиальных клеток слизистой носовой полости кошка Микропробирка / Транспортная среда +2°С…+8°С Кальций Ca (Calcium) Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Респираторный большой профиль (бордетелла (вordetella bronchiseptica), герпесвирус кошек (FHV-1), калицивирус (FCV), микоплазма (Mycoplasma felis), хламидия (Chlamydia felis), пастерелла мультоцида (Pasteurella multocida)) Респираторный большой профиль (бордетелла (вordetella bronchiseptica), герпесвирус кошек (FHV-1), калицивирус (FCV), микоплазма (Mycoplasma felis), хламидия (Chlamydia felis), пастерелла мультоцида (Pasteurella multocida)) ПЦР-диагностика ПЦР-диагностика терапия респирторная система инфекции Профили вordetella bronchiseptica FHV-1 FCV Mycoplasma felis Chlamydia felis Pasteurella multocida вordetella bronchiseptica FHV-1 FCV Mycoplasma felis Chlamydia felis Pasteurella multocida ОБС ОБС соскоб эпителиальных клеток слизистой носовой полости кошка Микропробирка / Транспортная среда +2°С…+8°С Аспартатаминотрансфераза AST Аспартатаминотрансфераза AST Кальций Ca (Calcium) Железо Fe (Iron) Нейтрофилы Neutrophils Фосфор P (Phosphorus) Периодическая кислота Шиффа Periodic acid-Schiff</t>
+  </si>
+  <si>
+    <t>Желудочно-кишечный профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV)) Желудочно-кишечный профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Профили CPV 2 CCoV 1 CAV 1 CDV CPV 2 CCoV 1 CAV 1 CDV ОБС ОБС соскоб эпителиальных клеток слизистой прямой кишки собака Микропробирка / Транспортная среда +2°С…+8°С Кальций Ca (Calcium) Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Желудочно-кишечный большой профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.)) Желудочно-кишечный большой профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Профили CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp. CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp. ОБС ОБС соскоб эпителиальных клеток слизистой прямой кишки собака Микропробирка / Транспортная среда +2°С…+8°С Кальций Ca (Calcium) Кластеры дифференцировки Cluster of differentiation Моноциты Monocytes Моноциты MON (Monocytes) Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Желудочно-кишечный расширенный профиль собак  (парвовирус собак (CPV 2), коронавирус собак энтеральный  (CCoV 1), аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) Желудочно-кишечный расширенный профиль собак  (парвовирус собак (CPV 2), коронавирус собак энтеральный  (CCoV 1), аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Профили CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp. Campylobacter spp. Clostridium perfringens CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp. Campylobacter spp. Clostridium perfringens ОБС ОБС соскоб эпителиальных клеток слизистой прямой кишки собака Микропробирка / Транспортная среда +2°С…+8°С Бактерии Bacteria Кальций Ca (Calcium) Кластеры дифференцировки Cluster of differentiation Хлор Cl (Chloride) Моноциты Monocytes Моноциты MON (Monocytes) Нейтрофилы Neutrophils Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Желудочно-кишечный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii)) Желудочно-кишечный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Профили FPV FCoV Toxoplasma gondii FPV FCoV Toxoplasma gondii ОБС ОБС соскоб эпителиальных клеток слизистой прямой кишки кошка Микропробирка / Транспортная среда +2°С…+8°С Нейтрофилы Neutrophils Оксалаты Oxalates Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Желудочно-кишечный стандартный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)) Желудочно-кишечный стандартный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Профили FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. ОБС ОБС соскоб эпителиальных клеток слизистой прямой кишки кошка Микропробирка / Транспортная среда +2°С…+8°С Нейтрофилы Neutrophils Оксалаты Oxalates Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Желудочно-кишечный большой профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) Желудочно-кишечный большой профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Профили FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. Campylobacter spp. Clostridium perfringens FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. Campylobacter spp. Clostridium perfringens ОБС ОБС соскоб эпителиальных клеток слизистой прямой кишки кошка Микропробирка / Транспортная среда +2°С…+8°С Бактерии Bacteria Кальций Ca (Calcium) Хлор Cl (Chloride) Нейтрофилы Neutrophils Оксалаты Oxalates Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Стоматологический малый профиль  (вирус иммунодефицита (FIV, обнаружение провирусной ДНК), вирус лейкемии (FeLV, обнаружение провирусной ДНК), калицивирус (FCV)) Стоматологический малый профиль  (вирус иммунодефицита (FIV, обнаружение провирусной ДНК), вирус лейкемии (FeLV, обнаружение провирусной ДНК), калицивирус (FCV)) ПЦР-диагностика ПЦР-диагностика терапия инфекции Профили FIV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК FCV FIV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК FCV ОБС ОБС В лабораторию поступает 2 пробы. Соскоб в микропробирке с транспортной средой и кровь с ЭДТА. соскоб эпителиальных клеток слизистой ротовой полости + кровь с ЭДТА кошка Микропробирка / Транспортная среда *I* Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Железо Fe (Iron) Вирус лейкемии кошек Feline Leukemia Virus Вирус иммунодефицита кошек Feline Immunodeficiency Virus</t>
+  </si>
+  <si>
+    <t>Стоматологический большой профиль  (вирус иммунодефицита (FIV, обнаружение провирусной ДНК), вирус лейкемии (FeLV, обнаружение провирусной ДНК), калицивирус (FCV), бартонелла (Bartonalla spp.)) Стоматологический большой профиль  (вирус иммунодефицита (FIV, обнаружение провирусной ДНК), вирус лейкемии (FeLV, обнаружение провирусной ДНК), калицивирус (FCV), бартонелла (Bartonalla spp.)) ПЦР-диагностика ПЦР-диагностика терапия инфекции Профили FIV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК FCV Bartonalla spp. FIV, обнаружение провирусной ДНК FeLV, обнаружение провирусной ДНК FCV Bartonalla spp. ОБС ОБС В лабораторию поступает 2 пробы. Соскоб в микропробирке с транспортной средой и кровь с ЭДТА. соскоб эпителиальных клеток слизистой ротовой полости + кровь с ЭДТА кошка Микропробирка / Транспортная среда *I* Пробирка с Сиреневой крышкой / Калий ЭДТА +2°С…+8°С Железо Fe (Iron) Вирус лейкемии кошек Feline Leukemia Virus Вирус иммунодефицита кошек Feline Immunodeficiency Virus Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Желудочно-кишечный профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV)) Желудочно-кишечный профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Профили CPV 2 CCoV 1 CAV 1 CDV CPV 2 CCoV 1 CAV 1 CDV ОБС ОБС фекалии собака Контейнер для кала с ложечкой +2°С…+8°С Кальций Ca (Calcium) Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Желудочно-кишечный большой профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.)) Желудочно-кишечный большой профиль (парвовирус собак (CPV 2), коронавирус собак энтеральный (CCoV 1), Аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Профили CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp. CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp. ОБС ОБС фекалии собака Контейнер для кала с ложечкой +2°С…+8°С Кальций Ca (Calcium) Кластеры дифференцировки Cluster of differentiation Моноциты Monocytes Моноциты MON (Monocytes) Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Желудочно-кишечный расширенный профиль собак  (парвовирус собак (CPV 2), коронавирус собак энтеральный  (CCoV 1), аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) Желудочно-кишечный расширенный профиль собак  (парвовирус собак (CPV 2), коронавирус собак энтеральный  (CCoV 1), аденовирус 1 типа (CAV 1), вирус чумы плотоядных (CDV), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.)), ротавирус А (Rotavirus А), сальмонелла  (Salmonella spp.), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Профили CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp. Campylobacter spp. Clostridium perfringens CPV 2 CCoV 1 CAV 1 CDV Giardia spp. Cryptosporidium spp. Rotavirus А Salmonella spp. Campylobacter spp. Clostridium perfringens ОБС ОБС фекалии собака Контейнер для кала с ложечкой +2°С…+8°С Бактерии Bacteria Кальций Ca (Calcium) Кластеры дифференцировки Cluster of differentiation Хлор Cl (Chloride) Моноциты Monocytes Моноциты MON (Monocytes) Нейтрофилы Neutrophils Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Желудочно-кишечный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii),Трихомонада (Tritrichomonas blagburni (foetus)) Желудочно-кишечный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii),Трихомонада (Tritrichomonas blagburni (foetus)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Профили FPV FCoV Toxoplasma gondii foetus FPV FCoV Toxoplasma gondii foetus ОБС ОБС фекалии кошка Контейнер для кала с ложечкой +2°С…+8°С Антиген Antigen Моноциты Monocytes Моноциты MON (Monocytes) Нейтрофилы Neutrophils Натрий Na (Sodium) Оксалаты Oxalates Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Желудочно-кишечный большой профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus)) Желудочно-кишечный большой профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Профили FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. foetus FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. foetus ОБС ОБС фекалии кошка Контейнер для кала с ложечкой +2°С…+8°С Антиген Antigen Моноциты Monocytes Моноциты MON (Monocytes) Нейтрофилы Neutrophils Натрий Na (Sodium) Оксалаты Oxalates Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Желудочно-кишечный расширенный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) Желудочно-кишечный расширенный профиль (вирус панлейкопении (FPV), коронавирус кошек энтеральный (FCoV), токсоплазма (Toxoplasma gondii), гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus), кампилобактер (Campylobacter spp.), Клостридиальный энтеротоксин (Clostridium perfringens)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Профили FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. foetus Campylobacter spp. Clostridium perfringens FPV FCoV Toxoplasma gondii Giardia spp. Cryptosporidium spp. foetus Campylobacter spp. Clostridium perfringens ОБС ОБС фекалии кошка Контейнер для кала с ложечкой +2°С…+8°С Антиген Antigen Бактерии Bacteria Кальций Ca (Calcium) Хлор Cl (Chloride) Моноциты Monocytes Моноциты MON (Monocytes) Нейтрофилы Neutrophils Натрий Na (Sodium) Оксалаты Oxalates Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Паразитарный профиль при хронической диарее (гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus)) Паразитарный профиль при хронической диарее (гиардиа (Giardia spp.), криптоспоридии (Cryptosporidium spp.), трихомонада (тritrichomonas blagburni (foetus)) ПЦР-диагностика ПЦР-диагностика терапия гастроэнтерология инфекции Профили Giardia spp. Cryptosporidium spp. foetus Giardia spp. Cryptosporidium spp. foetus ОБС ОБС фекалии кошка Контейнер для кала с ложечкой +2°С…+8°С Антиген Antigen Моноциты Monocytes Моноциты MON (Monocytes) Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Исследование на дерматомикозы (обнаружение Microsporum canis, Microsporum gypseum, Malassezia pachydermatis, Trichophyton spp) Исследование на дерматомикозы (обнаружение Microsporum canis, Microsporum gypseum, Malassezia pachydermatis, Trichophyton spp) ПЦР-диагностика ПЦР-диагностика терапия инфекции дерматология Профили обнаружение Microsporum canis, Microsporum gypseum, Malassezia pachydermatis, Trichophyton spp обнаружение Microsporum canis, Microsporum gypseum, Malassezia pachydermatis, Trichophyton spp ОБС ОБС шерсть собака кошка лошадь хорьки грызуны кролики Пробирка с белой крышкой +2°С…+8°С Кальций Ca (Calcium) Минимальная ингибирующая конц-ция Minimum inhibitory concentration Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Австралийская овчарка  (аусси). Аномалия глаз колли (CEA),  Дегенеративная миелопатия (DM Ex2), Наследственная катаракта (HC), Нейрональный цероидный липофусциноз 6-го типа (NCL6), Прогрессирующая атрофия сетчатки PRA-prcd, Чувствительность к лекарственным препаратам (MDR 1) Австралийская овчарка  (аусси). Аномалия глаз колли (CEA),  Дегенеративная миелопатия (DM Ex2), Наследственная катаракта (HC), Нейрональный цероидный липофусциноз 6-го типа (NCL6), Прогрессирующая атрофия сетчатки PRA-prcd, Чувствительность к лекарственным препаратам (MDR 1) Генетика Генетика генетика Профили аусси CEA DM Ex2 HC NCL6 MDR 1 аусси CEA DM Ex2 HC NCL6 MDR 1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Хлор Cl (Chloride) Нейтрофилы Neutrophils Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Австралийская пастушья собака  (хилер). Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd, Чувствительность к лекарственным препаратам (MDR 1) Австралийская пастушья собака  (хилер). Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd, Чувствительность к лекарственным препаратам (MDR 1) Генетика Генетика генетика Профили хилер PLL MDR 1 хилер PLL MDR 1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Аспартатаминотрансфераза AST Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Австралийская пастушья собака (хилер) расширенный. Нейрональный цероидный липофусциноз 5-го типа (NCL5), Наследственный цероидный липофусциноз австралийской пастушьей собаки 12-го типа (NCL12 АС), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd, Цистинурия 2A типа (CYST2A), Цистинурия 2B типа (CYST2B), Чувствительность к лекарственным препаратам (MDR 1) Австралийская пастушья собака (хилер) расширенный. Нейрональный цероидный липофусциноз 5-го типа (NCL5), Наследственный цероидный липофусциноз австралийской пастушьей собаки 12-го типа (NCL12 АС), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd, Цистинурия 2A типа (CYST2A), Цистинурия 2B типа (CYST2B), Чувствительность к лекарственным препаратам (MDR 1) Генетика Генетика генетика Профили хилер NCL5 NCL12 АС PLL CYST2A CYST2B MDR 1 хилер NCL5 NCL12 АС PLL CYST2A CYST2B MDR 1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Аспартатаминотрансфераза AST Кластеры дифференцировки Cluster of differentiation Хлор Cl (Chloride) Цистиновые кристаллы Cystine crystals Нейтрофилы Neutrophils Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Аляскинский маламут. Первичная цилиарная дискинезия (PCD AM) Аляскинских маламутов, Ранняя прогрессирующая полинейропатия маламутов (AMPN) Аляскинский маламут. Первичная цилиарная дискинезия (PCD AM) Аляскинских маламутов, Ранняя прогрессирующая полинейропатия маламутов (AMPN) Генетика Генетика генетика Профили PCD AM AMPN PCD AM AMPN ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Американский булли. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Нейрональный цероидный липофусциноз 4A типа (NCL IVA) Американский булли. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Нейрональный цероидный липофусциноз 4A типа (NCL IVA) Генетика Генетика генетика Профили HUU DM Ex2 NCL IVA HUU DM Ex2 NCL IVA ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Американский булли расширенный. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2),Нейрональный цероидный липофусциноз 4A типа (NCL IVA), Наследственая катаракта (HC), Прогрессирующая атрофия PRA- cord1 Американский булли расширенный. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2),Нейрональный цероидный липофусциноз 4A типа (NCL IVA), Наследственая катаракта (HC), Прогрессирующая атрофия PRA- cord1 Генетика Генетика генетика Профили HUU DM Ex2 NCL IVA HC HUU DM Ex2 NCL IVA HC ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Кортизол Cortisol Нейтрофилы Neutrophils Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Американский питбультерьер.   Гиперурикозурия (HUU),Нейрональный цероидный липофусциноз 4A типа (NCL IVA)), Прогресирующая атрофия сетчатки PRA-crd2 Американский питбультерьер.   Гиперурикозурия (HUU),Нейрональный цероидный липофусциноз 4A типа (NCL IVA)), Прогресирующая атрофия сетчатки PRA-crd2 Генетика Генетика генетика Профили HUU NCL IVA HUU NCL IVA ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Американский стаффордширский терьер. Гиперурикозурия (HUU), Нейрональный цероидный липофусциноз 4A типа (NCL IVA), Прогресирующая атрофия сетчатки PRA-crd1 Американский стаффордширский терьер. Гиперурикозурия (HUU), Нейрональный цероидный липофусциноз 4A типа (NCL IVA), Прогресирующая атрофия сетчатки PRA-crd1 Генетика Генетика генетика Профили HUU NCL IVA HUU NCL IVA ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Английский бульдог. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Мультифокальная ретинопатия (CMR 1) Английский бульдог. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Мультифокальная ретинопатия (CMR 1) Генетика Генетика генетика Профили HUU DM Ex2 CMR 1 HUU DM Ex2 CMR 1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Ретикулоциты Reticulocytes</t>
+  </si>
+  <si>
+    <t>Английский кокер спаниель. Cемейная нефропатия английских кокер спаниелей (FN), Прогрессирующая атрофия сетчатки PRA-prcd Английский кокер спаниель. Cемейная нефропатия английских кокер спаниелей (FN), Прогрессирующая атрофия сетчатки PRA-prcd Генетика Генетика генетика Профили FN FN ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Нейтрофилы Neutrophils Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Басенджи. Прогрессирующая атрофия сетчатки басенджи (bas-PRA), Синдром Фанкони (FBS) Басенджи. Прогрессирующая атрофия сетчатки басенджи (bas-PRA), Синдром Фанкони (FBS) Генетика Генетика генетика Профили bas-PRA FBS bas-PRA FBS ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Базофилы Basophils Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Басенджи расширенный. Локус А (агути), Прогрессирующая атрофия сетчатки басенджи (bas-PRA), Синдром Фанкони (FBS) Басенджи расширенный. Локус А (агути), Прогрессирующая атрофия сетчатки басенджи (bas-PRA), Синдром Фанкони (FBS) Генетика Генетика генетика Профили агути bas-PRA FBS агути bas-PRA FBS ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Базофилы Basophils Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Бассет хаунд. Болезнь Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Тяжелый комбинированный иммунодефицит, сцепленный с Х-хромосомой (X-SCID), Хондродисплазия (CDPA), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Бассет хаунд. Болезнь Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Тяжелый комбинированный иммунодефицит, сцепленный с Х-хромосомой (X-SCID), Хондродисплазия (CDPA), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Генетика Генетика генетика Профили vWD type I DM Ex2 X-SCID CDPA CDDY, IVDD vWD type I DM Ex2 X-SCID CDPA CDDY, IVDD ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Бернский зенненхунд.  Дегенеративная миелопатия (DM Ex1-Ex2),  Болезнь фон Виллебранда 1-го типа Бернский зенненхунд.  Дегенеративная миелопатия (DM Ex1-Ex2),  Болезнь фон Виллебранда 1-го типа Генетика Генетика генетика Профили DM Ex1-Ex2 DM Ex1-Ex2 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Бигль. Гипокаталазия, акаталазия (CAT), Мальабсорбция кишечного кобаламина, Синдром Имерслунд-Гресбека биглей (IGS B, ICM B), Мозжечковая абиотрофия (NCCD), Недостаточность фактора VII (FVIID), Синдром Мусладина-Люка / Синдром китайского бигля (MLS) Бигль. Гипокаталазия, акаталазия (CAT), Мальабсорбция кишечного кобаламина, Синдром Имерслунд-Гресбека биглей (IGS B, ICM B), Мозжечковая абиотрофия (NCCD), Недостаточность фактора VII (FVIID), Синдром Мусладина-Люка / Синдром китайского бигля (MLS) Генетика Генетика генетика Профили CAT IGS B, ICM B NCCD FVIID MLS CAT IGS B, ICM B NCCD FVIID MLS ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кальций Ca (Calcium) Кластеры дифференцировки Cluster of differentiation Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Бигль расширенный. Гипокаталазия, акаталазия (CAT), Мальабсорбция кишечного кобаламина, синдром Имерслунд-Гресбека биглей (IGS B, ICM B), Мозжечковая абиотрофия (NCCD), Недостаточность фактора VII (FVIID), Несовершенный остеогенез биглей (OI b), Синдром Мусладина-Люка / Синдром китайского бигля (MLS) Бигль расширенный. Гипокаталазия, акаталазия (CAT), Мальабсорбция кишечного кобаламина, синдром Имерслунд-Гресбека биглей (IGS B, ICM B), Мозжечковая абиотрофия (NCCD), Недостаточность фактора VII (FVIID), Несовершенный остеогенез биглей (OI b), Синдром Мусладина-Люка / Синдром китайского бигля (MLS) Генетика Генетика генетика Профили CAT IGS B, ICM B NCCD FVIID OI b MLS CAT IGS B, ICM B NCCD FVIID OI b MLS ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кальций Ca (Calcium) Кластеры дифференцировки Cluster of differentiation Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Большой Швейцарский Зенненхунд. Болезнь фон Виллебранда I типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Длина шерсти Большой Швейцарский Зенненхунд. Болезнь фон Виллебранда I типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Длина шерсти Генетика Генетика генетика Профили vWD type I DM Ex2 vWD type I DM Ex2 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Бордер колли. Аномалия глаз колли (CEA), Нейрональный цероидный липофусциноз 5-го типа (NCL5), Сенсорная невропатия (SN), Синдром захваченных нейтрофилов (TNS), Чувствительность к медикаментам (MDR 1) Бордер колли. Аномалия глаз колли (CEA), Нейрональный цероидный липофусциноз 5-го типа (NCL5), Сенсорная невропатия (SN), Синдром захваченных нейтрофилов (TNS), Чувствительность к медикаментам (MDR 1) Генетика Генетика генетика Профили CEA NCL5 SN TNS MDR 1 CEA NCL5 SN TNS MDR 1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Бордер колли расширенный. Аномалия глаз колли (CEA), Гониодисгенез и глаукома бордер колли (GGD), Зубная гипоминерализация / Синдром Райна (RS BC), Мальабсорбция кишечного кобаламина, синдром Имерслунд-Гресбека бордер колли (IGS BC, ICM BC), Нейрональный цероидный липофусциноз 5-го типа (NCL5), Сенсорная невропатия (SN), Синдром захваченных нейтрофилов (TNS), Чувствительность к медикаментам (MDR 1) Бордер колли расширенный. Аномалия глаз колли (CEA), Гониодисгенез и глаукома бордер колли (GGD), Зубная гипоминерализация / Синдром Райна (RS BC), Мальабсорбция кишечного кобаламина, синдром Имерслунд-Гресбека бордер колли (IGS BC, ICM BC), Нейрональный цероидный липофусциноз 5-го типа (NCL5), Сенсорная невропатия (SN), Синдром захваченных нейтрофилов (TNS), Чувствительность к медикаментам (MDR 1) Генетика Генетика генетика Профили CEA GGD RS BC IGS BC, ICM BC NCL5 SN TNS MDR 1 CEA GGD RS BC IGS BC, ICM BC NCL5 SN TNS MDR 1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Бультерьер. Летальный акродерматит бультерьеров (LAD), Паралич гортани бультерьеров  (LP), Поликистоз почек бультерьеров (BTPKD) Бультерьер. Летальный акродерматит бультерьеров (LAD), Паралич гортани бультерьеров  (LP), Поликистоз почек бультерьеров (BTPKD) Генетика Генетика генетика Профили LAD LP BTPKD LAD LP BTPKD ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium) Фосфор P (Phosphorus) Общий белок Total Protein</t>
+  </si>
+  <si>
+    <t>Бурбуль. Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Злокачественная гипертермия (MH), Мультифокальная ретинопатия CMR 1),Чувствительность к лекарственным препаратам (MDR 1) Бурбуль. Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Злокачественная гипертермия (MH), Мультифокальная ретинопатия CMR 1),Чувствительность к лекарственным препаратам (MDR 1) Генетика Генетика генетика Профили DM Ex2 MH MDR 1 DM Ex2 MH MDR 1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Ретикулоциты Reticulocytes</t>
+  </si>
+  <si>
+    <t>Вельш корги кардиган / пемброк расширенный.  Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки rcd3-PRA, Болезнь Виллебранда1-го типа,  Длина шерсти Вельш корги кардиган / пемброк расширенный.  Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки rcd3-PRA, Болезнь Виллебранда1-го типа,  Длина шерсти Генетика Генетика генетика Профили DM Ex2 DM Ex2 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Вельш корги кардиган / пемброк. Болезнь Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Длина шерсти Вельш корги кардиган / пемброк. Болезнь Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Длина шерсти Генетика Генетика генетика Профили vWD type I DM Ex2 vWD type I DM Ex2 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Венгерская выжла.  Длина шерсти, Дегенерация коры мозжечка новорожденных / Мозжечковая абиотрофия (NCCD V) Венгерская выжла.  Длина шерсти, Дегенерация коры мозжечка новорожденных / Мозжечковая абиотрофия (NCCD V) Генетика Генетика генетика Профили NCCD V NCCD V ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Нейтрофилы Neutrophils</t>
+  </si>
+  <si>
+    <t>Вест хайленд уайт терьер. Глобоидно-клеточная лейкодистрофия (Болезнь Краббе, GLD), Дефицит пируваткиназы (PKdef), Краниомандибулярная остеопатия (CMO) Вест хайленд уайт терьер. Глобоидно-клеточная лейкодистрофия (Болезнь Краббе, GLD), Дефицит пируваткиназы (PKdef), Краниомандибулярная остеопатия (CMO) Генетика Генетика генетика Профили Болезнь Краббе, GLD PKdef CMO Болезнь Краббе, GLD PKdef CMO ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium) Моноциты Monocytes Фосфор P (Phosphorus) Глобулины Globulins</t>
+  </si>
+  <si>
+    <t>Восточноевропейская овчарка/Белая швейцарская овчарка/Немецкая овчарка.    Дегенеративная миелопатия (DM Ex2), Злокачественная гипертермия (MH), Чувствительность к лекарственным препаратам (MDR 1) Восточноевропейская овчарка/Белая швейцарская овчарка/Немецкая овчарка.    Дегенеративная миелопатия (DM Ex2), Злокачественная гипертермия (MH), Чувствительность к лекарственным препаратам (MDR 1) Генетика Генетика генетика Профили DM Ex2 MH MDR 1 DM Ex2 MH MDR 1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Голден ретривер. Ихтиоз голден ретриверов (ICT-A), Прогрессирующая атрофия сетчатки GR-PRA1, Прогрессирующая атрофия сетчатки GR-PRA2 Голден ретривер. Ихтиоз голден ретриверов (ICT-A), Прогрессирующая атрофия сетчатки GR-PRA1, Прогрессирующая атрофия сетчатки GR-PRA2 Генетика Генетика генетика Профили ICT-A ICT-A ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Голден ретривер (расширенный). Ихтиоз голден ретриверов (ICT-A), Нейрональный цероидный липофусциноз голден ретриверов 5-го типа (NCL5GR), Прогрессирующая атрофия сетчатки GR-PRA1, Прогрессирующая атрофия сетчатки  GR-PRA2, Сенсорная атактическая нейропатия (SAN) Голден ретривер (расширенный). Ихтиоз голден ретриверов (ICT-A), Нейрональный цероидный липофусциноз голден ретриверов 5-го типа (NCL5GR), Прогрессирующая атрофия сетчатки GR-PRA1, Прогрессирующая атрофия сетчатки  GR-PRA2, Сенсорная атактическая нейропатия (SAN) Генетика Генетика генетика Профили расширенный ICT-A NCL5GR SAN расширенный ICT-A NCL5GR SAN ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Джек Рассел/Парсон Рассел Терьер.  Спиноцеребеллярная атаксия с миокимией и/или судорогам (SCA), Поздняя мозжечковая атаксия (LOA) Джек Рассел/Парсон Рассел Терьер.  Спиноцеребеллярная атаксия с миокимией и/или судорогам (SCA), Поздняя мозжечковая атаксия (LOA) Генетика Генетика генетика Профили SCA LOA SCA LOA ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кальций Ca (Calcium)</t>
+  </si>
+  <si>
+    <t>Джек Рассел/Парсон Рассел Терьер  расширенный. Первичный вывих хрусталика (PLL), Поздняя мозжечковая атаксия (LOA), Спиноцеребеллярная атаксия с миокимией и/или судорогам (SCA) Джек Рассел/Парсон Рассел Терьер  расширенный. Первичный вывих хрусталика (PLL), Поздняя мозжечковая атаксия (LOA), Спиноцеребеллярная атаксия с миокимией и/или судорогам (SCA) Генетика Генетика генетика Профили PLL LOA SCA PLL LOA SCA ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кальций Ca (Calcium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Доберман. Болезнь фон Виллебранда I-го типа (vWD type I), Нарколепсия доберманов (NARC_dob) Доберман. Болезнь фон Виллебранда I-го типа (vWD type I), Нарколепсия доберманов (NARC_dob) Генетика Генетика генетика Профили vWD type I NARC_dob vWD type I NARC_dob ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Доберман. Болезнь фон Виллебранда I-го типа (vWD type I), Дилатационная кардиомиопатия (DCM_dob), Нарколепсия доберманов (NARC_dob) Доберман. Болезнь фон Виллебранда I-го типа (vWD type I), Дилатационная кардиомиопатия (DCM_dob), Нарколепсия доберманов (NARC_dob) Генетика Генетика генетика Профили vWD type I DCM_dob NARC_dob vWD type I DCM_dob NARC_dob ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Дратхаар. Болезнь Фон Виллебранда II-го типа (vWD type II), Длина шерсти на морде, KB (доминантный черный) Дратхаар. Болезнь Фон Виллебранда II-го типа (vWD type II), Длина шерсти на морде, KB (доминантный черный) Генетика Генетика генетика Профили vWD type II доминантный черный vWD type II доминантный черный ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium) Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Ирландский волкодав.  Дилатационная кардиомиопатия ирландских волкодавов (DCM_iw), Длина шерсти Ирландский волкодав.  Дилатационная кардиомиопатия ирландских волкодавов (DCM_iw), Длина шерсти Генетика Генетика генетика Профили DCM_iw DCM_iw ОБС ОБС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ирландский мягкошёрстный пшеничный терьер. Микрофтальмия (RBP4), Нефропатия с потерей белка (PLN) Ирландский мягкошёрстный пшеничный терьер. Микрофтальмия (RBP4), Нефропатия с потерей белка (PLN) Генетика Генетика генетика Профили RBP4 PLN RBP4 PLN ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Йоркширский терьер.  Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd Йоркширский терьер.  Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd Генетика Генетика генетика Профили DM Ex2 PLL DM Ex2 PLL ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Кавалер кинг чарльз спаниель.  Синдром эпизодического падения (EFS), Синдром сухого глаза и курчавошерстности (CKCID) Кавалер кинг чарльз спаниель.  Синдром эпизодического падения (EFS), Синдром сухого глаза и курчавошерстности (CKCID) Генетика Генетика генетика Профили EFS CKCID EFS CKCID ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium)</t>
+  </si>
+  <si>
+    <t>Кавалер кинг чарльз спаниель  (расширенный). Дегенеративная миелопатия (DM Ex2), Мышечная дистрофия кавалер кинг чарльз спаниэлей (DMD-CKCS), Синдром эпизодического падения (EFS), Синдром сухого глаза и курчавошерстности (CKCID) Кавалер кинг чарльз спаниель  (расширенный). Дегенеративная миелопатия (DM Ex2), Мышечная дистрофия кавалер кинг чарльз спаниэлей (DMD-CKCS), Синдром эпизодического падения (EFS), Синдром сухого глаза и курчавошерстности (CKCID) Генетика Генетика генетика Профили расширенный DM Ex2 DMD-CKCS EFS CKCID расширенный DM Ex2 DMD-CKCS EFS CKCID ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium)</t>
+  </si>
+  <si>
+    <t>Кане-Корсо.  Аномалия скелета, зубов и сетчатки системная (DSRA), Мультифокальная ретинопатия (CMR1), Нейрональный цероидный липофусциноз 1-го типа (NCL1) Кане-Корсо.  Аномалия скелета, зубов и сетчатки системная (DSRA), Мультифокальная ретинопатия (CMR1), Нейрональный цероидный липофусциноз 1-го типа (NCL1) Генетика Генетика генетика Профили DSRA CMR1 NCL1 DSRA CMR1 NCL1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Хлор Cl (Chloride) Нейтрофилы Neutrophils Ретикулоциты Reticulocytes</t>
+  </si>
+  <si>
+    <t>Керри-блю терьер. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2) Керри-блю терьер. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2) Генетика Генетика генетика Профили vWD type I DM Ex2 vWD type I DM Ex2 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Кинг чарльз спаниель. Дегенеративная миелопатия (DM Ex2), Синдром эпизодического падения (EFS) Кинг чарльз спаниель. Дегенеративная миелопатия (DM Ex2), Синдром эпизодического падения (EFS) Генетика Генетика генетика Профили DM Ex2 EFS DM Ex2 EFS ОБС ОБС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Китайская хохлатая.  Дегенеративная миелопатия (DM Ex2), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd Китайская хохлатая.  Дегенеративная миелопатия (DM Ex2), Первичный вывих хрусталика (PLL), Прогрессирующая атрофия сетчатки PRA-prcd Генетика Генетика генетика Профили DM Ex2 PLL DM Ex2 PLL ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Кламбер спаниель. Дегенеративная миелопатия Экзон 2 (DM Ex2), Дефицит пируватдегидрогеназы (PDP1), Коллапс, вызываемый физическими нагрузками (EIC), Прогрессирующая атрофия сетчатки (PRA-cord1) Кламбер спаниель. Дегенеративная миелопатия Экзон 2 (DM Ex2), Дефицит пируватдегидрогеназы (PDP1), Коллапс, вызываемый физическими нагрузками (EIC), Прогрессирующая атрофия сетчатки (PRA-cord1) Генетика Генетика генетика Профили DM Ex2 PDP1 EIC PRA-cord1 DM Ex2 PDP1 EIC PRA-cord1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кортизол Cortisol Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Кокер спаниель.   Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Недостаточность фосфофруктокиназы, Прогрессирующая атрофия сетчатки PRA-prcd Кокер спаниель.   Гиперурикозурия, Дегенеративная миелопатия (DM Ex2), Недостаточность фосфофруктокиназы, Прогрессирующая атрофия сетчатки PRA-prcd Генетика Генетика генетика Профили DM Ex2 DM Ex2 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Колли/Шелти.  Дегенеративная миелопатия (DM Ex2), Аномалия глаз колли (CEA), Чувствительность к лекарственным препаратам (MDR 1) Колли/Шелти.  Дегенеративная миелопатия (DM Ex2), Аномалия глаз колли (CEA), Чувствительность к лекарственным препаратам (MDR 1) Генетика Генетика генетика Профили DM Ex2 CEA MDR 1 DM Ex2 CEA MDR 1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Котон де тулеар. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия Экзон 2 (DM Ex2), Мультифокальная ретинопатия 2 типа (CMR2), Прогрессирующая атрофия сетчатки (PRA-prcd), Хондродисплазия (CDPA), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Котон де тулеар. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия Экзон 2 (DM Ex2), Мультифокальная ретинопатия 2 типа (CMR2), Прогрессирующая атрофия сетчатки (PRA-prcd), Хондродисплазия (CDPA), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Генетика Генетика генетика Профили vWD type I DM Ex2 CMR2 PRA-prcd CDPA CDDY, IVDD vWD type I DM Ex2 CMR2 PRA-prcd CDPA CDDY, IVDD ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin Рениновая активность Plasma Renin Activity Ретикулоциты Reticulocytes</t>
+  </si>
+  <si>
+    <t>Курчавошерстный ретривер. Гликогеноз IIIa, Коллапс, вызываемый физическими нагрузками (EIC), Прогрессирующая атрофия сетчатки PRA-cord1 Курчавошерстный ретривер. Гликогеноз IIIa, Коллапс, вызываемый физическими нагрузками (EIC), Прогрессирующая атрофия сетчатки PRA-cord1 Генетика Генетика генетика Профили EIC EIC ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кортизол Cortisol Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Лабрадор ретривер.  Коллапс, вызываемый физическими нагрузками (EIC), Наследственный носовой паракератоз ретриверов (HNPK), Прогрессирующая атрофия сетчатки PRA-prcd, Центроядерная миопатия (CNM) Лабрадор ретривер.  Коллапс, вызываемый физическими нагрузками (EIC), Наследственный носовой паракератоз ретриверов (HNPK), Прогрессирующая атрофия сетчатки PRA-prcd, Центроядерная миопатия (CNM) Генетика Генетика генетика Профили EIC HNPK CNM EIC HNPK CNM ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Калий K (Potassium) Нейтрофилы Neutrophils Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Лабрадор ретривер расширенный. Ахроматопсия (дневная слепота, ACHM), Дефицит пируваткиназы (PKdef), Коллапс, вызываемый физическими нагрузками (EIC), Миотубулярная миопатия (MTM1, XL-MTM), Нарколепсия лабрадоров (NARC-lab), Наследственный носовой паракератоз ретриверов (HNPK), Предрасположенность к ожирению (POMC / ADI), Прогрессирующая атрофия сетчатки (PRA-prcd), Скелетная дисплазия 2 (SD2), Центроядерная миопатия (CNM) Лабрадор ретривер расширенный. Ахроматопсия (дневная слепота, ACHM), Дефицит пируваткиназы (PKdef), Коллапс, вызываемый физическими нагрузками (EIC), Миотубулярная миопатия (MTM1, XL-MTM), Нарколепсия лабрадоров (NARC-lab), Наследственный носовой паракератоз ретриверов (HNPK), Предрасположенность к ожирению (POMC / ADI), Прогрессирующая атрофия сетчатки (PRA-prcd), Скелетная дисплазия 2 (SD2), Центроядерная миопатия (CNM) Генетика Генетика генетика Профили дневная слепота, ACHM PKdef EIC MTM1, XL-MTM NARC-lab HNPK POMC / ADI PRA-prcd SD2 CNM дневная слепота, ACHM PKdef EIC MTM1, XL-MTM NARC-lab HNPK POMC / ADI PRA-prcd SD2 CNM ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Антитело Antibody Кластеры дифференцировки Cluster of differentiation Калий K (Potassium) Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Леонбергер. Лейкоэнцефаломиелопатия (LEMP), Наследственная полинейропатия леонбергеров 1 (LPN1), Наследственная полинейропатия леонбергеров 2 (LPN2) Леонбергер. Лейкоэнцефаломиелопатия (LEMP), Наследственная полинейропатия леонбергеров 1 (LPN1), Наследственная полинейропатия леонбергеров 2 (LPN2) Генетика Генетика генетика Профили LEMP LPN1 LPN2 LEMP LPN1 LPN2 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Миниатюрный бультерьер. Первичный вывих хрусталика (PLL), Поликистоз почек бультерьеров Миниатюрный бультерьер. Первичный вывих хрусталика (PLL), Поликистоз почек бультерьеров Генетика Генетика генетика Профили PLL PLL ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Миттельшнауцер. Гиперурикозурия (HUU), Дилатационная кардиомиопатия шнауцеров (DCMS), Наследственная миотония (MC) Миттельшнауцер. Гиперурикозурия (HUU), Дилатационная кардиомиопатия шнауцеров (DCMS), Наследственная миотония (MC) Генетика Генетика генетика Профили HUU DCMS MC HUU DCMS MC ОБС ОБС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Мопс. Дегенеративная миелопатия (DM Ex2), Наследственный энцефалит мопсов (NME), Первичный вывих хрусталика (PLL) Мопс. Дегенеративная миелопатия (DM Ex2), Наследственный энцефалит мопсов (NME), Первичный вывих хрусталика (PLL) Генетика Генетика генетика Профили DM Ex2 NME PLL DM Ex2 NME PLL ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Ньюфаундленд. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Цистинурия Ньюфаундленд. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Цистинурия Генетика Генетика генетика Профили HUU DM Ex2 HUU DM Ex2 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Папийон/Фален.  Болезнь фон Виллебранда I-го типа (vWD type I), Нейроксальная дистрофия (NAD), Прогрессирующая атрофия сетчатки папильонов и фаленов pap-PRA Папийон/Фален.  Болезнь фон Виллебранда I-го типа (vWD type I), Нейроксальная дистрофия (NAD), Прогрессирующая атрофия сетчатки папильонов и фаленов pap-PRA Генетика Генетика генетика Профили vWD type I NAD vWD type I NAD ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Пинчеры. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2) Пинчеры. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2) Генетика Генетика генетика Профили vWD type I DM Ex2 vWD type I DM Ex2 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Пудель общий. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (PRA-prcd) Пудель общий. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (PRA-prcd) Генетика Генетика генетика Профили vWD type I DM Ex2 PRA-prcd vWD type I DM Ex2 PRA-prcd ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Пудель большой (королевский, стандартный) расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Неонатальная энцефалопатия с судорогами (NEWS), Прогрессирующая атрофия сетчатки (PRA-prcd), Прогрессирующая атрофия сетчатки (PRA-rcd4) Пудель большой (королевский, стандартный) расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Неонатальная энцефалопатия с судорогами (NEWS), Прогрессирующая атрофия сетчатки (PRA-prcd), Прогрессирующая атрофия сетчатки (PRA-rcd4) Генетика Генетика генетика Профили королевский, стандартный vWD type I DM Ex2 NEWS PRA-prcd PRA-rcd4 королевский, стандартный vWD type I DM Ex2 NEWS PRA-prcd PRA-rcd4 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Нейтрофилы Neutrophils Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Пудель средний (малый), миниатюрный (карликовый), той расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (PRA-prcd), Прогрессирующая атрофия сетчатки (PRA-rcd4), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Пудель средний (малый), миниатюрный (карликовый), той расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (PRA-prcd), Прогрессирующая атрофия сетчатки (PRA-rcd4), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Генетика Генетика генетика Профили малый карликовый vWD type I DM Ex2 PRA-prcd PRA-rcd4 CDDY, IVDD малый карликовый vWD type I DM Ex2 PRA-prcd PRA-rcd4 CDDY, IVDD ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Ризеншнауцер. Гиперурикозурия (HUU), Дилатационная кардиомиопатия шнауцеров (DCMS), Недостаточность фактора VII (FVIID), Прогрессирующая атрофия сетчатки (PRA-prcd) Ризеншнауцер. Гиперурикозурия (HUU), Дилатационная кардиомиопатия шнауцеров (DCMS), Недостаточность фактора VII (FVIID), Прогрессирующая атрофия сетчатки (PRA-prcd) Генетика Генетика генетика Профили HUU DCMS FVIID PRA-prcd HUU DCMS FVIID PRA-prcd ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Родезийский риджбек. Дегенеративная миелопатия (DM Ex2), Ювенильная миоклоническая эпилепсия Родезийский риджбек. Дегенеративная миелопатия (DM Ex2), Ювенильная миоклоническая эпилепсия Генетика Генетика генетика Профили DM Ex2 DM Ex2 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Родезийский риджбек расширенный. Дегенеративная миелопатия (DM Ex2),, Осветление окраса собак, Ювенильная миоклоническая эпилепсия Родезийский риджбек расширенный. Дегенеративная миелопатия (DM Ex2),, Осветление окраса собак, Ювенильная миоклоническая эпилепсия Генетика Генетика генетика Профили DM Ex2 DM Ex2 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ротвейлер. Дегенеративная миелопатия (DM Ex2), Полинейропатия (JLPP) Ротвейлер. Дегенеративная миелопатия (DM Ex2), Полинейропатия (JLPP) Генетика Генетика генетика Профили DM Ex2 JLPP DM Ex2 JLPP ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Ротвейлер расширенный.  Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Лейкоэнцефаломиелопатия немецких догов и ротвейлеров (LEMP R), Нейроаксональная дистрофия ротвейлеров (NAD R), Ювенильный паралич гортани / Полинейропатия (JLPP) Ротвейлер расширенный.  Болезнь фон Виллебранда I-го типа (vWD type I), Дегенеративная миелопатия (DM Ex2), Лейкоэнцефаломиелопатия немецких догов и ротвейлеров (LEMP R), Нейроаксональная дистрофия ротвейлеров (NAD R), Ювенильный паралич гортани / Полинейропатия (JLPP) Генетика Генетика генетика Профили vWD type I DM Ex2 LEMP R NAD R JLPP vWD type I DM Ex2 LEMP R NAD R JLPP ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Натрий Na (Sodium) Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin Общий анализ крови CBC</t>
+  </si>
+  <si>
+    <t>Русский черный терьер.  Гиперурикозурия (HUU), Ювенильный паралич гортани/Полинейропатия Русский черный терьер.  Гиперурикозурия (HUU), Ювенильный паралич гортани/Полинейропатия Генетика Генетика генетика Профили HUU HUU ОБС ОБС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Русский черный терьер (расширенный).  Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Ювенильный паралич гортани/Полинейропатия Русский черный терьер (расширенный).  Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Ювенильный паралич гортани/Полинейропатия Генетика Генетика генетика Профили расширенный HUU DM Ex2 расширенный HUU DM Ex2 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Самоедская собака. Дегенеративная миелопатия (DM Ex2), Наследственный нефрит (HN), Несовершенный амелогенез, Наследственная гипоплазия эмали самоеда (ARAIS), Прогрессирующая атрофия сетчатки XL-PRA1 (XL-PRA1), Чувствительность к лекарственным препаратам (MDR 1) Самоедская собака. Дегенеративная миелопатия (DM Ex2), Наследственный нефрит (HN), Несовершенный амелогенез, Наследственная гипоплазия эмали самоеда (ARAIS), Прогрессирующая атрофия сетчатки XL-PRA1 (XL-PRA1), Чувствительность к лекарственным препаратам (MDR 1) Генетика Генетика генетика Профили DM Ex2 HN ARAIS XL-PRA1 MDR 1 DM Ex2 HN ARAIS XL-PRA1 MDR 1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Нейтрофилы Neutrophils Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Сиба-ину. Ганглиозидоз GM1, Ганглиозидоз GM2 Сиба-ину. Ганглиозидоз GM1, Ганглиозидоз GM2 Генетика Генетика генетика Профили ОБС ОБС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Сибирский хаски. Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки XL-PRA1, Чувствительность к лекарственным препаратам (MDR 1) Сибирский хаски. Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки XL-PRA1, Чувствительность к лекарственным препаратам (MDR 1) Генетика Генетика генетика Профили DM Ex2 MDR 1 DM Ex2 MDR 1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Спрингер спаниель.  Прогрессирующая атрофия сетчатки PRA-cord1, Дегенеративная миелопатия (DM Ex2), Гиперурикозурия, Недостаточность фосфофруктокиназы PFK) Спрингер спаниель.  Прогрессирующая атрофия сетчатки PRA-cord1, Дегенеративная миелопатия (DM Ex2), Гиперурикозурия, Недостаточность фосфофруктокиназы PFK) Генетика Генетика генетика Профили DM Ex2 DM Ex2 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кортизол Cortisol Калий K (Potassium) Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Староанглийская овчарка (бобтейл).  Первичная цилиарная дискенезия (PCD), Чувствительность к лекарственным препаратам (MDR 1) Староанглийская овчарка (бобтейл).  Первичная цилиарная дискенезия (PCD), Чувствительность к лекарственным препаратам (MDR 1) Генетика Генетика генетика Профили бобтейл PCD MDR 1 бобтейл PCD MDR 1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Староанглийская овчарка (бобтейл) (расширенный). Первичная цилиарная дискенезия (PCD), Коллапс, вызываемый физическими нагрузками (EIC), Чувствительность к лекарственным препаратам (MDR 1) Староанглийская овчарка (бобтейл) (расширенный). Первичная цилиарная дискенезия (PCD), Коллапс, вызываемый физическими нагрузками (EIC), Чувствительность к лекарственным препаратам (MDR 1) Генетика Генетика генетика Профили бобтейл расширенный PCD EIC MDR 1 бобтейл расширенный PCD EIC MDR 1 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Стаффордширский бультерьер. L-2-гидроксиглутаровая ацидурия Стаффордширских бультерьеров (L2HGA), Наследственная катаракта (HSF4) Стаффордширский бультерьер. L-2-гидроксиглутаровая ацидурия Стаффордширских бультерьеров (L2HGA), Наследственная катаракта (HSF4) Генетика Генетика генетика Профили L2HGA HSF4 L2HGA HSF4 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Таксы(кроме стандартных).  Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки PRA-cord1 Таксы(кроме стандартных).  Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки PRA-cord1 Генетика Генетика генетика Профили кроме стандартных HUU DM Ex2 кроме стандартных HUU DM Ex2 ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кортизол Cortisol Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Таксы расширенный. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки PRA-cord1, Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Таксы расширенный. Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки PRA-cord1, Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Генетика Генетика генетика Профили HUU DM Ex2 CDDY, IVDD HUU DM Ex2 CDDY, IVDD ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Кортизол Cortisol Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Таксы (жесткошерстные). Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (CRD-SWD / PRA-cord2), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Таксы (жесткошерстные). Гиперурикозурия (HUU), Дегенеративная миелопатия (DM Ex2), Прогрессирующая атрофия сетчатки (CRD-SWD / PRA-cord2), Хондродистрофия с риском дегенерации межпозвоночных дисков (CDDY, IVDD) Генетика Генетика генетика Профили жесткошерстные HUU DM Ex2 CRD-SWD / PRA-cord2 CDDY, IVDD жесткошерстные HUU DM Ex2 CRD-SWD / PRA-cord2 CDDY, IVDD ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Кортизол Cortisol Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Той-фокстерьер. Врожденный гипотиреоз с зобом Terier (CHG), Первичный вывих хрусталика (PLL), Спиноцеребеллярная атаксия с миокимией и/или судорогами (SCA) Той-фокстерьер. Врожденный гипотиреоз с зобом Terier (CHG), Первичный вывих хрусталика (PLL), Спиноцеребеллярная атаксия с миокимией и/или судорогами (SCA) Генетика Генетика генетика Профили CHG PLL SCA CHG PLL SCA ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кальций Ca (Calcium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Французский бульдог.  Цистинурия бульдогов (Cys-bd), Мультифокальная ретинопатия (CMR 1), Наследственная катаракта (HC) Французский бульдог.  Цистинурия бульдогов (Cys-bd), Мультифокальная ретинопатия (CMR 1), Наследственная катаракта (HC) Генетика Генетика генетика Профили Cys-bd CMR 1 HC Cys-bd CMR 1 HC ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Цистиновые кристаллы Cystine crystals Ретикулоциты Reticulocytes</t>
+  </si>
+  <si>
+    <t>Французский бульдог (расширенный). Врожденный гипотиреоз с зобом FB (CHG), Цистинурия бульдогов (Cys-bd), Мультифокальная ретинопатия (CMR 1), Наследственная катаракта (HC) Французский бульдог (расширенный). Врожденный гипотиреоз с зобом FB (CHG), Цистинурия бульдогов (Cys-bd), Мультифокальная ретинопатия (CMR 1), Наследственная катаракта (HC) Генетика Генетика генетика Профили расширенный CHG Cys-bd CMR 1 HC расширенный CHG Cys-bd CMR 1 HC ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Цистиновые кристаллы Cystine crystals Ретикулоциты Reticulocytes</t>
+  </si>
+  <si>
+    <t>Цвергшнауцер. Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1), Спондилокостальный дизостоз (SCD), Устойчивость к микобактериозу (МАС) Цвергшнауцер. Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1), Спондилокостальный дизостоз (SCD), Устойчивость к микобактериозу (МАС) Генетика Генетика генетика Профили PRA B1 SCD МАС PRA B1 SCD МАС ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Цвергшнауцер расширенный. Болезнь Шарко-Мари-Тута (CMT), Наследственная миотония (MC), Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1), Спондилокостальный дизостоз (SCD), Устойчивость к микобактериозу (МАС) Цвергшнауцер расширенный. Болезнь Шарко-Мари-Тута (CMT), Наследственная миотония (MC), Прогрессирующая атрофия сетчатки цвергшнауцеров тип B1 (PRA B1), Спондилокостальный дизостоз (SCD), Устойчивость к микобактериозу (МАС) Генетика Генетика генетика Профили CMT MC PRA B1 SCD МАС CMT MC PRA B1 SCD МАС ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Шипперке. Локус K (доминантный черный), Мукополисахаридоз IIIB типа (MPS IIIB) Шипперке. Локус K (доминантный черный), Мукополисахаридоз IIIB типа (MPS IIIB) Генетика Генетика генетика Профили доминантный черный MPS IIIB доминантный черный MPS IIIB ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Шипперке расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Локус K (доминантный черный), Мукополисахаридоз IIIB типа (MPS IIIB) Шипперке расширенный. Болезнь фон Виллебранда I-го типа (vWD type I), Локус K (доминантный черный), Мукополисахаридоз IIIB типа (MPS IIIB) Генетика Генетика генетика Профили vWD type I доминантный черный MPS IIIB vWD type I доминантный черный MPS IIIB ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Калий K (Potassium) Фосфор P (Phosphorus) Флуорохромы Phycoerythrin/Peridinin Chlorophyll/Allophycocyanin</t>
+  </si>
+  <si>
+    <t>Шорти булл. L-2-гидроксиглутаровая ацидурия Стаффордширских бультерьеров (L2HGA), Дегенеративная миелопатия (DM Ex2), Наследственная катаракта (HC) Шорти булл. L-2-гидроксиглутаровая ацидурия Стаффордширских бультерьеров (L2HGA), Дегенеративная миелопатия (DM Ex2), Наследственная катаракта (HC) Генетика Генетика генетика Профили L2HGA DM Ex2 HC L2HGA DM Ex2 HC ОБС ОБС сухая кровь собака Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Шотландский терьер (Скотч терьер). Болезнь Виллебранда 3-го типа (vWD III), Краниомандибулярная остеопатия (CMO) Шотландский терьер (Скотч терьер). Болезнь Виллебранда 3-го типа (vWD III), Краниомандибулярная остеопатия (CMO) Генетика Генетика генетика Профили Скотч терьер vWD III CMO Скотч терьер vWD III CMO ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Моноциты Monocytes</t>
+  </si>
+  <si>
+    <t>Энтленбухер зенненхунд. Длина шерсти, Прогрессирующая атрофия сетчатки PRA-prcd Энтленбухер зенненхунд. Длина шерсти, Прогрессирующая атрофия сетчатки PRA-prcd Генетика Генетика генетика Профили ОБС ОБС сухая кровь собака Конверт +2°С…+8°С Кластеры дифференцировки Cluster of differentiation Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Абиссинская кошка / Сомали. Группа крови кошек, Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc Абиссинская кошка / Сомали. Группа крови кошек, Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc Генетика Генетика генетика Профили ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Абиссинская кошка / Сомали расширенный. Группа крови кошек, Дефицит пируваткиназы (PKDef), Прогрессирующая атрофия сетчатки rdAc (PRA-rdAc), Прогрессирующая атрофия сетчатки Rdy (PRA-Rdy) Абиссинская кошка / Сомали расширенный. Группа крови кошек, Дефицит пируваткиназы (PKDef), Прогрессирующая атрофия сетчатки rdAc (PRA-rdAc), Прогрессирующая атрофия сетчатки Rdy (PRA-Rdy) Генетика Генетика генетика Профили PKDef PRA-rdAc PRA-Rdy PKDef PRA-rdAc PRA-Rdy ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С Калий K (Potassium) Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Бенгальская кошка / Саванна. Дефицит эритроцитарной пируваткиназы (PKDef), Прогрессирующая атрофия сетчатки бенгалов (PRA-b) Бенгальская кошка / Саванна. Дефицит эритроцитарной пируваткиназы (PKDef), Прогрессирующая атрофия сетчатки бенгалов (PRA-b) Генетика Генетика генетика Профили PKDef PRA-b PKDef PRA-b ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С Калий K (Potassium) Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Британская  / Сибирская кошка / Шотландская/ Священная бирма.  Группа крови кошек, Поликистоз почек Британская  / Сибирская кошка / Шотландская/ Священная бирма.  Группа крови кошек, Поликистоз почек Генетика Генетика генетика Профили ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Британская короткошерстная /Шотландская (расширенный).  Группа крови кошек, Длина шерсти, Поликистоз почек Британская короткошерстная /Шотландская (расширенный).  Группа крови кошек, Длина шерсти, Поликистоз почек Генетика Генетика генетика Профили расширенный расширенный ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Бурманская кошка.  Ганглиозидоз бурманских кошек, Гипокалиемия бурм, Черепно-лицевая дисплазия бурм Бурманская кошка.  Ганглиозидоз бурманских кошек, Гипокалиемия бурм, Черепно-лицевая дисплазия бурм Генетика Генетика генетика Профили ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Мейн-кун. Гипертрофическая кардиомиопатия мейн кунов 1 мутация: A31P, Дефицит пируваткиназы, Спинальная мышечная атрофия Мейн-кун. Гипертрофическая кардиомиопатия мейн кунов 1 мутация: A31P, Дефицит пируваткиназы, Спинальная мышечная атрофия Генетика Генетика генетика Профили ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Мейн-кун расширенный.  Гипертрофическая кардиомиопатия мейн кунов 2 мутации: A31P, A47T(HCM), Дефицит пируваткиназы, Спинальная мышечная атрофия Мейн-кун расширенный.  Гипертрофическая кардиомиопатия мейн кунов 2 мутации: A31P, A47T(HCM), Дефицит пируваткиназы, Спинальная мышечная атрофия Генетика Генетика генетика Профили HCM HCM ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Норвежская лесная кошка. Гликогеноз IV типа (GSD IV), Дефицит эритроцитарной пируваткиназы кошек (PK def) Норвежская лесная кошка. Гликогеноз IV типа (GSD IV), Дефицит эритроцитарной пируваткиназы кошек (PK def) Генетика Генетика генетика Профили GSD IV PK def GSD IV PK def ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С Калий K (Potassium) Фосфор P (Phosphorus)</t>
+  </si>
+  <si>
+    <t>Ориентальная кошка.  Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc Ориентальная кошка.  Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc Генетика Генетика генетика Профили ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Ориентальная кошка расширенный.  Группа крови кошек, Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc Ориентальная кошка расширенный.  Группа крови кошек, Дефицит пируваткиназы, Прогрессирующая атрофия сетчатки rdAc Генетика Генетика генетика Профили ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Персидская / Экзотическая. Поликистоз почек, Прогрессирующая атрофия сетчатки персов (PRA-pd) Персидская / Экзотическая. Поликистоз почек, Прогрессирующая атрофия сетчатки персов (PRA-pd) Генетика Генетика генетика Профили PRA-pd PRA-pd ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Персидская / Экзотическая расширенный.  Группа крови кошек, Длина шерсти, Поликистоз почек, Прогрессирующая атрофия сетчатки персов (PRA-pd) Персидская / Экзотическая расширенный.  Группа крови кошек, Длина шерсти, Поликистоз почек, Прогрессирующая атрофия сетчатки персов (PRA-pd) Генетика Генетика генетика Профили PRA-pd PRA-pd ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С Фосфор P (Phosphorus) Рениновая активность Plasma Renin Activity</t>
+  </si>
+  <si>
+    <t>Рэгдолл. Гипертрофическая кардиомиопатия рэгдоллов, Поликистоз почек Рэгдолл. Гипертрофическая кардиомиопатия рэгдоллов, Поликистоз почек Генетика Генетика генетика Профили ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С</t>
+  </si>
+  <si>
+    <t>Рэгдолл расширенный. Гипертрофическая кардиомиопатия рэгдоллов, Длина шерсти, Поликистоз почек Рэгдолл расширенный. Гипертрофическая кардиомиопатия рэгдоллов, Длина шерсти, Поликистоз почек Генетика Генетика генетика Профили ОБС ОБС сухая кровь кошка Конверт +2°С…+8°С</t>
   </si>
 </sst>
 </file>
